--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBC678-091A-4FE9-A98D-73919C1436A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E377B-573E-4911-A521-06ED49AAEF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="889" firstSheet="1" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2018" sheetId="22" r:id="rId1"/>
@@ -390,7 +390,7 @@
     <author>KanORS</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000003000000}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000005000000}">
+    <comment ref="L112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="1202">
   <si>
     <t>NACE 
 (Rev 2)</t>
@@ -4596,6 +4596,15 @@
   </si>
   <si>
     <t>Share~UP~2019</t>
+  </si>
+  <si>
+    <t>SHARE-I~UP~0</t>
+  </si>
+  <si>
+    <t>Share~UP~0</t>
+  </si>
+  <si>
+    <t>I/E rule</t>
   </si>
 </sst>
 </file>
@@ -4616,10 +4625,17 @@
     <numFmt numFmtId="174" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="175" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7286,1404 +7302,1792 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="787">
+  <cellXfs count="794">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="32" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="33" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="34" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="35" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="33" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="34" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="33" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="34" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="35" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="34" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="30" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="31" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="35" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="36" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="43" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="40" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="35" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="36" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="36" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="48" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="49" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="35" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="35" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="36" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="36" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="40" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="42" fillId="26" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="43" fillId="26" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="42" fillId="26" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="43" fillId="26" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="35" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="40" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="36" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="43" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="30" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="36" fillId="30" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="35" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="40" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="36" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="40" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="36" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="35" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="35" fillId="29" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="36" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="36" fillId="29" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="39" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="39" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="39" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="40" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="40" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="40" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="36" fillId="26" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="36" fillId="29" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="26" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="29" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="26" borderId="17" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="43" fillId="26" borderId="17" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="36" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="36" fillId="36" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="30" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="30" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="41" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="41" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="35" fillId="41" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="36" fillId="41" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="41" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="41" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="35" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="7" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="7" borderId="2" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="36" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="60" fillId="21" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="36" fillId="36" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="61" fillId="21" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="44" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="35" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="38" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="38" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="36" fillId="44" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="36" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="39" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="39" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="61" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="62" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="36" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="61" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="62" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="62" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="63" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="36" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="61" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="41" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="62" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="42" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="61" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="62" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="36" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="36" fillId="26" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="37" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="55" fillId="45" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="55" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="45" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="55" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="55" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="55" fillId="50" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="55" fillId="45" borderId="15" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="55" fillId="50" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="55" fillId="45" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="50" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="55" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="55" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="45" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="55" fillId="39" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="55" fillId="50" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="56" fillId="45" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="56" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="45" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="56" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="56" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="56" fillId="50" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="56" fillId="45" borderId="15" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="56" fillId="50" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="56" fillId="45" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="50" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="56" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="56" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="45" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="56" fillId="39" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="56" fillId="50" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="40" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="40" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="40" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="55" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="55" fillId="45" borderId="15" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="55" fillId="45" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="55" fillId="45" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="55" fillId="45" borderId="18" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="35" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="40" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="56" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="56" fillId="45" borderId="15" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="56" fillId="45" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="56" fillId="45" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="56" fillId="45" borderId="18" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="36" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="31" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="31" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="31" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="31" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="26" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="31" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="31" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8692,77 +9096,40 @@
     <xf numFmtId="38" fontId="31" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="36" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="51" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="36" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="36" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="36" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="36" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="36" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="32" fillId="36" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8774,406 +9141,62 @@
     <xf numFmtId="38" fontId="31" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="31" fillId="51" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="31" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="31" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="26" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="31" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="31" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="26" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="31" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="31" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="36" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="36" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="36" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="36" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="36" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="36" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="36" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="51" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="31" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="30" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="31" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="31" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="32" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="174" fontId="31" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="39" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="32" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="32" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="38" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="56" fillId="50" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="56" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="56" fillId="50" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="49" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9619,44 +9642,44 @@
       <selection pane="bottomRight" activeCell="AP61" sqref="AP61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="21" customWidth="1"/>
     <col min="2" max="2" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" style="22"/>
-    <col min="6" max="6" width="6.1328125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="5.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="6.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.265625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="7.3984375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="7.3984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.3984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.3984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.86328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="5.3984375" style="18" customWidth="1"/>
-    <col min="25" max="25" width="5.3984375" style="23" customWidth="1"/>
-    <col min="26" max="26" width="8.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.73046875" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.59765625" style="18" customWidth="1"/>
-    <col min="30" max="30" width="8.73046875" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.59765625" style="18" customWidth="1"/>
-    <col min="32" max="32" width="5.86328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="5.42578125" style="18" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" style="23" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" style="18" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="18" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" style="18" customWidth="1"/>
-    <col min="34" max="36" width="5.59765625" style="18" customWidth="1"/>
-    <col min="37" max="37" width="8.73046875" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.3984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.1328125" style="13"/>
-    <col min="41" max="41" width="9.1328125" style="6"/>
-    <col min="42" max="16384" width="9.1328125" style="13"/>
+    <col min="34" max="36" width="5.5703125" style="18" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="13"/>
+    <col min="41" max="41" width="9.140625" style="6"/>
+    <col min="42" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
@@ -15496,22 +15519,22 @@
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="25"/>
-    <col min="3" max="3" width="33.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="9.1328125" style="25"/>
-    <col min="12" max="12" width="12.1328125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" style="25"/>
-    <col min="14" max="14" width="24.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1328125" style="25"/>
-    <col min="16" max="16" width="11.59765625" style="25" customWidth="1"/>
-    <col min="17" max="16384" width="9.1328125" style="25"/>
+    <col min="2" max="2" width="9.140625" style="25"/>
+    <col min="3" max="3" width="33.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="9.140625" style="25"/>
+    <col min="12" max="12" width="12.140625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="25"/>
+    <col min="14" max="14" width="24.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="25"/>
+    <col min="16" max="16" width="11.5703125" style="25" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1081</v>
       </c>
@@ -15780,7 +15803,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="103" t="s">
         <v>1144</v>
       </c>
@@ -16021,7 +16044,7 @@
       <c r="S15" s="470"/>
       <c r="T15" s="470"/>
     </row>
-    <row r="16" spans="1:20" ht="18">
+    <row r="16" spans="1:20" ht="18.75">
       <c r="A16" s="103" t="s">
         <v>1145</v>
       </c>
@@ -16391,7 +16414,7 @@
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
     </row>
-    <row r="27" spans="1:16" ht="18">
+    <row r="27" spans="1:16" ht="18.75">
       <c r="A27" s="27" t="s">
         <v>1146</v>
       </c>
@@ -16662,7 +16685,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
     </row>
-    <row r="38" spans="1:16" ht="18">
+    <row r="38" spans="1:16" ht="18.75">
       <c r="A38" s="103" t="s">
         <v>1149</v>
       </c>
@@ -17042,7 +17065,7 @@
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
     </row>
-    <row r="54" spans="1:16" ht="18">
+    <row r="54" spans="1:16" ht="18.75">
       <c r="A54" s="103" t="s">
         <v>1150</v>
       </c>
@@ -17717,7 +17740,7 @@
       <c r="O81" s="26"/>
       <c r="P81" s="26"/>
     </row>
-    <row r="82" spans="1:16" ht="18">
+    <row r="82" spans="1:16" ht="18.75">
       <c r="A82" s="43" t="s">
         <v>1151</v>
       </c>
@@ -17740,7 +17763,7 @@
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
     </row>
-    <row r="83" spans="1:16" ht="26.65" thickBot="1">
+    <row r="83" spans="1:16" ht="26.25" thickBot="1">
       <c r="A83" s="89" t="s">
         <v>1110</v>
       </c>
@@ -17915,16 +17938,16 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="13.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1328125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="25"/>
+    <col min="5" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1081</v>
       </c>
@@ -18186,7 +18209,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="103" t="s">
         <v>1153</v>
       </c>
@@ -18478,7 +18501,7 @@
       <c r="S16" s="470"/>
       <c r="T16" s="470"/>
     </row>
-    <row r="17" spans="1:17" ht="18">
+    <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="103" t="s">
         <v>1155</v>
       </c>
@@ -18845,7 +18868,7 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
     </row>
-    <row r="28" spans="1:17" ht="18">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="103" t="s">
         <v>1156</v>
       </c>
@@ -19144,7 +19167,7 @@
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
     </row>
-    <row r="40" spans="1:17" ht="18">
+    <row r="40" spans="1:17" ht="18.75">
       <c r="A40" s="103" t="s">
         <v>1157</v>
       </c>
@@ -19862,7 +19885,7 @@
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
     </row>
-    <row r="68" spans="1:17" ht="18">
+    <row r="68" spans="1:17" ht="18.75">
       <c r="A68" s="103" t="s">
         <v>1158</v>
       </c>
@@ -20169,7 +20192,7 @@
       <c r="P79" s="26"/>
       <c r="Q79" s="26"/>
     </row>
-    <row r="80" spans="1:17" ht="18">
+    <row r="80" spans="1:17" ht="18.75">
       <c r="A80" s="103" t="s">
         <v>1159</v>
       </c>
@@ -20703,15 +20726,15 @@
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="65.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="65.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1131</v>
       </c>
@@ -20961,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="105"/>
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
@@ -20983,7 +21006,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
         <v>1160</v>
@@ -21010,7 +21033,7 @@
       <c r="S10" s="470"/>
       <c r="T10" s="470"/>
     </row>
-    <row r="11" spans="1:20" ht="26.65" thickBot="1">
+    <row r="11" spans="1:20" ht="26.25" thickBot="1">
       <c r="A11" s="26"/>
       <c r="B11" s="31" t="s">
         <v>318</v>
@@ -21324,7 +21347,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -21353,7 +21376,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="1:16" ht="26.65" thickBot="1">
+    <row r="24" spans="1:16" ht="26.25" thickBot="1">
       <c r="A24" s="470"/>
       <c r="B24" s="198" t="s">
         <v>318</v>
@@ -21401,7 +21424,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="26.25">
+    <row r="25" spans="1:16" ht="25.5">
       <c r="A25" s="470"/>
       <c r="B25" s="109" t="str">
         <f t="shared" ref="B25:B33" si="2">"INFSTM"&amp;RIGHT(D25,3)&amp;"00"</f>
@@ -21452,7 +21475,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="26.25">
+    <row r="26" spans="1:16" ht="25.5">
       <c r="A26" s="470"/>
       <c r="B26" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21503,7 +21526,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="26.25">
+    <row r="27" spans="1:16" ht="25.5">
       <c r="A27" s="470"/>
       <c r="B27" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21554,7 +21577,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="26.25">
+    <row r="28" spans="1:16" ht="25.5">
       <c r="A28" s="470"/>
       <c r="B28" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21605,7 +21628,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="26.25">
+    <row r="29" spans="1:16" ht="25.5">
       <c r="A29" s="470"/>
       <c r="B29" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21656,7 +21679,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="26.25">
+    <row r="30" spans="1:16" ht="25.5">
       <c r="A30" s="470"/>
       <c r="B30" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21707,7 +21730,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="26.25">
+    <row r="31" spans="1:16" ht="25.5">
       <c r="A31" s="470"/>
       <c r="B31" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21758,7 +21781,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="26.25">
+    <row r="32" spans="1:16" ht="25.5">
       <c r="A32" s="470"/>
       <c r="B32" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21808,7 +21831,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="26.25">
+    <row r="33" spans="1:16" ht="25.5">
       <c r="A33" s="470"/>
       <c r="B33" s="109" t="str">
         <f t="shared" si="2"/>
@@ -21940,7 +21963,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -21971,7 +21994,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
     </row>
-    <row r="39" spans="1:16" ht="26.65" thickBot="1">
+    <row r="39" spans="1:16" ht="26.25" thickBot="1">
       <c r="A39" s="26"/>
       <c r="B39" s="47" t="s">
         <v>318</v>
@@ -22013,7 +22036,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
     </row>
-    <row r="40" spans="1:16" ht="26.25">
+    <row r="40" spans="1:16" ht="25.5">
       <c r="A40" s="26"/>
       <c r="B40" s="49" t="str">
         <f t="shared" ref="B40:B47" si="7">LEFT(E40,6)&amp;RIGHT(D40,3)&amp;"00"</f>
@@ -22058,7 +22081,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
     </row>
-    <row r="41" spans="1:16" ht="26.25">
+    <row r="41" spans="1:16" ht="25.5">
       <c r="A41" s="26"/>
       <c r="B41" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22103,7 +22126,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
     </row>
-    <row r="42" spans="1:16" ht="26.25">
+    <row r="42" spans="1:16" ht="25.5">
       <c r="A42" s="26"/>
       <c r="B42" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22148,7 +22171,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
     </row>
-    <row r="43" spans="1:16" ht="26.25">
+    <row r="43" spans="1:16" ht="25.5">
       <c r="A43" s="26"/>
       <c r="B43" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22193,7 +22216,7 @@
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
     </row>
-    <row r="44" spans="1:16" ht="26.25">
+    <row r="44" spans="1:16" ht="25.5">
       <c r="A44" s="26"/>
       <c r="B44" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22238,7 +22261,7 @@
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
     </row>
-    <row r="45" spans="1:16" ht="26.25">
+    <row r="45" spans="1:16" ht="25.5">
       <c r="A45" s="26"/>
       <c r="B45" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22283,7 +22306,7 @@
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
     </row>
-    <row r="46" spans="1:16" ht="26.25">
+    <row r="46" spans="1:16" ht="25.5">
       <c r="A46" s="26"/>
       <c r="B46" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22328,7 +22351,7 @@
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
     </row>
-    <row r="47" spans="1:16" ht="26.25">
+    <row r="47" spans="1:16" ht="25.5">
       <c r="A47" s="26"/>
       <c r="B47" s="49" t="str">
         <f t="shared" si="7"/>
@@ -22455,7 +22478,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -22484,7 +22507,7 @@
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
     </row>
-    <row r="53" spans="1:16" ht="26.65" thickBot="1">
+    <row r="53" spans="1:16" ht="26.25" thickBot="1">
       <c r="A53" s="26"/>
       <c r="B53" s="47" t="s">
         <v>318</v>
@@ -22526,7 +22549,7 @@
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
     </row>
-    <row r="54" spans="1:16" ht="26.25">
+    <row r="54" spans="1:16" ht="25.5">
       <c r="A54" s="26"/>
       <c r="B54" s="49" t="str">
         <f t="shared" ref="B54:B61" si="12">LEFT(E54,6)&amp;RIGHT(D54,3)&amp;"00"</f>
@@ -22571,7 +22594,7 @@
       <c r="O54" s="26"/>
       <c r="P54" s="26"/>
     </row>
-    <row r="55" spans="1:16" ht="26.25">
+    <row r="55" spans="1:16" ht="25.5">
       <c r="A55" s="26"/>
       <c r="B55" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22616,7 +22639,7 @@
       <c r="O55" s="26"/>
       <c r="P55" s="26"/>
     </row>
-    <row r="56" spans="1:16" ht="26.25">
+    <row r="56" spans="1:16" ht="25.5">
       <c r="A56" s="26"/>
       <c r="B56" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22661,7 +22684,7 @@
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
     </row>
-    <row r="57" spans="1:16" ht="26.25">
+    <row r="57" spans="1:16" ht="25.5">
       <c r="A57" s="26"/>
       <c r="B57" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22706,7 +22729,7 @@
       <c r="O57" s="26"/>
       <c r="P57" s="26"/>
     </row>
-    <row r="58" spans="1:16" ht="26.25">
+    <row r="58" spans="1:16" ht="25.5">
       <c r="A58" s="26"/>
       <c r="B58" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22751,7 +22774,7 @@
       <c r="O58" s="26"/>
       <c r="P58" s="26"/>
     </row>
-    <row r="59" spans="1:16" ht="26.25">
+    <row r="59" spans="1:16" ht="25.5">
       <c r="A59" s="26"/>
       <c r="B59" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22796,7 +22819,7 @@
       <c r="O59" s="26"/>
       <c r="P59" s="26"/>
     </row>
-    <row r="60" spans="1:16" ht="26.25">
+    <row r="60" spans="1:16" ht="25.5">
       <c r="A60" s="26"/>
       <c r="B60" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22841,7 +22864,7 @@
       <c r="O60" s="26"/>
       <c r="P60" s="26"/>
     </row>
-    <row r="61" spans="1:16" ht="26.25">
+    <row r="61" spans="1:16" ht="25.5">
       <c r="A61" s="26"/>
       <c r="B61" s="49" t="str">
         <f t="shared" si="12"/>
@@ -22969,7 +22992,7 @@
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" ht="15">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -22998,7 +23021,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
     </row>
-    <row r="67" spans="1:16" ht="26.65" thickBot="1">
+    <row r="67" spans="1:16" ht="26.25" thickBot="1">
       <c r="A67" s="26"/>
       <c r="B67" s="47" t="s">
         <v>318</v>
@@ -23040,7 +23063,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
     </row>
-    <row r="68" spans="1:16" ht="26.25">
+    <row r="68" spans="1:16" ht="38.25">
       <c r="A68" s="26"/>
       <c r="B68" s="49" t="str">
         <f>LEFT(E68,6)&amp;RIGHT(D68,3)&amp;"00"</f>
@@ -23164,7 +23187,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -23193,7 +23216,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16" ht="26.65" thickBot="1">
+    <row r="74" spans="1:16" ht="26.25" thickBot="1">
       <c r="A74" s="26"/>
       <c r="B74" s="47" t="s">
         <v>318</v>
@@ -23609,21 +23632,21 @@
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="14.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1328125" style="25"/>
-    <col min="6" max="6" width="9.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="25"/>
-    <col min="8" max="8" width="9.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.1328125" style="25"/>
-    <col min="15" max="15" width="24.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="25"/>
+    <col min="8" max="8" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="25"/>
+    <col min="15" max="15" width="24.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1081</v>
       </c>
@@ -23955,7 +23978,7 @@
       <c r="S11" s="470"/>
       <c r="T11" s="470"/>
     </row>
-    <row r="12" spans="1:20" ht="18">
+    <row r="12" spans="1:20" ht="18.75">
       <c r="A12" s="103" t="s">
         <v>1163</v>
       </c>
@@ -24167,7 +24190,7 @@
       <c r="S16" s="470"/>
       <c r="T16" s="470"/>
     </row>
-    <row r="17" spans="1:19" ht="18">
+    <row r="17" spans="1:19" ht="18.75">
       <c r="A17" s="103" t="s">
         <v>1165</v>
       </c>
@@ -24401,7 +24424,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="470"/>
     </row>
-    <row r="22" spans="1:19" ht="18">
+    <row r="22" spans="1:19" ht="18.75">
       <c r="A22" s="103" t="s">
         <v>1166</v>
       </c>
@@ -24635,7 +24658,7 @@
       <c r="R26" s="26"/>
       <c r="S26" s="149"/>
     </row>
-    <row r="27" spans="1:19" ht="18">
+    <row r="27" spans="1:19" ht="18.75">
       <c r="A27" s="103" t="s">
         <v>1166</v>
       </c>
@@ -24883,7 +24906,7 @@
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
     </row>
-    <row r="36" spans="1:18" ht="18">
+    <row r="36" spans="1:18" ht="18.75">
       <c r="A36" s="103" t="s">
         <v>1169</v>
       </c>
@@ -25183,7 +25206,7 @@
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
     </row>
-    <row r="47" spans="1:18" ht="18">
+    <row r="47" spans="1:18" ht="18.75">
       <c r="A47" s="103" t="s">
         <v>1170</v>
       </c>
@@ -25565,7 +25588,7 @@
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
     </row>
-    <row r="61" spans="1:18" ht="18">
+    <row r="61" spans="1:18" ht="18.75">
       <c r="A61" s="103" t="s">
         <v>1171</v>
       </c>
@@ -25863,7 +25886,7 @@
       <c r="Q71" s="26"/>
       <c r="R71" s="26"/>
     </row>
-    <row r="72" spans="1:18" ht="18">
+    <row r="72" spans="1:18" ht="18.75">
       <c r="A72" s="103" t="s">
         <v>1172</v>
       </c>
@@ -26412,7 +26435,7 @@
       <c r="Q91" s="26"/>
       <c r="R91" s="26"/>
     </row>
-    <row r="92" spans="1:18" ht="18">
+    <row r="92" spans="1:18" ht="18.75">
       <c r="A92" s="43" t="s">
         <v>1151</v>
       </c>
@@ -26437,7 +26460,7 @@
       <c r="Q92" s="26"/>
       <c r="R92" s="26"/>
     </row>
-    <row r="93" spans="1:18" ht="26.65" thickBot="1">
+    <row r="93" spans="1:18" ht="26.25" thickBot="1">
       <c r="A93" s="89" t="s">
         <v>1110</v>
       </c>
@@ -26770,17 +26793,17 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="14" width="12" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="25"/>
+    <col min="16" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1131</v>
       </c>
@@ -27030,7 +27053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="105"/>
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
@@ -27052,7 +27075,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
         <v>1173</v>
@@ -27079,7 +27102,7 @@
       <c r="S10" s="470"/>
       <c r="T10" s="470"/>
     </row>
-    <row r="11" spans="1:20" ht="26.65" thickBot="1">
+    <row r="11" spans="1:20" ht="26.25" thickBot="1">
       <c r="A11" s="26"/>
       <c r="B11" s="31" t="s">
         <v>318</v>
@@ -27400,7 +27423,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -27429,7 +27452,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="1:16" ht="26.65" thickBot="1">
+    <row r="24" spans="1:16" ht="26.25" thickBot="1">
       <c r="A24" s="470"/>
       <c r="B24" s="47" t="s">
         <v>318</v>
@@ -28016,7 +28039,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -28047,7 +28070,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
     </row>
-    <row r="39" spans="1:16" ht="26.65" thickBot="1">
+    <row r="39" spans="1:16" ht="26.25" thickBot="1">
       <c r="A39" s="26"/>
       <c r="B39" s="47" t="s">
         <v>318</v>
@@ -28089,7 +28112,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" ht="25.5">
       <c r="A40" s="26"/>
       <c r="B40" s="49" t="str">
         <f t="shared" ref="B40:B47" si="7">LEFT(E40,6)&amp;RIGHT(D40,3)&amp;"00"</f>
@@ -28134,7 +28157,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" ht="25.5">
       <c r="A41" s="26"/>
       <c r="B41" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28179,7 +28202,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" ht="25.5">
       <c r="A42" s="26"/>
       <c r="B42" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28224,7 +28247,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" ht="25.5">
       <c r="A43" s="26"/>
       <c r="B43" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28269,7 +28292,7 @@
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" ht="25.5">
       <c r="A44" s="26"/>
       <c r="B44" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28314,7 +28337,7 @@
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" ht="25.5">
       <c r="A45" s="26"/>
       <c r="B45" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28359,7 +28382,7 @@
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" ht="25.5">
       <c r="A46" s="26"/>
       <c r="B46" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28404,7 +28427,7 @@
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" ht="25.5">
       <c r="A47" s="26"/>
       <c r="B47" s="49" t="str">
         <f t="shared" si="7"/>
@@ -28531,7 +28554,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -28560,7 +28583,7 @@
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
     </row>
-    <row r="53" spans="1:16" ht="26.65" thickBot="1">
+    <row r="53" spans="1:16" ht="26.25" thickBot="1">
       <c r="A53" s="26"/>
       <c r="B53" s="47" t="s">
         <v>318</v>
@@ -28602,7 +28625,7 @@
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" ht="25.5">
       <c r="A54" s="26"/>
       <c r="B54" s="49" t="str">
         <f t="shared" ref="B54:B61" si="12">LEFT(E54,6)&amp;RIGHT(D54,3)&amp;"00"</f>
@@ -28647,7 +28670,7 @@
       <c r="O54" s="26"/>
       <c r="P54" s="26"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" ht="25.5">
       <c r="A55" s="26"/>
       <c r="B55" s="49" t="str">
         <f t="shared" si="12"/>
@@ -28692,7 +28715,7 @@
       <c r="O55" s="26"/>
       <c r="P55" s="26"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="25.5">
       <c r="A56" s="26"/>
       <c r="B56" s="49" t="str">
         <f t="shared" si="12"/>
@@ -28737,7 +28760,7 @@
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="25.5">
       <c r="A57" s="26"/>
       <c r="B57" s="49" t="str">
         <f t="shared" si="12"/>
@@ -28782,7 +28805,7 @@
       <c r="O57" s="26"/>
       <c r="P57" s="26"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" ht="25.5">
       <c r="A58" s="26"/>
       <c r="B58" s="49" t="str">
         <f t="shared" si="12"/>
@@ -28827,7 +28850,7 @@
       <c r="O58" s="26"/>
       <c r="P58" s="26"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" ht="25.5">
       <c r="A59" s="26"/>
       <c r="B59" s="49" t="str">
         <f t="shared" si="12"/>
@@ -28872,7 +28895,7 @@
       <c r="O59" s="26"/>
       <c r="P59" s="26"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" ht="25.5">
       <c r="A60" s="26"/>
       <c r="B60" s="49" t="str">
         <f t="shared" si="12"/>
@@ -28917,7 +28940,7 @@
       <c r="O60" s="26"/>
       <c r="P60" s="26"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" ht="25.5">
       <c r="A61" s="26"/>
       <c r="B61" s="49" t="str">
         <f t="shared" si="12"/>
@@ -29049,7 +29072,7 @@
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" ht="15">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -29078,7 +29101,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
     </row>
-    <row r="67" spans="1:16" ht="26.65" thickBot="1">
+    <row r="67" spans="1:16" ht="26.25" thickBot="1">
       <c r="A67" s="26"/>
       <c r="B67" s="47" t="s">
         <v>318</v>
@@ -29120,7 +29143,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
     </row>
-    <row r="68" spans="1:16" ht="26.25">
+    <row r="68" spans="1:16" ht="25.5">
       <c r="A68" s="26"/>
       <c r="B68" s="49" t="str">
         <f>LEFT(E68,6)&amp;RIGHT(D68,3)&amp;"00"</f>
@@ -29244,7 +29267,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -29273,7 +29296,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16" ht="26.65" thickBot="1">
+    <row r="74" spans="1:16" ht="26.25" thickBot="1">
       <c r="A74" s="26"/>
       <c r="B74" s="47" t="s">
         <v>318</v>
@@ -29778,16 +29801,16 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="39.1328125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="25" customWidth="1"/>
     <col min="4" max="8" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="25"/>
+    <col min="9" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1131</v>
       </c>
@@ -30037,7 +30060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="105"/>
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
@@ -30059,7 +30082,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="103" t="s">
         <v>1176</v>
@@ -30086,7 +30109,7 @@
       <c r="S10" s="470"/>
       <c r="T10" s="470"/>
     </row>
-    <row r="11" spans="1:20" ht="26.65" thickBot="1">
+    <row r="11" spans="1:20" ht="26.25" thickBot="1">
       <c r="A11" s="26"/>
       <c r="B11" s="31" t="s">
         <v>318</v>
@@ -30403,7 +30426,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -30432,7 +30455,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="1:16" ht="26.65" thickBot="1">
+    <row r="24" spans="1:16" ht="26.25" thickBot="1">
       <c r="A24" s="470"/>
       <c r="B24" s="47" t="s">
         <v>318</v>
@@ -31019,7 +31042,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -31050,7 +31073,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
     </row>
-    <row r="39" spans="1:16" ht="26.65" thickBot="1">
+    <row r="39" spans="1:16" ht="26.25" thickBot="1">
       <c r="A39" s="26"/>
       <c r="B39" s="47" t="s">
         <v>318</v>
@@ -31534,7 +31557,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -31563,7 +31586,7 @@
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
     </row>
-    <row r="53" spans="1:16" ht="26.65" thickBot="1">
+    <row r="53" spans="1:16" ht="26.25" thickBot="1">
       <c r="A53" s="26"/>
       <c r="B53" s="47" t="s">
         <v>318</v>
@@ -32048,7 +32071,7 @@
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" ht="15">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -32077,7 +32100,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
     </row>
-    <row r="67" spans="1:16" ht="26.65" thickBot="1">
+    <row r="67" spans="1:16" ht="26.25" thickBot="1">
       <c r="A67" s="26"/>
       <c r="B67" s="47" t="s">
         <v>318</v>
@@ -32119,7 +32142,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
     </row>
-    <row r="68" spans="1:16" ht="26.25">
+    <row r="68" spans="1:16" ht="25.5">
       <c r="A68" s="26"/>
       <c r="B68" s="49" t="str">
         <f>LEFT(E68,6)&amp;RIGHT(D68,3)&amp;"00"</f>
@@ -32243,7 +32266,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -32272,7 +32295,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16" ht="26.65" thickBot="1">
+    <row r="74" spans="1:16" ht="26.25" thickBot="1">
       <c r="A74" s="26"/>
       <c r="B74" s="47" t="s">
         <v>318</v>
@@ -32777,15 +32800,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="15.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="25"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="27" t="s">
         <v>1131</v>
       </c>
@@ -33037,7 +33060,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="27" t="s">
         <v>1178</v>
       </c>
@@ -33064,7 +33087,7 @@
       <c r="S10" s="470"/>
       <c r="T10" s="470"/>
     </row>
-    <row r="11" spans="1:20" ht="26.25">
+    <row r="11" spans="1:20" ht="25.5">
       <c r="A11" s="89" t="s">
         <v>1110</v>
       </c>
@@ -33494,15 +33517,15 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="14.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="27" t="s">
         <v>1131</v>
       </c>
@@ -33754,7 +33777,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="27" t="s">
         <v>1182</v>
       </c>
@@ -33781,7 +33804,7 @@
       <c r="S10" s="470"/>
       <c r="T10" s="470"/>
     </row>
-    <row r="11" spans="1:20" ht="26.25">
+    <row r="11" spans="1:20" ht="25.5">
       <c r="A11" s="89" t="s">
         <v>1110</v>
       </c>
@@ -34077,11 +34100,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="33.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18">
+    <row r="3" spans="2:5" ht="18.75">
       <c r="B3" s="517" t="s">
         <v>1183</v>
       </c>
@@ -34091,7 +34114,7 @@
       </c>
       <c r="E3" s="513"/>
     </row>
-    <row r="4" spans="2:5" ht="14.65" thickBot="1">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1">
       <c r="B4" s="524" t="s">
         <v>318</v>
       </c>
@@ -34105,7 +34128,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="14.25">
+    <row r="5" spans="2:5" ht="15">
       <c r="B5" s="518" t="s">
         <v>333</v>
       </c>
@@ -34115,7 +34138,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.25">
+    <row r="6" spans="2:5" ht="15">
       <c r="B6" s="514" t="str">
         <f>IND_Processes!C190</f>
         <v>MINMISORE1</v>
@@ -34132,7 +34155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="14.25">
+    <row r="7" spans="2:5" ht="15">
       <c r="B7" s="514" t="str">
         <f>IND_Processes!C191</f>
         <v>MINMISSCR1</v>
@@ -34149,7 +34172,7 @@
         <v>146.36040847999999</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14.25">
+    <row r="8" spans="2:5" ht="15">
       <c r="B8" s="514" t="str">
         <f>IND_Processes!C192</f>
         <v>MINMISOXY1</v>
@@ -34166,7 +34189,7 @@
         <v>11.25849296</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.25">
+    <row r="9" spans="2:5" ht="15">
       <c r="B9" s="514" t="str">
         <f>IND_Processes!C193</f>
         <v>MINMISQLI1</v>
@@ -34183,7 +34206,7 @@
         <v>78.809450720000001</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.25">
+    <row r="10" spans="2:5" ht="15">
       <c r="B10" s="514" t="str">
         <f>IND_Processes!C194</f>
         <v>MINMALBAU1</v>
@@ -34200,7 +34223,7 @@
         <v>134.08865115359998</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.25">
+    <row r="11" spans="2:5" ht="15">
       <c r="B11" s="514" t="str">
         <f>IND_Processes!C195</f>
         <v>MINMALSCR1</v>
@@ -34217,7 +34240,7 @@
         <v>1311.0515051919999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14.25">
+    <row r="12" spans="2:5" ht="15">
       <c r="B12" s="514" t="str">
         <f>IND_Processes!C196</f>
         <v>MINMCUORE1</v>
@@ -34234,7 +34257,7 @@
         <v>836.50602692799998</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="14.25">
+    <row r="13" spans="2:5" ht="15">
       <c r="B13" s="514" t="str">
         <f>IND_Processes!C197</f>
         <v>MINMCUSCR1</v>
@@ -34251,7 +34274,7 @@
         <v>1107.7231223343999</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="14.25">
+    <row r="14" spans="2:5" ht="15">
       <c r="B14" s="514" t="str">
         <f>IND_Processes!C198</f>
         <v>MINMLMSTN1</v>
@@ -34268,7 +34291,7 @@
         <v>56.292464799999998</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="14.25">
+    <row r="15" spans="2:5" ht="15">
       <c r="B15" s="514" t="str">
         <f>IND_Processes!C199</f>
         <v>MINMGHRYC1</v>
@@ -34285,7 +34308,7 @@
         <v>11.25849296</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="14.25">
+    <row r="16" spans="2:5" ht="15">
       <c r="B16" s="514" t="str">
         <f>IND_Processes!C200</f>
         <v>MINMPPWOO1</v>
@@ -34302,7 +34325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="14.25">
+    <row r="17" spans="2:5" ht="15">
       <c r="B17" s="514" t="str">
         <f>IND_Processes!C201</f>
         <v>MINMPPRYC1</v>
@@ -34319,7 +34342,7 @@
         <v>168.87739439999999</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.25">
+    <row r="18" spans="2:5" ht="15">
       <c r="B18" s="514" t="str">
         <f>IND_Processes!C202</f>
         <v>MINMPPNOH1</v>
@@ -34336,7 +34359,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.25">
+    <row r="19" spans="2:5" ht="15">
       <c r="B19" s="514" t="str">
         <f>IND_Processes!C203</f>
         <v>MINMPPOXY1</v>
@@ -34353,7 +34376,7 @@
         <v>11.25849296</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="14.25">
+    <row r="20" spans="2:5" ht="15">
       <c r="B20" s="514" t="str">
         <f>IND_Processes!C204</f>
         <v>MINMPPKAO1</v>
@@ -34370,7 +34393,7 @@
         <v>168.87739439999999</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="14.25">
+    <row r="21" spans="2:5" ht="15">
       <c r="B21" s="514" t="str">
         <f>IND_Processes!C205</f>
         <v>MINMPPGYP1</v>
@@ -34387,7 +34410,7 @@
         <v>22.51698592</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.25">
+    <row r="22" spans="2:5" ht="15">
       <c r="B22" s="522"/>
       <c r="C22" s="522"/>
       <c r="D22" s="519"/>
@@ -34409,16 +34432,16 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="B1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="16.59765625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="16.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27">
@@ -34449,7 +34472,7 @@
       <c r="Z1" s="26"/>
       <c r="AA1" s="26"/>
     </row>
-    <row r="2" spans="2:27" ht="18">
+    <row r="2" spans="2:27" ht="18.75">
       <c r="B2" s="27" t="s">
         <v>1186</v>
       </c>
@@ -34867,7 +34890,7 @@
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
     </row>
-    <row r="12" spans="2:27" ht="18">
+    <row r="12" spans="2:27" ht="18.75">
       <c r="B12" s="27" t="s">
         <v>1189</v>
       </c>
@@ -34897,7 +34920,7 @@
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
     </row>
-    <row r="13" spans="2:27" ht="18">
+    <row r="13" spans="2:27" ht="18.75">
       <c r="B13" s="35" t="s">
         <v>1190</v>
       </c>
@@ -35519,11 +35542,11 @@
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="63.73046875" style="259" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" style="259" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="259"/>
+    <col min="1" max="1" width="63.7109375" style="259" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="259" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="259"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -35798,7 +35821,7 @@
       <c r="AE6" s="257"/>
       <c r="AF6" s="257"/>
     </row>
-    <row r="7" spans="1:42" ht="18">
+    <row r="7" spans="1:42" ht="18.75">
       <c r="A7" s="263" t="s">
         <v>145</v>
       </c>
@@ -35880,7 +35903,7 @@
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
     </row>
-    <row r="9" spans="1:42" ht="52.5">
+    <row r="9" spans="1:42" ht="76.5">
       <c r="A9" s="271" t="s">
         <v>151</v>
       </c>
@@ -35970,7 +35993,7 @@
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
     </row>
-    <row r="10" spans="1:42" ht="26.65" thickBot="1">
+    <row r="10" spans="1:42" ht="26.25" thickBot="1">
       <c r="A10" s="279" t="s">
         <v>162</v>
       </c>
@@ -38354,7 +38377,7 @@
       <c r="AE34" s="257"/>
       <c r="AF34" s="257"/>
     </row>
-    <row r="35" spans="1:33" ht="18">
+    <row r="35" spans="1:33" ht="18.75">
       <c r="A35" s="341" t="s">
         <v>240</v>
       </c>
@@ -38430,7 +38453,7 @@
       <c r="AF35" s="257"/>
       <c r="AG35" s="257"/>
     </row>
-    <row r="36" spans="1:33" ht="39.75" thickBot="1">
+    <row r="36" spans="1:33" ht="39" thickBot="1">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="48" t="s">
@@ -39422,7 +39445,7 @@
       <c r="AE46" s="257"/>
       <c r="AF46" s="257"/>
     </row>
-    <row r="47" spans="1:33" ht="18">
+    <row r="47" spans="1:33" ht="18.75">
       <c r="A47" s="263" t="s">
         <v>294</v>
       </c>
@@ -40661,7 +40684,7 @@
       <c r="AE66" s="257"/>
       <c r="AF66" s="257"/>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:32" ht="25.5">
       <c r="A67" s="342"/>
       <c r="B67" s="368" t="s">
         <v>304</v>
@@ -40711,7 +40734,7 @@
       <c r="AE67" s="257"/>
       <c r="AF67" s="257"/>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:32" ht="25.5">
       <c r="A68" s="342"/>
       <c r="B68" s="33" t="s">
         <v>305</v>
@@ -40882,7 +40905,7 @@
       <c r="AE70" s="257"/>
       <c r="AF70" s="257"/>
     </row>
-    <row r="71" spans="1:32" ht="18">
+    <row r="71" spans="1:32" ht="18.75">
       <c r="A71" s="263" t="s">
         <v>306</v>
       </c>
@@ -42519,7 +42542,7 @@
       <c r="AE101" s="257"/>
       <c r="AF101" s="257"/>
     </row>
-    <row r="102" spans="1:32" ht="18">
+    <row r="102" spans="1:32" ht="18.75">
       <c r="A102" s="263" t="s">
         <v>315</v>
       </c>
@@ -47926,12 +47949,12 @@
       <selection activeCell="B206" sqref="B206:F206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="470"/>
-    <col min="3" max="3" width="15.3984375" style="470" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.265625" style="470" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="470"/>
+    <col min="1" max="2" width="9.140625" style="470"/>
+    <col min="3" max="3" width="15.42578125" style="470" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="470" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="470"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -51970,25 +51993,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="B1:R124"/>
+  <dimension ref="B1:S124"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="19.59765625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="41.59765625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" style="25" customWidth="1"/>
-    <col min="7" max="15" width="19.59765625" style="25" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="19.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="25" customWidth="1"/>
+    <col min="7" max="15" width="19.5703125" style="25" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:19">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -52006,8 +52029,9 @@
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="2:18">
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="2:19">
       <c r="B2" s="26"/>
       <c r="C2" s="41"/>
       <c r="D2" s="26"/>
@@ -52019,16 +52043,17 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
-      <c r="M2" s="42">
+      <c r="M2" s="26"/>
+      <c r="N2" s="42">
         <v>1.2</v>
       </c>
-      <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
-    </row>
-    <row r="3" spans="2:18" ht="18">
+      <c r="S2" s="26"/>
+    </row>
+    <row r="3" spans="2:19" ht="18.75">
       <c r="B3" s="43" t="s">
         <v>716</v>
       </c>
@@ -52050,8 +52075,9 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="14.65" thickBot="1">
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1">
       <c r="B4" s="524" t="s">
         <v>318</v>
       </c>
@@ -52073,32 +52099,35 @@
       <c r="H4" s="784" t="s">
         <v>1198</v>
       </c>
-      <c r="I4" s="524" t="s">
+      <c r="I4" s="790" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="524" t="s">
         <v>722</v>
       </c>
-      <c r="J4" s="524" t="s">
+      <c r="K4" s="524" t="s">
         <v>723</v>
       </c>
-      <c r="K4" s="524" t="s">
+      <c r="L4" s="524" t="s">
         <v>724</v>
       </c>
-      <c r="L4" s="524" t="s">
+      <c r="M4" s="524" t="s">
         <v>725</v>
       </c>
-      <c r="M4" s="784" t="s">
+      <c r="N4" s="784" t="s">
         <v>1196</v>
       </c>
-      <c r="N4" s="524" t="s">
+      <c r="O4" s="524" t="s">
         <v>726</v>
       </c>
-      <c r="O4" s="524" t="s">
+      <c r="P4" s="524" t="s">
         <v>727</v>
       </c>
-      <c r="P4" s="470"/>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="470"/>
       <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="2:18" ht="14.25">
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="2:19" ht="15">
       <c r="B5" s="525"/>
       <c r="C5" s="525"/>
       <c r="D5" s="525"/>
@@ -52108,32 +52137,35 @@
       <c r="F5" s="525"/>
       <c r="G5" s="525"/>
       <c r="H5" s="525"/>
-      <c r="I5" s="525" t="s">
+      <c r="I5" s="791" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J5" s="525" t="s">
         <v>729</v>
-      </c>
-      <c r="J5" s="525" t="s">
-        <v>730</v>
       </c>
       <c r="K5" s="525" t="s">
         <v>730</v>
       </c>
       <c r="L5" s="525" t="s">
+        <v>730</v>
+      </c>
+      <c r="M5" s="525" t="s">
         <v>729</v>
-      </c>
-      <c r="M5" s="525" t="s">
-        <v>731</v>
       </c>
       <c r="N5" s="525" t="s">
         <v>731</v>
       </c>
       <c r="O5" s="525" t="s">
+        <v>731</v>
+      </c>
+      <c r="P5" s="525" t="s">
         <v>732</v>
       </c>
-      <c r="P5" s="470"/>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="470"/>
       <c r="R5" s="26"/>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="26" t="str">
         <f>CONCATENATE(E7,"_INF")</f>
         <v>INDCOA_INF</v>
@@ -52152,23 +52184,24 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="508"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="508"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="63">
-        <f>(SUM(IND_Bal!$C$43:$C$43)*IND_Fuel!$M$2)</f>
+      <c r="M6" s="26"/>
+      <c r="N6" s="63">
+        <f>(SUM(IND_Bal!$C$43:$C$43)*IND_Fuel!$N$2)</f>
         <v>5.2966980361108806</v>
       </c>
-      <c r="N6" s="63">
-        <f>M6</f>
+      <c r="O6" s="63">
+        <f>N6</f>
         <v>5.2966980361108806</v>
       </c>
-      <c r="O6" s="63"/>
-      <c r="P6" s="470"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="470"/>
       <c r="R6" s="26"/>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="40"/>
       <c r="C7" s="62"/>
       <c r="D7" s="26"/>
@@ -52186,11 +52219,12 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="470"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="470"/>
       <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="26" t="str">
         <f>CONCATENATE(E9,"_INF")</f>
         <v>INDPEA_INF</v>
@@ -52209,20 +52243,21 @@
       <c r="G8" s="63"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="508"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="508"/>
       <c r="L8" s="26"/>
-      <c r="M8" s="508">
-        <f>(SUM(IND_Bal!$D$43:$D$43)*IND_Fuel!$M$2)</f>
+      <c r="M8" s="26"/>
+      <c r="N8" s="508">
+        <f>(SUM(IND_Bal!$D$43:$D$43)*IND_Fuel!$N$2)</f>
         <v>4.1683632933612096E-2</v>
       </c>
-      <c r="N8" s="508"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="470"/>
-      <c r="Q8" s="26"/>
+      <c r="O8" s="508"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="470"/>
       <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="40"/>
       <c r="C9" s="62"/>
       <c r="D9" s="26"/>
@@ -52240,11 +52275,12 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="470"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="470"/>
       <c r="R9" s="26"/>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10" s="26" t="str">
         <f>CONCATENATE(E11,"_INF")</f>
         <v>INDCOH_INF</v>
@@ -52263,23 +52299,24 @@
       <c r="G10" s="63"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="508"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="508"/>
       <c r="L10" s="26"/>
-      <c r="M10" s="508">
-        <f>(SUM(IND_Bal!$E$43:$E$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M10" s="26"/>
       <c r="N10" s="508">
-        <f>M10</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="470"/>
-      <c r="Q10" s="26"/>
+        <f>(SUM(IND_Bal!$E$43:$E$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="508">
+        <f>N10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="470"/>
       <c r="R10" s="26"/>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="40"/>
       <c r="C11" s="62"/>
       <c r="D11" s="26"/>
@@ -52297,11 +52334,12 @@
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="470"/>
-      <c r="Q11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="470"/>
       <c r="R11" s="26"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" s="26" t="str">
         <f>CONCATENATE(E13,"_INF")</f>
         <v>INDCOK_INF</v>
@@ -52320,23 +52358,24 @@
       <c r="G12" s="63"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="508"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="508"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="508">
-        <f>(SUM(IND_Bal!$F$43:$F$43,IND_Bal!D29)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M12" s="26"/>
       <c r="N12" s="508">
-        <f>M12</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="470"/>
-      <c r="Q12" s="26"/>
+        <f>(SUM(IND_Bal!$F$43:$F$43,IND_Bal!D29)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="508">
+        <f>N12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="470"/>
       <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="40"/>
       <c r="C13" s="62"/>
       <c r="D13" s="26"/>
@@ -52354,11 +52393,12 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="470"/>
-      <c r="Q13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="470"/>
       <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="26" t="str">
         <f>CONCATENATE(E15,"_INF")</f>
         <v>INDRFG_INF</v>
@@ -52377,23 +52417,24 @@
       <c r="G14" s="63"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="508"/>
-      <c r="K14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="508"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="508">
-        <f>(SUM(IND_Bal!$G$43:$G$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="26"/>
       <c r="N14" s="508">
-        <f>M14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="470"/>
-      <c r="Q14" s="26"/>
+        <f>(SUM(IND_Bal!$G$43:$G$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="508">
+        <f>N14</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="470"/>
       <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="40"/>
       <c r="C15" s="62"/>
       <c r="D15" s="26"/>
@@ -52411,11 +52452,12 @@
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="470"/>
-      <c r="Q15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="470"/>
       <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="26" t="str">
         <f>CONCATENATE(E17,"_INF")</f>
         <v>INDLPG_INF</v>
@@ -52434,23 +52476,24 @@
       <c r="G16" s="63"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="508"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="508"/>
       <c r="L16" s="26"/>
-      <c r="M16" s="508">
-        <f>(SUM(IND_Bal!$H$43:$H$43)*IND_Fuel!$M$2)</f>
+      <c r="M16" s="26"/>
+      <c r="N16" s="508">
+        <f>(SUM(IND_Bal!$H$43:$H$43)*IND_Fuel!$N$2)</f>
         <v>6.3520490693958278</v>
       </c>
-      <c r="N16" s="508">
-        <f>M16</f>
+      <c r="O16" s="508">
+        <f>N16</f>
         <v>6.3520490693958278</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="470"/>
-      <c r="Q16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="470"/>
       <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" s="40"/>
       <c r="C17" s="62"/>
       <c r="D17" s="26"/>
@@ -52468,11 +52511,12 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="470"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="470"/>
       <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" s="26" t="str">
         <f>CONCATENATE(E21,"_INF")</f>
         <v>INDLFO_INF</v>
@@ -52496,24 +52540,27 @@
         <f>G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="508"/>
-      <c r="K18" s="26"/>
+      <c r="I18" s="508">
+        <v>5</v>
+      </c>
+      <c r="J18" s="63"/>
+      <c r="K18" s="508"/>
       <c r="L18" s="26"/>
-      <c r="M18" s="508">
-        <f>(SUM(IND_Bal!$I$43:$I$43)*IND_Fuel!$M$2)</f>
+      <c r="M18" s="26"/>
+      <c r="N18" s="508">
+        <f>(SUM(IND_Bal!$I$43:$I$43)*IND_Fuel!$N$2)</f>
         <v>10.961639320735145</v>
       </c>
-      <c r="N18" s="508">
-        <f>M18</f>
+      <c r="O18" s="508">
+        <f>N18</f>
         <v>10.961639320735145</v>
       </c>
-      <c r="O18" s="63"/>
-      <c r="P18" s="470"/>
-      <c r="Q18" s="26"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="470"/>
       <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26" t="str">
@@ -52530,18 +52577,21 @@
         <f>G19</f>
         <v>0.43388040042514575</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="508">
+        <v>5</v>
+      </c>
+      <c r="J19" s="63"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="470"/>
-      <c r="Q19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="470"/>
       <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26" t="str">
@@ -52555,18 +52605,19 @@
         <v>0.56611959957485425</v>
       </c>
       <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="508"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="470"/>
-      <c r="Q20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="470"/>
       <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="40"/>
       <c r="C21" s="62"/>
       <c r="D21" s="26"/>
@@ -52577,18 +52628,19 @@
       <c r="F21" s="509"/>
       <c r="G21" s="63"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="I21" s="508"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="470"/>
-      <c r="Q21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="470"/>
       <c r="R21" s="26"/>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="26" t="str">
         <f>CONCATENATE(E23,"_INF")</f>
         <v>INDNAP_INF</v>
@@ -52606,24 +52658,25 @@
       </c>
       <c r="G22" s="63"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="508"/>
-      <c r="K22" s="26"/>
+      <c r="I22" s="508"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="508"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="508">
-        <f>(SUM(IND_Bal!$J$43:$J$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M22" s="26"/>
       <c r="N22" s="508">
-        <f>M22</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="470"/>
-      <c r="Q22" s="26"/>
+        <f>(SUM(IND_Bal!$J$43:$J$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="508">
+        <f>N22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="470"/>
       <c r="R22" s="26"/>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="40"/>
       <c r="C23" s="62"/>
       <c r="D23" s="26"/>
@@ -52634,18 +52687,19 @@
       <c r="F23" s="509"/>
       <c r="G23" s="63"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="508"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="470"/>
-      <c r="Q23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="470"/>
       <c r="R23" s="26"/>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="26" t="str">
         <f>CONCATENATE(E26,"_INF")</f>
         <v>INDHFO_INF</v>
@@ -52663,24 +52717,25 @@
       </c>
       <c r="G24" s="63"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="508"/>
-      <c r="K24" s="26"/>
+      <c r="I24" s="508"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="508"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="63">
-        <f>(SUM(IND_Bal!$K$43:$K$43)*IND_Fuel!$M$2)</f>
+      <c r="M24" s="26"/>
+      <c r="N24" s="63">
+        <f>(SUM(IND_Bal!$K$43:$K$43)*IND_Fuel!$N$2)</f>
         <v>8.5576269632781976</v>
       </c>
-      <c r="N24" s="63">
-        <f>M24</f>
+      <c r="O24" s="63">
+        <f>N24</f>
         <v>8.5576269632781976</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="470"/>
-      <c r="Q24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="470"/>
       <c r="R24" s="26"/>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="str">
@@ -52694,18 +52749,19 @@
         <v>0.82844365363491335</v>
       </c>
       <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="I25" s="508"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="470"/>
-      <c r="Q25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="470"/>
       <c r="R25" s="26"/>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="40"/>
       <c r="C26" s="62"/>
       <c r="D26" s="26"/>
@@ -52716,18 +52772,19 @@
       <c r="F26" s="509"/>
       <c r="G26" s="63"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="I26" s="508"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="470"/>
-      <c r="Q26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="470"/>
       <c r="R26" s="26"/>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" s="26" t="str">
         <f>CONCATENATE(E28,"_INF")</f>
         <v>INDNEU_INF</v>
@@ -52745,24 +52802,25 @@
       </c>
       <c r="G27" s="63"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="508"/>
-      <c r="K27" s="26"/>
+      <c r="I27" s="508"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="508"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="508">
-        <f>(SUM(IND_Bal!$L$43:$L$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M27" s="26"/>
       <c r="N27" s="508">
-        <f>M27</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="470"/>
-      <c r="Q27" s="26"/>
+        <f>(SUM(IND_Bal!$L$43:$L$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="508">
+        <f>N27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="470"/>
       <c r="R27" s="26"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" s="40"/>
       <c r="C28" s="62"/>
       <c r="D28" s="26"/>
@@ -52773,18 +52831,19 @@
       <c r="F28" s="509"/>
       <c r="G28" s="63"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="I28" s="508"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="470"/>
-      <c r="Q28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="470"/>
       <c r="R28" s="26"/>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="26" t="str">
         <f>CONCATENATE(E30,"_INF")</f>
         <v>INDGAS_INF</v>
@@ -52804,24 +52863,27 @@
       <c r="H29" s="63">
         <v>1</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="508"/>
-      <c r="K29" s="26"/>
+      <c r="I29" s="508">
+        <v>5</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="508"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="508">
-        <f>(SUM(IND_Bal!$M$43:$M$43)*IND_Fuel!$M$2)</f>
+      <c r="M29" s="26"/>
+      <c r="N29" s="508">
+        <f>(SUM(IND_Bal!$M$43:$M$43)*IND_Fuel!$N$2)</f>
         <v>25.962988952892971</v>
       </c>
-      <c r="N29" s="508">
-        <f>M29</f>
+      <c r="O29" s="508">
+        <f>N29</f>
         <v>25.962988952892971</v>
       </c>
-      <c r="O29" s="63"/>
-      <c r="P29" s="470"/>
-      <c r="Q29" s="26"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="470"/>
       <c r="R29" s="26"/>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="40"/>
       <c r="C30" s="62"/>
       <c r="D30" s="26"/>
@@ -52832,18 +52894,19 @@
       <c r="F30" s="509"/>
       <c r="G30" s="63"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="I30" s="508"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="470"/>
-      <c r="Q30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="470"/>
       <c r="R30" s="26"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31" s="26" t="s">
         <v>744</v>
       </c>
@@ -52860,24 +52923,25 @@
       </c>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="508"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="508"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="508"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="508">
-        <f>(SUM(IND_Bal!$N$43:$N$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M31" s="26"/>
       <c r="N31" s="508">
-        <f>M31</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="63"/>
-      <c r="P31" s="470"/>
-      <c r="Q31" s="26"/>
+        <f>(SUM(IND_Bal!$N$43:$N$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="508">
+        <f>N31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="470"/>
       <c r="R31" s="26"/>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="2:19">
       <c r="B32" s="511" t="s">
         <v>333</v>
       </c>
@@ -52890,18 +52954,19 @@
       <c r="F32" s="509"/>
       <c r="G32" s="63"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="508"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="470"/>
-      <c r="Q32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="470"/>
       <c r="R32" s="26"/>
-    </row>
-    <row r="33" spans="2:18">
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33" s="26" t="s">
         <v>746</v>
       </c>
@@ -52918,24 +52983,25 @@
       </c>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="508"/>
-      <c r="K33" s="26"/>
+      <c r="I33" s="508"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="508"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="508">
-        <f>(SUM(IND_Bal!$R$24)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M33" s="26"/>
       <c r="N33" s="508">
-        <f>M33</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="63"/>
-      <c r="P33" s="470"/>
-      <c r="Q33" s="26"/>
+        <f>(SUM(IND_Bal!$R$24)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="508">
+        <f>N33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="470"/>
       <c r="R33" s="26"/>
-    </row>
-    <row r="34" spans="2:18">
+      <c r="S33" s="26"/>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34" s="40" t="s">
         <v>333</v>
       </c>
@@ -52948,18 +53014,19 @@
       <c r="F34" s="509"/>
       <c r="G34" s="63"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="508"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
-      <c r="P34" s="470"/>
-      <c r="Q34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="470"/>
       <c r="R34" s="26"/>
-    </row>
-    <row r="35" spans="2:18">
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35" s="26" t="str">
         <f>CONCATENATE(E36,"_INF")</f>
         <v>INDSOL_INF</v>
@@ -52977,24 +53044,25 @@
       </c>
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="508"/>
-      <c r="K35" s="26"/>
+      <c r="I35" s="508"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="508"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="508">
-        <f>(SUM(IND_Bal!$P$43:$P$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M35" s="26"/>
       <c r="N35" s="508">
-        <f>M35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="63"/>
-      <c r="P35" s="470"/>
-      <c r="Q35" s="26"/>
+        <f>(SUM(IND_Bal!$P$43:$P$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="508">
+        <f>N35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="470"/>
       <c r="R35" s="26"/>
-    </row>
-    <row r="36" spans="2:18">
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36" s="40"/>
       <c r="C36" s="62"/>
       <c r="D36" s="26"/>
@@ -53005,18 +53073,19 @@
       <c r="F36" s="509"/>
       <c r="G36" s="63"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="508"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="470"/>
-      <c r="Q36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="470"/>
       <c r="R36" s="26"/>
-    </row>
-    <row r="37" spans="2:18">
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="26" t="str">
         <f>CONCATENATE(E38,"_INF")</f>
         <v>INDGEO_INF</v>
@@ -53034,24 +53103,25 @@
       </c>
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="508"/>
-      <c r="K37" s="26"/>
+      <c r="I37" s="508"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="508"/>
       <c r="L37" s="26"/>
-      <c r="M37" s="508">
-        <f>(SUM(IND_Bal!$Q$43:$Q$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M37" s="26"/>
       <c r="N37" s="508">
-        <f>M37</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="63"/>
-      <c r="P37" s="470"/>
-      <c r="Q37" s="26"/>
+        <f>(SUM(IND_Bal!$Q$43:$Q$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="508">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="470"/>
       <c r="R37" s="26"/>
-    </row>
-    <row r="38" spans="2:18">
+      <c r="S37" s="26"/>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38" s="40"/>
       <c r="C38" s="62"/>
       <c r="D38" s="26"/>
@@ -53062,18 +53132,19 @@
       <c r="F38" s="509"/>
       <c r="G38" s="63"/>
       <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
+      <c r="I38" s="508"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
-      <c r="P38" s="470"/>
-      <c r="Q38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="470"/>
       <c r="R38" s="26"/>
-    </row>
-    <row r="39" spans="2:18">
+      <c r="S38" s="26"/>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39" s="26" t="str">
         <f>CONCATENATE(E41,"_INF")</f>
         <v>INDBIO_INF</v>
@@ -53093,24 +53164,27 @@
       <c r="H39" s="63">
         <v>1</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="508"/>
-      <c r="K39" s="26"/>
+      <c r="I39" s="508">
+        <v>5</v>
+      </c>
+      <c r="J39" s="63"/>
+      <c r="K39" s="508"/>
       <c r="L39" s="26"/>
-      <c r="M39" s="508">
-        <f>(SUM(IND_Bal!$R$43:$R$43)*IND_Fuel!$M$2)</f>
+      <c r="M39" s="26"/>
+      <c r="N39" s="508">
+        <f>(SUM(IND_Bal!$R$43:$R$43)*IND_Fuel!$N$2)</f>
         <v>9.9655928669829201</v>
       </c>
-      <c r="N39" s="508">
-        <f>M39</f>
+      <c r="O39" s="508">
+        <f>N39</f>
         <v>9.9655928669829201</v>
       </c>
-      <c r="O39" s="63"/>
-      <c r="P39" s="470"/>
-      <c r="Q39" s="26"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="470"/>
       <c r="R39" s="26"/>
-    </row>
-    <row r="40" spans="2:18">
+      <c r="S39" s="26"/>
+    </row>
+    <row r="40" spans="2:19">
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26" t="str">
@@ -53127,18 +53201,21 @@
         <f>G40</f>
         <v>1.127031652065218E-2</v>
       </c>
-      <c r="I40" s="63"/>
-      <c r="J40" s="508"/>
-      <c r="K40" s="26"/>
+      <c r="I40" s="508">
+        <v>5</v>
+      </c>
+      <c r="J40" s="63"/>
+      <c r="K40" s="508"/>
       <c r="L40" s="26"/>
-      <c r="M40" s="508"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="508"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="470"/>
-      <c r="Q40" s="26"/>
+      <c r="O40" s="508"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="470"/>
       <c r="R40" s="26"/>
-    </row>
-    <row r="41" spans="2:18">
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41" s="40"/>
       <c r="C41" s="62"/>
       <c r="D41" s="26"/>
@@ -53156,11 +53233,12 @@
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="470"/>
-      <c r="Q41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="470"/>
       <c r="R41" s="26"/>
-    </row>
-    <row r="42" spans="2:18">
+      <c r="S41" s="26"/>
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42" s="26" t="str">
         <f>CONCATENATE(E43,"_INF")</f>
         <v>INDWASS_INF</v>
@@ -53178,23 +53256,24 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
-      <c r="J42" s="508"/>
-      <c r="K42" s="26"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="508"/>
       <c r="L42" s="26"/>
-      <c r="M42" s="508">
-        <f>(SUM(IND_Bal!$S$43:$S$43)*IND_Fuel!$M$2)</f>
-        <v>0</v>
-      </c>
+      <c r="M42" s="26"/>
       <c r="N42" s="508">
-        <f>M42</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="63"/>
-      <c r="P42" s="470"/>
-      <c r="Q42" s="26"/>
+        <f>(SUM(IND_Bal!$S$43:$S$43)*IND_Fuel!$N$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="508">
+        <f>N42</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="470"/>
       <c r="R42" s="26"/>
-    </row>
-    <row r="43" spans="2:18">
+      <c r="S42" s="26"/>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43" s="40"/>
       <c r="C43" s="62"/>
       <c r="D43" s="26"/>
@@ -53212,11 +53291,12 @@
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="470"/>
-      <c r="Q43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="470"/>
       <c r="R43" s="26"/>
-    </row>
-    <row r="44" spans="2:18">
+      <c r="S43" s="26"/>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44" s="26" t="str">
         <f>CONCATENATE(E45,"_INF")</f>
         <v>INDWASL_INF</v>
@@ -53234,23 +53314,24 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
-      <c r="J44" s="508"/>
-      <c r="K44" s="26"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="508"/>
       <c r="L44" s="26"/>
-      <c r="M44" s="508">
-        <f>(SUM(IND_Bal!$T$43:$T$43)*IND_Fuel!$M$2)</f>
+      <c r="M44" s="26"/>
+      <c r="N44" s="508">
+        <f>(SUM(IND_Bal!$T$43:$T$43)*IND_Fuel!$N$2)</f>
         <v>2.7493680424572662</v>
       </c>
-      <c r="N44" s="508">
-        <f>M44</f>
+      <c r="O44" s="508">
+        <f>N44</f>
         <v>2.7493680424572662</v>
       </c>
-      <c r="O44" s="63"/>
-      <c r="P44" s="470"/>
-      <c r="Q44" s="26"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="470"/>
       <c r="R44" s="26"/>
-    </row>
-    <row r="45" spans="2:18">
+      <c r="S44" s="26"/>
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45" s="40"/>
       <c r="C45" s="62"/>
       <c r="D45" s="26"/>
@@ -53268,11 +53349,12 @@
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="470"/>
-      <c r="Q45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="470"/>
       <c r="R45" s="26"/>
-    </row>
-    <row r="46" spans="2:18">
+      <c r="S45" s="26"/>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46" s="26" t="s">
         <v>754</v>
       </c>
@@ -53289,17 +53371,18 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
-      <c r="J46" s="508"/>
-      <c r="K46" s="26"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="508"/>
       <c r="L46" s="26"/>
-      <c r="M46" s="508"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="508"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="470"/>
-      <c r="Q46" s="26"/>
+      <c r="O46" s="508"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="470"/>
       <c r="R46" s="26"/>
-    </row>
-    <row r="47" spans="2:18">
+      <c r="S46" s="26"/>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47" s="40" t="s">
         <v>333</v>
       </c>
@@ -53319,11 +53402,12 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="470"/>
-      <c r="Q47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="470"/>
       <c r="R47" s="26"/>
-    </row>
-    <row r="48" spans="2:18">
+      <c r="S47" s="26"/>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48" s="26" t="s">
         <v>757</v>
       </c>
@@ -53340,17 +53424,18 @@
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
-      <c r="J48" s="508"/>
-      <c r="K48" s="26"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="508"/>
       <c r="L48" s="26"/>
-      <c r="M48" s="508"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="508"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="470"/>
-      <c r="Q48" s="26"/>
+      <c r="O48" s="508"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="470"/>
       <c r="R48" s="26"/>
-    </row>
-    <row r="49" spans="2:18">
+      <c r="S48" s="26"/>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49" s="40" t="s">
         <v>333</v>
       </c>
@@ -53370,11 +53455,12 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="470"/>
-      <c r="Q49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="470"/>
       <c r="R49" s="26"/>
-    </row>
-    <row r="50" spans="2:18" ht="34.15" customHeight="1">
+      <c r="S49" s="26"/>
+    </row>
+    <row r="50" spans="2:19" ht="34.15" customHeight="1">
       <c r="B50" s="26"/>
       <c r="C50" s="62"/>
       <c r="D50" s="62"/>
@@ -53393,7 +53479,7 @@
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
     </row>
-    <row r="51" spans="2:18" ht="34.15" customHeight="1">
+    <row r="51" spans="2:19" ht="34.15" customHeight="1">
       <c r="B51" s="26"/>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -53412,7 +53498,7 @@
       <c r="Q51" s="470"/>
       <c r="R51" s="470"/>
     </row>
-    <row r="52" spans="2:18" ht="34.15" customHeight="1">
+    <row r="52" spans="2:19" ht="34.15" customHeight="1">
       <c r="B52" s="26"/>
       <c r="C52" s="62"/>
       <c r="D52" s="62"/>
@@ -53431,7 +53517,7 @@
       <c r="Q52" s="470"/>
       <c r="R52" s="470"/>
     </row>
-    <row r="53" spans="2:18" ht="34.15" customHeight="1">
+    <row r="53" spans="2:19" ht="34.15" customHeight="1">
       <c r="B53" s="43" t="s">
         <v>760</v>
       </c>
@@ -53454,7 +53540,7 @@
       <c r="Q53" s="470"/>
       <c r="R53" s="470"/>
     </row>
-    <row r="54" spans="2:18" ht="34.15" customHeight="1">
+    <row r="54" spans="2:19" ht="34.15" customHeight="1">
       <c r="B54" s="44" t="s">
         <v>318</v>
       </c>
@@ -53495,7 +53581,7 @@
       <c r="Q54" s="470"/>
       <c r="R54" s="470"/>
     </row>
-    <row r="55" spans="2:18" ht="34.15" customHeight="1" thickBot="1">
+    <row r="55" spans="2:19" ht="34.15" customHeight="1" thickBot="1">
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -53522,7 +53608,7 @@
       <c r="Q55" s="470"/>
       <c r="R55" s="470"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:19">
       <c r="B56" s="49" t="str">
         <f>CONCATENATE(E57,"01")</f>
         <v>INDCOA01</v>
@@ -53553,7 +53639,7 @@
       <c r="Q56" s="470"/>
       <c r="R56" s="470"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:19">
       <c r="B57" s="53"/>
       <c r="C57" s="54"/>
       <c r="D57" s="55"/>
@@ -53575,7 +53661,7 @@
       <c r="Q57" s="470"/>
       <c r="R57" s="470"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:19">
       <c r="B58" s="49" t="str">
         <f>CONCATENATE(E59,"01")</f>
         <v>INDPEA01</v>
@@ -53606,7 +53692,7 @@
       <c r="Q58" s="470"/>
       <c r="R58" s="470"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:19">
       <c r="B59" s="53"/>
       <c r="C59" s="54"/>
       <c r="D59" s="55"/>
@@ -53628,7 +53714,7 @@
       <c r="Q59" s="470"/>
       <c r="R59" s="470"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:19">
       <c r="B60" s="49" t="str">
         <f>CONCATENATE(E61,"01")</f>
         <v>INDCOH01</v>
@@ -53659,7 +53745,7 @@
       <c r="Q60" s="470"/>
       <c r="R60" s="470"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:19">
       <c r="B61" s="53"/>
       <c r="C61" s="54"/>
       <c r="D61" s="55"/>
@@ -53681,7 +53767,7 @@
       <c r="Q61" s="470"/>
       <c r="R61" s="470"/>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:19">
       <c r="B62" s="49" t="str">
         <f>CONCATENATE(E63,"01")</f>
         <v>INDCOK01</v>
@@ -53712,7 +53798,7 @@
       <c r="Q62" s="470"/>
       <c r="R62" s="470"/>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:19">
       <c r="B63" s="53"/>
       <c r="C63" s="54"/>
       <c r="D63" s="55"/>
@@ -53734,7 +53820,7 @@
       <c r="Q63" s="470"/>
       <c r="R63" s="470"/>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:19">
       <c r="B64" s="49" t="str">
         <f>CONCATENATE(E65,"01")</f>
         <v>INDRFG01</v>
@@ -54563,7 +54649,7 @@
       <c r="O96" s="26"/>
       <c r="P96" s="26"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:17">
       <c r="B97" s="49" t="str">
         <f>CONCATENATE(E98,"01")</f>
         <v>INDHYD01</v>
@@ -54592,7 +54678,7 @@
       <c r="O97" s="26"/>
       <c r="P97" s="26"/>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:17">
       <c r="B98" s="53"/>
       <c r="C98" s="54"/>
       <c r="D98" s="55"/>
@@ -54612,7 +54698,7 @@
       <c r="O98" s="26"/>
       <c r="P98" s="26"/>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:17">
       <c r="B99" s="49" t="str">
         <f>CONCATENATE(E100,"01")</f>
         <v>INDWIN01</v>
@@ -54641,7 +54727,7 @@
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
     </row>
-    <row r="100" spans="2:16">
+    <row r="100" spans="2:17">
       <c r="B100" s="53"/>
       <c r="C100" s="54"/>
       <c r="D100" s="55"/>
@@ -54661,7 +54747,7 @@
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:17">
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -54678,7 +54764,7 @@
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:17">
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -54695,7 +54781,7 @@
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
     </row>
-    <row r="103" spans="2:16" ht="18">
+    <row r="103" spans="2:17" ht="18.75">
       <c r="B103" s="43" t="s">
         <v>788</v>
       </c>
@@ -54716,7 +54802,7 @@
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:17">
       <c r="B104" s="44" t="s">
         <v>318</v>
       </c>
@@ -54757,7 +54843,7 @@
       <c r="O104" s="26"/>
       <c r="P104" s="26"/>
     </row>
-    <row r="105" spans="2:16" ht="13.5" thickBot="1">
+    <row r="105" spans="2:17" ht="13.5" thickBot="1">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -54784,7 +54870,7 @@
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:17">
       <c r="B106" s="49" t="str">
         <f>CONCATENATE(E108,"_INF")</f>
         <v>INDELC_INF</v>
@@ -54821,7 +54907,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:17">
       <c r="B107" s="49"/>
       <c r="C107" s="72"/>
       <c r="D107" s="70" t="s">
@@ -54845,7 +54931,7 @@
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:17">
       <c r="B108" s="53"/>
       <c r="C108" s="54"/>
       <c r="D108" s="55"/>
@@ -54865,7 +54951,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:17">
       <c r="B109" s="26"/>
       <c r="C109" s="62"/>
       <c r="D109" s="26"/>
@@ -54882,7 +54968,7 @@
       <c r="O109" s="26"/>
       <c r="P109" s="26"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:17">
       <c r="B110" s="26"/>
       <c r="C110" s="62"/>
       <c r="D110" s="26"/>
@@ -54899,7 +54985,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="26"/>
     </row>
-    <row r="111" spans="2:16" ht="18">
+    <row r="111" spans="2:17" ht="18.75">
       <c r="B111" s="43" t="s">
         <v>798</v>
       </c>
@@ -54920,7 +55006,7 @@
       <c r="O111" s="26"/>
       <c r="P111" s="26"/>
     </row>
-    <row r="112" spans="2:16" ht="13.5" thickBot="1">
+    <row r="112" spans="2:17" ht="13.5" thickBot="1">
       <c r="B112" s="73" t="s">
         <v>318</v>
       </c>
@@ -54939,33 +55025,36 @@
       <c r="G112" s="74" t="s">
         <v>799</v>
       </c>
-      <c r="H112" s="48" t="s">
+      <c r="H112" s="74" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I112" s="48" t="s">
         <v>800</v>
       </c>
-      <c r="I112" s="48" t="s">
+      <c r="J112" s="48" t="s">
         <v>724</v>
       </c>
-      <c r="J112" s="48" t="s">
+      <c r="K112" s="48" t="s">
         <v>725</v>
       </c>
-      <c r="K112" s="48" t="s">
+      <c r="L112" s="48" t="s">
         <v>801</v>
       </c>
-      <c r="L112" s="48" t="s">
+      <c r="M112" s="48" t="s">
         <v>802</v>
       </c>
-      <c r="M112" s="48" t="s">
+      <c r="N112" s="48" t="s">
         <v>723</v>
       </c>
-      <c r="N112" s="75" t="s">
+      <c r="O112" s="75" t="s">
         <v>791</v>
       </c>
-      <c r="O112" s="75" t="s">
+      <c r="P112" s="75" t="s">
         <v>803</v>
       </c>
-      <c r="P112" s="26"/>
-    </row>
-    <row r="113" spans="2:16">
+      <c r="Q112" s="26"/>
+    </row>
+    <row r="113" spans="2:17">
       <c r="B113" s="76" t="s">
         <v>804</v>
       </c>
@@ -54980,30 +55069,31 @@
         <v>1</v>
       </c>
       <c r="G113" s="49"/>
-      <c r="H113" s="49">
+      <c r="H113" s="49"/>
+      <c r="I113" s="49">
         <v>1</v>
       </c>
-      <c r="I113" s="51"/>
       <c r="J113" s="51"/>
-      <c r="K113" s="77">
-        <f>(SUM(IND_Bal!$V$43:$V$43)*IND_Fuel!$M$2)/O113/N113</f>
+      <c r="K113" s="51"/>
+      <c r="L113" s="77">
+        <f>(SUM(IND_Bal!$V$43:$V$43)*IND_Fuel!$N$2)/P113/O113</f>
         <v>1.0358248170768423</v>
       </c>
-      <c r="L113" s="52">
-        <f>K113</f>
+      <c r="M113" s="52">
+        <f>L113</f>
         <v>1.0358248170768423</v>
       </c>
-      <c r="M113" s="52"/>
-      <c r="N113" s="78">
+      <c r="N113" s="52"/>
+      <c r="O113" s="78">
         <v>31.536000000000001</v>
       </c>
-      <c r="O113" s="79">
+      <c r="P113" s="79">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P113" s="26"/>
-    </row>
-    <row r="114" spans="2:16">
+      <c r="Q113" s="26"/>
+    </row>
+    <row r="114" spans="2:17">
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="58"/>
@@ -55015,17 +55105,20 @@
       <c r="G114" s="60">
         <v>1</v>
       </c>
-      <c r="H114" s="49"/>
+      <c r="H114" s="52">
+        <v>5</v>
+      </c>
       <c r="I114" s="49"/>
       <c r="J114" s="49"/>
-      <c r="K114" s="80"/>
-      <c r="L114" s="58"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="80"/>
       <c r="M114" s="58"/>
-      <c r="N114" s="49"/>
+      <c r="N114" s="58"/>
       <c r="O114" s="49"/>
-      <c r="P114" s="26"/>
-    </row>
-    <row r="115" spans="2:16">
+      <c r="P114" s="49"/>
+      <c r="Q114" s="26"/>
+    </row>
+    <row r="115" spans="2:17">
       <c r="B115" s="81" t="str">
         <f>IF(IND_Bal!V37="","*",IF(IND_Bal!V37=0,"*",""))</f>
         <v>*</v>
@@ -55041,17 +55134,20 @@
         <f>IF(IND_Bal!V37="","",IF(IND_Bal!V37=0,1,IND_Bal!V37/IND_Bal!V43))</f>
         <v>1</v>
       </c>
-      <c r="H115" s="49"/>
+      <c r="H115" s="52">
+        <v>5</v>
+      </c>
       <c r="I115" s="49"/>
       <c r="J115" s="49"/>
-      <c r="K115" s="80"/>
-      <c r="L115" s="58"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="80"/>
       <c r="M115" s="58"/>
-      <c r="N115" s="49"/>
+      <c r="N115" s="58"/>
       <c r="O115" s="49"/>
-      <c r="P115" s="26"/>
-    </row>
-    <row r="116" spans="2:16">
+      <c r="P115" s="49"/>
+      <c r="Q115" s="26"/>
+    </row>
+    <row r="116" spans="2:17">
       <c r="B116" s="81" t="str">
         <f>IF(IND_Bal!V41="","*",IF(IND_Bal!V41=0,"*",""))</f>
         <v>*</v>
@@ -55067,17 +55163,20 @@
         <f>IF(IND_Bal!V41="","",IF(IND_Bal!V41=0,1,IND_Bal!V41/IND_Bal!V43))</f>
         <v>1</v>
       </c>
-      <c r="H116" s="49"/>
+      <c r="H116" s="52">
+        <v>5</v>
+      </c>
       <c r="I116" s="49"/>
       <c r="J116" s="49"/>
-      <c r="K116" s="58"/>
+      <c r="K116" s="49"/>
       <c r="L116" s="58"/>
       <c r="M116" s="58"/>
-      <c r="N116" s="49"/>
+      <c r="N116" s="58"/>
       <c r="O116" s="49"/>
-      <c r="P116" s="26"/>
-    </row>
-    <row r="117" spans="2:16">
+      <c r="P116" s="49"/>
+      <c r="Q116" s="26"/>
+    </row>
+    <row r="117" spans="2:17">
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
@@ -55094,7 +55193,7 @@
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:17">
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -55111,7 +55210,7 @@
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
     </row>
-    <row r="119" spans="2:16" ht="18">
+    <row r="119" spans="2:17" ht="18.75">
       <c r="B119" s="43" t="s">
         <v>807</v>
       </c>
@@ -55132,7 +55231,7 @@
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
     </row>
-    <row r="120" spans="2:16" ht="13.5" thickBot="1">
+    <row r="120" spans="2:17" ht="13.5" thickBot="1">
       <c r="B120" s="73" t="s">
         <v>318</v>
       </c>
@@ -55173,7 +55272,7 @@
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:17">
       <c r="B121" s="76" t="s">
         <v>809</v>
       </c>
@@ -55205,7 +55304,7 @@
       <c r="O121" s="26"/>
       <c r="P121" s="26"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:17">
       <c r="B122" s="49"/>
       <c r="C122" s="49"/>
       <c r="D122" s="49"/>
@@ -55227,7 +55326,7 @@
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:17">
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
       <c r="D123" s="49"/>
@@ -55249,7 +55348,7 @@
       <c r="O123" s="26"/>
       <c r="P123" s="26"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:17">
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
       <c r="D124" s="49"/>
@@ -55289,16 +55388,16 @@
       <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="470"/>
-    <col min="2" max="2" width="14.265625" style="470" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" style="470" customWidth="1"/>
-    <col min="4" max="4" width="39.86328125" style="470" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="470"/>
+    <col min="1" max="1" width="9.140625" style="470"/>
+    <col min="2" max="2" width="14.28515625" style="470" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="470" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="470" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="470"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="26"/>
       <c r="B2" s="463" t="s">
         <v>811</v>
@@ -58047,34 +58146,34 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AA119"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="25" customWidth="1"/>
     <col min="5" max="5" width="8" style="25" customWidth="1"/>
-    <col min="6" max="11" width="9.3984375" style="25" customWidth="1"/>
-    <col min="12" max="13" width="9.3984375" style="391" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" style="25" customWidth="1"/>
-    <col min="15" max="15" width="23.265625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.42578125" style="25" customWidth="1"/>
+    <col min="12" max="13" width="9.42578125" style="391" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="25" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="25" customWidth="1"/>
     <col min="20" max="24" width="9" style="25" customWidth="1"/>
     <col min="25" max="25" width="9" style="149" customWidth="1"/>
     <col min="26" max="28" width="9" style="25" customWidth="1"/>
-    <col min="29" max="16384" width="9.1328125" style="25"/>
+    <col min="29" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5">
+    <row r="1" spans="1:27" ht="26.25">
       <c r="A1" s="389" t="s">
         <v>1029</v>
       </c>
@@ -58102,7 +58201,7 @@
       <c r="Z1" s="470"/>
       <c r="AA1" s="470"/>
     </row>
-    <row r="2" spans="1:27" ht="18">
+    <row r="2" spans="1:27" ht="18.75">
       <c r="A2" s="392" t="s">
         <v>1030</v>
       </c>
@@ -58130,18 +58229,18 @@
       <c r="Z2" s="470"/>
       <c r="AA2" s="470"/>
     </row>
-    <row r="4" spans="1:27" ht="131.25">
+    <row r="4" spans="1:27" ht="153">
       <c r="A4" s="393"/>
       <c r="B4" s="393"/>
-      <c r="C4" s="785" t="s">
+      <c r="C4" s="792" t="s">
         <v>1031</v>
       </c>
-      <c r="D4" s="785"/>
-      <c r="E4" s="785"/>
-      <c r="F4" s="785"/>
-      <c r="G4" s="785"/>
-      <c r="H4" s="785"/>
-      <c r="I4" s="786"/>
+      <c r="D4" s="792"/>
+      <c r="E4" s="792"/>
+      <c r="F4" s="792"/>
+      <c r="G4" s="792"/>
+      <c r="H4" s="792"/>
+      <c r="I4" s="793"/>
       <c r="J4" s="394" t="s">
         <v>1032</v>
       </c>
@@ -58149,23 +58248,23 @@
       <c r="L4" s="396"/>
       <c r="N4" s="393"/>
       <c r="O4" s="393"/>
-      <c r="P4" s="785" t="s">
+      <c r="P4" s="792" t="s">
         <v>1031</v>
       </c>
-      <c r="Q4" s="785"/>
-      <c r="R4" s="785"/>
-      <c r="S4" s="785"/>
-      <c r="T4" s="785"/>
-      <c r="U4" s="785"/>
-      <c r="V4" s="785"/>
-      <c r="W4" s="785"/>
+      <c r="Q4" s="792"/>
+      <c r="R4" s="792"/>
+      <c r="S4" s="792"/>
+      <c r="T4" s="792"/>
+      <c r="U4" s="792"/>
+      <c r="V4" s="792"/>
+      <c r="W4" s="792"/>
       <c r="X4" s="394" t="s">
         <v>1032</v>
       </c>
       <c r="Z4" s="470"/>
       <c r="AA4" s="470"/>
     </row>
-    <row r="5" spans="1:27" ht="26.65" thickBot="1">
+    <row r="5" spans="1:27" ht="26.25" thickBot="1">
       <c r="A5" s="397"/>
       <c r="B5" s="397"/>
       <c r="C5" s="398" t="s">
@@ -58799,7 +58898,7 @@
       <c r="Z16" s="470"/>
       <c r="AA16" s="470"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="470"/>
       <c r="B17" s="470"/>
       <c r="C17" s="470"/>
@@ -58827,7 +58926,7 @@
       <c r="Z17" s="470"/>
       <c r="AA17" s="470"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="470"/>
       <c r="B18" s="470"/>
       <c r="C18" s="470"/>
@@ -58858,7 +58957,7 @@
       <c r="Z18" s="470"/>
       <c r="AA18" s="470"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="470"/>
       <c r="B19" s="470"/>
       <c r="C19" s="470"/>
@@ -58886,7 +58985,7 @@
       <c r="Z19" s="470"/>
       <c r="AA19" s="470"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="470"/>
       <c r="B20" s="470"/>
       <c r="C20" s="470"/>
@@ -58914,7 +59013,7 @@
       <c r="Z20" s="470"/>
       <c r="AA20" s="470"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="413"/>
       <c r="B21" s="403"/>
       <c r="C21" s="404"/>
@@ -58942,7 +59041,7 @@
       <c r="Z21" s="470"/>
       <c r="AA21" s="470"/>
     </row>
-    <row r="22" spans="1:27" ht="18">
+    <row r="22" spans="1:28" ht="18.75">
       <c r="A22" s="413"/>
       <c r="B22" s="471" t="s">
         <v>1045</v>
@@ -58959,24 +59058,26 @@
       <c r="J22" s="242"/>
       <c r="K22" s="242"/>
       <c r="L22" s="242"/>
-      <c r="M22" s="473"/>
-      <c r="N22" s="242"/>
-      <c r="O22" s="470"/>
-      <c r="P22" s="246" t="s">
+      <c r="M22" s="242"/>
+      <c r="N22" s="473"/>
+      <c r="O22" s="242"/>
+      <c r="P22" s="470"/>
+      <c r="Q22" s="246" t="s">
         <v>325</v>
       </c>
-      <c r="Q22" s="247"/>
       <c r="R22" s="247"/>
       <c r="S22" s="247"/>
       <c r="T22" s="247"/>
       <c r="U22" s="247"/>
       <c r="V22" s="247"/>
       <c r="W22" s="247"/>
-      <c r="X22" s="470"/>
-      <c r="Z22" s="470"/>
+      <c r="X22" s="247"/>
+      <c r="Y22" s="470"/>
+      <c r="Z22" s="149"/>
       <c r="AA22" s="470"/>
-    </row>
-    <row r="23" spans="1:27" ht="14.65" thickBot="1">
+      <c r="AB22" s="470"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" thickBot="1">
       <c r="A23" s="410"/>
       <c r="B23" s="524" t="s">
         <v>318</v>
@@ -58999,54 +59100,58 @@
       <c r="H23" s="526" t="s">
         <v>1048</v>
       </c>
-      <c r="I23" s="526" t="s">
+      <c r="I23" s="785" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J23" s="526" t="s">
         <v>720</v>
       </c>
-      <c r="J23" s="526" t="s">
+      <c r="K23" s="526" t="s">
         <v>803</v>
       </c>
-      <c r="K23" s="526" t="s">
+      <c r="L23" s="526" t="s">
         <v>1049</v>
       </c>
-      <c r="L23" s="526" t="s">
+      <c r="M23" s="526" t="s">
         <v>1050</v>
       </c>
-      <c r="M23" s="526" t="s">
+      <c r="N23" s="526" t="s">
         <v>1051</v>
       </c>
-      <c r="N23" s="526" t="s">
+      <c r="O23" s="526" t="s">
         <v>1052</v>
       </c>
-      <c r="O23" s="470"/>
-      <c r="P23" s="250" t="s">
+      <c r="P23" s="470"/>
+      <c r="Q23" s="250" t="s">
         <v>326</v>
       </c>
-      <c r="Q23" s="251" t="s">
+      <c r="R23" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="R23" s="251" t="s">
+      <c r="S23" s="251" t="s">
         <v>327</v>
       </c>
-      <c r="S23" s="251" t="s">
+      <c r="T23" s="251" t="s">
         <v>328</v>
       </c>
-      <c r="T23" s="251" t="s">
+      <c r="U23" s="251" t="s">
         <v>329</v>
       </c>
-      <c r="U23" s="251" t="s">
+      <c r="V23" s="251" t="s">
         <v>330</v>
       </c>
-      <c r="V23" s="251" t="s">
+      <c r="W23" s="251" t="s">
         <v>331</v>
       </c>
-      <c r="W23" s="252" t="s">
+      <c r="X23" s="252" t="s">
         <v>332</v>
       </c>
-      <c r="X23" s="470"/>
-      <c r="Z23" s="470"/>
+      <c r="Y23" s="470"/>
+      <c r="Z23" s="149"/>
       <c r="AA23" s="470"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.25">
+      <c r="AB23" s="470"/>
+    </row>
+    <row r="24" spans="1:28" ht="15">
       <c r="A24" s="413"/>
       <c r="B24" s="525" t="s">
         <v>333</v>
@@ -59059,48 +59164,50 @@
       </c>
       <c r="G24" s="525"/>
       <c r="H24" s="525"/>
-      <c r="I24" s="525"/>
+      <c r="I24" s="787"/>
       <c r="J24" s="525"/>
       <c r="K24" s="525"/>
-      <c r="L24" s="525" t="s">
+      <c r="L24" s="525"/>
+      <c r="M24" s="525" t="s">
         <v>1053</v>
       </c>
-      <c r="M24" s="525" t="s">
+      <c r="N24" s="525" t="s">
         <v>1054</v>
       </c>
-      <c r="N24" s="525" t="s">
+      <c r="O24" s="525" t="s">
         <v>1055</v>
       </c>
-      <c r="O24" s="470"/>
-      <c r="P24" s="253" t="s">
+      <c r="P24" s="470"/>
+      <c r="Q24" s="253" t="s">
         <v>1056</v>
       </c>
-      <c r="Q24" s="253" t="str">
+      <c r="R24" s="253" t="str">
         <f>B25</f>
         <v>*CHPINDIIS00</v>
       </c>
-      <c r="R24" s="253" t="str">
+      <c r="S24" s="253" t="str">
         <f>C25</f>
         <v>CHP.Autoproducer.Industry.Iron&amp;Steel.00</v>
       </c>
-      <c r="S24" s="253" t="s">
+      <c r="T24" s="253" t="s">
         <v>166</v>
       </c>
-      <c r="T24" s="253" t="s">
+      <c r="U24" s="253" t="s">
         <v>400</v>
       </c>
-      <c r="U24" s="253" t="s">
+      <c r="V24" s="253" t="s">
         <v>491</v>
       </c>
-      <c r="V24" s="254"/>
-      <c r="W24" s="253" t="s">
+      <c r="W24" s="254"/>
+      <c r="X24" s="253" t="s">
         <v>341</v>
       </c>
-      <c r="X24" s="470"/>
-      <c r="Z24" s="470"/>
+      <c r="Y24" s="470"/>
+      <c r="Z24" s="149"/>
       <c r="AA24" s="470"/>
-    </row>
-    <row r="25" spans="1:27" ht="14.25">
+      <c r="AB24" s="470"/>
+    </row>
+    <row r="25" spans="1:28" ht="15">
       <c r="A25" s="413"/>
       <c r="B25" s="474" t="s">
         <v>1057</v>
@@ -59124,53 +59231,57 @@
       <c r="H25" s="479">
         <v>0.1</v>
       </c>
-      <c r="I25" s="480">
+      <c r="I25" s="786">
+        <v>5</v>
+      </c>
+      <c r="J25" s="480">
         <f>Z6</f>
         <v>0.77859399105420668</v>
       </c>
-      <c r="J25" s="500">
-        <f>IFERROR($Y$6/(F25*M25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="481"/>
-      <c r="L25" s="478" t="str">
+      <c r="K25" s="500">
+        <f>IFERROR($Y$6/(F25*N25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="481"/>
+      <c r="M25" s="478" t="str">
         <f>IFERROR(X6/Y6,"")</f>
         <v/>
       </c>
-      <c r="M25" s="482">
+      <c r="N25" s="482">
         <v>31.536000000000001</v>
       </c>
-      <c r="N25" s="483">
+      <c r="O25" s="483">
         <v>20</v>
       </c>
-      <c r="O25" s="470"/>
-      <c r="P25" s="253" t="s">
+      <c r="P25" s="470"/>
+      <c r="Q25" s="253" t="s">
         <v>1059</v>
       </c>
-      <c r="Q25" s="254" t="str">
+      <c r="R25" s="254" t="str">
         <f>B27</f>
         <v>CHPINDICH00</v>
       </c>
-      <c r="R25" s="254" t="str">
+      <c r="S25" s="254" t="str">
         <f>C27</f>
         <v>CHP.Autoproducer.Industry.Chemical.00</v>
       </c>
-      <c r="S25" s="254" t="s">
+      <c r="T25" s="254" t="s">
         <v>166</v>
       </c>
-      <c r="T25" s="254" t="s">
+      <c r="U25" s="254" t="s">
         <v>400</v>
       </c>
-      <c r="U25" s="254" t="s">
+      <c r="V25" s="254" t="s">
         <v>491</v>
       </c>
-      <c r="V25" s="254"/>
       <c r="W25" s="254"/>
-      <c r="X25" s="470"/>
-      <c r="Z25" s="470"/>
+      <c r="X25" s="254"/>
+      <c r="Y25" s="470"/>
+      <c r="Z25" s="149"/>
       <c r="AA25" s="470"/>
-    </row>
-    <row r="26" spans="1:27" ht="14.25">
+      <c r="AB25" s="470"/>
+    </row>
+    <row r="26" spans="1:28" ht="15">
       <c r="A26" s="413"/>
       <c r="B26" s="484" t="s">
         <v>333</v>
@@ -59189,40 +59300,44 @@
       <c r="H26" s="489">
         <v>1</v>
       </c>
-      <c r="I26" s="484"/>
-      <c r="J26" s="501"/>
-      <c r="K26" s="484"/>
+      <c r="I26" s="788">
+        <v>5</v>
+      </c>
+      <c r="J26" s="484"/>
+      <c r="K26" s="501"/>
       <c r="L26" s="484"/>
       <c r="M26" s="484"/>
       <c r="N26" s="484"/>
-      <c r="O26" s="470"/>
-      <c r="P26" s="253" t="s">
+      <c r="O26" s="484"/>
+      <c r="P26" s="470"/>
+      <c r="Q26" s="253" t="s">
         <v>1059</v>
       </c>
-      <c r="Q26" s="254" t="str">
+      <c r="R26" s="254" t="str">
         <f>B30</f>
         <v>CHPINDIPP00</v>
       </c>
-      <c r="R26" s="254" t="str">
+      <c r="S26" s="254" t="str">
         <f>C30</f>
         <v>CHP.Autoproducer.Industry.Pulp&amp;Paper.00</v>
       </c>
-      <c r="S26" s="254" t="s">
+      <c r="T26" s="254" t="s">
         <v>166</v>
       </c>
-      <c r="T26" s="254" t="s">
+      <c r="U26" s="254" t="s">
         <v>400</v>
       </c>
-      <c r="U26" s="254" t="s">
+      <c r="V26" s="254" t="s">
         <v>491</v>
       </c>
-      <c r="V26" s="254"/>
       <c r="W26" s="254"/>
-      <c r="X26" s="470"/>
-      <c r="Z26" s="470"/>
+      <c r="X26" s="254"/>
+      <c r="Y26" s="470"/>
+      <c r="Z26" s="149"/>
       <c r="AA26" s="470"/>
-    </row>
-    <row r="27" spans="1:27" ht="14.25">
+      <c r="AB26" s="470"/>
+    </row>
+    <row r="27" spans="1:28" ht="15">
       <c r="A27" s="410"/>
       <c r="B27" s="474" t="s">
         <v>1060</v>
@@ -59249,53 +59364,57 @@
       <c r="H27" s="486">
         <v>0.1</v>
       </c>
-      <c r="I27" s="480">
+      <c r="I27" s="786">
+        <v>5</v>
+      </c>
+      <c r="J27" s="480">
         <f>Z7</f>
         <v>0.77859399105420668</v>
       </c>
-      <c r="J27" s="500">
-        <f>IFERROR($Y$7/(F27*M27),0)</f>
+      <c r="K27" s="500">
+        <f>IFERROR($Y$7/(F27*N27),0)</f>
         <v>0.2854370561383241</v>
       </c>
-      <c r="K27" s="481"/>
-      <c r="L27" s="478">
+      <c r="L27" s="481"/>
+      <c r="M27" s="478">
         <f>IFERROR(X7/Y7,"")</f>
         <v>2</v>
       </c>
-      <c r="M27" s="482">
+      <c r="N27" s="482">
         <v>31.536000000000001</v>
       </c>
-      <c r="N27" s="483">
+      <c r="O27" s="483">
         <v>20</v>
       </c>
-      <c r="O27" s="470"/>
-      <c r="P27" s="253" t="s">
+      <c r="P27" s="470"/>
+      <c r="Q27" s="253" t="s">
         <v>1059</v>
       </c>
-      <c r="Q27" s="254" t="str">
+      <c r="R27" s="254" t="str">
         <f>B34</f>
         <v>CHPINDIOI00</v>
       </c>
-      <c r="R27" s="254" t="str">
+      <c r="S27" s="254" t="str">
         <f>C34</f>
         <v>CHP.Autoproducer.Industry.Others.00</v>
       </c>
-      <c r="S27" s="254" t="s">
+      <c r="T27" s="254" t="s">
         <v>166</v>
       </c>
-      <c r="T27" s="254" t="s">
+      <c r="U27" s="254" t="s">
         <v>400</v>
       </c>
-      <c r="U27" s="254" t="s">
+      <c r="V27" s="254" t="s">
         <v>491</v>
       </c>
-      <c r="V27" s="254"/>
       <c r="W27" s="254"/>
-      <c r="X27" s="470"/>
-      <c r="Z27" s="470"/>
+      <c r="X27" s="254"/>
+      <c r="Y27" s="470"/>
+      <c r="Z27" s="149"/>
       <c r="AA27" s="470"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.25">
+      <c r="AB27" s="470"/>
+    </row>
+    <row r="28" spans="1:28" ht="15">
       <c r="A28" s="413"/>
       <c r="B28" s="484"/>
       <c r="C28" s="499"/>
@@ -59315,14 +59434,16 @@
       <c r="H28" s="486">
         <v>1</v>
       </c>
-      <c r="I28" s="484"/>
-      <c r="J28" s="501"/>
-      <c r="K28" s="484"/>
+      <c r="I28" s="788">
+        <v>5</v>
+      </c>
+      <c r="J28" s="484"/>
+      <c r="K28" s="501"/>
       <c r="L28" s="484"/>
       <c r="M28" s="484"/>
       <c r="N28" s="484"/>
-      <c r="O28" s="470"/>
-      <c r="P28" s="254"/>
+      <c r="O28" s="484"/>
+      <c r="P28" s="470"/>
       <c r="Q28" s="254"/>
       <c r="R28" s="254"/>
       <c r="S28" s="254"/>
@@ -59330,11 +59451,13 @@
       <c r="U28" s="254"/>
       <c r="V28" s="254"/>
       <c r="W28" s="254"/>
-      <c r="X28" s="470"/>
-      <c r="Z28" s="470"/>
+      <c r="X28" s="254"/>
+      <c r="Y28" s="470"/>
+      <c r="Z28" s="149"/>
       <c r="AA28" s="470"/>
-    </row>
-    <row r="29" spans="1:27" ht="14.25">
+      <c r="AB28" s="470"/>
+    </row>
+    <row r="29" spans="1:28" ht="15">
       <c r="A29" s="413"/>
       <c r="B29" s="484"/>
       <c r="C29" s="487"/>
@@ -59351,18 +59474,20 @@
       <c r="H29" s="489">
         <v>0.1</v>
       </c>
-      <c r="I29" s="484"/>
-      <c r="J29" s="501"/>
-      <c r="K29" s="484"/>
+      <c r="I29" s="788">
+        <v>5</v>
+      </c>
+      <c r="J29" s="484"/>
+      <c r="K29" s="501"/>
       <c r="L29" s="484"/>
       <c r="M29" s="484"/>
       <c r="N29" s="484"/>
-      <c r="O29" s="470"/>
+      <c r="O29" s="484"/>
       <c r="P29" s="470"/>
       <c r="Q29" s="470"/>
       <c r="R29" s="470"/>
       <c r="S29" s="470"/>
-      <c r="T29" s="254"/>
+      <c r="T29" s="470"/>
       <c r="U29" s="254"/>
       <c r="V29" s="254"/>
       <c r="W29" s="254"/>
@@ -59370,8 +59495,9 @@
       <c r="Y29" s="254"/>
       <c r="Z29" s="254"/>
       <c r="AA29" s="254"/>
-    </row>
-    <row r="30" spans="1:27" ht="14.25">
+      <c r="AB29" s="254"/>
+    </row>
+    <row r="30" spans="1:28" ht="15">
       <c r="A30" s="413"/>
       <c r="B30" s="474" t="s">
         <v>1062</v>
@@ -59398,26 +59524,28 @@
       <c r="H30" s="479">
         <v>0.1</v>
       </c>
-      <c r="I30" s="480">
+      <c r="I30" s="786">
+        <v>5</v>
+      </c>
+      <c r="J30" s="480">
         <f>Z8</f>
         <v>0.77859399105420668</v>
       </c>
-      <c r="J30" s="500">
-        <f>IFERROR($Y$8/(F30*M30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="481"/>
-      <c r="L30" s="478" t="str">
+      <c r="K30" s="500">
+        <f>IFERROR($Y$8/(F30*N30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="481"/>
+      <c r="M30" s="478" t="str">
         <f>IFERROR(X8/Y8,"")</f>
         <v/>
       </c>
-      <c r="M30" s="482">
+      <c r="N30" s="482">
         <v>31.536000000000001</v>
       </c>
-      <c r="N30" s="483">
+      <c r="O30" s="483">
         <v>20</v>
       </c>
-      <c r="O30" s="470"/>
       <c r="P30" s="470"/>
       <c r="Q30" s="470"/>
       <c r="R30" s="470"/>
@@ -59430,8 +59558,9 @@
       <c r="Y30" s="470"/>
       <c r="Z30" s="470"/>
       <c r="AA30" s="470"/>
-    </row>
-    <row r="31" spans="1:27" ht="14.25">
+      <c r="AB30" s="470"/>
+    </row>
+    <row r="31" spans="1:28" ht="15">
       <c r="A31" s="410"/>
       <c r="B31" s="484"/>
       <c r="C31" s="484"/>
@@ -59451,13 +59580,15 @@
       <c r="H31" s="486">
         <v>1</v>
       </c>
-      <c r="I31" s="484"/>
-      <c r="J31" s="501"/>
-      <c r="K31" s="484"/>
+      <c r="I31" s="788">
+        <v>5</v>
+      </c>
+      <c r="J31" s="484"/>
+      <c r="K31" s="501"/>
       <c r="L31" s="484"/>
       <c r="M31" s="484"/>
       <c r="N31" s="484"/>
-      <c r="O31" s="470"/>
+      <c r="O31" s="484"/>
       <c r="P31" s="470"/>
       <c r="Q31" s="470"/>
       <c r="R31" s="470"/>
@@ -59470,8 +59601,9 @@
       <c r="Y31" s="470"/>
       <c r="Z31" s="470"/>
       <c r="AA31" s="470"/>
-    </row>
-    <row r="32" spans="1:27" ht="14.25">
+      <c r="AB31" s="470"/>
+    </row>
+    <row r="32" spans="1:28" ht="15">
       <c r="A32" s="413"/>
       <c r="B32" s="490"/>
       <c r="C32" s="490"/>
@@ -59488,13 +59620,15 @@
       <c r="H32" s="486">
         <v>0.1</v>
       </c>
-      <c r="I32" s="490"/>
-      <c r="J32" s="502"/>
-      <c r="K32" s="490"/>
+      <c r="I32" s="788">
+        <v>5</v>
+      </c>
+      <c r="J32" s="490"/>
+      <c r="K32" s="502"/>
       <c r="L32" s="490"/>
       <c r="M32" s="490"/>
       <c r="N32" s="490"/>
-      <c r="O32" s="470"/>
+      <c r="O32" s="490"/>
       <c r="P32" s="470"/>
       <c r="Q32" s="470"/>
       <c r="R32" s="470"/>
@@ -59507,8 +59641,9 @@
       <c r="Y32" s="470"/>
       <c r="Z32" s="470"/>
       <c r="AA32" s="470"/>
-    </row>
-    <row r="33" spans="1:27" ht="14.25">
+      <c r="AB32" s="470"/>
+    </row>
+    <row r="33" spans="1:28" ht="15">
       <c r="A33" s="413"/>
       <c r="B33" s="487"/>
       <c r="C33" s="487"/>
@@ -59525,13 +59660,15 @@
       <c r="H33" s="489">
         <v>0.1</v>
       </c>
-      <c r="I33" s="487"/>
-      <c r="J33" s="503"/>
-      <c r="K33" s="487"/>
+      <c r="I33" s="788">
+        <v>5</v>
+      </c>
+      <c r="J33" s="487"/>
+      <c r="K33" s="503"/>
       <c r="L33" s="487"/>
       <c r="M33" s="487"/>
       <c r="N33" s="487"/>
-      <c r="O33" s="470"/>
+      <c r="O33" s="487"/>
       <c r="P33" s="470"/>
       <c r="Q33" s="470"/>
       <c r="R33" s="470"/>
@@ -59544,8 +59681,9 @@
       <c r="Y33" s="470"/>
       <c r="Z33" s="470"/>
       <c r="AA33" s="470"/>
-    </row>
-    <row r="34" spans="1:27" ht="14.25">
+      <c r="AB33" s="470"/>
+    </row>
+    <row r="34" spans="1:28" ht="15">
       <c r="A34" s="413"/>
       <c r="B34" s="474" t="s">
         <v>1064</v>
@@ -59572,26 +59710,28 @@
       <c r="H34" s="479">
         <v>0.1</v>
       </c>
-      <c r="I34" s="480">
+      <c r="I34" s="786">
+        <v>5</v>
+      </c>
+      <c r="J34" s="480">
         <f>Z10</f>
         <v>0.77859399105420668</v>
       </c>
-      <c r="J34" s="500">
-        <f>IFERROR((Y9+Y10)/(F34*M34),0)</f>
+      <c r="K34" s="500">
+        <f>IFERROR((Y9+Y10)/(F34*N34),0)</f>
         <v>0.25626856069668175</v>
       </c>
-      <c r="K34" s="481"/>
-      <c r="L34" s="478">
+      <c r="L34" s="481"/>
+      <c r="M34" s="478">
         <f>IFERROR(SUM(X9:X10)/SUM(Y9:Y10),"")</f>
         <v>2</v>
       </c>
-      <c r="M34" s="482">
+      <c r="N34" s="482">
         <v>31.536000000000001</v>
       </c>
-      <c r="N34" s="483">
+      <c r="O34" s="483">
         <v>20</v>
       </c>
-      <c r="O34" s="470"/>
       <c r="P34" s="470"/>
       <c r="Q34" s="470"/>
       <c r="R34" s="470"/>
@@ -59604,8 +59744,9 @@
       <c r="Y34" s="470"/>
       <c r="Z34" s="470"/>
       <c r="AA34" s="470"/>
-    </row>
-    <row r="35" spans="1:27" s="470" customFormat="1" ht="14.25">
+      <c r="AB34" s="470"/>
+    </row>
+    <row r="35" spans="1:28" s="470" customFormat="1" ht="15">
       <c r="A35" s="413"/>
       <c r="B35" s="484"/>
       <c r="C35" s="484"/>
@@ -59625,14 +59766,17 @@
       <c r="H35" s="486">
         <v>1</v>
       </c>
-      <c r="I35" s="484"/>
+      <c r="I35" s="788">
+        <v>5</v>
+      </c>
       <c r="J35" s="484"/>
       <c r="K35" s="484"/>
       <c r="L35" s="484"/>
       <c r="M35" s="484"/>
       <c r="N35" s="484"/>
-    </row>
-    <row r="36" spans="1:27" ht="14.25">
+      <c r="O35" s="484"/>
+    </row>
+    <row r="36" spans="1:28" ht="15">
       <c r="A36" s="410"/>
       <c r="B36" s="484"/>
       <c r="C36" s="484"/>
@@ -59650,13 +59794,15 @@
         <f>G36</f>
         <v>2.1321332090579261E-2</v>
       </c>
-      <c r="I36" s="484"/>
+      <c r="I36" s="788">
+        <v>5</v>
+      </c>
       <c r="J36" s="484"/>
       <c r="K36" s="484"/>
       <c r="L36" s="484"/>
       <c r="M36" s="484"/>
       <c r="N36" s="484"/>
-      <c r="O36" s="470"/>
+      <c r="O36" s="484"/>
       <c r="P36" s="470"/>
       <c r="Q36" s="470"/>
       <c r="R36" s="470"/>
@@ -59669,8 +59815,9 @@
       <c r="Y36" s="470"/>
       <c r="Z36" s="470"/>
       <c r="AA36" s="470"/>
-    </row>
-    <row r="37" spans="1:27" ht="14.25">
+      <c r="AB36" s="470"/>
+    </row>
+    <row r="37" spans="1:28" ht="15">
       <c r="A37" s="413"/>
       <c r="B37" s="490"/>
       <c r="C37" s="490"/>
@@ -59687,13 +59834,15 @@
       <c r="H37" s="486">
         <v>1</v>
       </c>
-      <c r="I37" s="490"/>
+      <c r="I37" s="788">
+        <v>5</v>
+      </c>
       <c r="J37" s="490"/>
       <c r="K37" s="490"/>
       <c r="L37" s="490"/>
       <c r="M37" s="490"/>
       <c r="N37" s="490"/>
-      <c r="O37" s="470"/>
+      <c r="O37" s="490"/>
       <c r="P37" s="470"/>
       <c r="Q37" s="470"/>
       <c r="R37" s="470"/>
@@ -59706,8 +59855,9 @@
       <c r="Y37" s="470"/>
       <c r="Z37" s="470"/>
       <c r="AA37" s="470"/>
-    </row>
-    <row r="38" spans="1:27" ht="14.25">
+      <c r="AB37" s="470"/>
+    </row>
+    <row r="38" spans="1:28" ht="15">
       <c r="A38" s="413"/>
       <c r="B38" s="487"/>
       <c r="C38" s="487"/>
@@ -59724,13 +59874,15 @@
       <c r="H38" s="489">
         <v>0.1</v>
       </c>
-      <c r="I38" s="487"/>
+      <c r="I38" s="789">
+        <v>5</v>
+      </c>
       <c r="J38" s="487"/>
       <c r="K38" s="487"/>
       <c r="L38" s="487"/>
       <c r="M38" s="487"/>
       <c r="N38" s="487"/>
-      <c r="O38" s="470"/>
+      <c r="O38" s="487"/>
       <c r="P38" s="470"/>
       <c r="Q38" s="470"/>
       <c r="R38" s="470"/>
@@ -59743,8 +59895,9 @@
       <c r="Y38" s="470"/>
       <c r="Z38" s="470"/>
       <c r="AA38" s="470"/>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" s="470"/>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="413"/>
       <c r="B39" s="403"/>
       <c r="C39" s="404"/>
@@ -59772,7 +59925,7 @@
       <c r="Z39" s="470"/>
       <c r="AA39" s="470"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:28">
       <c r="A40" s="410"/>
       <c r="B40" s="403"/>
       <c r="C40" s="404"/>
@@ -59800,7 +59953,7 @@
       <c r="Z40" s="470"/>
       <c r="AA40" s="470"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:28">
       <c r="A41" s="413"/>
       <c r="B41" s="403"/>
       <c r="C41" s="404"/>
@@ -59828,7 +59981,7 @@
       <c r="Z41" s="470"/>
       <c r="AA41" s="470"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:28">
       <c r="A42" s="413"/>
       <c r="B42" s="403"/>
       <c r="C42" s="404"/>
@@ -59856,7 +60009,7 @@
       <c r="Z42" s="470"/>
       <c r="AA42" s="470"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:28">
       <c r="A43" s="413"/>
       <c r="B43" s="403"/>
       <c r="C43" s="404"/>
@@ -59884,7 +60037,7 @@
       <c r="Z43" s="470"/>
       <c r="AA43" s="470"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:28">
       <c r="A44" s="410"/>
       <c r="B44" s="403"/>
       <c r="C44" s="404"/>
@@ -59912,7 +60065,7 @@
       <c r="Z44" s="470"/>
       <c r="AA44" s="470"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:28">
       <c r="A45" s="413"/>
       <c r="B45" s="413"/>
       <c r="C45" s="403"/>
@@ -59940,7 +60093,7 @@
       <c r="Z45" s="470"/>
       <c r="AA45" s="470"/>
     </row>
-    <row r="46" spans="1:27" ht="14.25">
+    <row r="46" spans="1:28" ht="15">
       <c r="A46" s="413"/>
       <c r="B46" s="413"/>
       <c r="C46" s="415" t="s">
@@ -59976,7 +60129,7 @@
       <c r="Z46" s="470"/>
       <c r="AA46" s="470"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:28">
       <c r="A47" s="413"/>
       <c r="B47" s="413"/>
       <c r="C47" s="470"/>
@@ -60010,7 +60163,7 @@
       <c r="Z47" s="470"/>
       <c r="AA47" s="470"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:28">
       <c r="A48" s="410"/>
       <c r="B48" s="410"/>
       <c r="C48" s="403" t="str">
@@ -60244,7 +60397,7 @@
       <c r="X54" s="470"/>
       <c r="Y54" s="404"/>
     </row>
-    <row r="55" spans="1:25" ht="14.25">
+    <row r="55" spans="1:25" ht="15">
       <c r="A55" s="413"/>
       <c r="B55" s="413"/>
       <c r="C55" s="403" t="str">
@@ -60280,7 +60433,7 @@
       <c r="X55" s="470"/>
       <c r="Y55" s="404"/>
     </row>
-    <row r="56" spans="1:25" ht="14.25">
+    <row r="56" spans="1:25" ht="15">
       <c r="A56" s="410"/>
       <c r="B56" s="410"/>
       <c r="C56" s="403" t="str">
@@ -60509,7 +60662,7 @@
       <c r="X62" s="470"/>
       <c r="Y62" s="404"/>
     </row>
-    <row r="63" spans="1:25" ht="18">
+    <row r="63" spans="1:25" ht="18.75">
       <c r="A63" s="413"/>
       <c r="B63" s="470"/>
       <c r="C63" s="239" t="s">
@@ -60539,7 +60692,7 @@
       <c r="X63" s="470"/>
       <c r="Y63" s="404"/>
     </row>
-    <row r="64" spans="1:25" ht="26.25">
+    <row r="64" spans="1:25" ht="25.5">
       <c r="A64" s="410"/>
       <c r="B64" s="470"/>
       <c r="C64" s="243" t="s">
@@ -62180,19 +62333,19 @@
       <selection activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="25"/>
-    <col min="2" max="2" width="13.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="25"/>
-    <col min="7" max="7" width="9.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="25"/>
+    <col min="7" max="7" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1081</v>
       </c>
@@ -62423,7 +62576,7 @@
       <c r="S8" s="470"/>
       <c r="T8" s="470"/>
     </row>
-    <row r="9" spans="1:20" ht="18">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="103" t="s">
         <v>1102</v>
       </c>
@@ -63065,7 +63218,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="1:16" ht="18">
+    <row r="26" spans="1:16" ht="18.75">
       <c r="A26" s="103" t="s">
         <v>1109</v>
       </c>
@@ -63482,7 +63635,7 @@
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
     </row>
-    <row r="44" spans="1:16" ht="18">
+    <row r="44" spans="1:16" ht="18.75">
       <c r="A44" s="103" t="s">
         <v>1115</v>
       </c>
@@ -63545,7 +63698,7 @@
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
     </row>
-    <row r="46" spans="1:16" ht="52.9" thickBot="1">
+    <row r="46" spans="1:16" ht="64.5" thickBot="1">
       <c r="A46" s="177" t="s">
         <v>1113</v>
       </c>
@@ -63825,7 +63978,7 @@
       <c r="O57" s="26"/>
       <c r="P57" s="232"/>
     </row>
-    <row r="58" spans="1:16" ht="18">
+    <row r="58" spans="1:16" ht="18.75">
       <c r="A58" s="103" t="s">
         <v>1117</v>
       </c>
@@ -64209,7 +64362,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="232"/>
     </row>
-    <row r="74" spans="1:16" ht="18">
+    <row r="74" spans="1:16" ht="18.75">
       <c r="A74" s="103" t="s">
         <v>1119</v>
       </c>
@@ -65168,7 +65321,7 @@
       <c r="O112" s="26"/>
       <c r="P112" s="232"/>
     </row>
-    <row r="113" spans="1:16" ht="18">
+    <row r="113" spans="1:16" ht="18.75">
       <c r="A113" s="103" t="s">
         <v>1120</v>
       </c>
@@ -66165,7 +66318,7 @@
       <c r="O153" s="26"/>
       <c r="P153" s="232"/>
     </row>
-    <row r="154" spans="1:16" ht="18">
+    <row r="154" spans="1:16" ht="18.75">
       <c r="A154" s="103" t="s">
         <v>1122</v>
       </c>
@@ -66561,14 +66714,14 @@
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="25"/>
-    <col min="3" max="3" width="37.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="2" width="9.140625" style="25"/>
+    <col min="3" max="3" width="37.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1081</v>
       </c>
@@ -66830,7 +66983,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="27" t="s">
         <v>1123</v>
       </c>
@@ -67081,7 +67234,7 @@
       <c r="S15" s="470"/>
       <c r="T15" s="470"/>
     </row>
-    <row r="16" spans="1:20" ht="18">
+    <row r="16" spans="1:20" ht="18.75">
       <c r="A16" s="27" t="s">
         <v>1125</v>
       </c>
@@ -67633,7 +67786,7 @@
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
     </row>
-    <row r="33" spans="1:18" ht="18">
+    <row r="33" spans="1:18" ht="18.75">
       <c r="A33" s="27" t="s">
         <v>1127</v>
       </c>
@@ -68095,7 +68248,7 @@
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
     </row>
-    <row r="50" spans="1:18" ht="18">
+    <row r="50" spans="1:18" ht="18.75">
       <c r="A50" s="27" t="s">
         <v>1128</v>
       </c>
@@ -68761,7 +68914,7 @@
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
     </row>
-    <row r="75" spans="1:18" ht="18">
+    <row r="75" spans="1:18" ht="18.75">
       <c r="A75" s="220" t="s">
         <v>1129</v>
       </c>
@@ -68786,7 +68939,7 @@
       <c r="Q75" s="26"/>
       <c r="R75" s="26"/>
     </row>
-    <row r="76" spans="1:18" ht="26.65" thickBot="1">
+    <row r="76" spans="1:18" ht="26.25" thickBot="1">
       <c r="A76" s="89" t="s">
         <v>1110</v>
       </c>
@@ -68907,18 +69060,18 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="41.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1328125" style="25"/>
-    <col min="6" max="6" width="9.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="25"/>
+    <col min="1" max="1" width="13.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="103" t="s">
         <v>1131</v>
       </c>
@@ -69168,7 +69321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="105"/>
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
@@ -69190,7 +69343,7 @@
       <c r="S9" s="470"/>
       <c r="T9" s="470"/>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
         <v>1132</v>
@@ -69217,7 +69370,7 @@
       <c r="S10" s="470"/>
       <c r="T10" s="470"/>
     </row>
-    <row r="11" spans="1:20" ht="26.65" thickBot="1">
+    <row r="11" spans="1:20" ht="26.25" thickBot="1">
       <c r="A11" s="26"/>
       <c r="B11" s="31" t="s">
         <v>318</v>
@@ -69531,7 +69684,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -69560,7 +69713,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="1:16" ht="26.65" thickBot="1">
+    <row r="24" spans="1:16" ht="26.25" thickBot="1">
       <c r="A24" s="470"/>
       <c r="B24" s="198" t="s">
         <v>318</v>
@@ -70147,7 +70300,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -70175,7 +70328,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
     </row>
-    <row r="39" spans="1:16" ht="26.65" thickBot="1">
+    <row r="39" spans="1:16" ht="26.25" thickBot="1">
       <c r="A39" s="26"/>
       <c r="B39" s="47" t="s">
         <v>318</v>
@@ -70659,7 +70812,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -70688,7 +70841,7 @@
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
     </row>
-    <row r="53" spans="1:16" ht="26.65" thickBot="1">
+    <row r="53" spans="1:16" ht="26.25" thickBot="1">
       <c r="A53" s="26"/>
       <c r="B53" s="47" t="s">
         <v>318</v>
@@ -71172,7 +71325,7 @@
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" ht="15">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -71201,7 +71354,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
     </row>
-    <row r="67" spans="1:16" ht="26.65" thickBot="1">
+    <row r="67" spans="1:16" ht="26.25" thickBot="1">
       <c r="A67" s="26"/>
       <c r="B67" s="47" t="s">
         <v>318</v>
@@ -71243,7 +71396,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
     </row>
-    <row r="68" spans="1:16" ht="26.25">
+    <row r="68" spans="1:16" ht="25.5">
       <c r="A68" s="26"/>
       <c r="B68" s="49" t="str">
         <f>LEFT(E68,6)&amp;RIGHT(D68,3)&amp;"00"</f>
@@ -71367,7 +71520,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -71396,7 +71549,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16" ht="26.65" thickBot="1">
+    <row r="74" spans="1:16" ht="26.25" thickBot="1">
       <c r="A74" s="26"/>
       <c r="B74" s="47" t="s">
         <v>318</v>

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3777E63-60FA-4174-83F8-37F464EE4DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5EBB9A-CD2A-436A-BB59-295EA59DBAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" tabRatio="889" firstSheet="1" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2018" sheetId="22" r:id="rId1"/>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000005000000}">
+    <comment ref="K112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1184">
   <si>
     <t>NACE 
 (Rev 2)</t>
@@ -3370,9 +3370,6 @@
     <t>Share~FX~2050</t>
   </si>
   <si>
-    <t>Peak~WiP</t>
-  </si>
-  <si>
     <t>Cap2Act</t>
   </si>
   <si>
@@ -3398,9 +3395,6 @@
   </si>
   <si>
     <t>Share~UP</t>
-  </si>
-  <si>
-    <t>Peak~Wi</t>
   </si>
   <si>
     <t>Stock</t>
@@ -9632,7 +9626,7 @@
   <sheetData>
     <row r="1" spans="1:41" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -15191,7 +15185,7 @@
     </row>
     <row r="65" spans="1:39" ht="12.75" customHeight="1">
       <c r="A65" s="770" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B65" s="767"/>
       <c r="C65" s="767"/>
@@ -15234,7 +15228,7 @@
     </row>
     <row r="66" spans="1:39" ht="12.75" customHeight="1">
       <c r="A66" s="771" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B66" s="772"/>
       <c r="C66" s="767"/>
@@ -15277,7 +15271,7 @@
     </row>
     <row r="67" spans="1:39" ht="12.75" customHeight="1">
       <c r="A67" s="774" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B67" s="770"/>
       <c r="C67" s="767"/>
@@ -15320,7 +15314,7 @@
     </row>
     <row r="68" spans="1:39" ht="12.75" customHeight="1">
       <c r="A68" s="775" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B68" s="770"/>
       <c r="C68" s="767"/>
@@ -15484,7 +15478,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -15508,7 +15502,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -15535,7 +15529,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -15691,13 +15685,13 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="157" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G9" s="157"/>
       <c r="H9" s="157"/>
       <c r="I9" s="26"/>
       <c r="J9" s="158" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K9" s="159"/>
       <c r="L9" s="159"/>
@@ -15712,26 +15706,26 @@
     </row>
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="101" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G10" s="69"/>
       <c r="H10" s="69"/>
       <c r="I10" s="26"/>
       <c r="J10" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
       <c r="M10" s="26"/>
       <c r="N10" s="101" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O10" s="69"/>
       <c r="P10" s="69"/>
@@ -15751,26 +15745,26 @@
       <c r="E11" s="26"/>
       <c r="F11" s="161"/>
       <c r="G11" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="161"/>
       <c r="K11" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="161"/>
       <c r="O11" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="P11" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="Q11" s="468"/>
       <c r="R11" s="468"/>
@@ -15953,7 +15947,7 @@
     </row>
     <row r="16" spans="1:20" ht="18.75">
       <c r="A16" s="101" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -16180,7 +16174,7 @@
       <c r="D21" s="468"/>
       <c r="E21" s="26"/>
       <c r="F21" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G21" s="95">
         <f>IND_Bal!V$41</f>
@@ -16189,7 +16183,7 @@
       <c r="H21" s="167"/>
       <c r="I21" s="26"/>
       <c r="J21" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K21" s="95">
         <f>(F32*H30)+(F48*H41)+(F69*H64)+(F76*H74)</f>
@@ -16323,7 +16317,7 @@
     </row>
     <row r="27" spans="1:16" ht="18.75">
       <c r="A27" s="27" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -16346,7 +16340,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B28" s="87" t="s">
         <v>318</v>
@@ -16361,13 +16355,13 @@
         <v>719</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I28" s="88" t="s">
         <v>727</v>
@@ -16386,7 +16380,7 @@
     </row>
     <row r="29" spans="1:16" ht="13.5" thickBot="1">
       <c r="A29" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -16398,15 +16392,15 @@
         <v>339</v>
       </c>
       <c r="I29" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J29" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K29" s="177"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
@@ -16414,7 +16408,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="49" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B30" s="204" t="s">
         <v>661</v>
@@ -16502,7 +16496,7 @@
       <c r="C33" s="49"/>
       <c r="D33" s="94"/>
       <c r="E33" s="207" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="49">
@@ -16594,7 +16588,7 @@
     </row>
     <row r="38" spans="1:16" ht="18.75">
       <c r="A38" s="101" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -16617,7 +16611,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B39" s="87" t="s">
         <v>318</v>
@@ -16632,13 +16626,13 @@
         <v>719</v>
       </c>
       <c r="F39" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G39" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H39" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I39" s="88" t="s">
         <v>727</v>
@@ -16657,7 +16651,7 @@
     </row>
     <row r="40" spans="1:16" ht="13.5" thickBot="1">
       <c r="A40" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -16669,10 +16663,10 @@
         <v>339</v>
       </c>
       <c r="I40" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J40" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K40" s="177"/>
       <c r="L40" s="26"/>
@@ -16683,7 +16677,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="49" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B41" s="204" t="s">
         <v>669</v>
@@ -16882,7 +16876,7 @@
       <c r="C49" s="49"/>
       <c r="D49" s="94"/>
       <c r="E49" s="207" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="49">
@@ -16974,7 +16968,7 @@
     </row>
     <row r="54" spans="1:16" ht="18.75">
       <c r="A54" s="101" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -16997,7 +16991,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B55" s="87" t="s">
         <v>318</v>
@@ -17012,13 +17006,13 @@
         <v>719</v>
       </c>
       <c r="F55" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G55" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I55" s="88" t="s">
         <v>727</v>
@@ -17037,7 +17031,7 @@
     </row>
     <row r="56" spans="1:16" ht="13.5" thickBot="1">
       <c r="A56" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -17049,10 +17043,10 @@
         <v>339</v>
       </c>
       <c r="I56" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J56" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K56" s="177"/>
       <c r="L56" s="26"/>
@@ -17063,7 +17057,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="49" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B57" s="178" t="s">
         <v>674</v>
@@ -17232,7 +17226,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="49" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B64" s="178" t="s">
         <v>671</v>
@@ -17470,7 +17464,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="49" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B74" s="178" t="s">
         <v>676</v>
@@ -17521,7 +17515,7 @@
       <c r="K75" s="49"/>
       <c r="L75" s="26"/>
       <c r="M75" s="26" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="N75" s="26"/>
       <c r="O75" s="26"/>
@@ -17649,7 +17643,7 @@
     </row>
     <row r="82" spans="1:16" ht="18.75">
       <c r="A82" s="43" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B82" s="69"/>
       <c r="C82" s="69"/>
@@ -17672,7 +17666,7 @@
     </row>
     <row r="83" spans="1:16" ht="26.25" thickBot="1">
       <c r="A83" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B83" s="73" t="s">
         <v>318</v>
@@ -17687,16 +17681,16 @@
         <v>719</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G83" s="48" t="s">
         <v>727</v>
       </c>
       <c r="H83" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>724</v>
@@ -17796,7 +17790,7 @@
         <v>284</v>
       </c>
       <c r="E86" s="123" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F86" s="71">
         <v>0.9</v>
@@ -17856,7 +17850,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -17880,7 +17874,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -17907,7 +17901,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -18059,13 +18053,13 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="157" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G9" s="157"/>
       <c r="H9" s="157"/>
       <c r="I9" s="26"/>
       <c r="J9" s="158" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K9" s="159"/>
       <c r="L9" s="159"/>
@@ -18080,27 +18074,27 @@
     </row>
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="101" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G10" s="69"/>
       <c r="H10" s="69"/>
       <c r="I10" s="26"/>
       <c r="J10" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
       <c r="N10" s="26"/>
       <c r="O10" s="101" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="P10" s="69"/>
       <c r="Q10" s="69"/>
@@ -18119,29 +18113,29 @@
       <c r="E11" s="26"/>
       <c r="F11" s="161"/>
       <c r="G11" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H11" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="161"/>
       <c r="K11" s="162" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="L11" s="162" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="M11" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="161"/>
       <c r="P11" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Q11" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="R11" s="468"/>
       <c r="S11" s="468"/>
@@ -18372,7 +18366,7 @@
     </row>
     <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="101" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
@@ -18621,7 +18615,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G23" s="167">
         <f>IND_Bal!V$38</f>
@@ -18630,7 +18624,7 @@
       <c r="H23" s="167"/>
       <c r="I23" s="26"/>
       <c r="J23" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K23" s="167">
         <f>(F35*H31)+(F85*H83)+(F94*H92)</f>
@@ -18739,7 +18733,7 @@
     </row>
     <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="101" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -18763,7 +18757,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B29" s="87" t="s">
         <v>318</v>
@@ -18778,13 +18772,13 @@
         <v>719</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G29" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H29" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I29" s="88" t="s">
         <v>727</v>
@@ -18804,7 +18798,7 @@
     </row>
     <row r="30" spans="1:17" ht="13.5" thickBot="1">
       <c r="A30" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -18816,10 +18810,10 @@
         <v>339</v>
       </c>
       <c r="I30" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J30" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K30" s="177"/>
       <c r="L30" s="26"/>
@@ -19038,7 +19032,7 @@
     </row>
     <row r="40" spans="1:17" ht="18.75">
       <c r="A40" s="101" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -19062,7 +19056,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B41" s="87" t="s">
         <v>318</v>
@@ -19077,13 +19071,13 @@
         <v>719</v>
       </c>
       <c r="F41" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I41" s="88" t="s">
         <v>727</v>
@@ -19103,7 +19097,7 @@
     </row>
     <row r="42" spans="1:17" ht="13.5" thickBot="1">
       <c r="A42" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -19115,10 +19109,10 @@
         <v>339</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J42" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K42" s="177"/>
       <c r="L42" s="26"/>
@@ -19756,7 +19750,7 @@
     </row>
     <row r="68" spans="1:17" ht="18.75">
       <c r="A68" s="101" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -19780,7 +19774,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B69" s="87" t="s">
         <v>318</v>
@@ -19795,13 +19789,13 @@
         <v>719</v>
       </c>
       <c r="F69" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G69" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H69" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I69" s="88" t="s">
         <v>727</v>
@@ -19821,7 +19815,7 @@
     </row>
     <row r="70" spans="1:17" ht="13.5" thickBot="1">
       <c r="A70" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -19833,10 +19827,10 @@
         <v>339</v>
       </c>
       <c r="I70" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J70" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K70" s="177"/>
       <c r="L70" s="26"/>
@@ -20063,7 +20057,7 @@
     </row>
     <row r="80" spans="1:17" ht="18.75">
       <c r="A80" s="101" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -20087,7 +20081,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B81" s="87" t="s">
         <v>318</v>
@@ -20102,13 +20096,13 @@
         <v>719</v>
       </c>
       <c r="F81" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G81" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H81" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I81" s="88" t="s">
         <v>727</v>
@@ -20128,7 +20122,7 @@
     </row>
     <row r="82" spans="1:17" ht="13.5" thickBot="1">
       <c r="A82" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -20140,10 +20134,10 @@
         <v>339</v>
       </c>
       <c r="I82" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J82" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K82" s="177"/>
       <c r="L82" s="26"/>
@@ -20592,7 +20586,7 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20605,7 +20599,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -20629,7 +20623,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -20656,7 +20650,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -20712,7 +20706,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="85" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -20736,7 +20730,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="85" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -20760,7 +20754,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="85" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -20784,7 +20778,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="85" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -20831,7 +20825,7 @@
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="26"/>
@@ -20870,16 +20864,16 @@
         <v>719</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -20902,7 +20896,7 @@
         <v>494</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="38">
@@ -21077,7 +21071,7 @@
     <row r="18" spans="1:16" ht="13.5" thickBot="1">
       <c r="A18" s="26"/>
       <c r="B18" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
@@ -21179,16 +21173,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -21213,19 +21207,19 @@
         <v>719</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K24" s="48" t="s">
         <v>727</v>
@@ -21237,13 +21231,13 @@
         <v>724</v>
       </c>
       <c r="N24" s="116" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O24" s="116" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P24" s="116" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="25.5">
@@ -21705,7 +21699,7 @@
     <row r="34" spans="1:16" ht="13.5" thickBot="1">
       <c r="A34" s="468"/>
       <c r="B34" s="197" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C34" s="83"/>
       <c r="D34" s="83"/>
@@ -21795,20 +21789,20 @@
         <v/>
       </c>
       <c r="F38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H38" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="115"/>
@@ -21831,19 +21825,19 @@
         <v>719</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K39" s="48" t="s">
         <v>727</v>
@@ -22220,7 +22214,7 @@
     <row r="48" spans="1:16" ht="13.5" thickBot="1">
       <c r="A48" s="26"/>
       <c r="B48" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
@@ -22310,16 +22304,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H52" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J52" s="115"/>
       <c r="K52" s="115"/>
@@ -22344,19 +22338,19 @@
         <v>719</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H53" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K53" s="48" t="s">
         <v>727</v>
@@ -22734,7 +22728,7 @@
     <row r="62" spans="1:16" ht="13.5" thickBot="1">
       <c r="A62" s="26"/>
       <c r="B62" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C62" s="83"/>
       <c r="D62" s="83"/>
@@ -22824,16 +22818,16 @@
         <v/>
       </c>
       <c r="F66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J66" s="115"/>
       <c r="K66" s="115"/>
@@ -22858,19 +22852,19 @@
         <v>719</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K67" s="48" t="s">
         <v>727</v>
@@ -22885,7 +22879,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
     </row>
-    <row r="68" spans="1:16" ht="25.5">
+    <row r="68" spans="1:16" ht="38.25">
       <c r="A68" s="26"/>
       <c r="B68" s="49" t="str">
         <f>LEFT(E68,6)&amp;RIGHT(D68,3)&amp;"00"</f>
@@ -22932,7 +22926,7 @@
     <row r="69" spans="1:16" ht="13.5" thickBot="1">
       <c r="A69" s="26"/>
       <c r="B69" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
@@ -23019,16 +23013,16 @@
         <v/>
       </c>
       <c r="F73" s="131" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H73" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="131"/>
@@ -23053,19 +23047,19 @@
         <v>719</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G74" s="132" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H74" s="132" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I74" s="132" t="s">
+        <v>798</v>
+      </c>
+      <c r="J74" s="132" t="s">
         <v>799</v>
-      </c>
-      <c r="J74" s="132" t="s">
-        <v>801</v>
       </c>
       <c r="K74" s="132" t="s">
         <v>727</v>
@@ -23415,7 +23409,7 @@
     <row r="86" spans="1:16" ht="13.5" thickBot="1">
       <c r="A86" s="26"/>
       <c r="B86" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C86" s="83"/>
       <c r="D86" s="83"/>
@@ -23470,7 +23464,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -23494,7 +23488,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -23521,7 +23515,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -23737,13 +23731,13 @@
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="157" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G11" s="157"/>
       <c r="H11" s="157"/>
       <c r="I11" s="26"/>
       <c r="J11" s="158" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K11" s="159"/>
       <c r="L11" s="159"/>
@@ -23758,27 +23752,27 @@
     </row>
     <row r="12" spans="1:20" ht="18.75">
       <c r="A12" s="101" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="69"/>
       <c r="I12" s="26"/>
       <c r="J12" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
       <c r="M12" s="69"/>
       <c r="N12" s="26"/>
       <c r="O12" s="101" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="P12" s="69"/>
       <c r="Q12" s="69"/>
@@ -23799,29 +23793,29 @@
       <c r="E13" s="26"/>
       <c r="F13" s="161"/>
       <c r="G13" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H13" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I13" s="163"/>
       <c r="J13" s="164"/>
       <c r="K13" s="162" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="L13" s="162" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M13" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="N13" s="26"/>
       <c r="O13" s="161"/>
       <c r="P13" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Q13" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="R13" s="26"/>
       <c r="S13" s="468"/>
@@ -23970,7 +23964,7 @@
     </row>
     <row r="17" spans="1:19" ht="18.75">
       <c r="A17" s="101" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
@@ -24204,7 +24198,7 @@
     </row>
     <row r="22" spans="1:19" ht="18.75">
       <c r="A22" s="101" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -24373,7 +24367,7 @@
         <v>2.2911400353810554</v>
       </c>
       <c r="O25" s="99" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="P25" s="95">
         <f>(F51*H50)</f>
@@ -24423,7 +24417,7 @@
         <v>-0.12267818994614632</v>
       </c>
       <c r="O26" s="49" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="P26" s="95">
         <f>(F66*H64)</f>
@@ -24438,14 +24432,14 @@
     </row>
     <row r="27" spans="1:19" ht="18.75">
       <c r="A27" s="101" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G27" s="117">
         <f>IND_Bal!V$40</f>
@@ -24454,7 +24448,7 @@
       <c r="H27" s="166"/>
       <c r="I27" s="26"/>
       <c r="J27" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K27" s="117"/>
       <c r="L27" s="117">
@@ -24537,7 +24531,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="172" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="P29" s="173" t="e">
         <f>F40*H39</f>
@@ -24686,7 +24680,7 @@
     </row>
     <row r="36" spans="1:18" ht="18.75">
       <c r="A36" s="101" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -24711,7 +24705,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B37" s="87" t="s">
         <v>318</v>
@@ -24726,13 +24720,13 @@
         <v>719</v>
       </c>
       <c r="F37" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G37" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H37" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I37" s="88" t="s">
         <v>727</v>
@@ -24753,7 +24747,7 @@
     </row>
     <row r="38" spans="1:18" ht="13.5" thickBot="1">
       <c r="A38" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -24765,10 +24759,10 @@
         <v>339</v>
       </c>
       <c r="I38" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J38" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K38" s="177"/>
       <c r="L38" s="26"/>
@@ -24986,7 +24980,7 @@
     </row>
     <row r="47" spans="1:18" ht="18.75">
       <c r="A47" s="101" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -25011,7 +25005,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B48" s="87" t="s">
         <v>318</v>
@@ -25026,13 +25020,13 @@
         <v>719</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G48" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I48" s="88" t="s">
         <v>727</v>
@@ -25053,7 +25047,7 @@
     </row>
     <row r="49" spans="1:18" ht="13.5" thickBot="1">
       <c r="A49" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -25065,10 +25059,10 @@
         <v>339</v>
       </c>
       <c r="I49" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J49" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K49" s="177"/>
       <c r="L49" s="26"/>
@@ -25368,7 +25362,7 @@
     </row>
     <row r="61" spans="1:18" ht="18.75">
       <c r="A61" s="101" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -25393,7 +25387,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B62" s="87" t="s">
         <v>318</v>
@@ -25408,13 +25402,13 @@
         <v>719</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G62" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H62" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I62" s="88" t="s">
         <v>727</v>
@@ -25435,7 +25429,7 @@
     </row>
     <row r="63" spans="1:18" ht="13.5" thickBot="1">
       <c r="A63" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -25447,10 +25441,10 @@
         <v>339</v>
       </c>
       <c r="I63" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J63" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K63" s="177"/>
       <c r="L63" s="26"/>
@@ -25666,7 +25660,7 @@
     </row>
     <row r="72" spans="1:18" ht="18.75">
       <c r="A72" s="101" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -25691,7 +25685,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B73" s="87" t="s">
         <v>318</v>
@@ -25706,13 +25700,13 @@
         <v>719</v>
       </c>
       <c r="F73" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G73" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H73" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I73" s="88" t="s">
         <v>727</v>
@@ -25733,7 +25727,7 @@
     </row>
     <row r="74" spans="1:18" ht="13.5" thickBot="1">
       <c r="A74" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -25745,10 +25739,10 @@
         <v>339</v>
       </c>
       <c r="I74" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J74" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K74" s="177"/>
       <c r="L74" s="26"/>
@@ -26215,7 +26209,7 @@
     </row>
     <row r="92" spans="1:18" ht="18.75">
       <c r="A92" s="43" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B92" s="69"/>
       <c r="C92" s="69"/>
@@ -26240,7 +26234,7 @@
     </row>
     <row r="93" spans="1:18" ht="26.25" thickBot="1">
       <c r="A93" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B93" s="73" t="s">
         <v>318</v>
@@ -26255,16 +26249,16 @@
         <v>719</v>
       </c>
       <c r="F93" s="48" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G93" s="48" t="s">
         <v>727</v>
       </c>
       <c r="H93" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J93" s="48" t="s">
         <v>724</v>
@@ -26293,7 +26287,7 @@
         <v>INDCOA</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F94" s="71">
         <v>0.60499999999999998</v>
@@ -26331,7 +26325,7 @@
         <v>INDHFO</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F95" s="71">
         <v>0.505</v>
@@ -26369,7 +26363,7 @@
         <v>INDGAS</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F96" s="192">
         <v>0.95</v>
@@ -26407,7 +26401,7 @@
         <v>INDCOA</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F97" s="71">
         <v>0.95</v>
@@ -26445,7 +26439,7 @@
         <v>INDHFO</v>
       </c>
       <c r="E98" s="49" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F98" s="71">
         <v>0.96</v>
@@ -26483,7 +26477,7 @@
         <v>INDGAS</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F99" s="71">
         <v>0.95</v>
@@ -26521,7 +26515,7 @@
         <v>INDCOG</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F100" s="192">
         <v>0.95</v>
@@ -26568,7 +26562,7 @@
   <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:T8"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -26583,7 +26577,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -26607,7 +26601,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -26634,7 +26628,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -26690,7 +26684,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="85" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -26714,7 +26708,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="85" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -26738,7 +26732,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="85" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -26762,7 +26756,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="85" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -26809,7 +26803,7 @@
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="26"/>
@@ -26848,21 +26842,21 @@
         <v>719</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="141" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -26882,7 +26876,7 @@
         <v>550</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="38">
@@ -27059,7 +27053,7 @@
     <row r="18" spans="1:16" ht="13.5" thickBot="1">
       <c r="A18" s="26"/>
       <c r="B18" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
@@ -27164,16 +27158,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -27198,19 +27192,19 @@
         <v>719</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K24" s="48" t="s">
         <v>727</v>
@@ -27222,13 +27216,13 @@
         <v>724</v>
       </c>
       <c r="N24" s="116" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O24" s="55" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P24" s="55" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -27690,7 +27684,7 @@
     <row r="34" spans="1:16" ht="13.5" thickBot="1">
       <c r="A34" s="468"/>
       <c r="B34" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C34" s="83"/>
       <c r="D34" s="83"/>
@@ -27780,20 +27774,20 @@
         <v/>
       </c>
       <c r="F38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H38" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="115"/>
@@ -27816,19 +27810,19 @@
         <v>719</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K39" s="48" t="s">
         <v>727</v>
@@ -28205,7 +28199,7 @@
     <row r="48" spans="1:16" ht="13.5" thickBot="1">
       <c r="A48" s="26"/>
       <c r="B48" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
@@ -28295,16 +28289,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H52" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J52" s="115"/>
       <c r="K52" s="115"/>
@@ -28329,19 +28323,19 @@
         <v>719</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H53" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K53" s="48" t="s">
         <v>727</v>
@@ -28723,7 +28717,7 @@
     <row r="62" spans="1:16" ht="13.5" thickBot="1">
       <c r="A62" s="26"/>
       <c r="B62" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C62" s="83"/>
       <c r="D62" s="83"/>
@@ -28813,16 +28807,16 @@
         <v/>
       </c>
       <c r="F66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J66" s="115"/>
       <c r="K66" s="115"/>
@@ -28847,19 +28841,19 @@
         <v>719</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K67" s="48" t="s">
         <v>727</v>
@@ -28921,7 +28915,7 @@
     <row r="69" spans="1:16" ht="13.5" thickBot="1">
       <c r="A69" s="26"/>
       <c r="B69" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
@@ -29008,16 +29002,16 @@
         <v/>
       </c>
       <c r="F73" s="131" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H73" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="131"/>
@@ -29042,19 +29036,19 @@
         <v>719</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G74" s="132" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H74" s="132" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I74" s="132" t="s">
+        <v>798</v>
+      </c>
+      <c r="J74" s="132" t="s">
         <v>799</v>
-      </c>
-      <c r="J74" s="132" t="s">
-        <v>801</v>
       </c>
       <c r="K74" s="132" t="s">
         <v>727</v>
@@ -29493,7 +29487,7 @@
     <row r="89" spans="1:16" ht="13.5" thickBot="1">
       <c r="A89" s="26"/>
       <c r="B89" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C89" s="83"/>
       <c r="D89" s="83"/>
@@ -29528,8 +29522,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:T8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -29543,7 +29537,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -29567,7 +29561,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -29594,7 +29588,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -29650,7 +29644,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="85" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -29674,7 +29668,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="85" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -29698,7 +29692,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="85" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -29722,7 +29716,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="85" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -29769,7 +29763,7 @@
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="101" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="26"/>
@@ -29808,16 +29802,16 @@
         <v>719</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -29840,7 +29834,7 @@
         <v>606</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="38">
@@ -30015,7 +30009,7 @@
     <row r="18" spans="1:16" ht="13.5" thickBot="1">
       <c r="A18" s="26"/>
       <c r="B18" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
@@ -30120,16 +30114,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -30154,19 +30148,19 @@
         <v>719</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K24" s="48" t="s">
         <v>727</v>
@@ -30178,13 +30172,13 @@
         <v>724</v>
       </c>
       <c r="N24" s="116" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O24" s="116" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P24" s="116" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -30646,7 +30640,7 @@
     <row r="34" spans="1:16" ht="13.5" thickBot="1">
       <c r="A34" s="468"/>
       <c r="B34" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C34" s="83"/>
       <c r="D34" s="83"/>
@@ -30736,20 +30730,20 @@
         <v/>
       </c>
       <c r="F38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H38" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="115"/>
@@ -30772,19 +30766,19 @@
         <v>719</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K39" s="48" t="s">
         <v>727</v>
@@ -31161,7 +31155,7 @@
     <row r="48" spans="1:16" ht="13.5" thickBot="1">
       <c r="A48" s="26"/>
       <c r="B48" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
@@ -31251,16 +31245,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H52" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J52" s="115"/>
       <c r="K52" s="115"/>
@@ -31285,19 +31279,19 @@
         <v>719</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H53" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K53" s="48" t="s">
         <v>727</v>
@@ -31675,7 +31669,7 @@
     <row r="62" spans="1:16" ht="13.5" thickBot="1">
       <c r="A62" s="26"/>
       <c r="B62" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C62" s="83"/>
       <c r="D62" s="83"/>
@@ -31765,16 +31759,16 @@
         <v/>
       </c>
       <c r="F66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J66" s="115"/>
       <c r="K66" s="115"/>
@@ -31799,19 +31793,19 @@
         <v>719</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K67" s="48" t="s">
         <v>727</v>
@@ -31873,7 +31867,7 @@
     <row r="69" spans="1:16" ht="13.5" thickBot="1">
       <c r="A69" s="26"/>
       <c r="B69" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
@@ -31960,16 +31954,16 @@
         <v/>
       </c>
       <c r="F73" s="131" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H73" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="131"/>
@@ -31994,19 +31988,19 @@
         <v>719</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G74" s="132" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H74" s="132" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I74" s="132" t="s">
+        <v>798</v>
+      </c>
+      <c r="J74" s="132" t="s">
         <v>799</v>
-      </c>
-      <c r="J74" s="132" t="s">
-        <v>801</v>
       </c>
       <c r="K74" s="132" t="s">
         <v>727</v>
@@ -32445,7 +32439,7 @@
     <row r="89" spans="1:16" ht="13.5" thickBot="1">
       <c r="A89" s="26"/>
       <c r="B89" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C89" s="83"/>
       <c r="D89" s="83"/>
@@ -32494,7 +32488,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="27" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -32518,7 +32512,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -32545,7 +32539,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>202</v>
@@ -32711,7 +32705,7 @@
     </row>
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="27" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -32738,7 +32732,7 @@
     </row>
     <row r="11" spans="1:20" ht="25.5">
       <c r="A11" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B11" s="87" t="s">
         <v>318</v>
@@ -32753,14 +32747,14 @@
         <v>719</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="88" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -32776,17 +32770,17 @@
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1">
       <c r="A12" s="89" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
       <c r="E12" s="75"/>
       <c r="F12" s="91" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="48" t="s">
@@ -33123,7 +33117,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="98" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -33176,7 +33170,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="27" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -33200,7 +33194,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -33227,7 +33221,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>202</v>
@@ -33393,7 +33387,7 @@
     </row>
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="27" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -33420,7 +33414,7 @@
     </row>
     <row r="11" spans="1:20" ht="25.5">
       <c r="A11" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B11" s="87" t="s">
         <v>318</v>
@@ -33435,14 +33429,14 @@
         <v>719</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="88" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -33458,17 +33452,17 @@
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1">
       <c r="A12" s="89" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
       <c r="E12" s="75"/>
       <c r="F12" s="91" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="48" t="s">
@@ -33668,7 +33662,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="98" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -33720,7 +33714,7 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18.75">
       <c r="B3" s="515" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C3" s="513"/>
       <c r="D3" s="514" t="s">
@@ -33739,7 +33733,7 @@
         <v>719</v>
       </c>
       <c r="E4" s="524" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15">
@@ -33749,7 +33743,7 @@
       <c r="C5" s="516"/>
       <c r="D5" s="516"/>
       <c r="E5" s="516" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15">
@@ -34046,7 +34040,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="B1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
@@ -34088,7 +34082,7 @@
     </row>
     <row r="2" spans="2:27" ht="18.75">
       <c r="B2" s="27" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -34119,7 +34113,7 @@
     <row r="3" spans="2:27">
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -34240,7 +34234,7 @@
     </row>
     <row r="5" spans="2:27">
       <c r="B5" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C5" s="33" t="str">
         <f t="shared" ref="C5:C10" si="0">"SE_" &amp; CONCATENATE(B15)</f>
@@ -34313,7 +34307,7 @@
     </row>
     <row r="6" spans="2:27">
       <c r="B6" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C6" s="33" t="str">
         <f t="shared" si="0"/>
@@ -34346,7 +34340,7 @@
     </row>
     <row r="7" spans="2:27">
       <c r="B7" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C7" s="33" t="str">
         <f t="shared" si="0"/>
@@ -34379,7 +34373,7 @@
     </row>
     <row r="8" spans="2:27">
       <c r="B8" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C8" s="33" t="str">
         <f t="shared" si="0"/>
@@ -34412,7 +34406,7 @@
     </row>
     <row r="9" spans="2:27">
       <c r="B9" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C9" s="33" t="str">
         <f t="shared" si="0"/>
@@ -34445,7 +34439,7 @@
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="33" t="str">
         <f t="shared" si="0"/>
@@ -34506,7 +34500,7 @@
     </row>
     <row r="12" spans="2:27" ht="18.75">
       <c r="B12" s="27" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -34536,7 +34530,7 @@
     </row>
     <row r="13" spans="2:27" ht="18.75">
       <c r="B13" s="35" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="26"/>
@@ -51609,8 +51603,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B1:S124"/>
   <sheetViews>
-    <sheetView topLeftCell="E79" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -51708,13 +51702,13 @@
         <v>720</v>
       </c>
       <c r="G4" s="782" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H4" s="782" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I4" s="788" t="s">
         <v>1182</v>
-      </c>
-      <c r="I4" s="788" t="s">
-        <v>1184</v>
       </c>
       <c r="J4" s="522" t="s">
         <v>722</v>
@@ -51729,7 +51723,7 @@
         <v>725</v>
       </c>
       <c r="N4" s="782" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="O4" s="522" t="s">
         <v>726</v>
@@ -51752,7 +51746,7 @@
       <c r="G5" s="523"/>
       <c r="H5" s="523"/>
       <c r="I5" s="789" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="J5" s="523" t="s">
         <v>729</v>
@@ -53174,7 +53168,7 @@
         <v>762</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I54" s="45" t="s">
         <v>722</v>
@@ -54263,7 +54257,7 @@
       <c r="O96" s="26"/>
       <c r="P96" s="26"/>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:16">
       <c r="B97" s="49" t="str">
         <f>CONCATENATE(E98,"01")</f>
         <v>INDHYD01</v>
@@ -54292,7 +54286,7 @@
       <c r="O97" s="26"/>
       <c r="P97" s="26"/>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:16">
       <c r="B98" s="53"/>
       <c r="C98" s="54"/>
       <c r="D98" s="55"/>
@@ -54312,7 +54306,7 @@
       <c r="O98" s="26"/>
       <c r="P98" s="26"/>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:16">
       <c r="B99" s="49" t="str">
         <f>CONCATENATE(E100,"01")</f>
         <v>INDWIN01</v>
@@ -54341,7 +54335,7 @@
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:16">
       <c r="B100" s="53"/>
       <c r="C100" s="54"/>
       <c r="D100" s="55"/>
@@ -54361,7 +54355,7 @@
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:16">
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -54378,7 +54372,7 @@
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:16">
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -54395,7 +54389,7 @@
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
     </row>
-    <row r="103" spans="2:17" ht="18.75">
+    <row r="103" spans="2:16" ht="18.75">
       <c r="B103" s="43" t="s">
         <v>788</v>
       </c>
@@ -54416,7 +54410,7 @@
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:16">
       <c r="B104" s="44" t="s">
         <v>318</v>
       </c>
@@ -54439,25 +54433,22 @@
         <v>789</v>
       </c>
       <c r="I104" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="J104" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="K104" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="L104" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="J104" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="K104" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="L104" s="45" t="s">
-        <v>723</v>
-      </c>
-      <c r="M104" s="45" t="s">
-        <v>791</v>
-      </c>
+      <c r="M104" s="26"/>
       <c r="N104" s="26"/>
       <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-    </row>
-    <row r="105" spans="2:17" ht="13.5" thickBot="1">
+    </row>
+    <row r="105" spans="2:16" ht="13.5" thickBot="1">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -54467,33 +54458,32 @@
       <c r="F105" s="48"/>
       <c r="G105" s="48"/>
       <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
+      <c r="I105" s="48" t="s">
+        <v>730</v>
+      </c>
       <c r="J105" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="K105" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="K105" s="48" t="s">
+      <c r="L105" s="48" t="s">
         <v>792</v>
       </c>
-      <c r="L105" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="M105" s="48" t="s">
-        <v>793</v>
-      </c>
+      <c r="M105" s="26"/>
       <c r="N105" s="26"/>
       <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-    </row>
-    <row r="106" spans="2:17">
+    </row>
+    <row r="106" spans="2:16">
       <c r="B106" s="49" t="str">
         <f>CONCATENATE(E108,"_INF")</f>
         <v>INDELC_INF</v>
       </c>
       <c r="C106" s="50" t="s">
+        <v>793</v>
+      </c>
+      <c r="D106" s="70" t="s">
         <v>794</v>
-      </c>
-      <c r="D106" s="70" t="s">
-        <v>795</v>
       </c>
       <c r="E106" s="49"/>
       <c r="F106" s="49">
@@ -54506,26 +54496,23 @@
         <f>G106</f>
         <v>0.7</v>
       </c>
-      <c r="I106" s="49">
-        <v>1</v>
-      </c>
+      <c r="I106" s="51"/>
       <c r="J106" s="51"/>
       <c r="K106" s="51"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="49">
+      <c r="L106" s="49">
         <v>31.536000000000001</v>
       </c>
+      <c r="M106" s="26"/>
       <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17">
+      <c r="O106" s="26" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16">
       <c r="B107" s="49"/>
       <c r="C107" s="72"/>
       <c r="D107" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E107" s="49"/>
       <c r="F107" s="49"/>
@@ -54540,12 +54527,11 @@
       <c r="J107" s="49"/>
       <c r="K107" s="49"/>
       <c r="L107" s="49"/>
-      <c r="M107" s="49"/>
+      <c r="M107" s="26"/>
       <c r="N107" s="26"/>
       <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-    </row>
-    <row r="108" spans="2:17">
+    </row>
+    <row r="108" spans="2:16">
       <c r="B108" s="53"/>
       <c r="C108" s="54"/>
       <c r="D108" s="55"/>
@@ -54560,12 +54546,11 @@
       <c r="J108" s="55"/>
       <c r="K108" s="55"/>
       <c r="L108" s="55"/>
-      <c r="M108" s="55"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="26"/>
       <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-    </row>
-    <row r="109" spans="2:17">
+    </row>
+    <row r="109" spans="2:16">
       <c r="B109" s="26"/>
       <c r="C109" s="62"/>
       <c r="D109" s="26"/>
@@ -54573,16 +54558,15 @@
       <c r="F109" s="26"/>
       <c r="G109" s="63"/>
       <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="26"/>
       <c r="K109" s="26"/>
       <c r="L109" s="26"/>
       <c r="M109" s="26"/>
       <c r="N109" s="26"/>
       <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-    </row>
-    <row r="110" spans="2:17">
+    </row>
+    <row r="110" spans="2:16">
       <c r="B110" s="26"/>
       <c r="C110" s="62"/>
       <c r="D110" s="26"/>
@@ -54590,18 +54574,17 @@
       <c r="F110" s="40"/>
       <c r="G110" s="63"/>
       <c r="H110" s="63"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="26"/>
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
       <c r="N110" s="26"/>
       <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-    </row>
-    <row r="111" spans="2:17" ht="18.75">
+    </row>
+    <row r="111" spans="2:16" ht="18.75">
       <c r="B111" s="43" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -54618,9 +54601,8 @@
       <c r="M111" s="26"/>
       <c r="N111" s="26"/>
       <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-    </row>
-    <row r="112" spans="2:17" ht="13.5" thickBot="1">
+    </row>
+    <row r="112" spans="2:16" ht="13.5" thickBot="1">
       <c r="B112" s="73" t="s">
         <v>318</v>
       </c>
@@ -54637,46 +54619,43 @@
         <v>720</v>
       </c>
       <c r="G112" s="74" t="s">
+        <v>798</v>
+      </c>
+      <c r="H112" s="74" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I112" s="48" t="s">
+        <v>724</v>
+      </c>
+      <c r="J112" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="K112" s="48" t="s">
         <v>799</v>
       </c>
-      <c r="H112" s="74" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I112" s="48" t="s">
+      <c r="L112" s="48" t="s">
         <v>800</v>
       </c>
-      <c r="J112" s="48" t="s">
-        <v>724</v>
-      </c>
-      <c r="K112" s="48" t="s">
-        <v>725</v>
-      </c>
-      <c r="L112" s="48" t="s">
+      <c r="M112" s="48" t="s">
+        <v>723</v>
+      </c>
+      <c r="N112" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="O112" s="75" t="s">
         <v>801</v>
       </c>
-      <c r="M112" s="48" t="s">
+      <c r="P112" s="26"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="76" t="s">
         <v>802</v>
       </c>
-      <c r="N112" s="48" t="s">
-        <v>723</v>
-      </c>
-      <c r="O112" s="75" t="s">
-        <v>791</v>
-      </c>
-      <c r="P112" s="75" t="s">
+      <c r="C113" s="61" t="s">
         <v>803</v>
       </c>
-      <c r="Q112" s="26"/>
-    </row>
-    <row r="113" spans="2:17">
-      <c r="B113" s="76" t="s">
+      <c r="D113" s="70" t="s">
         <v>804</v>
-      </c>
-      <c r="C113" s="61" t="s">
-        <v>805</v>
-      </c>
-      <c r="D113" s="70" t="s">
-        <v>806</v>
       </c>
       <c r="E113" s="49"/>
       <c r="F113" s="49">
@@ -54684,30 +54663,27 @@
       </c>
       <c r="G113" s="49"/>
       <c r="H113" s="49"/>
-      <c r="I113" s="49">
-        <v>1</v>
-      </c>
+      <c r="I113" s="51"/>
       <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="77">
-        <f>(SUM(IND_Bal!$V$43:$V$43)*IND_Fuel!$N$2)/P113/O113</f>
+      <c r="K113" s="77">
+        <f>(SUM(IND_Bal!$V$43:$V$43)*IND_Fuel!$N$2)/O113/N113</f>
         <v>1.0358248170768423</v>
       </c>
-      <c r="M113" s="52">
-        <f>L113</f>
+      <c r="L113" s="52">
+        <f>K113</f>
         <v>1.0358248170768423</v>
       </c>
-      <c r="N113" s="52"/>
-      <c r="O113" s="78">
+      <c r="M113" s="52"/>
+      <c r="N113" s="78">
         <v>31.536000000000001</v>
       </c>
-      <c r="P113" s="79">
+      <c r="O113" s="79">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q113" s="26"/>
-    </row>
-    <row r="114" spans="2:17">
+      <c r="P113" s="26"/>
+    </row>
+    <row r="114" spans="2:16">
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="58"/>
@@ -54724,15 +54700,14 @@
       </c>
       <c r="I114" s="49"/>
       <c r="J114" s="49"/>
-      <c r="K114" s="49"/>
-      <c r="L114" s="80"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="58"/>
       <c r="M114" s="58"/>
-      <c r="N114" s="58"/>
+      <c r="N114" s="49"/>
       <c r="O114" s="49"/>
-      <c r="P114" s="49"/>
-      <c r="Q114" s="26"/>
-    </row>
-    <row r="115" spans="2:17">
+      <c r="P114" s="26"/>
+    </row>
+    <row r="115" spans="2:16">
       <c r="B115" s="81" t="str">
         <f>IF(IND_Bal!V37="","*",IF(IND_Bal!V37=0,"*",""))</f>
         <v>*</v>
@@ -54753,15 +54728,14 @@
       </c>
       <c r="I115" s="49"/>
       <c r="J115" s="49"/>
-      <c r="K115" s="49"/>
-      <c r="L115" s="80"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="58"/>
       <c r="M115" s="58"/>
-      <c r="N115" s="58"/>
+      <c r="N115" s="49"/>
       <c r="O115" s="49"/>
-      <c r="P115" s="49"/>
-      <c r="Q115" s="26"/>
-    </row>
-    <row r="116" spans="2:17">
+      <c r="P115" s="26"/>
+    </row>
+    <row r="116" spans="2:16">
       <c r="B116" s="81" t="str">
         <f>IF(IND_Bal!V41="","*",IF(IND_Bal!V41=0,"*",""))</f>
         <v>*</v>
@@ -54782,15 +54756,14 @@
       </c>
       <c r="I116" s="49"/>
       <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
+      <c r="K116" s="58"/>
       <c r="L116" s="58"/>
       <c r="M116" s="58"/>
-      <c r="N116" s="58"/>
+      <c r="N116" s="49"/>
       <c r="O116" s="49"/>
-      <c r="P116" s="49"/>
-      <c r="Q116" s="26"/>
-    </row>
-    <row r="117" spans="2:17">
+      <c r="P116" s="26"/>
+    </row>
+    <row r="117" spans="2:16">
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
@@ -54807,7 +54780,7 @@
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="2:16">
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -54824,14 +54797,14 @@
       <c r="O118" s="26"/>
       <c r="P118" s="26"/>
     </row>
-    <row r="119" spans="2:17" ht="18.75">
+    <row r="119" spans="2:16" ht="18.75">
       <c r="B119" s="43" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
       <c r="E119" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="26"/>
@@ -54845,7 +54818,7 @@
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
     </row>
-    <row r="120" spans="2:17" ht="13.5" thickBot="1">
+    <row r="120" spans="2:16" ht="13.5" thickBot="1">
       <c r="B120" s="73" t="s">
         <v>318</v>
       </c>
@@ -54862,36 +54835,33 @@
         <v>720</v>
       </c>
       <c r="G120" s="74" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="I120" s="48" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="J120" s="48" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K120" s="48" t="s">
-        <v>723</v>
-      </c>
-      <c r="L120" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="M120" s="75" t="s">
-        <v>791</v>
-      </c>
+      <c r="L120" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="M120" s="26"/>
       <c r="N120" s="26"/>
       <c r="O120" s="26"/>
-      <c r="P120" s="26"/>
-    </row>
-    <row r="121" spans="2:17">
+    </row>
+    <row r="121" spans="2:16">
       <c r="B121" s="76" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D121" s="58" t="str">
         <f>D113</f>
@@ -54902,23 +54872,20 @@
         <v>1</v>
       </c>
       <c r="G121" s="49"/>
-      <c r="H121" s="49">
-        <v>1</v>
-      </c>
+      <c r="H121" s="67"/>
       <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="52"/>
-      <c r="L121" s="68">
+      <c r="J121" s="52"/>
+      <c r="K121" s="68">
         <v>2013</v>
       </c>
-      <c r="M121" s="78">
+      <c r="L121" s="78">
         <v>31.536000000000001</v>
       </c>
+      <c r="M121" s="26"/>
       <c r="N121" s="26"/>
       <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
-    </row>
-    <row r="122" spans="2:17">
+    </row>
+    <row r="122" spans="2:16">
       <c r="B122" s="49"/>
       <c r="C122" s="49"/>
       <c r="D122" s="49"/>
@@ -54932,15 +54899,14 @@
       </c>
       <c r="H122" s="49"/>
       <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
-      <c r="K122" s="58"/>
+      <c r="J122" s="58"/>
+      <c r="K122" s="49"/>
       <c r="L122" s="49"/>
-      <c r="M122" s="49"/>
+      <c r="M122" s="26"/>
       <c r="N122" s="26"/>
       <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
-    </row>
-    <row r="123" spans="2:17">
+    </row>
+    <row r="123" spans="2:16">
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
       <c r="D123" s="49"/>
@@ -54954,15 +54920,14 @@
       </c>
       <c r="H123" s="49"/>
       <c r="I123" s="49"/>
-      <c r="J123" s="49"/>
-      <c r="K123" s="58"/>
+      <c r="J123" s="58"/>
+      <c r="K123" s="49"/>
       <c r="L123" s="49"/>
-      <c r="M123" s="49"/>
+      <c r="M123" s="26"/>
       <c r="N123" s="26"/>
       <c r="O123" s="26"/>
-      <c r="P123" s="26"/>
-    </row>
-    <row r="124" spans="2:17">
+    </row>
+    <row r="124" spans="2:16">
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
       <c r="D124" s="49"/>
@@ -54976,13 +54941,12 @@
       </c>
       <c r="H124" s="49"/>
       <c r="I124" s="49"/>
-      <c r="J124" s="49"/>
-      <c r="K124" s="58"/>
+      <c r="J124" s="58"/>
+      <c r="K124" s="49"/>
       <c r="L124" s="49"/>
-      <c r="M124" s="49"/>
+      <c r="M124" s="26"/>
       <c r="N124" s="26"/>
       <c r="O124" s="26"/>
-      <c r="P124" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -54999,7 +54963,7 @@
   <dimension ref="A2:M122"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -55014,7 +54978,7 @@
     <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="26"/>
       <c r="B2" s="461" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C2" s="460"/>
       <c r="D2" s="460"/>
@@ -55031,7 +54995,7 @@
     <row r="3" spans="1:13">
       <c r="A3" s="26"/>
       <c r="B3" s="459" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C3" s="460"/>
       <c r="D3" s="460"/>
@@ -55048,28 +55012,28 @@
     <row r="4" spans="1:13" ht="13.5" thickBot="1">
       <c r="A4" s="26"/>
       <c r="B4" s="458" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C4" s="458" t="s">
         <v>319</v>
       </c>
       <c r="D4" s="458" t="s">
+        <v>812</v>
+      </c>
+      <c r="E4" s="458" t="s">
+        <v>813</v>
+      </c>
+      <c r="F4" s="457" t="s">
         <v>814</v>
       </c>
-      <c r="E4" s="458" t="s">
+      <c r="G4" s="457" t="s">
         <v>815</v>
       </c>
-      <c r="F4" s="457" t="s">
+      <c r="H4" s="457" t="s">
         <v>816</v>
       </c>
-      <c r="G4" s="457" t="s">
+      <c r="I4" s="457" t="s">
         <v>817</v>
-      </c>
-      <c r="H4" s="457" t="s">
-        <v>818</v>
-      </c>
-      <c r="I4" s="457" t="s">
-        <v>819</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -55079,13 +55043,13 @@
     <row r="5" spans="1:13">
       <c r="A5" s="26"/>
       <c r="B5" s="456" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C5" s="455" t="s">
         <v>269</v>
       </c>
       <c r="D5" s="454" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E5" s="453" t="s">
         <v>166</v>
@@ -55115,7 +55079,7 @@
         <v>INDPEA</v>
       </c>
       <c r="D6" s="449" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E6" s="448" t="s">
         <v>166</v>
@@ -55137,7 +55101,7 @@
         <v>INDCOH</v>
       </c>
       <c r="D7" s="449" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E7" s="448" t="s">
         <v>166</v>
@@ -55159,7 +55123,7 @@
         <v>INDCOK</v>
       </c>
       <c r="D8" s="449" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E8" s="448" t="s">
         <v>166</v>
@@ -55181,7 +55145,7 @@
         <v>INDRFG</v>
       </c>
       <c r="D9" s="449" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E9" s="448" t="s">
         <v>166</v>
@@ -55203,7 +55167,7 @@
         <v>INDLPG</v>
       </c>
       <c r="D10" s="447" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E10" s="448" t="s">
         <v>166</v>
@@ -55225,7 +55189,7 @@
         <v>INDLFO</v>
       </c>
       <c r="D11" s="447" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E11" s="448" t="s">
         <v>166</v>
@@ -55247,7 +55211,7 @@
         <v>INDNAP</v>
       </c>
       <c r="D12" s="447" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E12" s="448" t="s">
         <v>166</v>
@@ -55269,7 +55233,7 @@
         <v>INDHFO</v>
       </c>
       <c r="D13" s="447" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E13" s="448" t="s">
         <v>166</v>
@@ -55291,7 +55255,7 @@
         <v>INDNEU</v>
       </c>
       <c r="D14" s="447" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E14" s="448" t="s">
         <v>166</v>
@@ -55313,7 +55277,7 @@
         <v>INDGAS</v>
       </c>
       <c r="D15" s="447" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E15" s="448" t="s">
         <v>166</v>
@@ -55335,7 +55299,7 @@
         <v>INDCOG</v>
       </c>
       <c r="D16" s="447" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E16" s="448" t="s">
         <v>166</v>
@@ -55357,7 +55321,7 @@
         <v>INDBFG</v>
       </c>
       <c r="D17" s="447" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E17" s="448" t="s">
         <v>166</v>
@@ -55379,7 +55343,7 @@
         <v>INDSOL</v>
       </c>
       <c r="D18" s="447" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E18" s="448" t="s">
         <v>166</v>
@@ -55401,7 +55365,7 @@
         <v>INDGEO</v>
       </c>
       <c r="D19" s="447" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E19" s="448" t="s">
         <v>166</v>
@@ -55423,7 +55387,7 @@
         <v>INDBIO</v>
       </c>
       <c r="D20" s="447" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E20" s="448" t="s">
         <v>166</v>
@@ -55445,7 +55409,7 @@
         <v>INDWASS</v>
       </c>
       <c r="D21" s="447" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E21" s="448" t="s">
         <v>166</v>
@@ -55467,7 +55431,7 @@
         <v>INDWASL</v>
       </c>
       <c r="D22" s="447" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E22" s="448" t="s">
         <v>166</v>
@@ -55487,10 +55451,10 @@
         <v>333</v>
       </c>
       <c r="C23" s="446" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D23" s="447" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E23" s="448" t="s">
         <v>166</v>
@@ -55510,10 +55474,10 @@
         <v>333</v>
       </c>
       <c r="C24" s="446" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D24" s="447" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E24" s="448" t="s">
         <v>166</v>
@@ -55535,7 +55499,7 @@
         <v>INDELC</v>
       </c>
       <c r="D25" s="447" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E25" s="448" t="s">
         <v>166</v>
@@ -55561,7 +55525,7 @@
         <v>INDHTH</v>
       </c>
       <c r="D26" s="446" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E26" s="448" t="s">
         <v>166</v>
@@ -55572,7 +55536,7 @@
       </c>
       <c r="H26" s="445"/>
       <c r="I26" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -55583,10 +55547,10 @@
       <c r="A27" s="26"/>
       <c r="B27" s="451"/>
       <c r="C27" s="446" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D27" s="446" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E27" s="448" t="s">
         <v>166</v>
@@ -55597,7 +55561,7 @@
       </c>
       <c r="H27" s="445"/>
       <c r="I27" s="444" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
@@ -55612,7 +55576,7 @@
         <v>IISHTH</v>
       </c>
       <c r="D28" s="442" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E28" s="448" t="s">
         <v>166</v>
@@ -55623,7 +55587,7 @@
       </c>
       <c r="H28" s="445"/>
       <c r="I28" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -55638,7 +55602,7 @@
         <v>IALHTH</v>
       </c>
       <c r="D29" s="442" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E29" s="448" t="s">
         <v>166</v>
@@ -55649,7 +55613,7 @@
       </c>
       <c r="H29" s="445"/>
       <c r="I29" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -55664,7 +55628,7 @@
         <v>ICUHTH</v>
       </c>
       <c r="D30" s="442" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E30" s="448" t="s">
         <v>166</v>
@@ -55675,7 +55639,7 @@
       </c>
       <c r="H30" s="445"/>
       <c r="I30" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -55690,7 +55654,7 @@
         <v>INFHTH</v>
       </c>
       <c r="D31" s="442" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E31" s="448" t="s">
         <v>166</v>
@@ -55701,7 +55665,7 @@
       </c>
       <c r="H31" s="445"/>
       <c r="I31" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -55716,7 +55680,7 @@
         <v>IAMHTH</v>
       </c>
       <c r="D32" s="442" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E32" s="448" t="s">
         <v>166</v>
@@ -55727,7 +55691,7 @@
       </c>
       <c r="H32" s="445"/>
       <c r="I32" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
@@ -55742,7 +55706,7 @@
         <v>ICLHTH</v>
       </c>
       <c r="D33" s="442" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E33" s="448" t="s">
         <v>166</v>
@@ -55753,7 +55717,7 @@
       </c>
       <c r="H33" s="445"/>
       <c r="I33" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -55768,7 +55732,7 @@
         <v>ICHHTH</v>
       </c>
       <c r="D34" s="442" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E34" s="448" t="s">
         <v>166</v>
@@ -55779,7 +55743,7 @@
       </c>
       <c r="H34" s="445"/>
       <c r="I34" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
@@ -55794,7 +55758,7 @@
         <v>ICMHTH</v>
       </c>
       <c r="D35" s="442" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E35" s="448" t="s">
         <v>166</v>
@@ -55805,7 +55769,7 @@
       </c>
       <c r="H35" s="445"/>
       <c r="I35" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
@@ -55820,7 +55784,7 @@
         <v>ILMHTH</v>
       </c>
       <c r="D36" s="442" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E36" s="448" t="s">
         <v>166</v>
@@ -55831,7 +55795,7 @@
       </c>
       <c r="H36" s="445"/>
       <c r="I36" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
@@ -55846,7 +55810,7 @@
         <v>IGHHTH</v>
       </c>
       <c r="D37" s="442" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E37" s="448" t="s">
         <v>166</v>
@@ -55857,7 +55821,7 @@
       </c>
       <c r="H37" s="445"/>
       <c r="I37" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
@@ -55872,7 +55836,7 @@
         <v>IGFHTH</v>
       </c>
       <c r="D38" s="442" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E38" s="448" t="s">
         <v>166</v>
@@ -55883,7 +55847,7 @@
       </c>
       <c r="H38" s="445"/>
       <c r="I38" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -55898,7 +55862,7 @@
         <v>INMHTH</v>
       </c>
       <c r="D39" s="442" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E39" s="448" t="s">
         <v>166</v>
@@ -55909,7 +55873,7 @@
       </c>
       <c r="H39" s="445"/>
       <c r="I39" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
@@ -55920,10 +55884,10 @@
       <c r="A40" s="26"/>
       <c r="B40" s="451"/>
       <c r="C40" s="441" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D40" s="442" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E40" s="448" t="s">
         <v>166</v>
@@ -55934,7 +55898,7 @@
       </c>
       <c r="H40" s="445"/>
       <c r="I40" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -55945,10 +55909,10 @@
       <c r="A41" s="26"/>
       <c r="B41" s="451"/>
       <c r="C41" s="441" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D41" s="442" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E41" s="448" t="s">
         <v>166</v>
@@ -55957,7 +55921,7 @@
       <c r="G41" s="445"/>
       <c r="H41" s="445"/>
       <c r="I41" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
@@ -55972,7 +55936,7 @@
         <v>IOIHTH</v>
       </c>
       <c r="D42" s="442" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E42" s="448" t="s">
         <v>166</v>
@@ -55983,7 +55947,7 @@
       </c>
       <c r="H42" s="445"/>
       <c r="I42" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -55994,10 +55958,10 @@
       <c r="A43" s="26"/>
       <c r="B43" s="451"/>
       <c r="C43" s="441" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D43" s="442" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E43" s="448" t="s">
         <v>166</v>
@@ -56008,7 +55972,7 @@
       </c>
       <c r="H43" s="445"/>
       <c r="I43" s="444" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
@@ -56019,10 +55983,10 @@
       <c r="A44" s="26"/>
       <c r="B44" s="439"/>
       <c r="C44" s="438" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D44" s="437" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E44" s="436" t="s">
         <v>166</v>
@@ -56039,19 +56003,19 @@
     <row r="45" spans="1:13">
       <c r="A45" s="26"/>
       <c r="B45" s="451" t="s">
+        <v>868</v>
+      </c>
+      <c r="C45" s="446" t="s">
+        <v>869</v>
+      </c>
+      <c r="D45" s="447" t="s">
         <v>870</v>
-      </c>
-      <c r="C45" s="446" t="s">
-        <v>871</v>
-      </c>
-      <c r="D45" s="447" t="s">
-        <v>872</v>
       </c>
       <c r="E45" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F45" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G45" s="448"/>
       <c r="H45" s="448"/>
@@ -56065,16 +56029,16 @@
       <c r="A46" s="26"/>
       <c r="B46" s="451"/>
       <c r="C46" s="446" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D46" s="447" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E46" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F46" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G46" s="448"/>
       <c r="H46" s="448"/>
@@ -56088,16 +56052,16 @@
       <c r="A47" s="26"/>
       <c r="B47" s="451"/>
       <c r="C47" s="446" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D47" s="447" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E47" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F47" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G47" s="448"/>
       <c r="H47" s="448"/>
@@ -56114,13 +56078,13 @@
         <v>455</v>
       </c>
       <c r="D48" s="447" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E48" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F48" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G48" s="448"/>
       <c r="H48" s="448"/>
@@ -56134,16 +56098,16 @@
       <c r="A49" s="26"/>
       <c r="B49" s="451"/>
       <c r="C49" s="446" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D49" s="447" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E49" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F49" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G49" s="448"/>
       <c r="H49" s="448"/>
@@ -56157,16 +56121,16 @@
       <c r="A50" s="26"/>
       <c r="B50" s="451"/>
       <c r="C50" s="446" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D50" s="447" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E50" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F50" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G50" s="448"/>
       <c r="H50" s="448"/>
@@ -56180,16 +56144,16 @@
       <c r="A51" s="26"/>
       <c r="B51" s="451"/>
       <c r="C51" s="449" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D51" s="447" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E51" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F51" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G51" s="448"/>
       <c r="H51" s="448"/>
@@ -56203,16 +56167,16 @@
       <c r="A52" s="26"/>
       <c r="B52" s="451"/>
       <c r="C52" s="449" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D52" s="447" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E52" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F52" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G52" s="448"/>
       <c r="H52" s="448"/>
@@ -56226,16 +56190,16 @@
       <c r="A53" s="26"/>
       <c r="B53" s="451"/>
       <c r="C53" s="447" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D53" s="447" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E53" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F53" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G53" s="448"/>
       <c r="H53" s="448"/>
@@ -56252,13 +56216,13 @@
         <v>474</v>
       </c>
       <c r="D54" s="442" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E54" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F54" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G54" s="448"/>
       <c r="H54" s="448"/>
@@ -56272,16 +56236,16 @@
       <c r="A55" s="26"/>
       <c r="B55" s="439"/>
       <c r="C55" s="438" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D55" s="437" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E55" s="436" t="s">
         <v>339</v>
       </c>
       <c r="F55" s="436" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G55" s="436"/>
       <c r="H55" s="436"/>
@@ -56295,16 +56259,16 @@
       <c r="A56" s="26"/>
       <c r="B56" s="451"/>
       <c r="C56" s="446" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D56" s="447" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E56" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F56" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G56" s="448"/>
       <c r="H56" s="448"/>
@@ -56318,16 +56282,16 @@
       <c r="A57" s="26"/>
       <c r="B57" s="451"/>
       <c r="C57" s="446" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D57" s="447" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E57" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F57" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G57" s="448"/>
       <c r="H57" s="448"/>
@@ -56341,16 +56305,16 @@
       <c r="A58" s="26"/>
       <c r="B58" s="451"/>
       <c r="C58" s="446" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D58" s="447" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E58" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F58" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G58" s="448"/>
       <c r="H58" s="448"/>
@@ -56364,16 +56328,16 @@
       <c r="A59" s="26"/>
       <c r="B59" s="451"/>
       <c r="C59" s="446" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D59" s="447" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E59" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F59" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G59" s="448"/>
       <c r="H59" s="448"/>
@@ -56387,16 +56351,16 @@
       <c r="A60" s="26"/>
       <c r="B60" s="451"/>
       <c r="C60" s="446" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D60" s="447" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E60" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F60" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G60" s="448"/>
       <c r="H60" s="448"/>
@@ -56410,16 +56374,16 @@
       <c r="A61" s="26"/>
       <c r="B61" s="451"/>
       <c r="C61" s="446" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D61" s="447" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E61" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F61" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G61" s="448"/>
       <c r="H61" s="448"/>
@@ -56433,16 +56397,16 @@
       <c r="A62" s="26"/>
       <c r="B62" s="451"/>
       <c r="C62" s="446" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D62" s="442" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E62" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F62" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G62" s="448"/>
       <c r="H62" s="448"/>
@@ -56456,16 +56420,16 @@
       <c r="A63" s="26"/>
       <c r="B63" s="451"/>
       <c r="C63" s="446" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D63" s="447" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E63" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F63" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G63" s="448"/>
       <c r="H63" s="448"/>
@@ -56479,16 +56443,16 @@
       <c r="A64" s="26"/>
       <c r="B64" s="439"/>
       <c r="C64" s="438" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D64" s="437" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E64" s="436" t="s">
         <v>339</v>
       </c>
       <c r="F64" s="436" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G64" s="436"/>
       <c r="H64" s="436"/>
@@ -56502,16 +56466,16 @@
       <c r="A65" s="26"/>
       <c r="B65" s="451"/>
       <c r="C65" s="446" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D65" s="447" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E65" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F65" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G65" s="435"/>
       <c r="H65" s="435"/>
@@ -56525,16 +56489,16 @@
       <c r="A66" s="26"/>
       <c r="B66" s="451"/>
       <c r="C66" s="446" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D66" s="447" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E66" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F66" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G66" s="435"/>
       <c r="H66" s="435"/>
@@ -56548,16 +56512,16 @@
       <c r="A67" s="26"/>
       <c r="B67" s="451"/>
       <c r="C67" s="446" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D67" s="447" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E67" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F67" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G67" s="435"/>
       <c r="H67" s="435"/>
@@ -56571,16 +56535,16 @@
       <c r="A68" s="26"/>
       <c r="B68" s="451"/>
       <c r="C68" s="446" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D68" s="447" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E68" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F68" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G68" s="435"/>
       <c r="H68" s="435"/>
@@ -56597,13 +56561,13 @@
         <v>673</v>
       </c>
       <c r="D69" s="447" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E69" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F69" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G69" s="435"/>
       <c r="H69" s="435"/>
@@ -56616,13 +56580,13 @@
     <row r="70" spans="1:13">
       <c r="A70" s="26"/>
       <c r="B70" s="451" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C70" s="446" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D70" s="447" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E70" s="448" t="s">
         <v>166</v>
@@ -56639,19 +56603,19 @@
     <row r="71" spans="1:13">
       <c r="A71" s="26"/>
       <c r="B71" s="451" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C71" s="446" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D71" s="447" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E71" s="448" t="s">
         <v>339</v>
       </c>
       <c r="F71" s="448" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G71" s="435"/>
       <c r="H71" s="435"/>
@@ -56665,16 +56629,16 @@
       <c r="A72" s="26"/>
       <c r="B72" s="439"/>
       <c r="C72" s="438" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D72" s="437" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E72" s="436" t="s">
         <v>339</v>
       </c>
       <c r="F72" s="436" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G72" s="434"/>
       <c r="H72" s="434"/>
@@ -56687,16 +56651,16 @@
     <row r="73" spans="1:13">
       <c r="A73" s="26"/>
       <c r="B73" s="451" t="s">
+        <v>923</v>
+      </c>
+      <c r="C73" s="447" t="s">
+        <v>924</v>
+      </c>
+      <c r="D73" s="442" t="s">
         <v>925</v>
       </c>
-      <c r="C73" s="447" t="s">
+      <c r="E73" s="448" t="s">
         <v>926</v>
-      </c>
-      <c r="D73" s="442" t="s">
-        <v>927</v>
-      </c>
-      <c r="E73" s="448" t="s">
-        <v>928</v>
       </c>
       <c r="F73" s="435"/>
       <c r="G73" s="435"/>
@@ -56711,13 +56675,13 @@
       <c r="A74" s="26"/>
       <c r="B74" s="451"/>
       <c r="C74" s="447" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D74" s="442" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E74" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F74" s="435"/>
       <c r="G74" s="435"/>
@@ -56732,13 +56696,13 @@
       <c r="A75" s="26"/>
       <c r="B75" s="451"/>
       <c r="C75" s="447" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D75" s="442" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E75" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F75" s="435"/>
       <c r="G75" s="435"/>
@@ -56753,13 +56717,13 @@
       <c r="A76" s="26"/>
       <c r="B76" s="451"/>
       <c r="C76" s="447" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D76" s="442" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E76" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F76" s="435"/>
       <c r="G76" s="435"/>
@@ -56774,13 +56738,13 @@
       <c r="A77" s="26"/>
       <c r="B77" s="451"/>
       <c r="C77" s="447" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D77" s="442" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E77" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F77" s="435"/>
       <c r="G77" s="435"/>
@@ -56795,13 +56759,13 @@
       <c r="A78" s="26"/>
       <c r="B78" s="451"/>
       <c r="C78" s="447" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D78" s="442" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E78" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F78" s="435"/>
       <c r="G78" s="435"/>
@@ -56816,13 +56780,13 @@
       <c r="A79" s="26"/>
       <c r="B79" s="451"/>
       <c r="C79" s="442" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D79" s="442" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E79" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F79" s="435"/>
       <c r="G79" s="435"/>
@@ -56837,13 +56801,13 @@
       <c r="A80" s="26"/>
       <c r="B80" s="451"/>
       <c r="C80" s="442" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D80" s="442" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E80" s="448" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F80" s="435"/>
       <c r="G80" s="435"/>
@@ -56858,13 +56822,13 @@
       <c r="A81" s="26"/>
       <c r="B81" s="451"/>
       <c r="C81" s="442" t="s">
+        <v>941</v>
+      </c>
+      <c r="D81" s="442" t="s">
+        <v>942</v>
+      </c>
+      <c r="E81" s="448" t="s">
         <v>943</v>
-      </c>
-      <c r="D81" s="442" t="s">
-        <v>944</v>
-      </c>
-      <c r="E81" s="448" t="s">
-        <v>945</v>
       </c>
       <c r="F81" s="435"/>
       <c r="G81" s="435"/>
@@ -56879,13 +56843,13 @@
       <c r="A82" s="26"/>
       <c r="B82" s="439"/>
       <c r="C82" s="433" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D82" s="433" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E82" s="436" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F82" s="434"/>
       <c r="G82" s="434"/>
@@ -56899,16 +56863,16 @@
     <row r="83" spans="1:13">
       <c r="A83" s="26"/>
       <c r="B83" s="432" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C83" s="425" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D83" s="431" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E83" s="430" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F83" s="429"/>
       <c r="G83" s="429"/>
@@ -56922,13 +56886,13 @@
     <row r="84" spans="1:13">
       <c r="A84" s="26"/>
       <c r="B84" s="451" t="s">
+        <v>948</v>
+      </c>
+      <c r="C84" s="449" t="s">
+        <v>949</v>
+      </c>
+      <c r="D84" s="449" t="s">
         <v>950</v>
-      </c>
-      <c r="C84" s="449" t="s">
-        <v>951</v>
-      </c>
-      <c r="D84" s="449" t="s">
-        <v>952</v>
       </c>
       <c r="E84" s="448" t="s">
         <v>339</v>
@@ -56946,10 +56910,10 @@
       <c r="A85" s="26"/>
       <c r="B85" s="435"/>
       <c r="C85" s="449" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D85" s="449" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E85" s="448" t="s">
         <v>339</v>
@@ -56967,10 +56931,10 @@
       <c r="A86" s="26"/>
       <c r="B86" s="435"/>
       <c r="C86" s="449" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D86" s="449" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E86" s="448" t="s">
         <v>339</v>
@@ -56988,10 +56952,10 @@
       <c r="A87" s="26"/>
       <c r="B87" s="435"/>
       <c r="C87" s="449" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D87" s="449" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E87" s="448" t="s">
         <v>166</v>
@@ -57009,10 +56973,10 @@
       <c r="A88" s="26"/>
       <c r="B88" s="435"/>
       <c r="C88" s="449" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D88" s="449" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E88" s="448" t="s">
         <v>339</v>
@@ -57030,10 +56994,10 @@
       <c r="A89" s="26"/>
       <c r="B89" s="435"/>
       <c r="C89" s="449" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D89" s="449" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E89" s="448" t="s">
         <v>339</v>
@@ -57051,10 +57015,10 @@
       <c r="A90" s="26"/>
       <c r="B90" s="435"/>
       <c r="C90" s="449" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D90" s="449" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E90" s="448" t="s">
         <v>166</v>
@@ -57072,10 +57036,10 @@
       <c r="A91" s="26"/>
       <c r="B91" s="435"/>
       <c r="C91" s="449" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D91" s="449" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E91" s="448" t="s">
         <v>339</v>
@@ -57093,10 +57057,10 @@
       <c r="A92" s="26"/>
       <c r="B92" s="435"/>
       <c r="C92" s="449" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D92" s="449" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E92" s="448" t="s">
         <v>339</v>
@@ -57114,10 +57078,10 @@
       <c r="A93" s="26"/>
       <c r="B93" s="435"/>
       <c r="C93" s="449" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D93" s="449" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E93" s="448" t="s">
         <v>339</v>
@@ -57135,10 +57099,10 @@
       <c r="A94" s="26"/>
       <c r="B94" s="435"/>
       <c r="C94" s="449" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D94" s="449" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E94" s="448" t="s">
         <v>339</v>
@@ -57156,10 +57120,10 @@
       <c r="A95" s="26"/>
       <c r="B95" s="435"/>
       <c r="C95" s="449" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D95" s="449" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E95" s="448" t="s">
         <v>166</v>
@@ -57177,10 +57141,10 @@
       <c r="A96" s="26"/>
       <c r="B96" s="435"/>
       <c r="C96" s="449" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D96" s="449" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E96" s="448" t="s">
         <v>339</v>
@@ -57198,10 +57162,10 @@
       <c r="A97" s="26"/>
       <c r="B97" s="435"/>
       <c r="C97" s="449" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D97" s="449" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E97" s="448" t="s">
         <v>339</v>
@@ -57219,10 +57183,10 @@
       <c r="A98" s="26"/>
       <c r="B98" s="435"/>
       <c r="C98" s="449" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D98" s="449" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E98" s="448" t="s">
         <v>166</v>
@@ -57240,10 +57204,10 @@
       <c r="A99" s="26"/>
       <c r="B99" s="435"/>
       <c r="C99" s="449" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D99" s="449" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E99" s="448" t="s">
         <v>166</v>
@@ -57261,10 +57225,10 @@
       <c r="A100" s="26"/>
       <c r="B100" s="434"/>
       <c r="C100" s="428" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D100" s="428" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E100" s="436" t="s">
         <v>166</v>
@@ -57281,13 +57245,13 @@
     <row r="101" spans="1:13">
       <c r="A101" s="26"/>
       <c r="B101" s="427" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C101" s="449" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D101" s="449" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E101" s="435" t="s">
         <v>166</v>
@@ -57307,10 +57271,10 @@
       <c r="A102" s="26"/>
       <c r="B102" s="427"/>
       <c r="C102" s="449" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D102" s="449" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E102" s="435" t="s">
         <v>166</v>
@@ -57328,10 +57292,10 @@
       <c r="A103" s="26"/>
       <c r="B103" s="427"/>
       <c r="C103" s="449" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D103" s="449" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E103" s="435" t="s">
         <v>166</v>
@@ -57349,10 +57313,10 @@
       <c r="A104" s="26"/>
       <c r="B104" s="427"/>
       <c r="C104" s="449" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D104" s="449" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E104" s="435" t="s">
         <v>166</v>
@@ -57370,10 +57334,10 @@
       <c r="A105" s="26"/>
       <c r="B105" s="426"/>
       <c r="C105" s="428" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D105" s="428" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E105" s="434" t="s">
         <v>166</v>
@@ -57391,10 +57355,10 @@
       <c r="A106" s="26"/>
       <c r="B106" s="427"/>
       <c r="C106" s="449" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D106" s="449" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E106" s="435" t="s">
         <v>166</v>
@@ -57414,10 +57378,10 @@
       <c r="A107" s="26"/>
       <c r="B107" s="427"/>
       <c r="C107" s="449" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D107" s="449" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E107" s="435" t="s">
         <v>166</v>
@@ -57435,10 +57399,10 @@
       <c r="A108" s="26"/>
       <c r="B108" s="427"/>
       <c r="C108" s="449" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D108" s="449" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E108" s="435" t="s">
         <v>166</v>
@@ -57456,10 +57420,10 @@
       <c r="A109" s="26"/>
       <c r="B109" s="427"/>
       <c r="C109" s="449" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D109" s="449" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="435" t="s">
         <v>166</v>
@@ -57477,10 +57441,10 @@
       <c r="A110" s="26"/>
       <c r="B110" s="426"/>
       <c r="C110" s="428" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D110" s="428" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E110" s="434" t="s">
         <v>166</v>
@@ -57498,10 +57462,10 @@
       <c r="A111" s="26"/>
       <c r="B111" s="427"/>
       <c r="C111" s="449" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D111" s="449" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E111" s="435" t="s">
         <v>166</v>
@@ -57521,10 +57485,10 @@
       <c r="A112" s="26"/>
       <c r="B112" s="427"/>
       <c r="C112" s="449" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D112" s="449" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E112" s="435" t="s">
         <v>166</v>
@@ -57542,10 +57506,10 @@
       <c r="A113" s="26"/>
       <c r="B113" s="427"/>
       <c r="C113" s="449" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D113" s="449" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E113" s="435" t="s">
         <v>166</v>
@@ -57563,10 +57527,10 @@
       <c r="A114" s="26"/>
       <c r="B114" s="427"/>
       <c r="C114" s="449" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D114" s="449" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E114" s="435" t="s">
         <v>166</v>
@@ -57584,10 +57548,10 @@
       <c r="A115" s="26"/>
       <c r="B115" s="426"/>
       <c r="C115" s="428" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D115" s="428" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E115" s="434" t="s">
         <v>166</v>
@@ -57605,10 +57569,10 @@
       <c r="A116" s="26"/>
       <c r="B116" s="427"/>
       <c r="C116" s="449" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D116" s="449" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E116" s="435" t="s">
         <v>166</v>
@@ -57628,10 +57592,10 @@
       <c r="A117" s="26"/>
       <c r="B117" s="427"/>
       <c r="C117" s="449" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D117" s="449" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E117" s="435" t="s">
         <v>166</v>
@@ -57649,10 +57613,10 @@
       <c r="A118" s="26"/>
       <c r="B118" s="427"/>
       <c r="C118" s="449" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D118" s="449" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E118" s="435" t="s">
         <v>166</v>
@@ -57670,10 +57634,10 @@
       <c r="A119" s="26"/>
       <c r="B119" s="427"/>
       <c r="C119" s="449" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D119" s="449" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E119" s="435" t="s">
         <v>166</v>
@@ -57691,10 +57655,10 @@
       <c r="A120" s="26"/>
       <c r="B120" s="426"/>
       <c r="C120" s="428" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D120" s="428" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E120" s="434" t="s">
         <v>166</v>
@@ -57712,10 +57676,10 @@
       <c r="A121" s="26"/>
       <c r="B121" s="427"/>
       <c r="C121" s="449" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D121" s="449" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E121" s="435" t="s">
         <v>166</v>
@@ -57733,10 +57697,10 @@
       <c r="A122" s="26"/>
       <c r="B122" s="460"/>
       <c r="C122" s="449" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D122" s="449" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E122" s="435" t="s">
         <v>166</v>
@@ -57789,7 +57753,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="26.25">
       <c r="A1" s="387" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="388"/>
       <c r="C1" s="388"/>
@@ -57817,7 +57781,7 @@
     </row>
     <row r="2" spans="1:27" ht="18.75">
       <c r="A2" s="390" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B2" s="468"/>
       <c r="C2" s="468"/>
@@ -57847,7 +57811,7 @@
       <c r="A4" s="391"/>
       <c r="B4" s="391"/>
       <c r="C4" s="790" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D4" s="790"/>
       <c r="E4" s="790"/>
@@ -57856,14 +57820,14 @@
       <c r="H4" s="790"/>
       <c r="I4" s="791"/>
       <c r="J4" s="392" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K4" s="393"/>
       <c r="L4" s="394"/>
       <c r="N4" s="391"/>
       <c r="O4" s="391"/>
       <c r="P4" s="790" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Q4" s="790"/>
       <c r="R4" s="790"/>
@@ -57873,7 +57837,7 @@
       <c r="V4" s="790"/>
       <c r="W4" s="790"/>
       <c r="X4" s="392" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="Z4" s="468"/>
       <c r="AA4" s="468"/>
@@ -57882,7 +57846,7 @@
       <c r="A5" s="395"/>
       <c r="B5" s="395"/>
       <c r="C5" s="396" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D5" s="396" t="s">
         <v>245</v>
@@ -57894,16 +57858,16 @@
         <v>148</v>
       </c>
       <c r="G5" s="396" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H5" s="396" t="s">
         <v>254</v>
       </c>
       <c r="I5" s="396" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="J5" s="397" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K5" s="398" t="s">
         <v>228</v>
@@ -57912,7 +57876,7 @@
       <c r="N5" s="395"/>
       <c r="O5" s="395"/>
       <c r="P5" s="396" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="Q5" s="396" t="s">
         <v>154</v>
@@ -57927,16 +57891,16 @@
         <v>148</v>
       </c>
       <c r="U5" s="396" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="V5" s="396" t="s">
         <v>254</v>
       </c>
       <c r="W5" s="396" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="X5" s="397" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="Y5" s="397" t="s">
         <v>228</v>
@@ -57945,7 +57909,7 @@
         <v>720</v>
       </c>
       <c r="AA5" s="399" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -57954,7 +57918,7 @@
         <v>IE</v>
       </c>
       <c r="B6" s="401" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="415">
         <f>IF(P6="","",P6)</f>
@@ -57997,7 +57961,7 @@
         <v>114</v>
       </c>
       <c r="O6" s="404" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="P6" s="489">
         <v>0</v>
@@ -58029,7 +57993,7 @@
     <row r="7" spans="1:27">
       <c r="A7" s="147"/>
       <c r="B7" s="401" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C7" s="415">
         <f>IF(P7="","",P7)</f>
@@ -58070,7 +58034,7 @@
       <c r="L7" s="402"/>
       <c r="N7" s="147"/>
       <c r="O7" s="401" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="P7" s="491">
         <v>0</v>
@@ -58112,7 +58076,7 @@
     <row r="8" spans="1:27">
       <c r="A8" s="147"/>
       <c r="B8" s="401" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="415">
         <f>IF(P8="","",P8)</f>
@@ -58153,7 +58117,7 @@
       <c r="L8" s="402"/>
       <c r="N8" s="147"/>
       <c r="O8" s="401" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="P8" s="491">
         <v>0</v>
@@ -58231,7 +58195,7 @@
       <c r="L9" s="402"/>
       <c r="N9" s="147"/>
       <c r="O9" s="401" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="P9" s="491">
         <v>0</v>
@@ -58355,7 +58319,7 @@
       <c r="L12" s="402"/>
       <c r="N12" s="468"/>
       <c r="O12" s="401" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="P12" s="236">
         <f>SUM(P6:P10)</f>
@@ -58442,7 +58406,7 @@
       <c r="R14" s="468"/>
       <c r="S14" s="468"/>
       <c r="T14" s="468" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="U14" s="468"/>
       <c r="V14" s="468"/>
@@ -58658,7 +58622,7 @@
     <row r="22" spans="1:28" ht="18.75">
       <c r="A22" s="411"/>
       <c r="B22" s="469" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="469"/>
       <c r="D22" s="240"/>
@@ -58706,34 +58670,34 @@
         <v>719</v>
       </c>
       <c r="F23" s="524" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G23" s="524" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H23" s="524" t="s">
         <v>1046</v>
       </c>
-      <c r="G23" s="524" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H23" s="524" t="s">
-        <v>1048</v>
-      </c>
       <c r="I23" s="783" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J23" s="524" t="s">
         <v>720</v>
       </c>
       <c r="K23" s="524" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L23" s="524" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M23" s="524" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N23" s="524" t="s">
         <v>1049</v>
       </c>
-      <c r="M23" s="524" t="s">
+      <c r="O23" s="524" t="s">
         <v>1050</v>
-      </c>
-      <c r="N23" s="524" t="s">
-        <v>1051</v>
-      </c>
-      <c r="O23" s="524" t="s">
-        <v>1052</v>
       </c>
       <c r="P23" s="468"/>
       <c r="Q23" s="248" t="s">
@@ -58783,17 +58747,17 @@
       <c r="K24" s="523"/>
       <c r="L24" s="523"/>
       <c r="M24" s="523" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N24" s="523" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O24" s="523" t="s">
         <v>1053</v>
-      </c>
-      <c r="N24" s="523" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O24" s="523" t="s">
-        <v>1055</v>
       </c>
       <c r="P24" s="468"/>
       <c r="Q24" s="251" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="R24" s="251" t="str">
         <f>B25</f>
@@ -58824,10 +58788,10 @@
     <row r="25" spans="1:28" ht="15">
       <c r="A25" s="411"/>
       <c r="B25" s="472" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C25" s="473" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D25" s="474" t="str">
         <f>IND_Commodities!$C$11</f>
@@ -58869,7 +58833,7 @@
       </c>
       <c r="P25" s="468"/>
       <c r="Q25" s="251" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="R25" s="252" t="str">
         <f>B27</f>
@@ -58925,7 +58889,7 @@
       <c r="O26" s="482"/>
       <c r="P26" s="468"/>
       <c r="Q26" s="251" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="R26" s="252" t="str">
         <f>B30</f>
@@ -58954,10 +58918,10 @@
     <row r="27" spans="1:28" ht="15">
       <c r="A27" s="408"/>
       <c r="B27" s="472" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C27" s="472" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D27" s="474" t="str">
         <f>IND_Commodities!$C$11</f>
@@ -59002,7 +58966,7 @@
       </c>
       <c r="P27" s="468"/>
       <c r="Q27" s="251" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="R27" s="252" t="str">
         <f>B34</f>
@@ -59114,10 +59078,10 @@
     <row r="30" spans="1:28" ht="15">
       <c r="A30" s="411"/>
       <c r="B30" s="472" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C30" s="473" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D30" s="474" t="str">
         <f>IND_Commodities!$C$11</f>
@@ -59300,10 +59264,10 @@
     <row r="34" spans="1:28" ht="15">
       <c r="A34" s="411"/>
       <c r="B34" s="472" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C34" s="473" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D34" s="474" t="str">
         <f>IND_Commodities!C11</f>
@@ -59711,7 +59675,7 @@
       <c r="A46" s="411"/>
       <c r="B46" s="411"/>
       <c r="C46" s="413" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D46" s="402"/>
       <c r="E46" s="402"/>
@@ -59720,10 +59684,10 @@
       </c>
       <c r="G46" s="402"/>
       <c r="H46" s="402" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I46" s="402" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J46" s="402"/>
       <c r="K46" s="402"/>
@@ -59748,11 +59712,11 @@
       <c r="B47" s="411"/>
       <c r="C47" s="468"/>
       <c r="D47" s="468" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E47" s="402"/>
       <c r="F47" s="402" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G47" s="402"/>
       <c r="H47" s="402"/>
@@ -60032,7 +59996,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="418" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="N55" s="468"/>
       <c r="O55" s="468"/>
@@ -60069,7 +60033,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="418" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="N56" s="468"/>
       <c r="O56" s="468"/>
@@ -60114,7 +60078,7 @@
       <c r="A58" s="411"/>
       <c r="B58" s="411"/>
       <c r="C58" s="413" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D58" s="402"/>
       <c r="E58" s="402"/>
@@ -60143,26 +60107,26 @@
       <c r="B59" s="411"/>
       <c r="C59" s="468"/>
       <c r="D59" s="468" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E59" s="402" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F59" s="402" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G59" s="402"/>
       <c r="H59" s="418" t="s">
         <v>720</v>
       </c>
       <c r="I59" s="418" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J59" s="418" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="K59" s="418" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="L59" s="418"/>
       <c r="N59" s="468"/>
@@ -60182,7 +60146,7 @@
       <c r="A60" s="408"/>
       <c r="B60" s="408"/>
       <c r="C60" s="401" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D60" s="402">
         <f>IPP!P17*K55</f>
@@ -60280,11 +60244,11 @@
       <c r="A63" s="411"/>
       <c r="B63" s="468"/>
       <c r="C63" s="237" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D63" s="513"/>
       <c r="E63" s="238" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F63" s="239"/>
       <c r="G63" s="468"/>
@@ -60319,25 +60283,25 @@
         <v>719</v>
       </c>
       <c r="F64" s="242" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G64" s="242" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H64" s="242" t="s">
         <v>720</v>
       </c>
       <c r="I64" s="243" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J64" s="243" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K64" s="242" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="L64" s="242" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="N64" s="468"/>
       <c r="O64" s="468"/>
@@ -60386,14 +60350,14 @@
       <c r="A66" s="411"/>
       <c r="B66" s="411"/>
       <c r="C66" s="401" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D66" s="468" t="str">
         <f>C48</f>
         <v>INDCOA</v>
       </c>
       <c r="E66" s="419" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F66" s="415">
         <f>I48</f>
@@ -60660,7 +60624,7 @@
       <c r="B74" s="408"/>
       <c r="C74" s="468"/>
       <c r="D74" s="468" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E74" s="422"/>
       <c r="F74" s="468"/>
@@ -60739,7 +60703,7 @@
       <c r="C76" s="401"/>
       <c r="D76" s="402"/>
       <c r="E76" s="419" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F76" s="402"/>
       <c r="G76" s="402"/>
@@ -60819,7 +60783,7 @@
     <row r="79" spans="1:25">
       <c r="A79" s="411"/>
       <c r="B79" s="244" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C79" s="245"/>
       <c r="D79" s="245"/>
@@ -60892,10 +60856,10 @@
         <v>397</v>
       </c>
       <c r="C81" s="423" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D81" s="423" t="s">
         <v>1076</v>
-      </c>
-      <c r="D81" s="423" t="s">
-        <v>1078</v>
       </c>
       <c r="E81" s="423" t="s">
         <v>166</v>
@@ -60931,13 +60895,13 @@
     <row r="82" spans="1:25">
       <c r="A82" s="411"/>
       <c r="B82" s="424" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C82" s="424" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D82" s="424" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E82" s="424" t="s">
         <v>166</v>
@@ -61961,7 +61925,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -61985,7 +61949,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -62012,7 +61976,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -62136,13 +62100,13 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="157" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G8" s="157"/>
       <c r="H8" s="157"/>
       <c r="I8" s="26"/>
       <c r="J8" s="158" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K8" s="159"/>
       <c r="L8" s="159"/>
@@ -62157,26 +62121,26 @@
     </row>
     <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="101" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
       <c r="I9" s="26"/>
       <c r="J9" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
       <c r="M9" s="26"/>
       <c r="N9" s="101" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O9" s="69"/>
       <c r="P9" s="69"/>
@@ -62187,7 +62151,7 @@
     </row>
     <row r="10" spans="1:20" ht="13.5" thickBot="1">
       <c r="A10" s="85" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="215" t="str">
@@ -62200,26 +62164,26 @@
       <c r="E10" s="26"/>
       <c r="F10" s="161"/>
       <c r="G10" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H10" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I10" s="163"/>
       <c r="J10" s="164"/>
       <c r="K10" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="L10" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="161"/>
       <c r="O10" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="P10" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="Q10" s="468"/>
       <c r="R10" s="468"/>
@@ -62367,7 +62331,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="85" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="49" t="str">
@@ -62799,7 +62763,7 @@
     </row>
     <row r="26" spans="1:16" ht="18.75">
       <c r="A26" s="101" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -62822,7 +62786,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B27" s="87" t="s">
         <v>318</v>
@@ -62837,13 +62801,13 @@
         <v>719</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G27" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H27" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I27" s="88" t="s">
         <v>727</v>
@@ -62862,7 +62826,7 @@
     </row>
     <row r="28" spans="1:16" ht="13.5" thickBot="1">
       <c r="A28" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -62874,10 +62838,10 @@
         <v>339</v>
       </c>
       <c r="I28" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J28" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K28" s="177"/>
       <c r="L28" s="26"/>
@@ -63216,7 +63180,7 @@
     </row>
     <row r="44" spans="1:16" ht="18.75">
       <c r="A44" s="101" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -63239,7 +63203,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B45" s="87" t="s">
         <v>318</v>
@@ -63254,13 +63218,13 @@
         <v>719</v>
       </c>
       <c r="F45" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I45" s="88" t="s">
         <v>727</v>
@@ -63279,7 +63243,7 @@
     </row>
     <row r="46" spans="1:16" ht="64.5" thickBot="1">
       <c r="A46" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -63291,10 +63255,10 @@
         <v>339</v>
       </c>
       <c r="I46" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J46" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K46" s="177"/>
       <c r="L46" s="227"/>
@@ -63302,7 +63266,7 @@
       <c r="N46" s="26"/>
       <c r="O46" s="26"/>
       <c r="P46" s="228" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -63559,7 +63523,7 @@
     </row>
     <row r="58" spans="1:16" ht="18.75">
       <c r="A58" s="101" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -63582,7 +63546,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B59" s="87" t="s">
         <v>318</v>
@@ -63597,13 +63561,13 @@
         <v>719</v>
       </c>
       <c r="F59" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G59" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H59" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I59" s="88" t="s">
         <v>727</v>
@@ -63622,7 +63586,7 @@
     </row>
     <row r="60" spans="1:16" ht="13.5" thickBot="1">
       <c r="A60" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -63634,10 +63598,10 @@
         <v>339</v>
       </c>
       <c r="I60" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J60" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K60" s="177"/>
       <c r="L60" s="227"/>
@@ -63648,7 +63612,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="232" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B61" s="76" t="s">
         <v>472</v>
@@ -63943,7 +63907,7 @@
     </row>
     <row r="74" spans="1:16" ht="18.75">
       <c r="A74" s="101" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -63966,7 +63930,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B75" s="87" t="s">
         <v>318</v>
@@ -63981,13 +63945,13 @@
         <v>719</v>
       </c>
       <c r="F75" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G75" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H75" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I75" s="88" t="s">
         <v>727</v>
@@ -64006,7 +63970,7 @@
     </row>
     <row r="76" spans="1:16" ht="13.5" thickBot="1">
       <c r="A76" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -64018,10 +63982,10 @@
         <v>339</v>
       </c>
       <c r="I76" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J76" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K76" s="177"/>
       <c r="L76" s="26"/>
@@ -64902,7 +64866,7 @@
     </row>
     <row r="113" spans="1:16" ht="18.75">
       <c r="A113" s="101" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -64925,7 +64889,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B114" s="87" t="s">
         <v>318</v>
@@ -64940,13 +64904,13 @@
         <v>719</v>
       </c>
       <c r="F114" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G114" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H114" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I114" s="88" t="s">
         <v>727</v>
@@ -64965,7 +64929,7 @@
     </row>
     <row r="115" spans="1:16" ht="13.5" thickBot="1">
       <c r="A115" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -64977,10 +64941,10 @@
         <v>339</v>
       </c>
       <c r="I115" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J115" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K115" s="177"/>
       <c r="L115" s="26"/>
@@ -64991,7 +64955,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="229" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B116" s="76" t="s">
         <v>453</v>
@@ -65279,7 +65243,7 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="229" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B128" s="76" t="s">
         <v>460</v>
@@ -65622,7 +65586,7 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="229" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B142" s="76" t="s">
         <v>464</v>
@@ -65899,7 +65863,7 @@
     </row>
     <row r="154" spans="1:16" ht="18.75">
       <c r="A154" s="101" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
@@ -65922,7 +65886,7 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B155" s="87" t="s">
         <v>318</v>
@@ -65937,13 +65901,13 @@
         <v>719</v>
       </c>
       <c r="F155" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G155" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H155" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I155" s="88" t="s">
         <v>727</v>
@@ -65962,7 +65926,7 @@
     </row>
     <row r="156" spans="1:16" ht="13.5" thickBot="1">
       <c r="A156" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B156" s="75"/>
       <c r="C156" s="75"/>
@@ -65974,10 +65938,10 @@
         <v>339</v>
       </c>
       <c r="I156" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J156" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K156" s="177"/>
       <c r="L156" s="26"/>
@@ -66302,7 +66266,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -66326,7 +66290,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -66353,7 +66317,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -66505,13 +66469,13 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="157" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G9" s="157"/>
       <c r="H9" s="157"/>
       <c r="I9" s="26"/>
       <c r="J9" s="158" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K9" s="159"/>
       <c r="L9" s="159"/>
@@ -66526,27 +66490,27 @@
     </row>
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="27" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G10" s="69"/>
       <c r="H10" s="69"/>
       <c r="I10" s="26"/>
       <c r="J10" s="101" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
       <c r="N10" s="26"/>
       <c r="O10" s="101" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="P10" s="69"/>
       <c r="Q10" s="69"/>
@@ -66567,29 +66531,29 @@
       <c r="E11" s="26"/>
       <c r="F11" s="161"/>
       <c r="G11" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H11" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I11" s="163"/>
       <c r="J11" s="164"/>
       <c r="K11" s="162" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="L11" s="162" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="M11" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="161"/>
       <c r="P11" s="83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Q11" s="83" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="468"/>
@@ -66777,7 +66741,7 @@
     </row>
     <row r="16" spans="1:20" ht="18.75">
       <c r="A16" s="27" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -67157,7 +67121,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G26" s="95">
         <f>IND_Bal!V$39</f>
@@ -67166,7 +67130,7 @@
       <c r="H26" s="166"/>
       <c r="I26" s="26"/>
       <c r="J26" s="94" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K26" s="95">
         <f>(F54*H53)+(F63*H62)+(F68*H67)</f>
@@ -67329,7 +67293,7 @@
     </row>
     <row r="33" spans="1:18" ht="18.75">
       <c r="A33" s="27" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -67354,7 +67318,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B34" s="87" t="s">
         <v>318</v>
@@ -67369,13 +67333,13 @@
         <v>719</v>
       </c>
       <c r="F34" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G34" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H34" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I34" s="88" t="s">
         <v>727</v>
@@ -67396,7 +67360,7 @@
     </row>
     <row r="35" spans="1:18" ht="13.5" thickBot="1">
       <c r="A35" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -67408,10 +67372,10 @@
         <v>339</v>
       </c>
       <c r="I35" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J35" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K35" s="177"/>
       <c r="L35" s="26"/>
@@ -67791,7 +67755,7 @@
     </row>
     <row r="50" spans="1:18" ht="18.75">
       <c r="A50" s="27" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -67816,7 +67780,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B51" s="87" t="s">
         <v>318</v>
@@ -67831,13 +67795,13 @@
         <v>719</v>
       </c>
       <c r="F51" s="88" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G51" s="88" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H51" s="88" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I51" s="88" t="s">
         <v>727</v>
@@ -67858,7 +67822,7 @@
     </row>
     <row r="52" spans="1:18" ht="13.5" thickBot="1">
       <c r="A52" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -67870,10 +67834,10 @@
         <v>339</v>
       </c>
       <c r="I52" s="176" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J52" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K52" s="177"/>
       <c r="L52" s="26"/>
@@ -68457,7 +68421,7 @@
     </row>
     <row r="75" spans="1:18" ht="18.75">
       <c r="A75" s="218" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B75" s="219"/>
       <c r="C75" s="219"/>
@@ -68482,7 +68446,7 @@
     </row>
     <row r="76" spans="1:18" ht="26.25" thickBot="1">
       <c r="A76" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B76" s="73" t="s">
         <v>318</v>
@@ -68497,7 +68461,7 @@
         <v>719</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G76" s="48" t="s">
         <v>727</v>
@@ -68509,10 +68473,10 @@
         <v>725</v>
       </c>
       <c r="J76" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="K76" s="48" t="s">
         <v>801</v>
-      </c>
-      <c r="K76" s="48" t="s">
-        <v>803</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="26"/>
@@ -68524,7 +68488,7 @@
     </row>
     <row r="77" spans="1:18" ht="13.5" thickBot="1">
       <c r="A77" s="175" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -68534,7 +68498,7 @@
       <c r="G77" s="177"/>
       <c r="H77" s="176"/>
       <c r="I77" s="177" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J77" s="177"/>
       <c r="K77" s="177"/>
@@ -68598,7 +68562,7 @@
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -68614,7 +68578,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="101" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -68638,7 +68602,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="40" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -68665,7 +68629,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>202</v>
@@ -68721,7 +68685,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="85" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -68745,7 +68709,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="85" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -68769,7 +68733,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="85" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -68793,7 +68757,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="85" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -68840,7 +68804,7 @@
     <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="26"/>
@@ -68879,16 +68843,16 @@
         <v>719</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -68911,7 +68875,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="38">
@@ -69086,7 +69050,7 @@
     <row r="18" spans="1:16" ht="13.5" thickBot="1">
       <c r="A18" s="26"/>
       <c r="B18" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
@@ -69188,16 +69152,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I23" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -69222,19 +69186,19 @@
         <v>719</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K24" s="48" t="s">
         <v>727</v>
@@ -69246,13 +69210,13 @@
         <v>724</v>
       </c>
       <c r="N24" s="116" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O24" s="116" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P24" s="116" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -69714,7 +69678,7 @@
     <row r="34" spans="1:16" ht="13.5" thickBot="1">
       <c r="A34" s="468"/>
       <c r="B34" s="197" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C34" s="83"/>
       <c r="D34" s="83"/>
@@ -69801,20 +69765,20 @@
       <c r="D38" s="26"/>
       <c r="E38" s="40"/>
       <c r="F38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H38" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="115"/>
@@ -69837,19 +69801,19 @@
         <v>719</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K39" s="48" t="s">
         <v>727</v>
@@ -70226,7 +70190,7 @@
     <row r="48" spans="1:16" ht="13.5" thickBot="1">
       <c r="A48" s="26"/>
       <c r="B48" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C48" s="83"/>
       <c r="D48" s="83"/>
@@ -70316,16 +70280,16 @@
         <v>~FI_T</v>
       </c>
       <c r="F52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H52" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I52" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J52" s="115"/>
       <c r="K52" s="115"/>
@@ -70350,19 +70314,19 @@
         <v>719</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H53" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K53" s="48" t="s">
         <v>727</v>
@@ -70739,7 +70703,7 @@
     <row r="62" spans="1:16" ht="13.5" thickBot="1">
       <c r="A62" s="26"/>
       <c r="B62" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C62" s="83"/>
       <c r="D62" s="83"/>
@@ -70829,16 +70793,16 @@
         <v/>
       </c>
       <c r="F66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I66" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J66" s="115"/>
       <c r="K66" s="115"/>
@@ -70863,19 +70827,19 @@
         <v>719</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K67" s="48" t="s">
         <v>727</v>
@@ -70937,7 +70901,7 @@
     <row r="69" spans="1:16" ht="13.5" thickBot="1">
       <c r="A69" s="26"/>
       <c r="B69" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
@@ -71024,16 +70988,16 @@
         <v/>
       </c>
       <c r="F73" s="131" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H73" s="129" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="131"/>
@@ -71058,19 +71022,19 @@
         <v>719</v>
       </c>
       <c r="F74" s="132" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G74" s="132" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H74" s="132" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="I74" s="132" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J74" s="132" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="K74" s="132" t="s">
         <v>727</v>
@@ -71539,7 +71503,7 @@
     <row r="90" spans="1:16" ht="13.5" thickBot="1">
       <c r="A90" s="26"/>
       <c r="B90" s="112" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C90" s="83"/>
       <c r="D90" s="83"/>
@@ -71570,12 +71534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e65a81a2b168daca9e55ef64af43d0c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04e5c3f63ef199a395775dc61bce0287" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -71753,6 +71711,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -71763,15 +71727,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{900C03E2-E316-4827-8EC2-C83414637582}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E59059-12AA-490F-B5C2-4584F899C052}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71789,6 +71744,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{900C03E2-E316-4827-8EC2-C83414637582}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179EA3D-D72C-48E9-9B64-61D92B8A6A16}">
   <ds:schemaRefs>

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECD2B6-30BE-4E0F-B41F-0DB63BB8392C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DF0226-7484-4424-A510-305BFF43AB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="302">
   <si>
     <t>Development</t>
   </si>
@@ -10761,7 +10761,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Myriad Pro,Regular"&amp;14Ireland's Energy Balance &amp;A</oddHeader>
     <oddFooter>&amp;L&amp;G&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -10774,8 +10774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C8D34-EFD7-45C2-8418-665049CA220F}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11035,7 +11035,9 @@
         <v>189</v>
       </c>
       <c r="G13" s="277"/>
-      <c r="H13" s="277"/>
+      <c r="H13" s="277" t="s">
+        <v>261</v>
+      </c>
       <c r="I13" s="277"/>
       <c r="J13" s="277"/>
     </row>
@@ -11660,7 +11662,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11737,8 +11739,8 @@
         <v>IE,National</v>
       </c>
       <c r="D5" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D18,2,3))</f>
-        <v>I-DMD-NEM</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B5,MID(Commodities!D18,2,3),"E0")</f>
+        <v>I-DMD-NEM-E0</v>
       </c>
       <c r="E5" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E18," process")</f>
@@ -11763,8 +11765,8 @@
         <v>IE,National</v>
       </c>
       <c r="D6" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D19,2,3))</f>
-        <v>I-DMD-FAB</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B6,MID(Commodities!D19,2,3),"E0")</f>
+        <v>I-DMD-FAB-E0</v>
       </c>
       <c r="E6" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E19," process")</f>
@@ -11789,8 +11791,8 @@
         <v>IE,National</v>
       </c>
       <c r="D7" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D20,2,3))</f>
-        <v>I-DMD-TAP</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B7,MID(Commodities!D20,2,3),"E0")</f>
+        <v>I-DMD-TAP-E0</v>
       </c>
       <c r="E7" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E20," process")</f>
@@ -11815,8 +11817,8 @@
         <v>IE,National</v>
       </c>
       <c r="D8" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D21,2,3))</f>
-        <v>I-DMD-WAP</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B8,MID(Commodities!D21,2,3),"E0")</f>
+        <v>I-DMD-WAP-E0</v>
       </c>
       <c r="E8" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E21," process")</f>
@@ -11841,8 +11843,8 @@
         <v>IE,National</v>
       </c>
       <c r="D9" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D22,2,3))</f>
-        <v>I-DMD-PX4</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B9,MID(Commodities!D22,2,3),"E0")</f>
+        <v>I-DMD-PX4-E0</v>
       </c>
       <c r="E9" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E22," process")</f>
@@ -11867,8 +11869,8 @@
         <v>IE,National</v>
       </c>
       <c r="D10" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D23,2,3))</f>
-        <v>I-DMD-CAF</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B10,MID(Commodities!D23,2,3),"E0")</f>
+        <v>I-DMD-CAF-E0</v>
       </c>
       <c r="E10" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E23," process")</f>
@@ -11893,8 +11895,8 @@
         <v>IE,National</v>
       </c>
       <c r="D11" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D24,2,3))</f>
-        <v>I-DMD-RAP</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B11,MID(Commodities!D24,2,3),"E0")</f>
+        <v>I-DMD-RAP-E0</v>
       </c>
       <c r="E11" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E24," process")</f>
@@ -11919,8 +11921,8 @@
         <v>IE,National</v>
       </c>
       <c r="D12" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D25,2,3))</f>
-        <v>I-DMD-ONM</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B12,MID(Commodities!D25,2,3),"E0")</f>
+        <v>I-DMD-ONM-E0</v>
       </c>
       <c r="E12" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E25," process")</f>
@@ -11945,8 +11947,8 @@
         <v>IE,National</v>
       </c>
       <c r="D13" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D26,2,3))</f>
-        <v>I-DMD-MAP</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B13,MID(Commodities!D26,2,3),"E0")</f>
+        <v>I-DMD-MAP-E0</v>
       </c>
       <c r="E13" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E26," process")</f>
@@ -11971,8 +11973,8 @@
         <v>IE,National</v>
       </c>
       <c r="D14" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D27,2,3))</f>
-        <v>I-DMD-MAE</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B14,MID(Commodities!D27,2,3),"E0")</f>
+        <v>I-DMD-MAE-E0</v>
       </c>
       <c r="E14" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E27," process")</f>
@@ -11997,8 +11999,8 @@
         <v>IE,National</v>
       </c>
       <c r="D15" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D28,2,3))</f>
-        <v>I-DMD-EOE</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B15,MID(Commodities!D28,2,3),"E0")</f>
+        <v>I-DMD-EOE-E0</v>
       </c>
       <c r="E15" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E28," process")</f>
@@ -12023,8 +12025,8 @@
         <v>IE,National</v>
       </c>
       <c r="D16" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D29,2,3))</f>
-        <v>I-DMD-TEM</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B16,MID(Commodities!D29,2,3),"E0")</f>
+        <v>I-DMD-TEM-E0</v>
       </c>
       <c r="E16" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E29," process")</f>
@@ -12049,8 +12051,8 @@
         <v>IE,National</v>
       </c>
       <c r="D17" s="278" t="str">
-        <f>_xlfn.CONCAT("I-DMD-",MID(Commodities!D30,2,3))</f>
-        <v>I-DMD-OMA</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B17,MID(Commodities!D30,2,3),"E0")</f>
+        <v>I-DMD-OMA-E0</v>
       </c>
       <c r="E17" s="278" t="str">
         <f>_xlfn.CONCAT(Commodities!E30," process")</f>
@@ -12088,11 +12090,11 @@
         <v>IE,National</v>
       </c>
       <c r="D19" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D5)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D5)</f>
         <v>FT-INDCOA</v>
       </c>
       <c r="E19" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E5)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E5)</f>
         <v>Fuel Tech - Coal (IND)</v>
       </c>
       <c r="F19" s="286" t="s">
@@ -12114,11 +12116,11 @@
         <v>IE,National</v>
       </c>
       <c r="D20" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D6)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D6)</f>
         <v>FT-INDPEA</v>
       </c>
       <c r="E20" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E6)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E6)</f>
         <v xml:space="preserve">Fuel Tech - Peat (IND) </v>
       </c>
       <c r="F20" s="287" t="s">
@@ -12140,11 +12142,11 @@
         <v>IE,National</v>
       </c>
       <c r="D21" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D7)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D7)</f>
         <v>FT-INDKER</v>
       </c>
       <c r="E21" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E7)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E7)</f>
         <v>Fuel Tech - Kerosene (IND)</v>
       </c>
       <c r="F21" s="287" t="s">
@@ -12166,11 +12168,11 @@
         <v>IE,National</v>
       </c>
       <c r="D22" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D8)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D8)</f>
         <v>FT-INDHFO</v>
       </c>
       <c r="E22" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E8)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E8)</f>
         <v>Fuel Tech - Heavy Fuel Oil (IND)</v>
       </c>
       <c r="F22" s="287" t="s">
@@ -12192,11 +12194,11 @@
         <v>IE,National</v>
       </c>
       <c r="D23" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D9)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D9)</f>
         <v>FT-INDLPG</v>
       </c>
       <c r="E23" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E9)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E9)</f>
         <v>Fuel Tech - Liquified Petroleum Gas (IND)</v>
       </c>
       <c r="F23" s="287" t="s">
@@ -12218,11 +12220,11 @@
         <v>IE,National</v>
       </c>
       <c r="D24" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D10)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D10)</f>
         <v>FT-INDDST</v>
       </c>
       <c r="E24" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E10)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E10)</f>
         <v>Fuel Tech - Diesel (IND)</v>
       </c>
       <c r="F24" s="287" t="s">
@@ -12244,11 +12246,11 @@
         <v>IE,National</v>
       </c>
       <c r="D25" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D11)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D11)</f>
         <v>FT-INDCOK</v>
       </c>
       <c r="E25" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E11)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E11)</f>
         <v>Fuel Tech - Petroleum Coke (IND)</v>
       </c>
       <c r="F25" s="287" t="s">
@@ -12270,11 +12272,11 @@
         <v>IE,National</v>
       </c>
       <c r="D26" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D12)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D12)</f>
         <v>FT-INDGAS</v>
       </c>
       <c r="E26" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E12)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E12)</f>
         <v>Fuel Tech - Natural Gas (IND)</v>
       </c>
       <c r="F26" s="287" t="s">
@@ -12296,11 +12298,11 @@
         <v>IE,National</v>
       </c>
       <c r="D27" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D13)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D13)</f>
         <v>FT-INDELC</v>
       </c>
       <c r="E27" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E13)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E13)</f>
         <v>Fuel Tech - Electricity (IND)</v>
       </c>
       <c r="F27" s="287" t="s">
@@ -12324,11 +12326,11 @@
         <v>IE,National</v>
       </c>
       <c r="D28" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D14)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D14)</f>
         <v>FT-INDBGS</v>
       </c>
       <c r="E28" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E14)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E14)</f>
         <v>Fuel Tech - Biogas (IND)</v>
       </c>
       <c r="F28" s="287" t="s">
@@ -12350,11 +12352,11 @@
         <v>IE,National</v>
       </c>
       <c r="D29" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D15)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D15)</f>
         <v>FT-INDBRW</v>
       </c>
       <c r="E29" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E15)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E15)</f>
         <v>Fuel Tech - Biomass and renewable waste (IND)</v>
       </c>
       <c r="F29" s="287" t="s">
@@ -12376,11 +12378,11 @@
         <v>IE,National</v>
       </c>
       <c r="D30" s="278" t="str">
-        <f>_xlfn.CONCAT("FT-",Commodities!D16)</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D16)</f>
         <v>FT-INDNRW</v>
       </c>
       <c r="E30" s="278" t="str">
-        <f>_xlfn.CONCAT("Fuel Tech - ",Commodities!E16)</f>
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E16)</f>
         <v>Fuel Tech - Non-renewable waste (IND)</v>
       </c>
       <c r="F30" s="287" t="s">
@@ -12820,8 +12822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF8194-EAB2-4AAC-9B35-F09487A4BBC8}">
   <dimension ref="B2:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12929,7 +12931,7 @@
       </c>
       <c r="C6" s="292" t="str">
         <f>Processes!D5</f>
-        <v>I-DMD-NEM</v>
+        <v>I-DMD-NEM-E0</v>
       </c>
       <c r="D6" s="292" t="str">
         <f>Processes!E5</f>
@@ -13155,7 +13157,7 @@
       </c>
       <c r="C13" s="292" t="str">
         <f>Processes!D6</f>
-        <v>I-DMD-FAB</v>
+        <v>I-DMD-FAB-E0</v>
       </c>
       <c r="D13" s="292" t="str">
         <f>Processes!E6</f>
@@ -13354,7 +13356,7 @@
       </c>
       <c r="C23" s="292" t="str">
         <f>Processes!D7</f>
-        <v>I-DMD-TAP</v>
+        <v>I-DMD-TAP-E0</v>
       </c>
       <c r="D23" s="292" t="str">
         <f>Processes!E7</f>
@@ -13489,7 +13491,7 @@
       </c>
       <c r="C30" s="292" t="str">
         <f>Processes!D8</f>
-        <v>I-DMD-WAP</v>
+        <v>I-DMD-WAP-E0</v>
       </c>
       <c r="D30" s="292" t="str">
         <f>Processes!E8</f>
@@ -13642,7 +13644,7 @@
       </c>
       <c r="C38" s="292" t="str">
         <f>Processes!D9</f>
-        <v>I-DMD-PX4</v>
+        <v>I-DMD-PX4-E0</v>
       </c>
       <c r="D38" s="292" t="str">
         <f>Processes!E9</f>
@@ -13777,7 +13779,7 @@
       </c>
       <c r="C45" s="292" t="str">
         <f>Processes!D10</f>
-        <v>I-DMD-CAF</v>
+        <v>I-DMD-CAF-E0</v>
       </c>
       <c r="D45" s="292" t="str">
         <f>Processes!E10</f>
@@ -13912,7 +13914,7 @@
       </c>
       <c r="C52" s="292" t="str">
         <f>Processes!D11</f>
-        <v>I-DMD-RAP</v>
+        <v>I-DMD-RAP-E0</v>
       </c>
       <c r="D52" s="292" t="str">
         <f>Processes!E11</f>
@@ -14047,7 +14049,7 @@
       </c>
       <c r="C59" s="292" t="str">
         <f>Processes!D12</f>
-        <v>I-DMD-ONM</v>
+        <v>I-DMD-ONM-E0</v>
       </c>
       <c r="D59" s="292" t="str">
         <f>Processes!E12</f>
@@ -14245,7 +14247,7 @@
       </c>
       <c r="C69" s="292" t="str">
         <f>Processes!D13</f>
-        <v>I-DMD-MAP</v>
+        <v>I-DMD-MAP-E0</v>
       </c>
       <c r="D69" s="292" t="str">
         <f>Processes!E13</f>
@@ -14362,7 +14364,7 @@
       </c>
       <c r="C75" s="292" t="str">
         <f>Processes!D14</f>
-        <v>I-DMD-MAE</v>
+        <v>I-DMD-MAE-E0</v>
       </c>
       <c r="D75" s="292" t="str">
         <f>Processes!E14</f>
@@ -14497,7 +14499,7 @@
       </c>
       <c r="C82" s="292" t="str">
         <f>Processes!D15</f>
-        <v>I-DMD-EOE</v>
+        <v>I-DMD-EOE-E0</v>
       </c>
       <c r="D82" s="292" t="str">
         <f>Processes!E15</f>
@@ -14632,7 +14634,7 @@
       </c>
       <c r="C89" s="292" t="str">
         <f>Processes!D16</f>
-        <v>I-DMD-TEM</v>
+        <v>I-DMD-TEM-E0</v>
       </c>
       <c r="D89" s="292" t="str">
         <f>Processes!E16</f>
@@ -14767,7 +14769,7 @@
       </c>
       <c r="C96" s="292" t="str">
         <f>Processes!D17</f>
-        <v>I-DMD-OMA</v>
+        <v>I-DMD-OMA-E0</v>
       </c>
       <c r="D96" s="292" t="str">
         <f>Processes!E17</f>
@@ -14880,7 +14882,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB908F-E133-42B9-8910-F5F70F998DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B626DC79-6082-473E-8B46-D507BD580B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,14 +1096,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="\Te\x\t"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,10 +1118,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1229,17 +1225,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Myriad Pro"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3312,85 +3298,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="11" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3400,858 +3382,854 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="50" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="54" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="62" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="66" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="67" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="70" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="71" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="72" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="73" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="75" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="76" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="75" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="77" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="78" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="79" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="80" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="81" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="82" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="83" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="84" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="85" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="87" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="90" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="91" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="92" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="93" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="83" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="92" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="81" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="80" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="82" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="79" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="84" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="99" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="100" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="101" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="102" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="103" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="104" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="105" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="106" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="101" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="107" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="108" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="87" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="109" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="110" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="111" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="112" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="113" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="114" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="115" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="109" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="116" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="141" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="117" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="118" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="119" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="117" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="142" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="121" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="122" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="120" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="117" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="123" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="143" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="121" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="69" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="70" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="144" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="145" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="146" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="147" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="148" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="149" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="150" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="62" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="118" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="122" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="68" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="125" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="124" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="126" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="128" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="129" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="130" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="72" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="73" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="135" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="138" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="132" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="134" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="133" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="135" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="136" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="137" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="151" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="66" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="85" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="143" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="130" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="129" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="70" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="144" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="76" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="73" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="74" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="77" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="77" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="66" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="152" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="59" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="117" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="118" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="123" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="153" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="154" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="117" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="121" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="76" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="155" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="156" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="69" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="75" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="90" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="91" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="90" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="93" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="69" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="77" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="139" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="5" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E8F6FC94-FE00-481A-9CCA-C8F8BD082BFB}"/>
-    <cellStyle name="Normal_1990 and 1998 CIP - Prices Quantity and CO2(MH)" xfId="5" xr:uid="{27FF5463-3C49-4F90-AD36-067F6D06AECD}"/>
-    <cellStyle name="Normal_2000balx" xfId="4" xr:uid="{AB8575F7-74D3-4160-8D89-AF3ED2CFA2FE}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{1F406535-6DD4-4D28-A28F-5561F262E64A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4596,6 +4574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55B3FAE-9396-4BDD-9414-7E1233A8EF20}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,13 +4589,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3F7C-BFBC-4340-9D7B-B6BFDABDF79E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
@@ -4648,7 +4628,7 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15">
+    <row r="3" spans="1:30">
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -4767,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4882,7 +4862,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4999,7 +4979,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5332,7 +5312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
         <v>59</v>
       </c>
@@ -5375,7 +5355,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6617C6-BD81-4C8E-89D7-FC0076ADEEA7}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS81"/>
@@ -12708,6 +12688,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C8D34-EFD7-45C2-8418-665049CA220F}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L43"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
@@ -13640,6 +13621,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E509B35-A292-4896-84EE-9157D4436BDA}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14435,6 +14417,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2FA8-D735-48AC-B928-6081B29FCD3B}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14880,6 +14863,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF8194-EAB2-4AAC-9B35-F09487A4BBC8}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:Y103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16933,6 +16917,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FEB92-3C8E-4A89-8F18-2AEFFF284423}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17167,7 +17152,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A846FF-BBF5-4A02-BAF4-3C4772884C84}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:C2"/>

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gargiulo\Desktop\Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73803BCC-55BA-42AE-98F6-FDC67B333E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391D6FE-A4C6-47D8-8F5A-D5324CE40565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -66,6 +66,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{AB4D4C44-2076-4F9F-86F2-6AED12743B8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maurizio Gargiulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bio Jet Kerosene. Should be reviewed?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{6CD33743-C0B5-4B36-95BB-0371E4D7E6F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maurizio Gargiulo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The same as in transport</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -89,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="333">
   <si>
     <t>Development</t>
   </si>
@@ -1090,6 +1148,24 @@
   <si>
     <t>BIOMSW1,BIOMSW2</t>
   </si>
+  <si>
+    <t>BioDiesel (IND)</t>
+  </si>
+  <si>
+    <t>INDBDL</t>
+  </si>
+  <si>
+    <t>BIODST1G,BIODST2G</t>
+  </si>
+  <si>
+    <t>BioKerosene (IND)</t>
+  </si>
+  <si>
+    <t>INDBKE</t>
+  </si>
+  <si>
+    <t>BIOJKR</t>
+  </si>
 </sst>
 </file>
 
@@ -1103,7 +1179,7 @@
     <numFmt numFmtId="168" formatCode="\Te\x\t"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +1302,44 @@
       <sz val="10"/>
       <name val="Myriad Pro"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3296,7 +3410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4219,6 +4333,17 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12670,7 +12795,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Myriad Pro,Regular"&amp;14Ireland's Energy Balance &amp;A</oddHeader>
     <oddFooter>&amp;L&amp;G&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -12682,10 +12807,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C8D34-EFD7-45C2-8418-665049CA220F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:L43"/>
+  <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12817,27 +12942,27 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="2:12" s="1" customFormat="1">
+      <c r="B8" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="333" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="333" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="333" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="333" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="333"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="25" t="s">
@@ -12848,10 +12973,10 @@
         <v>IE,National</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>176</v>
@@ -12870,10 +12995,10 @@
         <v>IE,National</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>176</v>
@@ -12892,10 +13017,10 @@
         <v>IE,National</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>176</v>
@@ -12905,27 +13030,27 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="2:12" s="1" customFormat="1">
+      <c r="B12" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="333" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="D12" s="333" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="333" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="333" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="G12" s="333"/>
+      <c r="H12" s="333"/>
+      <c r="I12" s="333"/>
+      <c r="J12" s="333"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="25" t="s">
@@ -12936,18 +13061,16 @@
         <v>IE,National</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="25"/>
-      <c r="H13" s="25" t="s">
-        <v>244</v>
-      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
@@ -12960,10 +13083,10 @@
         <v>IE,National</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>176</v>
@@ -12982,16 +13105,18 @@
         <v>IE,National</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>244</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
@@ -13004,10 +13129,10 @@
         <v>IE,National</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>320</v>
+        <v>218</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>176</v>
@@ -13026,10 +13151,10 @@
         <v>IE,National</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>176</v>
@@ -13040,32 +13165,40 @@
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="B18" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="25" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C19" s="26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A31)),SUBSTITUTE('EB2018'!A31,"&amp;","and"), 'EB2018'!A31) &amp; " demand"</f>
-        <v>Non-Energy Mining demand</v>
+        <v>323</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>176</v>
@@ -13076,27 +13209,17 @@
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="26" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A32)),SUBSTITUTE('EB2018'!A32,"&amp;","and"), 'EB2018'!A32) &amp; " demand"</f>
-        <v>Food and beverages demand</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="25" t="s">
@@ -13107,11 +13230,11 @@
         <v>IE,National</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E21" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A33)),SUBSTITUTE('EB2018'!A33,"&amp;","and"), 'EB2018'!A33) &amp; " demand"</f>
-        <v>Textiles and textile products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A31)),SUBSTITUTE('EB2018'!A31,"&amp;","and"), 'EB2018'!A31) &amp; " demand"</f>
+        <v>Non-Energy Mining demand</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>176</v>
@@ -13130,11 +13253,11 @@
         <v>IE,National</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E22" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A34)),SUBSTITUTE('EB2018'!A34,"&amp;","and"), 'EB2018'!A34) &amp; " demand"</f>
-        <v>Wood and wood products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A32)),SUBSTITUTE('EB2018'!A32,"&amp;","and"), 'EB2018'!A32) &amp; " demand"</f>
+        <v>Food and beverages demand</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>176</v>
@@ -13153,11 +13276,11 @@
         <v>IE,National</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E23" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A35)),SUBSTITUTE('EB2018'!A35,"&amp;","and"), 'EB2018'!A35) &amp; " demand"</f>
-        <v>Pulp, paper, publishing and printing demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A33)),SUBSTITUTE('EB2018'!A33,"&amp;","and"), 'EB2018'!A33) &amp; " demand"</f>
+        <v>Textiles and textile products demand</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>176</v>
@@ -13176,11 +13299,11 @@
         <v>IE,National</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E24" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A36)),SUBSTITUTE('EB2018'!A36,"&amp;","and"), 'EB2018'!A36) &amp; " demand"</f>
-        <v>Chemicals and man-made fibres demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A34)),SUBSTITUTE('EB2018'!A34,"&amp;","and"), 'EB2018'!A34) &amp; " demand"</f>
+        <v>Wood and wood products demand</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>176</v>
@@ -13199,11 +13322,11 @@
         <v>IE,National</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A37)),SUBSTITUTE('EB2018'!A37,"&amp;","and"), 'EB2018'!A37) &amp; " demand"</f>
-        <v>Rubber and plastic products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A35)),SUBSTITUTE('EB2018'!A35,"&amp;","and"), 'EB2018'!A35) &amp; " demand"</f>
+        <v>Pulp, paper, publishing and printing demand</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>176</v>
@@ -13222,11 +13345,11 @@
         <v>IE,National</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A38)),SUBSTITUTE('EB2018'!A38,"&amp;","and"), 'EB2018'!A38) &amp; " demand"</f>
-        <v>Other non-metallic mineral products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A36)),SUBSTITUTE('EB2018'!A36,"&amp;","and"), 'EB2018'!A36) &amp; " demand"</f>
+        <v>Chemicals and man-made fibres demand</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>176</v>
@@ -13245,11 +13368,11 @@
         <v>IE,National</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E27" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A39)),SUBSTITUTE('EB2018'!A39,"&amp;","and"), 'EB2018'!A39) &amp; " demand"</f>
-        <v>Basic metals and fabricated metal products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A37)),SUBSTITUTE('EB2018'!A37,"&amp;","and"), 'EB2018'!A37) &amp; " demand"</f>
+        <v>Rubber and plastic products demand</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>176</v>
@@ -13268,11 +13391,11 @@
         <v>IE,National</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E28" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A40)),SUBSTITUTE('EB2018'!A40,"&amp;","and"), 'EB2018'!A40) &amp; " demand"</f>
-        <v>Machinery and equipment n.e.c. demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A38)),SUBSTITUTE('EB2018'!A38,"&amp;","and"), 'EB2018'!A38) &amp; " demand"</f>
+        <v>Other non-metallic mineral products demand</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>176</v>
@@ -13291,11 +13414,11 @@
         <v>IE,National</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A41)),SUBSTITUTE('EB2018'!A41,"&amp;","and"), 'EB2018'!A41) &amp; " demand"</f>
-        <v>Electrical and optical equipment demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A39)),SUBSTITUTE('EB2018'!A39,"&amp;","and"), 'EB2018'!A39) &amp; " demand"</f>
+        <v>Basic metals and fabricated metal products demand</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>176</v>
@@ -13314,11 +13437,11 @@
         <v>IE,National</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A42)),SUBSTITUTE('EB2018'!A42,"&amp;","and"), 'EB2018'!A42) &amp; " demand"</f>
-        <v>Transport equipment manufacture demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A40)),SUBSTITUTE('EB2018'!A40,"&amp;","and"), 'EB2018'!A40) &amp; " demand"</f>
+        <v>Machinery and equipment n.e.c. demand</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>176</v>
@@ -13337,11 +13460,11 @@
         <v>IE,National</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A43)),SUBSTITUTE('EB2018'!A43,"&amp;","and"), 'EB2018'!A43) &amp; " demand"</f>
-        <v>Other manufacturing demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A41)),SUBSTITUTE('EB2018'!A41,"&amp;","and"), 'EB2018'!A41) &amp; " demand"</f>
+        <v>Electrical and optical equipment demand</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>176</v>
@@ -13360,11 +13483,11 @@
         <v>IE,National</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A44)),SUBSTITUTE('EB2018'!A44,"&amp;","and"), 'EB2018'!A44) &amp; " demand"</f>
-        <v>Construction demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A42)),SUBSTITUTE('EB2018'!A42,"&amp;","and"), 'EB2018'!A42) &amp; " demand"</f>
+        <v>Transport equipment manufacture demand</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>176</v>
@@ -13375,34 +13498,45 @@
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="B33" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="28" t="str">
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A43)),SUBSTITUTE('EB2018'!A43,"&amp;","and"), 'EB2018'!A43) &amp; " demand"</f>
+        <v>Other manufacturing demand</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="25" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C34" s="26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>188</v>
+        <v>318</v>
+      </c>
+      <c r="E34" s="28" t="str">
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A44)),SUBSTITUTE('EB2018'!A44,"&amp;","and"), 'EB2018'!A44) &amp; " demand"</f>
+        <v>Construction demand</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -13410,26 +13544,17 @@
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="26" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="25" t="s">
@@ -13440,10 +13565,10 @@
         <v>IE,National</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>186</v>
@@ -13462,10 +13587,10 @@
         <v>IE,National</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>186</v>
@@ -13484,10 +13609,10 @@
         <v>IE,National</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>186</v>
@@ -13506,10 +13631,10 @@
         <v>IE,National</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>186</v>
@@ -13528,10 +13653,10 @@
         <v>IE,National</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>186</v>
@@ -13550,10 +13675,10 @@
         <v>IE,National</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>186</v>
@@ -13572,10 +13697,10 @@
         <v>IE,National</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>186</v>
@@ -13594,10 +13719,10 @@
         <v>IE,National</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>186</v>
@@ -13606,6 +13731,50 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13615,10 +13784,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E509B35-A292-4896-84EE-9157D4436BDA}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13695,11 +13864,11 @@
         <v>IE,National</v>
       </c>
       <c r="D5" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B5,MID(Commodities!D19,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B5,MID(Commodities!D21,2,3),"E0")</f>
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="E5" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E19," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E21," process")</f>
         <v>Non-Energy Mining demand process</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -13721,11 +13890,11 @@
         <v>IE,National</v>
       </c>
       <c r="D6" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B6,MID(Commodities!D20,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B6,MID(Commodities!D22,2,3),"E0")</f>
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="E6" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E20," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E22," process")</f>
         <v>Food and beverages demand process</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -13747,11 +13916,11 @@
         <v>IE,National</v>
       </c>
       <c r="D7" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B7,MID(Commodities!D21,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B7,MID(Commodities!D23,2,3),"E0")</f>
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="E7" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E21," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E23," process")</f>
         <v>Textiles and textile products demand process</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -13773,11 +13942,11 @@
         <v>IE,National</v>
       </c>
       <c r="D8" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B8,MID(Commodities!D22,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B8,MID(Commodities!D24,2,3),"E0")</f>
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="E8" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E22," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E24," process")</f>
         <v>Wood and wood products demand process</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -13799,11 +13968,11 @@
         <v>IE,National</v>
       </c>
       <c r="D9" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B9,MID(Commodities!D23,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B9,MID(Commodities!D25,2,3),"E0")</f>
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="E9" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E23," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E25," process")</f>
         <v>Pulp, paper, publishing and printing demand process</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -13825,11 +13994,11 @@
         <v>IE,National</v>
       </c>
       <c r="D10" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B10,MID(Commodities!D24,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B10,MID(Commodities!D26,2,3),"E0")</f>
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="E10" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E24," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E26," process")</f>
         <v>Chemicals and man-made fibres demand process</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -13851,11 +14020,11 @@
         <v>IE,National</v>
       </c>
       <c r="D11" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B11,MID(Commodities!D25,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B11,MID(Commodities!D27,2,3),"E0")</f>
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="E11" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E25," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E27," process")</f>
         <v>Rubber and plastic products demand process</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -13877,11 +14046,11 @@
         <v>IE,National</v>
       </c>
       <c r="D12" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B12,MID(Commodities!D26,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B12,MID(Commodities!D28,2,3),"E0")</f>
         <v>I-DMD-ONM-E0</v>
       </c>
       <c r="E12" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E26," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E28," process")</f>
         <v>Other non-metallic mineral products demand process</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -13903,11 +14072,11 @@
         <v>IE,National</v>
       </c>
       <c r="D13" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B13,MID(Commodities!D27,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B13,MID(Commodities!D29,2,3),"E0")</f>
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="E13" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E27," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E29," process")</f>
         <v>Basic metals and fabricated metal products demand process</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -13929,11 +14098,11 @@
         <v>IE,National</v>
       </c>
       <c r="D14" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B14,MID(Commodities!D28,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B14,MID(Commodities!D30,2,3),"E0")</f>
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="E14" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E28," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E30," process")</f>
         <v>Machinery and equipment n.e.c. demand process</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -13955,11 +14124,11 @@
         <v>IE,National</v>
       </c>
       <c r="D15" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B15,MID(Commodities!D29,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B15,MID(Commodities!D31,2,3),"E0")</f>
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="E15" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E29," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E31," process")</f>
         <v>Electrical and optical equipment demand process</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -13981,11 +14150,11 @@
         <v>IE,National</v>
       </c>
       <c r="D16" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B16,MID(Commodities!D30,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B16,MID(Commodities!D32,2,3),"E0")</f>
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="E16" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E30," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E32," process")</f>
         <v>Transport equipment manufacture demand process</v>
       </c>
       <c r="F16" s="32" t="s">
@@ -14007,11 +14176,11 @@
         <v>IE,National</v>
       </c>
       <c r="D17" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B17,MID(Commodities!D31,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B17,MID(Commodities!D33,2,3),"E0")</f>
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="E17" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E31," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E33," process")</f>
         <v>Other manufacturing demand process</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -14033,11 +14202,11 @@
         <v>IE,National</v>
       </c>
       <c r="D18" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B18,MID(Commodities!D32,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B18,MID(Commodities!D34,2,3),"E0")</f>
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="E18" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E32," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E34," process")</f>
         <v>Construction demand process</v>
       </c>
       <c r="F18" s="29" t="s">
@@ -14141,26 +14310,26 @@
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="2:10" s="1" customFormat="1">
+      <c r="B23" s="333" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="333" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D23" s="26" t="str">
+      <c r="D23" s="333" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D8)</f>
-        <v>FT-INDHFO</v>
-      </c>
-      <c r="E23" s="26" t="str">
+        <v>FT-INDBKE</v>
+      </c>
+      <c r="E23" s="333" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E8)</f>
-        <v>Fuel Tech - Heavy Fuel Oil (IND)</v>
-      </c>
-      <c r="F23" s="35" t="s">
+        <v>Fuel Tech - BioKerosene (IND)</v>
+      </c>
+      <c r="F23" s="334" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="333" t="s">
         <v>247</v>
       </c>
       <c r="H23" s="32"/>
@@ -14177,11 +14346,11 @@
       </c>
       <c r="D24" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D9)</f>
-        <v>FT-INDLPG</v>
+        <v>FT-INDHFO</v>
       </c>
       <c r="E24" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E9)</f>
-        <v>Fuel Tech - Liquified Petroleum Gas (IND)</v>
+        <v>Fuel Tech - Heavy Fuel Oil (IND)</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>176</v>
@@ -14203,11 +14372,11 @@
       </c>
       <c r="D25" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D10)</f>
-        <v>FT-INDDST</v>
+        <v>FT-INDLPG</v>
       </c>
       <c r="E25" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E10)</f>
-        <v>Fuel Tech - Diesel (IND)</v>
+        <v>Fuel Tech - Liquified Petroleum Gas (IND)</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>176</v>
@@ -14229,11 +14398,11 @@
       </c>
       <c r="D26" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D11)</f>
-        <v>FT-INDCOK</v>
+        <v>FT-INDDST</v>
       </c>
       <c r="E26" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E11)</f>
-        <v>Fuel Tech - Petroleum Coke (IND)</v>
+        <v>Fuel Tech - Diesel (IND)</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>176</v>
@@ -14245,31 +14414,31 @@
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="26" t="s">
+    <row r="27" spans="2:10" s="1" customFormat="1">
+      <c r="B27" s="333" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="26" t="str">
+      <c r="C27" s="333" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D27" s="26" t="str">
+      <c r="D27" s="333" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D12)</f>
-        <v>FT-INDGAS</v>
-      </c>
-      <c r="E27" s="26" t="str">
+        <v>FT-INDBDL</v>
+      </c>
+      <c r="E27" s="333" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E12)</f>
-        <v>Fuel Tech - Natural Gas (IND)</v>
-      </c>
-      <c r="F27" s="35" t="s">
+        <v>Fuel Tech - BioDiesel (IND)</v>
+      </c>
+      <c r="F27" s="334" t="s">
         <v>176</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="333" t="s">
         <v>247</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="H27" s="335"/>
+      <c r="I27" s="336"/>
+      <c r="J27" s="336"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="26" t="s">
@@ -14281,11 +14450,11 @@
       </c>
       <c r="D28" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D13)</f>
-        <v>FT-INDELC</v>
+        <v>FT-INDCOK</v>
       </c>
       <c r="E28" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E13)</f>
-        <v>Fuel Tech - Electricity (IND)</v>
+        <v>Fuel Tech - Petroleum Coke (IND)</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>176</v>
@@ -14293,9 +14462,7 @@
       <c r="G28" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>244</v>
-      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
     </row>
@@ -14309,11 +14476,11 @@
       </c>
       <c r="D29" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D14)</f>
-        <v>FT-INDBGS</v>
+        <v>FT-INDGAS</v>
       </c>
       <c r="E29" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E14)</f>
-        <v>Fuel Tech - Biogas (IND)</v>
+        <v>Fuel Tech - Natural Gas (IND)</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>176</v>
@@ -14321,7 +14488,7 @@
       <c r="G29" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
     </row>
@@ -14335,11 +14502,11 @@
       </c>
       <c r="D30" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D15)</f>
-        <v>FT-INDBIO</v>
+        <v>FT-INDELC</v>
       </c>
       <c r="E30" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E15)</f>
-        <v>Fuel Tech - Biomass (IND)</v>
+        <v>Fuel Tech - Electricity (IND)</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>176</v>
@@ -14347,7 +14514,9 @@
       <c r="G30" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="36" t="s">
+        <v>244</v>
+      </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
     </row>
@@ -14361,11 +14530,11 @@
       </c>
       <c r="D31" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D16)</f>
-        <v>FT-INDRWS</v>
+        <v>FT-INDBGS</v>
       </c>
       <c r="E31" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E16)</f>
-        <v>Fuel Tech - Renewable waste (IND)</v>
+        <v>Fuel Tech - Biogas (IND)</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>176</v>
@@ -14387,11 +14556,11 @@
       </c>
       <c r="D32" s="26" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D17)</f>
-        <v>FT-INDNWS</v>
+        <v>FT-INDBIO</v>
       </c>
       <c r="E32" s="26" t="str">
         <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E17)</f>
-        <v>Fuel Tech - Non-renewable waste (IND)</v>
+        <v>Fuel Tech - Biomass (IND)</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>176</v>
@@ -14402,6 +14571,58 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D33" s="26" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D18)</f>
+        <v>FT-INDRWS</v>
+      </c>
+      <c r="E33" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E18)</f>
+        <v>Fuel Tech - Renewable waste (IND)</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D34" s="26" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D19)</f>
+        <v>FT-INDNWS</v>
+      </c>
+      <c r="E34" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E19)</f>
+        <v>Fuel Tech - Non-renewable waste (IND)</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14409,12 +14630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2FA8-D735-48AC-B928-6081B29FCD3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2FA8-D735-48AC-B928-6081B29FCD3B}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14578,30 +14799,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="str">
+    <row r="9" spans="2:8" s="1" customFormat="1">
+      <c r="B9" s="337" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="C9" s="40" t="str">
+      <c r="C9" s="338" t="str">
         <f>Processes!D23</f>
-        <v>FT-INDHFO</v>
-      </c>
-      <c r="D9" s="40" t="str">
+        <v>FT-INDBKE</v>
+      </c>
+      <c r="D9" s="338" t="str">
         <f>Processes!E23</f>
-        <v>Fuel Tech - Heavy Fuel Oil (IND)</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="40" t="str">
+        <v>Fuel Tech - BioKerosene (IND)</v>
+      </c>
+      <c r="E9" s="339" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="338" t="str">
         <f>Commodities!D8</f>
-        <v>INDHFO</v>
-      </c>
-      <c r="G9" s="45">
+        <v>INDBKE</v>
+      </c>
+      <c r="G9" s="339">
         <v>1</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="339">
         <v>50</v>
       </c>
     </row>
@@ -14612,18 +14833,18 @@
       </c>
       <c r="C10" s="40" t="str">
         <f>Processes!D24</f>
-        <v>FT-INDLPG</v>
+        <v>FT-INDHFO</v>
       </c>
       <c r="D10" s="40" t="str">
         <f>Processes!E24</f>
-        <v>Fuel Tech - Liquified Petroleum Gas (IND)</v>
+        <v>Fuel Tech - Heavy Fuel Oil (IND)</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" s="40" t="str">
         <f>Commodities!D9</f>
-        <v>INDLPG</v>
+        <v>INDHFO</v>
       </c>
       <c r="G10" s="45">
         <v>1</v>
@@ -14639,18 +14860,18 @@
       </c>
       <c r="C11" s="40" t="str">
         <f>Processes!D25</f>
-        <v>FT-INDDST</v>
+        <v>FT-INDLPG</v>
       </c>
       <c r="D11" s="40" t="str">
         <f>Processes!E25</f>
-        <v>Fuel Tech - Diesel (IND)</v>
+        <v>Fuel Tech - Liquified Petroleum Gas (IND)</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" s="40" t="str">
         <f>Commodities!D10</f>
-        <v>INDDST</v>
+        <v>INDLPG</v>
       </c>
       <c r="G11" s="45">
         <v>1</v>
@@ -14666,18 +14887,18 @@
       </c>
       <c r="C12" s="40" t="str">
         <f>Processes!D26</f>
-        <v>FT-INDCOK</v>
+        <v>FT-INDDST</v>
       </c>
       <c r="D12" s="40" t="str">
         <f>Processes!E26</f>
-        <v>Fuel Tech - Petroleum Coke (IND)</v>
+        <v>Fuel Tech - Diesel (IND)</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F12" s="40" t="str">
         <f>Commodities!D11</f>
-        <v>INDCOK</v>
+        <v>INDDST</v>
       </c>
       <c r="G12" s="45">
         <v>1</v>
@@ -14686,30 +14907,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="str">
+    <row r="13" spans="2:8" s="1" customFormat="1">
+      <c r="B13" s="337" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="C13" s="40" t="str">
+      <c r="C13" s="338" t="str">
         <f>Processes!D27</f>
-        <v>FT-INDGAS</v>
-      </c>
-      <c r="D13" s="40" t="str">
+        <v>FT-INDBDL</v>
+      </c>
+      <c r="D13" s="338" t="str">
         <f>Processes!E27</f>
-        <v>Fuel Tech - Natural Gas (IND)</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="40" t="str">
+        <v>Fuel Tech - BioDiesel (IND)</v>
+      </c>
+      <c r="E13" s="339" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="338" t="str">
         <f>Commodities!D12</f>
-        <v>INDGAS</v>
-      </c>
-      <c r="G13" s="45">
+        <v>INDBDL</v>
+      </c>
+      <c r="G13" s="339">
         <v>1</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="339">
         <v>50</v>
       </c>
     </row>
@@ -14720,18 +14941,18 @@
       </c>
       <c r="C14" s="40" t="str">
         <f>Processes!D28</f>
-        <v>FT-INDELC</v>
+        <v>FT-INDCOK</v>
       </c>
       <c r="D14" s="40" t="str">
         <f>Processes!E28</f>
-        <v>Fuel Tech - Electricity (IND)</v>
+        <v>Fuel Tech - Petroleum Coke (IND)</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="F14" s="40" t="str">
         <f>Commodities!D13</f>
-        <v>INDELC</v>
+        <v>INDCOK</v>
       </c>
       <c r="G14" s="45">
         <v>1</v>
@@ -14747,18 +14968,18 @@
       </c>
       <c r="C15" s="40" t="str">
         <f>Processes!D29</f>
-        <v>FT-INDBGS</v>
+        <v>FT-INDGAS</v>
       </c>
       <c r="D15" s="40" t="str">
         <f>Processes!E29</f>
-        <v>Fuel Tech - Biogas (IND)</v>
+        <v>Fuel Tech - Natural Gas (IND)</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="F15" s="40" t="str">
         <f>Commodities!D14</f>
-        <v>INDBGS</v>
+        <v>INDGAS</v>
       </c>
       <c r="G15" s="45">
         <v>1</v>
@@ -14774,18 +14995,18 @@
       </c>
       <c r="C16" s="40" t="str">
         <f>Processes!D30</f>
-        <v>FT-INDBIO</v>
+        <v>FT-INDELC</v>
       </c>
       <c r="D16" s="40" t="str">
         <f>Processes!E30</f>
-        <v>Fuel Tech - Biomass (IND)</v>
+        <v>Fuel Tech - Electricity (IND)</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="F16" s="40" t="str">
         <f>Commodities!D15</f>
-        <v>INDBIO</v>
+        <v>INDELC</v>
       </c>
       <c r="G16" s="45">
         <v>1</v>
@@ -14801,18 +15022,18 @@
       </c>
       <c r="C17" s="40" t="str">
         <f>Processes!D31</f>
-        <v>FT-INDRWS</v>
+        <v>FT-INDBGS</v>
       </c>
       <c r="D17" s="40" t="str">
         <f>Processes!E31</f>
-        <v>Fuel Tech - Renewable waste (IND)</v>
+        <v>Fuel Tech - Biogas (IND)</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="F17" s="40" t="str">
         <f>Commodities!D16</f>
-        <v>INDRWS</v>
+        <v>INDBGS</v>
       </c>
       <c r="G17" s="45">
         <v>1</v>
@@ -14828,18 +15049,18 @@
       </c>
       <c r="C18" s="40" t="str">
         <f>Processes!D32</f>
-        <v>FT-INDNWS</v>
+        <v>FT-INDBIO</v>
       </c>
       <c r="D18" s="40" t="str">
         <f>Processes!E32</f>
-        <v>Fuel Tech - Non-renewable waste (IND)</v>
+        <v>Fuel Tech - Biomass (IND)</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F18" s="40" t="str">
         <f>Commodities!D17</f>
-        <v>INDNWS</v>
+        <v>INDBIO</v>
       </c>
       <c r="G18" s="45">
         <v>1</v>
@@ -14847,10 +15068,69 @@
       <c r="H18" s="45">
         <v>50</v>
       </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C19" s="40" t="str">
+        <f>Processes!D33</f>
+        <v>FT-INDRWS</v>
+      </c>
+      <c r="D19" s="40" t="str">
+        <f>Processes!E33</f>
+        <v>Fuel Tech - Renewable waste (IND)</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F19" s="40" t="str">
+        <f>Commodities!D18</f>
+        <v>INDRWS</v>
+      </c>
+      <c r="G19" s="45">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C20" s="40" t="str">
+        <f>Processes!D34</f>
+        <v>FT-INDNWS</v>
+      </c>
+      <c r="D20" s="40" t="str">
+        <f>Processes!E34</f>
+        <v>Fuel Tech - Non-renewable waste (IND)</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="40" t="str">
+        <f>Commodities!D19</f>
+        <v>INDNWS</v>
+      </c>
+      <c r="G20" s="45">
+        <v>1</v>
+      </c>
+      <c r="H20" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14859,8 +15139,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:Y103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14976,7 +15256,7 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="40" t="str">
-        <f>Commodities!D19</f>
+        <f>Commodities!D21</f>
         <v>INEM</v>
       </c>
       <c r="G6" s="45">
@@ -15035,7 +15315,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F8" s="40"/>
@@ -15066,7 +15346,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F9" s="40"/>
@@ -15097,7 +15377,7 @@
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F10" s="40"/>
@@ -15129,7 +15409,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F11" s="42"/>
@@ -15174,7 +15454,7 @@
         <v>INDCOA</v>
       </c>
       <c r="F12" s="40" t="str">
-        <f>Commodities!D20</f>
+        <f>Commodities!D22</f>
         <v>IFAB</v>
       </c>
       <c r="G12" s="45">
@@ -15232,7 +15512,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41" t="str">
-        <f>Commodities!$D$8</f>
+        <f>Commodities!$D$9</f>
         <v>INDHFO</v>
       </c>
       <c r="F15" s="40"/>
@@ -15250,7 +15530,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F16" s="40"/>
@@ -15268,7 +15548,7 @@
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F17" s="40"/>
@@ -15286,7 +15566,7 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F18" s="40"/>
@@ -15304,7 +15584,7 @@
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F19" s="40"/>
@@ -15322,7 +15602,7 @@
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="41" t="str">
-        <f>Commodities!$D$14</f>
+        <f>Commodities!$D$16</f>
         <v>INDBGS</v>
       </c>
       <c r="F20" s="40"/>
@@ -15341,7 +15621,7 @@
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="43" t="str">
-        <f>Commodities!$D$15</f>
+        <f>Commodities!$D$17</f>
         <v>INDBIO</v>
       </c>
       <c r="F21" s="42"/>
@@ -15370,7 +15650,7 @@
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="40" t="str">
-        <f>Commodities!D21</f>
+        <f>Commodities!D23</f>
         <v>ITAP</v>
       </c>
       <c r="G22" s="45">
@@ -15403,7 +15683,7 @@
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F24" s="40"/>
@@ -15421,7 +15701,7 @@
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F25" s="40"/>
@@ -15439,7 +15719,7 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F26" s="40"/>
@@ -15458,7 +15738,7 @@
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F27" s="42"/>
@@ -15487,7 +15767,7 @@
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="40" t="str">
-        <f>Commodities!D22</f>
+        <f>Commodities!D24</f>
         <v>IWAP</v>
       </c>
       <c r="G28" s="45">
@@ -15520,7 +15800,7 @@
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
       <c r="E30" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F30" s="40"/>
@@ -15538,7 +15818,7 @@
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
       <c r="E31" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F31" s="40"/>
@@ -15556,7 +15836,7 @@
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F32" s="40"/>
@@ -15574,7 +15854,7 @@
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
       <c r="E33" s="41" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F33" s="40"/>
@@ -15593,7 +15873,7 @@
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="43" t="str">
-        <f>Commodities!$D$15</f>
+        <f>Commodities!$D$17</f>
         <v>INDBIO</v>
       </c>
       <c r="F34" s="42"/>
@@ -15622,7 +15902,7 @@
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="40" t="str">
-        <f>Commodities!D23</f>
+        <f>Commodities!D25</f>
         <v>IPX4</v>
       </c>
       <c r="G35" s="45">
@@ -15655,7 +15935,7 @@
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F37" s="40"/>
@@ -15673,7 +15953,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F38" s="40"/>
@@ -15691,7 +15971,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F39" s="40"/>
@@ -15710,7 +15990,7 @@
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F40" s="42"/>
@@ -15739,7 +16019,7 @@
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="40" t="str">
-        <f>Commodities!D24</f>
+        <f>Commodities!D26</f>
         <v>ICAF</v>
       </c>
       <c r="G41" s="45">
@@ -15772,7 +16052,7 @@
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="41" t="str">
-        <f>Commodities!$D$8</f>
+        <f>Commodities!$D$9</f>
         <v>INDHFO</v>
       </c>
       <c r="F43" s="40"/>
@@ -15790,7 +16070,7 @@
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F44" s="40"/>
@@ -15808,7 +16088,7 @@
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F45" s="40"/>
@@ -15826,7 +16106,7 @@
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
       <c r="E46" s="41" t="str">
-        <f>Commodities!$D$11</f>
+        <f>Commodities!$D$13</f>
         <v>INDCOK</v>
       </c>
       <c r="F46" s="40"/>
@@ -15844,7 +16124,7 @@
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
       <c r="E47" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F47" s="40"/>
@@ -15863,7 +16143,7 @@
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
       <c r="E48" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F48" s="42"/>
@@ -15892,7 +16172,7 @@
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="40" t="str">
-        <f>Commodities!D25</f>
+        <f>Commodities!D27</f>
         <v>IRAP</v>
       </c>
       <c r="G49" s="45">
@@ -15925,7 +16205,7 @@
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
       <c r="E51" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F51" s="40"/>
@@ -15943,7 +16223,7 @@
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
       <c r="E52" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F52" s="40"/>
@@ -15961,7 +16241,7 @@
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
       <c r="E53" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F53" s="40"/>
@@ -15980,7 +16260,7 @@
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
       <c r="E54" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F54" s="42"/>
@@ -16012,7 +16292,7 @@
         <v>INDCOA</v>
       </c>
       <c r="F55" s="40" t="str">
-        <f>Commodities!D26</f>
+        <f>Commodities!D28</f>
         <v>IONM</v>
       </c>
       <c r="G55" s="45">
@@ -16051,7 +16331,7 @@
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
       <c r="E57" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F57" s="40"/>
@@ -16069,7 +16349,7 @@
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
       <c r="E58" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F58" s="40"/>
@@ -16087,7 +16367,7 @@
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
       <c r="E59" s="41" t="str">
-        <f>Commodities!$D$11</f>
+        <f>Commodities!$D$13</f>
         <v>INDCOK</v>
       </c>
       <c r="F59" s="40"/>
@@ -16105,7 +16385,7 @@
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
       <c r="E60" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F60" s="40"/>
@@ -16123,7 +16403,7 @@
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
       <c r="E61" s="41" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F61" s="40"/>
@@ -16141,7 +16421,7 @@
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
       <c r="E62" s="41" t="str">
-        <f>Commodities!$D$15</f>
+        <f>Commodities!$D$17</f>
         <v>INDBIO</v>
       </c>
       <c r="F62" s="40"/>
@@ -16159,7 +16439,7 @@
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
       <c r="E63" s="41" t="str">
-        <f>Commodities!$D$16</f>
+        <f>Commodities!$D$18</f>
         <v>INDRWS</v>
       </c>
       <c r="F63" s="40"/>
@@ -16178,7 +16458,7 @@
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
       <c r="E64" s="43" t="str">
-        <f>Commodities!$D$17</f>
+        <f>Commodities!$D$19</f>
         <v>INDNWS</v>
       </c>
       <c r="F64" s="42"/>
@@ -16207,7 +16487,7 @@
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="40" t="str">
-        <f>Commodities!D27</f>
+        <f>Commodities!D29</f>
         <v>IMAP</v>
       </c>
       <c r="G65" s="45">
@@ -16258,7 +16538,7 @@
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
       <c r="E68" s="41" t="str">
-        <f>Commodities!$D$8</f>
+        <f>Commodities!$D$9</f>
         <v>INDHFO</v>
       </c>
       <c r="F68" s="40"/>
@@ -16276,7 +16556,7 @@
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
       <c r="E69" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F69" s="40"/>
@@ -16294,7 +16574,7 @@
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
       <c r="E70" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F70" s="40"/>
@@ -16312,7 +16592,7 @@
       <c r="C71" s="40"/>
       <c r="D71" s="40"/>
       <c r="E71" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F71" s="40"/>
@@ -16331,7 +16611,7 @@
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
       <c r="E72" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F72" s="42"/>
@@ -16360,7 +16640,7 @@
       </c>
       <c r="E73" s="41"/>
       <c r="F73" s="40" t="str">
-        <f>Commodities!D28</f>
+        <f>Commodities!D30</f>
         <v>IMAE</v>
       </c>
       <c r="G73" s="45">
@@ -16393,7 +16673,7 @@
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
       <c r="E75" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F75" s="40"/>
@@ -16411,7 +16691,7 @@
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
       <c r="E76" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F76" s="40"/>
@@ -16429,7 +16709,7 @@
       <c r="C77" s="40"/>
       <c r="D77" s="40"/>
       <c r="E77" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F77" s="40"/>
@@ -16448,7 +16728,7 @@
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
       <c r="E78" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F78" s="42"/>
@@ -16477,7 +16757,7 @@
       </c>
       <c r="E79" s="41"/>
       <c r="F79" s="40" t="str">
-        <f>Commodities!D29</f>
+        <f>Commodities!D31</f>
         <v>IEOE</v>
       </c>
       <c r="G79" s="45">
@@ -16510,7 +16790,7 @@
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
       <c r="E81" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F81" s="40"/>
@@ -16528,7 +16808,7 @@
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
       <c r="E82" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F82" s="40"/>
@@ -16546,7 +16826,7 @@
       <c r="C83" s="40"/>
       <c r="D83" s="40"/>
       <c r="E83" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F83" s="40"/>
@@ -16565,7 +16845,7 @@
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
       <c r="E84" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F84" s="42"/>
@@ -16594,7 +16874,7 @@
       </c>
       <c r="E85" s="41"/>
       <c r="F85" s="40" t="str">
-        <f>Commodities!D30</f>
+        <f>Commodities!D32</f>
         <v>ITEM</v>
       </c>
       <c r="G85" s="45">
@@ -16627,7 +16907,7 @@
       <c r="C87" s="40"/>
       <c r="D87" s="40"/>
       <c r="E87" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="F87" s="40"/>
@@ -16645,7 +16925,7 @@
       <c r="C88" s="40"/>
       <c r="D88" s="40"/>
       <c r="E88" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="F88" s="40"/>
@@ -16663,7 +16943,7 @@
       <c r="C89" s="40"/>
       <c r="D89" s="40"/>
       <c r="E89" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="F89" s="40"/>
@@ -16682,7 +16962,7 @@
       <c r="C90" s="42"/>
       <c r="D90" s="42"/>
       <c r="E90" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F90" s="42"/>
@@ -16711,7 +16991,7 @@
       </c>
       <c r="E91" s="41"/>
       <c r="F91" s="40" t="str">
-        <f>Commodities!D31</f>
+        <f>Commodities!D33</f>
         <v>IOMA</v>
       </c>
       <c r="G91" s="45">
@@ -16737,7 +17017,7 @@
     </row>
     <row r="93" spans="2:10">
       <c r="E93" s="41" t="str">
-        <f>Commodities!$D$8</f>
+        <f>Commodities!$D$9</f>
         <v>INDHFO</v>
       </c>
       <c r="I93">
@@ -16750,7 +17030,7 @@
     </row>
     <row r="94" spans="2:10">
       <c r="E94" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="I94">
@@ -16763,7 +17043,7 @@
     </row>
     <row r="95" spans="2:10">
       <c r="E95" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="I95">
@@ -16776,7 +17056,7 @@
     </row>
     <row r="96" spans="2:10">
       <c r="E96" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="I96">
@@ -16792,7 +17072,7 @@
       <c r="C97" s="48"/>
       <c r="D97" s="48"/>
       <c r="E97" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F97" s="48"/>
@@ -16821,7 +17101,7 @@
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="40" t="str">
-        <f>Commodities!D32</f>
+        <f>Commodities!D34</f>
         <v>ICON</v>
       </c>
       <c r="G98" s="45">
@@ -16847,7 +17127,7 @@
     </row>
     <row r="100" spans="2:10">
       <c r="E100" s="41" t="str">
-        <f>Commodities!$D$9</f>
+        <f>Commodities!$D$10</f>
         <v>INDLPG</v>
       </c>
       <c r="I100">
@@ -16860,7 +17140,7 @@
     </row>
     <row r="101" spans="2:10">
       <c r="E101" s="41" t="str">
-        <f>Commodities!$D$10</f>
+        <f>Commodities!$D$11</f>
         <v>INDDST</v>
       </c>
       <c r="I101">
@@ -16873,7 +17153,7 @@
     </row>
     <row r="102" spans="2:10">
       <c r="E102" s="41" t="str">
-        <f>Commodities!$D$12</f>
+        <f>Commodities!$D$14</f>
         <v>INDGAS</v>
       </c>
       <c r="I102">
@@ -16889,7 +17169,7 @@
       <c r="C103" s="48"/>
       <c r="D103" s="48"/>
       <c r="E103" s="43" t="str">
-        <f>Commodities!$D$13</f>
+        <f>Commodities!$D$15</f>
         <v>INDELC</v>
       </c>
       <c r="F103" s="48"/>
@@ -16944,7 +17224,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="str">
-        <f>Commodities!D19</f>
+        <f>Commodities!D21</f>
         <v>INEM</v>
       </c>
       <c r="C4" s="37">
@@ -16958,7 +17238,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="str">
-        <f>Commodities!D20</f>
+        <f>Commodities!D22</f>
         <v>IFAB</v>
       </c>
       <c r="C5" s="37">
@@ -16972,7 +17252,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="str">
-        <f>Commodities!D21</f>
+        <f>Commodities!D23</f>
         <v>ITAP</v>
       </c>
       <c r="C6" s="37">
@@ -16986,7 +17266,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="str">
-        <f>Commodities!D22</f>
+        <f>Commodities!D24</f>
         <v>IWAP</v>
       </c>
       <c r="C7" s="37">
@@ -17000,7 +17280,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="str">
-        <f>Commodities!D23</f>
+        <f>Commodities!D25</f>
         <v>IPX4</v>
       </c>
       <c r="C8" s="37">
@@ -17014,7 +17294,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="str">
-        <f>Commodities!D24</f>
+        <f>Commodities!D26</f>
         <v>ICAF</v>
       </c>
       <c r="C9" s="37">
@@ -17028,7 +17308,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="str">
-        <f>Commodities!D25</f>
+        <f>Commodities!D27</f>
         <v>IRAP</v>
       </c>
       <c r="C10" s="37">
@@ -17042,7 +17322,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="str">
-        <f>Commodities!D26</f>
+        <f>Commodities!D28</f>
         <v>IONM</v>
       </c>
       <c r="C11" s="37">
@@ -17056,7 +17336,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="str">
-        <f>Commodities!D27</f>
+        <f>Commodities!D29</f>
         <v>IMAP</v>
       </c>
       <c r="C12" s="37">
@@ -17070,7 +17350,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="str">
-        <f>Commodities!D28</f>
+        <f>Commodities!D30</f>
         <v>IMAE</v>
       </c>
       <c r="C13" s="37">
@@ -17084,7 +17364,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="str">
-        <f>Commodities!D29</f>
+        <f>Commodities!D31</f>
         <v>IEOE</v>
       </c>
       <c r="C14" s="37">
@@ -17098,7 +17378,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="str">
-        <f>Commodities!D30</f>
+        <f>Commodities!D32</f>
         <v>ITEM</v>
       </c>
       <c r="C15" s="37">
@@ -17112,7 +17392,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="str">
-        <f>Commodities!D31</f>
+        <f>Commodities!D33</f>
         <v>IOMA</v>
       </c>
       <c r="C16" s="37">
@@ -17126,7 +17406,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="str">
-        <f>Commodities!D32</f>
+        <f>Commodities!D34</f>
         <v>ICON</v>
       </c>
       <c r="C17" s="37">

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gargiulo\Desktop\Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391D6FE-A4C6-47D8-8F5A-D5324CE40565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E0A205-3C5D-4094-8211-A444D83D9714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1725" windowWidth="20520" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="339">
   <si>
     <t>Development</t>
   </si>
@@ -1165,6 +1165,24 @@
   </si>
   <si>
     <t>BIOJKR</t>
+  </si>
+  <si>
+    <t>INDH2L</t>
+  </si>
+  <si>
+    <t>Hydrogen gaseous (IND)</t>
+  </si>
+  <si>
+    <t>INDH2G</t>
+  </si>
+  <si>
+    <t>Hydrogen liquid (IND)</t>
+  </si>
+  <si>
+    <t>SUPH2GC, SUPH2GD</t>
+  </si>
+  <si>
+    <t>SUPH2LC, SUPH2LD</t>
   </si>
 </sst>
 </file>
@@ -3406,11 +3424,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4344,10 +4363,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5478,12 +5499,12 @@
   </sheetPr>
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="65" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="65" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AA27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="AM38" sqref="AM38"/>
+      <selection pane="bottomRight" activeCell="AR38" sqref="AR38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9330,6 +9351,7 @@
         <f t="shared" si="13"/>
         <v>424.43150770887547</v>
       </c>
+      <c r="AR38" s="340"/>
     </row>
     <row r="39" spans="1:45" ht="12.75" customHeight="1">
       <c r="A39" s="220" t="s">
@@ -12795,7 +12817,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Myriad Pro,Regular"&amp;14Ireland's Energy Balance &amp;A</oddHeader>
     <oddFooter>&amp;L&amp;G&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -12807,10 +12829,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C8D34-EFD7-45C2-8418-665049CA220F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:L45"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13208,33 +13230,41 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="2:10">
+    <row r="20" spans="2:10" s="1" customFormat="1">
+      <c r="B20" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="2:10" s="1" customFormat="1">
       <c r="B21" s="25" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C21" s="26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A31)),SUBSTITUTE('EB2018'!A31,"&amp;","and"), 'EB2018'!A31) &amp; " demand"</f>
-        <v>Non-Energy Mining demand</v>
+        <v>333</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>176</v>
@@ -13245,27 +13275,17 @@
       <c r="J21" s="25"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="26" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A32)),SUBSTITUTE('EB2018'!A32,"&amp;","and"), 'EB2018'!A32) &amp; " demand"</f>
-        <v>Food and beverages demand</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="B22" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="25" t="s">
@@ -13276,11 +13296,11 @@
         <v>IE,National</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E23" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A33)),SUBSTITUTE('EB2018'!A33,"&amp;","and"), 'EB2018'!A33) &amp; " demand"</f>
-        <v>Textiles and textile products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A31)),SUBSTITUTE('EB2018'!A31,"&amp;","and"), 'EB2018'!A31) &amp; " demand"</f>
+        <v>Non-Energy Mining demand</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>176</v>
@@ -13299,11 +13319,11 @@
         <v>IE,National</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E24" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A34)),SUBSTITUTE('EB2018'!A34,"&amp;","and"), 'EB2018'!A34) &amp; " demand"</f>
-        <v>Wood and wood products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A32)),SUBSTITUTE('EB2018'!A32,"&amp;","and"), 'EB2018'!A32) &amp; " demand"</f>
+        <v>Food and beverages demand</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>176</v>
@@ -13322,11 +13342,11 @@
         <v>IE,National</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A35)),SUBSTITUTE('EB2018'!A35,"&amp;","and"), 'EB2018'!A35) &amp; " demand"</f>
-        <v>Pulp, paper, publishing and printing demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A33)),SUBSTITUTE('EB2018'!A33,"&amp;","and"), 'EB2018'!A33) &amp; " demand"</f>
+        <v>Textiles and textile products demand</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>176</v>
@@ -13345,11 +13365,11 @@
         <v>IE,National</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E26" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A36)),SUBSTITUTE('EB2018'!A36,"&amp;","and"), 'EB2018'!A36) &amp; " demand"</f>
-        <v>Chemicals and man-made fibres demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A34)),SUBSTITUTE('EB2018'!A34,"&amp;","and"), 'EB2018'!A34) &amp; " demand"</f>
+        <v>Wood and wood products demand</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>176</v>
@@ -13368,11 +13388,11 @@
         <v>IE,National</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E27" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A37)),SUBSTITUTE('EB2018'!A37,"&amp;","and"), 'EB2018'!A37) &amp; " demand"</f>
-        <v>Rubber and plastic products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A35)),SUBSTITUTE('EB2018'!A35,"&amp;","and"), 'EB2018'!A35) &amp; " demand"</f>
+        <v>Pulp, paper, publishing and printing demand</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>176</v>
@@ -13391,11 +13411,11 @@
         <v>IE,National</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E28" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A38)),SUBSTITUTE('EB2018'!A38,"&amp;","and"), 'EB2018'!A38) &amp; " demand"</f>
-        <v>Other non-metallic mineral products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A36)),SUBSTITUTE('EB2018'!A36,"&amp;","and"), 'EB2018'!A36) &amp; " demand"</f>
+        <v>Chemicals and man-made fibres demand</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>176</v>
@@ -13414,11 +13434,11 @@
         <v>IE,National</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E29" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A39)),SUBSTITUTE('EB2018'!A39,"&amp;","and"), 'EB2018'!A39) &amp; " demand"</f>
-        <v>Basic metals and fabricated metal products demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A37)),SUBSTITUTE('EB2018'!A37,"&amp;","and"), 'EB2018'!A37) &amp; " demand"</f>
+        <v>Rubber and plastic products demand</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>176</v>
@@ -13437,11 +13457,11 @@
         <v>IE,National</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E30" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A40)),SUBSTITUTE('EB2018'!A40,"&amp;","and"), 'EB2018'!A40) &amp; " demand"</f>
-        <v>Machinery and equipment n.e.c. demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A38)),SUBSTITUTE('EB2018'!A38,"&amp;","and"), 'EB2018'!A38) &amp; " demand"</f>
+        <v>Other non-metallic mineral products demand</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>176</v>
@@ -13460,11 +13480,11 @@
         <v>IE,National</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A41)),SUBSTITUTE('EB2018'!A41,"&amp;","and"), 'EB2018'!A41) &amp; " demand"</f>
-        <v>Electrical and optical equipment demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A39)),SUBSTITUTE('EB2018'!A39,"&amp;","and"), 'EB2018'!A39) &amp; " demand"</f>
+        <v>Basic metals and fabricated metal products demand</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>176</v>
@@ -13483,11 +13503,11 @@
         <v>IE,National</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A42)),SUBSTITUTE('EB2018'!A42,"&amp;","and"), 'EB2018'!A42) &amp; " demand"</f>
-        <v>Transport equipment manufacture demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A40)),SUBSTITUTE('EB2018'!A40,"&amp;","and"), 'EB2018'!A40) &amp; " demand"</f>
+        <v>Machinery and equipment n.e.c. demand</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>176</v>
@@ -13506,11 +13526,11 @@
         <v>IE,National</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E33" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A43)),SUBSTITUTE('EB2018'!A43,"&amp;","and"), 'EB2018'!A43) &amp; " demand"</f>
-        <v>Other manufacturing demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A41)),SUBSTITUTE('EB2018'!A41,"&amp;","and"), 'EB2018'!A41) &amp; " demand"</f>
+        <v>Electrical and optical equipment demand</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>176</v>
@@ -13529,11 +13549,11 @@
         <v>IE,National</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A44)),SUBSTITUTE('EB2018'!A44,"&amp;","and"), 'EB2018'!A44) &amp; " demand"</f>
-        <v>Construction demand</v>
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A42)),SUBSTITUTE('EB2018'!A42,"&amp;","and"), 'EB2018'!A42) &amp; " demand"</f>
+        <v>Transport equipment manufacture demand</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>176</v>
@@ -13544,34 +13564,45 @@
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="B35" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="28" t="str">
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A43)),SUBSTITUTE('EB2018'!A43,"&amp;","and"), 'EB2018'!A43) &amp; " demand"</f>
+        <v>Other manufacturing demand</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="25" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C36" s="26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>188</v>
+        <v>318</v>
+      </c>
+      <c r="E36" s="28" t="str">
+        <f>IF(ISNUMBER(SEARCH("&amp;",'EB2018'!A44)),SUBSTITUTE('EB2018'!A44,"&amp;","and"), 'EB2018'!A44) &amp; " demand"</f>
+        <v>Construction demand</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -13579,26 +13610,17 @@
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="26" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="B37" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="25" t="s">
@@ -13609,10 +13631,10 @@
         <v>IE,National</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>186</v>
@@ -13631,10 +13653,10 @@
         <v>IE,National</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>186</v>
@@ -13653,10 +13675,10 @@
         <v>IE,National</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>186</v>
@@ -13675,10 +13697,10 @@
         <v>IE,National</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>186</v>
@@ -13697,10 +13719,10 @@
         <v>IE,National</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>186</v>
@@ -13719,10 +13741,10 @@
         <v>IE,National</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>186</v>
@@ -13741,10 +13763,10 @@
         <v>IE,National</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>186</v>
@@ -13763,10 +13785,10 @@
         <v>IE,National</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>186</v>
@@ -13775,6 +13797,50 @@
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13784,10 +13850,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E509B35-A292-4896-84EE-9157D4436BDA}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:J34"/>
+  <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13864,11 +13930,11 @@
         <v>IE,National</v>
       </c>
       <c r="D5" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B5,MID(Commodities!D21,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B5,MID(Commodities!D23,2,3),"E0")</f>
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="E5" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E21," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E23," process")</f>
         <v>Non-Energy Mining demand process</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -13890,11 +13956,11 @@
         <v>IE,National</v>
       </c>
       <c r="D6" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B6,MID(Commodities!D22,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B6,MID(Commodities!D24,2,3),"E0")</f>
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="E6" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E22," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E24," process")</f>
         <v>Food and beverages demand process</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -13916,11 +13982,11 @@
         <v>IE,National</v>
       </c>
       <c r="D7" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B7,MID(Commodities!D23,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B7,MID(Commodities!D25,2,3),"E0")</f>
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="E7" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E23," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E25," process")</f>
         <v>Textiles and textile products demand process</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -13942,11 +14008,11 @@
         <v>IE,National</v>
       </c>
       <c r="D8" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B8,MID(Commodities!D24,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B8,MID(Commodities!D26,2,3),"E0")</f>
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="E8" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E24," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E26," process")</f>
         <v>Wood and wood products demand process</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -13968,11 +14034,11 @@
         <v>IE,National</v>
       </c>
       <c r="D9" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B9,MID(Commodities!D25,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B9,MID(Commodities!D27,2,3),"E0")</f>
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="E9" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E25," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E27," process")</f>
         <v>Pulp, paper, publishing and printing demand process</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -13994,11 +14060,11 @@
         <v>IE,National</v>
       </c>
       <c r="D10" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B10,MID(Commodities!D26,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B10,MID(Commodities!D28,2,3),"E0")</f>
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="E10" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E26," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E28," process")</f>
         <v>Chemicals and man-made fibres demand process</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -14020,11 +14086,11 @@
         <v>IE,National</v>
       </c>
       <c r="D11" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B11,MID(Commodities!D27,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B11,MID(Commodities!D29,2,3),"E0")</f>
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="E11" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E27," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E29," process")</f>
         <v>Rubber and plastic products demand process</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -14046,11 +14112,11 @@
         <v>IE,National</v>
       </c>
       <c r="D12" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B12,MID(Commodities!D28,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B12,MID(Commodities!D30,2,3),"E0")</f>
         <v>I-DMD-ONM-E0</v>
       </c>
       <c r="E12" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E28," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E30," process")</f>
         <v>Other non-metallic mineral products demand process</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -14072,11 +14138,11 @@
         <v>IE,National</v>
       </c>
       <c r="D13" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B13,MID(Commodities!D29,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B13,MID(Commodities!D31,2,3),"E0")</f>
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="E13" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E29," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E31," process")</f>
         <v>Basic metals and fabricated metal products demand process</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -14098,11 +14164,11 @@
         <v>IE,National</v>
       </c>
       <c r="D14" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B14,MID(Commodities!D30,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B14,MID(Commodities!D32,2,3),"E0")</f>
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="E14" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E30," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E32," process")</f>
         <v>Machinery and equipment n.e.c. demand process</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -14124,11 +14190,11 @@
         <v>IE,National</v>
       </c>
       <c r="D15" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B15,MID(Commodities!D31,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B15,MID(Commodities!D33,2,3),"E0")</f>
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="E15" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E31," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E33," process")</f>
         <v>Electrical and optical equipment demand process</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -14150,11 +14216,11 @@
         <v>IE,National</v>
       </c>
       <c r="D16" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B16,MID(Commodities!D32,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B16,MID(Commodities!D34,2,3),"E0")</f>
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="E16" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E32," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E34," process")</f>
         <v>Transport equipment manufacture demand process</v>
       </c>
       <c r="F16" s="32" t="s">
@@ -14176,11 +14242,11 @@
         <v>IE,National</v>
       </c>
       <c r="D17" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B17,MID(Commodities!D33,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B17,MID(Commodities!D35,2,3),"E0")</f>
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="E17" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E33," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E35," process")</f>
         <v>Other manufacturing demand process</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -14202,11 +14268,11 @@
         <v>IE,National</v>
       </c>
       <c r="D18" s="26" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B18,MID(Commodities!D34,2,3),"E0")</f>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"I",B18,MID(Commodities!D36,2,3),"E0")</f>
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="E18" s="26" t="str">
-        <f>_xlfn.CONCAT(Commodities!E34," process")</f>
+        <f>_xlfn.CONCAT(Commodities!E36," process")</f>
         <v>Construction demand process</v>
       </c>
       <c r="F18" s="29" t="s">
@@ -14624,6 +14690,58 @@
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
     </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D20)</f>
+        <v>FT-INDH2G</v>
+      </c>
+      <c r="E35" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E20)</f>
+        <v>Fuel Tech - Hydrogen gaseous (IND)</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D36" s="26" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D21)</f>
+        <v>FT-INDH2L</v>
+      </c>
+      <c r="E36" s="26" t="str">
+        <f>_xlfn.TEXTJOIN(" - ",TRUE,"Fuel Tech",Commodities!E21)</f>
+        <v>Fuel Tech - Hydrogen liquid (IND)</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14632,10 +14750,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2FA8-D735-48AC-B928-6081B29FCD3B}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15015,7 +15133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:9">
       <c r="B17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -15042,7 +15160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:9">
       <c r="B18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -15069,7 +15187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:9">
       <c r="B19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -15096,7 +15214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:9">
       <c r="B20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -15123,9 +15241,61 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+    <row r="21" spans="2:9">
+      <c r="B21" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C21" s="40" t="str">
+        <f>Processes!D35</f>
+        <v>FT-INDH2G</v>
+      </c>
+      <c r="D21" s="40" t="str">
+        <f>Processes!E35</f>
+        <v>Fuel Tech - Hydrogen gaseous (IND)</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21" s="40" t="str">
+        <f>Commodities!D20</f>
+        <v>INDH2G</v>
+      </c>
+      <c r="G21" s="45">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C22" s="40" t="str">
+        <f>Processes!D36</f>
+        <v>FT-INDH2L</v>
+      </c>
+      <c r="D22" s="40" t="str">
+        <f>Processes!E36</f>
+        <v>Fuel Tech - Hydrogen liquid (IND)</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="40" t="str">
+        <f>Commodities!D21</f>
+        <v>INDH2L</v>
+      </c>
+      <c r="G22" s="45">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15256,7 +15426,7 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="40" t="str">
-        <f>Commodities!D21</f>
+        <f>Commodities!D23</f>
         <v>INEM</v>
       </c>
       <c r="G6" s="45">
@@ -15454,7 +15624,7 @@
         <v>INDCOA</v>
       </c>
       <c r="F12" s="40" t="str">
-        <f>Commodities!D22</f>
+        <f>Commodities!D24</f>
         <v>IFAB</v>
       </c>
       <c r="G12" s="45">
@@ -15650,7 +15820,7 @@
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="40" t="str">
-        <f>Commodities!D23</f>
+        <f>Commodities!D25</f>
         <v>ITAP</v>
       </c>
       <c r="G22" s="45">
@@ -15767,7 +15937,7 @@
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="40" t="str">
-        <f>Commodities!D24</f>
+        <f>Commodities!D26</f>
         <v>IWAP</v>
       </c>
       <c r="G28" s="45">
@@ -15902,7 +16072,7 @@
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="40" t="str">
-        <f>Commodities!D25</f>
+        <f>Commodities!D27</f>
         <v>IPX4</v>
       </c>
       <c r="G35" s="45">
@@ -16019,7 +16189,7 @@
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="40" t="str">
-        <f>Commodities!D26</f>
+        <f>Commodities!D28</f>
         <v>ICAF</v>
       </c>
       <c r="G41" s="45">
@@ -16172,7 +16342,7 @@
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="40" t="str">
-        <f>Commodities!D27</f>
+        <f>Commodities!D29</f>
         <v>IRAP</v>
       </c>
       <c r="G49" s="45">
@@ -16292,7 +16462,7 @@
         <v>INDCOA</v>
       </c>
       <c r="F55" s="40" t="str">
-        <f>Commodities!D28</f>
+        <f>Commodities!D30</f>
         <v>IONM</v>
       </c>
       <c r="G55" s="45">
@@ -16487,7 +16657,7 @@
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="40" t="str">
-        <f>Commodities!D29</f>
+        <f>Commodities!D31</f>
         <v>IMAP</v>
       </c>
       <c r="G65" s="45">
@@ -16640,7 +16810,7 @@
       </c>
       <c r="E73" s="41"/>
       <c r="F73" s="40" t="str">
-        <f>Commodities!D30</f>
+        <f>Commodities!D32</f>
         <v>IMAE</v>
       </c>
       <c r="G73" s="45">
@@ -16757,7 +16927,7 @@
       </c>
       <c r="E79" s="41"/>
       <c r="F79" s="40" t="str">
-        <f>Commodities!D31</f>
+        <f>Commodities!D33</f>
         <v>IEOE</v>
       </c>
       <c r="G79" s="45">
@@ -16874,7 +17044,7 @@
       </c>
       <c r="E85" s="41"/>
       <c r="F85" s="40" t="str">
-        <f>Commodities!D32</f>
+        <f>Commodities!D34</f>
         <v>ITEM</v>
       </c>
       <c r="G85" s="45">
@@ -16991,7 +17161,7 @@
       </c>
       <c r="E91" s="41"/>
       <c r="F91" s="40" t="str">
-        <f>Commodities!D33</f>
+        <f>Commodities!D35</f>
         <v>IOMA</v>
       </c>
       <c r="G91" s="45">
@@ -17101,7 +17271,7 @@
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="40" t="str">
-        <f>Commodities!D34</f>
+        <f>Commodities!D36</f>
         <v>ICON</v>
       </c>
       <c r="G98" s="45">
@@ -17224,7 +17394,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="str">
-        <f>Commodities!D21</f>
+        <f>Commodities!D23</f>
         <v>INEM</v>
       </c>
       <c r="C4" s="37">
@@ -17238,7 +17408,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="str">
-        <f>Commodities!D22</f>
+        <f>Commodities!D24</f>
         <v>IFAB</v>
       </c>
       <c r="C5" s="37">
@@ -17252,7 +17422,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="str">
-        <f>Commodities!D23</f>
+        <f>Commodities!D25</f>
         <v>ITAP</v>
       </c>
       <c r="C6" s="37">
@@ -17266,7 +17436,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="str">
-        <f>Commodities!D24</f>
+        <f>Commodities!D26</f>
         <v>IWAP</v>
       </c>
       <c r="C7" s="37">
@@ -17280,7 +17450,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="str">
-        <f>Commodities!D25</f>
+        <f>Commodities!D27</f>
         <v>IPX4</v>
       </c>
       <c r="C8" s="37">
@@ -17294,7 +17464,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="str">
-        <f>Commodities!D26</f>
+        <f>Commodities!D28</f>
         <v>ICAF</v>
       </c>
       <c r="C9" s="37">
@@ -17308,7 +17478,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="str">
-        <f>Commodities!D27</f>
+        <f>Commodities!D29</f>
         <v>IRAP</v>
       </c>
       <c r="C10" s="37">
@@ -17322,7 +17492,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="str">
-        <f>Commodities!D28</f>
+        <f>Commodities!D30</f>
         <v>IONM</v>
       </c>
       <c r="C11" s="37">
@@ -17336,7 +17506,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="str">
-        <f>Commodities!D29</f>
+        <f>Commodities!D31</f>
         <v>IMAP</v>
       </c>
       <c r="C12" s="37">
@@ -17350,7 +17520,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="str">
-        <f>Commodities!D30</f>
+        <f>Commodities!D32</f>
         <v>IMAE</v>
       </c>
       <c r="C13" s="37">
@@ -17364,7 +17534,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="str">
-        <f>Commodities!D31</f>
+        <f>Commodities!D33</f>
         <v>IEOE</v>
       </c>
       <c r="C14" s="37">
@@ -17378,7 +17548,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="str">
-        <f>Commodities!D32</f>
+        <f>Commodities!D34</f>
         <v>ITEM</v>
       </c>
       <c r="C15" s="37">
@@ -17392,7 +17562,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="str">
-        <f>Commodities!D33</f>
+        <f>Commodities!D35</f>
         <v>IOMA</v>
       </c>
       <c r="C16" s="37">
@@ -17406,7 +17576,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="str">
-        <f>Commodities!D34</f>
+        <f>Commodities!D36</f>
         <v>ICON</v>
       </c>
       <c r="C17" s="37">

--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -1,51 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E0A205-3C5D-4094-8211-A444D83D9714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4ADD47-B5C8-4281-8FE1-A17A31BBB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1725" windowWidth="20520" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="4" r:id="rId1"/>
-    <sheet name="Regions" sheetId="2" r:id="rId2"/>
-    <sheet name="EB2018" sheetId="3" r:id="rId3"/>
-    <sheet name="Commodities" sheetId="6" r:id="rId4"/>
-    <sheet name="Processes" sheetId="5" r:id="rId5"/>
-    <sheet name="FT" sheetId="7" r:id="rId6"/>
-    <sheet name="DMD" sheetId="10" r:id="rId7"/>
-    <sheet name="Demands" sheetId="8" r:id="rId8"/>
-    <sheet name="Conversions" sheetId="9" r:id="rId9"/>
+    <sheet name="Cover" sheetId="11" r:id="rId1"/>
+    <sheet name="Cover_old" sheetId="4" r:id="rId2"/>
+    <sheet name="Regions" sheetId="2" r:id="rId3"/>
+    <sheet name="EB2018" sheetId="3" r:id="rId4"/>
+    <sheet name="Commodities" sheetId="6" r:id="rId5"/>
+    <sheet name="Processes" sheetId="5" r:id="rId6"/>
+    <sheet name="FT" sheetId="7" r:id="rId7"/>
+    <sheet name="DMD" sheetId="10" r:id="rId8"/>
+    <sheet name="Demands" sheetId="8" r:id="rId9"/>
+    <sheet name="Conversions" sheetId="9" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
-    <definedName name="aa" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -147,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="355">
   <si>
     <t>Development</t>
   </si>
@@ -1184,20 +1252,69 @@
   <si>
     <t>SUPH2LC, SUPH2LD</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="168" formatCode="\Te\x\t"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,8 +1475,72 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,6 +1607,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="157">
     <border>
@@ -3424,12 +3611,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4364,10 +4553,66 @@
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="31" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{AB28095B-CB18-408B-B2E1-049817B395BE}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4388,6 +4633,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DE690A-7712-4CF0-86B5-D1F639D34E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90299FE-BC62-47A6-98DE-FA92794B3DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89123C3B-D319-4DC1-9845-2513749EE79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01B5EAA-3E87-4858-B391-50D88685912D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2A59FF-2224-4E67-8914-D967106A03B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16678C29-BAE4-4885-8831-EE7DF2BDE6F5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4448,6 +5002,19 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4712,6 +5279,2894 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9774962B-02C7-4060-A9F5-1DCC6C62AFDC}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="341"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342"/>
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="341"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="342"/>
+      <c r="N2" s="342"/>
+      <c r="O2" s="342"/>
+      <c r="P2" s="342"/>
+      <c r="Q2" s="342"/>
+      <c r="R2" s="342"/>
+      <c r="S2" s="342"/>
+      <c r="T2" s="342"/>
+      <c r="U2" s="342"/>
+      <c r="V2" s="342"/>
+      <c r="W2" s="342"/>
+      <c r="X2" s="342"/>
+      <c r="Y2" s="342"/>
+      <c r="Z2" s="342"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="341"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="342"/>
+      <c r="N3" s="342"/>
+      <c r="O3" s="342"/>
+      <c r="P3" s="342"/>
+      <c r="Q3" s="342"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="342"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="342"/>
+      <c r="V3" s="342"/>
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="342"/>
+      <c r="Z3" s="342"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="341"/>
+      <c r="B4" s="341"/>
+      <c r="C4" s="341"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="342"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
+      <c r="N4" s="342"/>
+      <c r="O4" s="342"/>
+      <c r="P4" s="342"/>
+      <c r="Q4" s="342"/>
+      <c r="R4" s="342"/>
+      <c r="S4" s="342"/>
+      <c r="T4" s="342"/>
+      <c r="U4" s="342"/>
+      <c r="V4" s="342"/>
+      <c r="W4" s="342"/>
+      <c r="X4" s="342"/>
+      <c r="Y4" s="342"/>
+      <c r="Z4" s="342"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="341"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="342"/>
+      <c r="P5" s="342"/>
+      <c r="Q5" s="342"/>
+      <c r="R5" s="342"/>
+      <c r="S5" s="342"/>
+      <c r="T5" s="342"/>
+      <c r="U5" s="342"/>
+      <c r="V5" s="342"/>
+      <c r="W5" s="342"/>
+      <c r="X5" s="342"/>
+      <c r="Y5" s="342"/>
+      <c r="Z5" s="342"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="341"/>
+      <c r="B6" s="341"/>
+      <c r="C6" s="341"/>
+      <c r="D6" s="341"/>
+      <c r="E6" s="342"/>
+      <c r="F6" s="342"/>
+      <c r="G6" s="342"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="342"/>
+      <c r="L6" s="342"/>
+      <c r="M6" s="342"/>
+      <c r="N6" s="342"/>
+      <c r="O6" s="342"/>
+      <c r="P6" s="342"/>
+      <c r="Q6" s="342"/>
+      <c r="R6" s="342"/>
+      <c r="S6" s="342"/>
+      <c r="T6" s="342"/>
+      <c r="U6" s="342"/>
+      <c r="V6" s="342"/>
+      <c r="W6" s="342"/>
+      <c r="X6" s="342"/>
+      <c r="Y6" s="342"/>
+      <c r="Z6" s="342"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="341"/>
+      <c r="B7" s="341"/>
+      <c r="C7" s="341"/>
+      <c r="D7" s="341"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
+      <c r="M7" s="342"/>
+      <c r="N7" s="342"/>
+      <c r="O7" s="342"/>
+      <c r="P7" s="342"/>
+      <c r="Q7" s="342"/>
+      <c r="R7" s="342"/>
+      <c r="S7" s="342"/>
+      <c r="T7" s="342"/>
+      <c r="U7" s="342"/>
+      <c r="V7" s="342"/>
+      <c r="W7" s="342"/>
+      <c r="X7" s="342"/>
+      <c r="Y7" s="342"/>
+      <c r="Z7" s="342"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="341"/>
+      <c r="B8" s="341"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="341"/>
+      <c r="E8" s="342"/>
+      <c r="F8" s="342"/>
+      <c r="G8" s="342"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="342"/>
+      <c r="N8" s="342"/>
+      <c r="O8" s="342"/>
+      <c r="P8" s="342"/>
+      <c r="Q8" s="342"/>
+      <c r="R8" s="342"/>
+      <c r="S8" s="342"/>
+      <c r="T8" s="342"/>
+      <c r="U8" s="342"/>
+      <c r="V8" s="342"/>
+      <c r="W8" s="342"/>
+      <c r="X8" s="342"/>
+      <c r="Y8" s="342"/>
+      <c r="Z8" s="342"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="341"/>
+      <c r="B9" s="341"/>
+      <c r="C9" s="341"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="342"/>
+      <c r="F9" s="342"/>
+      <c r="G9" s="342"/>
+      <c r="H9" s="342"/>
+      <c r="I9" s="342"/>
+      <c r="J9" s="342"/>
+      <c r="K9" s="342"/>
+      <c r="L9" s="342"/>
+      <c r="M9" s="342"/>
+      <c r="N9" s="342"/>
+      <c r="O9" s="342"/>
+      <c r="P9" s="342"/>
+      <c r="Q9" s="342"/>
+      <c r="R9" s="342"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="V9" s="342"/>
+      <c r="W9" s="342"/>
+      <c r="X9" s="342"/>
+      <c r="Y9" s="342"/>
+      <c r="Z9" s="342"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="341"/>
+      <c r="B10" s="341"/>
+      <c r="C10" s="341"/>
+      <c r="D10" s="341"/>
+      <c r="E10" s="342"/>
+      <c r="F10" s="342"/>
+      <c r="G10" s="342"/>
+      <c r="H10" s="342"/>
+      <c r="I10" s="342"/>
+      <c r="J10" s="342"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
+      <c r="N10" s="342"/>
+      <c r="O10" s="342"/>
+      <c r="P10" s="342"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="342"/>
+      <c r="T10" s="342"/>
+      <c r="U10" s="342"/>
+      <c r="V10" s="342"/>
+      <c r="W10" s="342"/>
+      <c r="X10" s="342"/>
+      <c r="Y10" s="342"/>
+      <c r="Z10" s="342"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="341"/>
+      <c r="B11" s="341"/>
+      <c r="C11" s="341"/>
+      <c r="D11" s="341"/>
+      <c r="E11" s="342"/>
+      <c r="F11" s="342"/>
+      <c r="G11" s="342"/>
+      <c r="H11" s="342"/>
+      <c r="I11" s="342"/>
+      <c r="J11" s="342"/>
+      <c r="K11" s="342"/>
+      <c r="L11" s="342"/>
+      <c r="M11" s="342"/>
+      <c r="N11" s="342"/>
+      <c r="O11" s="342"/>
+      <c r="P11" s="342"/>
+      <c r="Q11" s="342"/>
+      <c r="R11" s="342"/>
+      <c r="S11" s="342"/>
+      <c r="T11" s="342"/>
+      <c r="U11" s="342"/>
+      <c r="V11" s="342"/>
+      <c r="W11" s="342"/>
+      <c r="X11" s="342"/>
+      <c r="Y11" s="342"/>
+      <c r="Z11" s="342"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="341"/>
+      <c r="B12" s="341"/>
+      <c r="C12" s="341"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="342"/>
+      <c r="H12" s="342"/>
+      <c r="I12" s="342"/>
+      <c r="J12" s="342"/>
+      <c r="K12" s="342"/>
+      <c r="L12" s="342"/>
+      <c r="M12" s="342"/>
+      <c r="N12" s="342"/>
+      <c r="O12" s="342"/>
+      <c r="P12" s="342"/>
+      <c r="Q12" s="342"/>
+      <c r="R12" s="342"/>
+      <c r="S12" s="342"/>
+      <c r="T12" s="342"/>
+      <c r="U12" s="342"/>
+      <c r="V12" s="342"/>
+      <c r="W12" s="342"/>
+      <c r="X12" s="342"/>
+      <c r="Y12" s="342"/>
+      <c r="Z12" s="342"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="341"/>
+      <c r="B13" s="341"/>
+      <c r="C13" s="341"/>
+      <c r="D13" s="341"/>
+      <c r="E13" s="342"/>
+      <c r="F13" s="342"/>
+      <c r="G13" s="342"/>
+      <c r="H13" s="342"/>
+      <c r="I13" s="342"/>
+      <c r="J13" s="342"/>
+      <c r="K13" s="342"/>
+      <c r="L13" s="342"/>
+      <c r="M13" s="342"/>
+      <c r="N13" s="342"/>
+      <c r="O13" s="342"/>
+      <c r="P13" s="342"/>
+      <c r="Q13" s="342"/>
+      <c r="R13" s="342"/>
+      <c r="S13" s="342"/>
+      <c r="T13" s="342"/>
+      <c r="U13" s="342"/>
+      <c r="V13" s="342"/>
+      <c r="W13" s="342"/>
+      <c r="X13" s="342"/>
+      <c r="Y13" s="342"/>
+      <c r="Z13" s="342"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="341"/>
+      <c r="B14" s="341"/>
+      <c r="C14" s="341"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="342"/>
+      <c r="G14" s="342"/>
+      <c r="H14" s="342"/>
+      <c r="I14" s="342"/>
+      <c r="J14" s="342"/>
+      <c r="K14" s="342"/>
+      <c r="L14" s="342"/>
+      <c r="M14" s="342"/>
+      <c r="N14" s="342"/>
+      <c r="O14" s="342"/>
+      <c r="P14" s="342"/>
+      <c r="Q14" s="342"/>
+      <c r="R14" s="342"/>
+      <c r="S14" s="342"/>
+      <c r="T14" s="342"/>
+      <c r="U14" s="342"/>
+      <c r="V14" s="342"/>
+      <c r="W14" s="342"/>
+      <c r="X14" s="342"/>
+      <c r="Y14" s="342"/>
+      <c r="Z14" s="342"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="341"/>
+      <c r="B15" s="341"/>
+      <c r="C15" s="341"/>
+      <c r="D15" s="341"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="342"/>
+      <c r="H15" s="342"/>
+      <c r="I15" s="342"/>
+      <c r="J15" s="342"/>
+      <c r="K15" s="342"/>
+      <c r="L15" s="342"/>
+      <c r="M15" s="342"/>
+      <c r="N15" s="342"/>
+      <c r="O15" s="342"/>
+      <c r="P15" s="342"/>
+      <c r="Q15" s="342"/>
+      <c r="R15" s="342"/>
+      <c r="S15" s="342"/>
+      <c r="T15" s="342"/>
+      <c r="U15" s="342"/>
+      <c r="V15" s="342"/>
+      <c r="W15" s="342"/>
+      <c r="X15" s="342"/>
+      <c r="Y15" s="342"/>
+      <c r="Z15" s="342"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1">
+      <c r="A16" s="343" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="343"/>
+      <c r="C16" s="343"/>
+      <c r="D16" s="343"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="344"/>
+      <c r="G16" s="345"/>
+      <c r="H16" s="345"/>
+      <c r="I16" s="345"/>
+      <c r="J16" s="345"/>
+      <c r="K16" s="345"/>
+      <c r="L16" s="345"/>
+      <c r="M16" s="342"/>
+      <c r="N16" s="342"/>
+      <c r="O16" s="342"/>
+      <c r="P16" s="342"/>
+      <c r="Q16" s="342"/>
+      <c r="R16" s="342"/>
+      <c r="S16" s="342"/>
+      <c r="T16" s="342"/>
+      <c r="U16" s="342"/>
+      <c r="V16" s="342"/>
+      <c r="W16" s="342"/>
+      <c r="X16" s="342"/>
+      <c r="Y16" s="342"/>
+      <c r="Z16" s="342"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A17" s="346"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="342"/>
+      <c r="G17" s="342"/>
+      <c r="H17" s="342"/>
+      <c r="I17" s="342"/>
+      <c r="J17" s="342"/>
+      <c r="K17" s="342"/>
+      <c r="L17" s="342"/>
+      <c r="M17" s="342"/>
+      <c r="N17" s="342"/>
+      <c r="O17" s="342"/>
+      <c r="P17" s="342"/>
+      <c r="Q17" s="342"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="342"/>
+      <c r="T17" s="342"/>
+      <c r="U17" s="342"/>
+      <c r="V17" s="342"/>
+      <c r="W17" s="342"/>
+      <c r="X17" s="342"/>
+      <c r="Y17" s="342"/>
+      <c r="Z17" s="342"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A18" s="346"/>
+      <c r="B18" s="346"/>
+      <c r="C18" s="346"/>
+      <c r="D18" s="346"/>
+      <c r="E18" s="347"/>
+      <c r="F18" s="347"/>
+      <c r="G18" s="348"/>
+      <c r="H18" s="348"/>
+      <c r="I18" s="348"/>
+      <c r="J18" s="348"/>
+      <c r="K18" s="348"/>
+      <c r="L18" s="348"/>
+      <c r="M18" s="342"/>
+      <c r="N18" s="342"/>
+      <c r="O18" s="342"/>
+      <c r="P18" s="342"/>
+      <c r="Q18" s="342"/>
+      <c r="R18" s="342"/>
+      <c r="S18" s="342"/>
+      <c r="T18" s="342"/>
+      <c r="U18" s="342"/>
+      <c r="V18" s="342"/>
+      <c r="W18" s="342"/>
+      <c r="X18" s="342"/>
+      <c r="Y18" s="342"/>
+      <c r="Z18" s="342"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A19" s="349" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="350" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="350"/>
+      <c r="D19" s="350"/>
+      <c r="E19" s="351"/>
+      <c r="F19" s="351"/>
+      <c r="G19" s="352"/>
+      <c r="H19" s="352"/>
+      <c r="I19" s="352"/>
+      <c r="J19" s="352"/>
+      <c r="K19" s="352"/>
+      <c r="L19" s="352"/>
+      <c r="M19" s="342"/>
+      <c r="N19" s="342"/>
+      <c r="O19" s="342"/>
+      <c r="P19" s="342"/>
+      <c r="Q19" s="342"/>
+      <c r="R19" s="342"/>
+      <c r="S19" s="342"/>
+      <c r="T19" s="342"/>
+      <c r="U19" s="342"/>
+      <c r="V19" s="342"/>
+      <c r="W19" s="342"/>
+      <c r="X19" s="342"/>
+      <c r="Y19" s="342"/>
+      <c r="Z19" s="342"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A20" s="349" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="350" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="351"/>
+      <c r="F20" s="351"/>
+      <c r="G20" s="352"/>
+      <c r="H20" s="352"/>
+      <c r="I20" s="352"/>
+      <c r="J20" s="352"/>
+      <c r="K20" s="352"/>
+      <c r="L20" s="352"/>
+      <c r="M20" s="342"/>
+      <c r="N20" s="342"/>
+      <c r="O20" s="342"/>
+      <c r="P20" s="342"/>
+      <c r="Q20" s="342"/>
+      <c r="R20" s="342"/>
+      <c r="S20" s="342"/>
+      <c r="T20" s="342"/>
+      <c r="U20" s="342"/>
+      <c r="V20" s="342"/>
+      <c r="W20" s="342"/>
+      <c r="X20" s="342"/>
+      <c r="Y20" s="342"/>
+      <c r="Z20" s="342"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A21" s="349" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="353" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="353"/>
+      <c r="D21" s="353"/>
+      <c r="E21" s="351"/>
+      <c r="F21" s="351"/>
+      <c r="G21" s="352"/>
+      <c r="H21" s="352"/>
+      <c r="I21" s="352"/>
+      <c r="J21" s="352"/>
+      <c r="K21" s="352"/>
+      <c r="L21" s="352"/>
+      <c r="M21" s="342"/>
+      <c r="N21" s="342"/>
+      <c r="O21" s="342"/>
+      <c r="P21" s="342"/>
+      <c r="Q21" s="342"/>
+      <c r="R21" s="342"/>
+      <c r="S21" s="342"/>
+      <c r="T21" s="342"/>
+      <c r="U21" s="342"/>
+      <c r="V21" s="342"/>
+      <c r="W21" s="342"/>
+      <c r="X21" s="342"/>
+      <c r="Y21" s="342"/>
+      <c r="Z21" s="342"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A22" s="349"/>
+      <c r="B22" s="353"/>
+      <c r="C22" s="353"/>
+      <c r="D22" s="353"/>
+      <c r="E22" s="351"/>
+      <c r="F22" s="351"/>
+      <c r="G22" s="352"/>
+      <c r="H22" s="352"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
+      <c r="K22" s="352"/>
+      <c r="L22" s="352"/>
+      <c r="M22" s="342"/>
+      <c r="N22" s="342"/>
+      <c r="O22" s="342"/>
+      <c r="P22" s="342"/>
+      <c r="Q22" s="342"/>
+      <c r="R22" s="342"/>
+      <c r="S22" s="342"/>
+      <c r="T22" s="342"/>
+      <c r="U22" s="342"/>
+      <c r="V22" s="342"/>
+      <c r="W22" s="342"/>
+      <c r="X22" s="342"/>
+      <c r="Y22" s="342"/>
+      <c r="Z22" s="342"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A23" s="349" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="350" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="350"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="342"/>
+      <c r="F23" s="342"/>
+      <c r="G23" s="342"/>
+      <c r="H23" s="342"/>
+      <c r="I23" s="342"/>
+      <c r="J23" s="342"/>
+      <c r="K23" s="342"/>
+      <c r="L23" s="342"/>
+      <c r="M23" s="342"/>
+      <c r="N23" s="342"/>
+      <c r="O23" s="342"/>
+      <c r="P23" s="342"/>
+      <c r="Q23" s="342"/>
+      <c r="R23" s="342"/>
+      <c r="S23" s="342"/>
+      <c r="T23" s="342"/>
+      <c r="U23" s="342"/>
+      <c r="V23" s="342"/>
+      <c r="W23" s="342"/>
+      <c r="X23" s="342"/>
+      <c r="Y23" s="342"/>
+      <c r="Z23" s="342"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A24" s="349"/>
+      <c r="B24" s="353"/>
+      <c r="C24" s="353"/>
+      <c r="D24" s="353"/>
+      <c r="E24" s="342"/>
+      <c r="F24" s="342"/>
+      <c r="G24" s="342"/>
+      <c r="H24" s="342"/>
+      <c r="I24" s="342"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="342"/>
+      <c r="L24" s="342"/>
+      <c r="M24" s="342"/>
+      <c r="N24" s="342"/>
+      <c r="O24" s="342"/>
+      <c r="P24" s="342"/>
+      <c r="Q24" s="342"/>
+      <c r="R24" s="342"/>
+      <c r="S24" s="342"/>
+      <c r="T24" s="342"/>
+      <c r="U24" s="342"/>
+      <c r="V24" s="342"/>
+      <c r="W24" s="342"/>
+      <c r="X24" s="342"/>
+      <c r="Y24" s="342"/>
+      <c r="Z24" s="342"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A25" s="349"/>
+      <c r="B25" s="353"/>
+      <c r="C25" s="353"/>
+      <c r="D25" s="353"/>
+      <c r="E25" s="342"/>
+      <c r="F25" s="342"/>
+      <c r="G25" s="342"/>
+      <c r="H25" s="342"/>
+      <c r="I25" s="342"/>
+      <c r="J25" s="342"/>
+      <c r="K25" s="342"/>
+      <c r="L25" s="342"/>
+      <c r="M25" s="342"/>
+      <c r="N25" s="342"/>
+      <c r="O25" s="342"/>
+      <c r="P25" s="342"/>
+      <c r="Q25" s="342"/>
+      <c r="R25" s="342"/>
+      <c r="S25" s="342"/>
+      <c r="T25" s="342"/>
+      <c r="U25" s="342"/>
+      <c r="V25" s="342"/>
+      <c r="W25" s="342"/>
+      <c r="X25" s="342"/>
+      <c r="Y25" s="342"/>
+      <c r="Z25" s="342"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A26" s="349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="350" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="350"/>
+      <c r="D26" s="350"/>
+      <c r="E26" s="342"/>
+      <c r="F26" s="342"/>
+      <c r="G26" s="342"/>
+      <c r="H26" s="342"/>
+      <c r="I26" s="342"/>
+      <c r="J26" s="342"/>
+      <c r="K26" s="342"/>
+      <c r="L26" s="342"/>
+      <c r="M26" s="342"/>
+      <c r="N26" s="342"/>
+      <c r="O26" s="342"/>
+      <c r="P26" s="342"/>
+      <c r="Q26" s="342"/>
+      <c r="R26" s="342"/>
+      <c r="S26" s="342"/>
+      <c r="T26" s="342"/>
+      <c r="U26" s="342"/>
+      <c r="V26" s="342"/>
+      <c r="W26" s="342"/>
+      <c r="X26" s="342"/>
+      <c r="Y26" s="342"/>
+      <c r="Z26" s="342"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A27" s="349"/>
+      <c r="B27" s="353"/>
+      <c r="C27" s="353"/>
+      <c r="D27" s="353"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="342"/>
+      <c r="G27" s="342"/>
+      <c r="H27" s="342"/>
+      <c r="I27" s="342"/>
+      <c r="J27" s="342"/>
+      <c r="K27" s="342"/>
+      <c r="L27" s="342"/>
+      <c r="M27" s="342"/>
+      <c r="N27" s="342"/>
+      <c r="O27" s="342"/>
+      <c r="P27" s="342"/>
+      <c r="Q27" s="342"/>
+      <c r="R27" s="342"/>
+      <c r="S27" s="342"/>
+      <c r="T27" s="342"/>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="342"/>
+      <c r="Z27" s="342"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A28" s="349"/>
+      <c r="B28" s="353"/>
+      <c r="C28" s="353"/>
+      <c r="D28" s="353"/>
+      <c r="E28" s="342"/>
+      <c r="F28" s="342"/>
+      <c r="G28" s="342"/>
+      <c r="H28" s="342"/>
+      <c r="I28" s="342"/>
+      <c r="J28" s="342"/>
+      <c r="K28" s="342"/>
+      <c r="L28" s="342"/>
+      <c r="M28" s="342"/>
+      <c r="N28" s="342"/>
+      <c r="O28" s="342"/>
+      <c r="P28" s="342"/>
+      <c r="Q28" s="342"/>
+      <c r="R28" s="342"/>
+      <c r="S28" s="342"/>
+      <c r="T28" s="342"/>
+      <c r="U28" s="342"/>
+      <c r="V28" s="342"/>
+      <c r="W28" s="342"/>
+      <c r="X28" s="342"/>
+      <c r="Y28" s="342"/>
+      <c r="Z28" s="342"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A29" s="349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="354">
+        <v>1</v>
+      </c>
+      <c r="C29" s="353"/>
+      <c r="D29" s="353"/>
+      <c r="E29" s="342"/>
+      <c r="F29" s="342"/>
+      <c r="G29" s="342"/>
+      <c r="H29" s="342"/>
+      <c r="I29" s="342"/>
+      <c r="J29" s="342"/>
+      <c r="K29" s="342"/>
+      <c r="L29" s="342"/>
+      <c r="M29" s="342"/>
+      <c r="N29" s="342"/>
+      <c r="O29" s="342"/>
+      <c r="P29" s="342"/>
+      <c r="Q29" s="342"/>
+      <c r="R29" s="342"/>
+      <c r="S29" s="342"/>
+      <c r="T29" s="342"/>
+      <c r="U29" s="342"/>
+      <c r="V29" s="342"/>
+      <c r="W29" s="342"/>
+      <c r="X29" s="342"/>
+      <c r="Y29" s="342"/>
+      <c r="Z29" s="342"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A30" s="349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="350"/>
+      <c r="D30" s="350"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="342"/>
+      <c r="H30" s="342"/>
+      <c r="I30" s="342"/>
+      <c r="J30" s="342"/>
+      <c r="K30" s="342"/>
+      <c r="L30" s="342"/>
+      <c r="M30" s="342"/>
+      <c r="N30" s="342"/>
+      <c r="O30" s="342"/>
+      <c r="P30" s="342"/>
+      <c r="Q30" s="342"/>
+      <c r="R30" s="342"/>
+      <c r="S30" s="342"/>
+      <c r="T30" s="342"/>
+      <c r="U30" s="342"/>
+      <c r="V30" s="342"/>
+      <c r="W30" s="342"/>
+      <c r="X30" s="342"/>
+      <c r="Y30" s="342"/>
+      <c r="Z30" s="342"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A31" s="349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" s="350" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="350"/>
+      <c r="D31" s="350"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="342"/>
+      <c r="H31" s="342"/>
+      <c r="I31" s="342"/>
+      <c r="J31" s="342"/>
+      <c r="K31" s="342"/>
+      <c r="L31" s="342"/>
+      <c r="M31" s="342"/>
+      <c r="N31" s="342"/>
+      <c r="O31" s="342"/>
+      <c r="P31" s="342"/>
+      <c r="Q31" s="342"/>
+      <c r="R31" s="342"/>
+      <c r="S31" s="342"/>
+      <c r="T31" s="342"/>
+      <c r="U31" s="342"/>
+      <c r="V31" s="342"/>
+      <c r="W31" s="342"/>
+      <c r="X31" s="342"/>
+      <c r="Y31" s="342"/>
+      <c r="Z31" s="342"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A32" s="357"/>
+      <c r="B32" s="358" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="357"/>
+      <c r="D32" s="357"/>
+      <c r="E32" s="342"/>
+      <c r="F32" s="342"/>
+      <c r="G32" s="342"/>
+      <c r="H32" s="342"/>
+      <c r="I32" s="342"/>
+      <c r="J32" s="342"/>
+      <c r="K32" s="342"/>
+      <c r="L32" s="342"/>
+      <c r="M32" s="342"/>
+      <c r="N32" s="342"/>
+      <c r="O32" s="342"/>
+      <c r="P32" s="342"/>
+      <c r="Q32" s="342"/>
+      <c r="R32" s="342"/>
+      <c r="S32" s="342"/>
+      <c r="T32" s="342"/>
+      <c r="U32" s="342"/>
+      <c r="V32" s="342"/>
+      <c r="W32" s="342"/>
+      <c r="X32" s="342"/>
+      <c r="Y32" s="342"/>
+      <c r="Z32" s="342"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="341"/>
+      <c r="B33" s="341"/>
+      <c r="C33" s="341"/>
+      <c r="D33" s="341"/>
+      <c r="E33" s="342"/>
+      <c r="F33" s="342"/>
+      <c r="G33" s="342"/>
+      <c r="H33" s="342"/>
+      <c r="I33" s="342"/>
+      <c r="J33" s="342"/>
+      <c r="K33" s="342"/>
+      <c r="L33" s="342"/>
+      <c r="M33" s="342"/>
+      <c r="N33" s="342"/>
+      <c r="O33" s="342"/>
+      <c r="P33" s="342"/>
+      <c r="Q33" s="342"/>
+      <c r="R33" s="342"/>
+      <c r="S33" s="342"/>
+      <c r="T33" s="342"/>
+      <c r="U33" s="342"/>
+      <c r="V33" s="342"/>
+      <c r="W33" s="342"/>
+      <c r="X33" s="342"/>
+      <c r="Y33" s="342"/>
+      <c r="Z33" s="342"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="341"/>
+      <c r="B34" s="341"/>
+      <c r="C34" s="341"/>
+      <c r="D34" s="341"/>
+      <c r="E34" s="342"/>
+      <c r="F34" s="342"/>
+      <c r="G34" s="342"/>
+      <c r="H34" s="342"/>
+      <c r="I34" s="342"/>
+      <c r="J34" s="342"/>
+      <c r="K34" s="342"/>
+      <c r="L34" s="342"/>
+      <c r="M34" s="342"/>
+      <c r="N34" s="342"/>
+      <c r="O34" s="342"/>
+      <c r="P34" s="342"/>
+      <c r="Q34" s="342"/>
+      <c r="R34" s="342"/>
+      <c r="S34" s="342"/>
+      <c r="T34" s="342"/>
+      <c r="U34" s="342"/>
+      <c r="V34" s="342"/>
+      <c r="W34" s="342"/>
+      <c r="X34" s="342"/>
+      <c r="Y34" s="342"/>
+      <c r="Z34" s="342"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="341"/>
+      <c r="B35" s="341"/>
+      <c r="C35" s="341"/>
+      <c r="D35" s="341"/>
+      <c r="E35" s="342"/>
+      <c r="F35" s="342"/>
+      <c r="G35" s="342"/>
+      <c r="H35" s="342"/>
+      <c r="I35" s="342"/>
+      <c r="J35" s="342"/>
+      <c r="K35" s="342"/>
+      <c r="L35" s="342"/>
+      <c r="M35" s="342"/>
+      <c r="N35" s="342"/>
+      <c r="O35" s="342"/>
+      <c r="P35" s="342"/>
+      <c r="Q35" s="342"/>
+      <c r="R35" s="342"/>
+      <c r="S35" s="342"/>
+      <c r="T35" s="342"/>
+      <c r="U35" s="342"/>
+      <c r="V35" s="342"/>
+      <c r="W35" s="342"/>
+      <c r="X35" s="342"/>
+      <c r="Y35" s="342"/>
+      <c r="Z35" s="342"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="341"/>
+      <c r="B36" s="341"/>
+      <c r="C36" s="341"/>
+      <c r="D36" s="341"/>
+      <c r="E36" s="342"/>
+      <c r="F36" s="342"/>
+      <c r="G36" s="342"/>
+      <c r="H36" s="342"/>
+      <c r="I36" s="342"/>
+      <c r="J36" s="342"/>
+      <c r="K36" s="342"/>
+      <c r="L36" s="342"/>
+      <c r="M36" s="342"/>
+      <c r="N36" s="342"/>
+      <c r="O36" s="342"/>
+      <c r="P36" s="342"/>
+      <c r="Q36" s="342"/>
+      <c r="R36" s="342"/>
+      <c r="S36" s="342"/>
+      <c r="T36" s="342"/>
+      <c r="U36" s="342"/>
+      <c r="V36" s="342"/>
+      <c r="W36" s="342"/>
+      <c r="X36" s="342"/>
+      <c r="Y36" s="342"/>
+      <c r="Z36" s="342"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="341"/>
+      <c r="B37" s="341"/>
+      <c r="C37" s="341"/>
+      <c r="D37" s="341"/>
+      <c r="E37" s="342"/>
+      <c r="F37" s="342"/>
+      <c r="G37" s="342"/>
+      <c r="H37" s="342"/>
+      <c r="I37" s="342"/>
+      <c r="J37" s="342"/>
+      <c r="K37" s="342"/>
+      <c r="L37" s="342"/>
+      <c r="M37" s="342"/>
+      <c r="N37" s="342"/>
+      <c r="O37" s="342"/>
+      <c r="P37" s="342"/>
+      <c r="Q37" s="342"/>
+      <c r="R37" s="342"/>
+      <c r="S37" s="342"/>
+      <c r="T37" s="342"/>
+      <c r="U37" s="342"/>
+      <c r="V37" s="342"/>
+      <c r="W37" s="342"/>
+      <c r="X37" s="342"/>
+      <c r="Y37" s="342"/>
+      <c r="Z37" s="342"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="341"/>
+      <c r="B38" s="341"/>
+      <c r="C38" s="341"/>
+      <c r="D38" s="341"/>
+      <c r="E38" s="342"/>
+      <c r="F38" s="342"/>
+      <c r="G38" s="342"/>
+      <c r="H38" s="342"/>
+      <c r="I38" s="342"/>
+      <c r="J38" s="342"/>
+      <c r="K38" s="342"/>
+      <c r="L38" s="342"/>
+      <c r="M38" s="342"/>
+      <c r="N38" s="342"/>
+      <c r="O38" s="342"/>
+      <c r="P38" s="342"/>
+      <c r="Q38" s="342"/>
+      <c r="R38" s="342"/>
+      <c r="S38" s="342"/>
+      <c r="T38" s="342"/>
+      <c r="U38" s="342"/>
+      <c r="V38" s="342"/>
+      <c r="W38" s="342"/>
+      <c r="X38" s="342"/>
+      <c r="Y38" s="342"/>
+      <c r="Z38" s="342"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="341"/>
+      <c r="B39" s="341"/>
+      <c r="C39" s="341"/>
+      <c r="D39" s="341"/>
+      <c r="E39" s="342"/>
+      <c r="F39" s="342"/>
+      <c r="G39" s="342"/>
+      <c r="H39" s="342"/>
+      <c r="I39" s="342"/>
+      <c r="J39" s="342"/>
+      <c r="K39" s="342"/>
+      <c r="L39" s="342"/>
+      <c r="M39" s="342"/>
+      <c r="N39" s="342"/>
+      <c r="O39" s="342"/>
+      <c r="P39" s="342"/>
+      <c r="Q39" s="342"/>
+      <c r="R39" s="342"/>
+      <c r="S39" s="342"/>
+      <c r="T39" s="342"/>
+      <c r="U39" s="342"/>
+      <c r="V39" s="342"/>
+      <c r="W39" s="342"/>
+      <c r="X39" s="342"/>
+      <c r="Y39" s="342"/>
+      <c r="Z39" s="342"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="341"/>
+      <c r="B40" s="341"/>
+      <c r="C40" s="341"/>
+      <c r="D40" s="341"/>
+      <c r="E40" s="342"/>
+      <c r="F40" s="342"/>
+      <c r="G40" s="342"/>
+      <c r="H40" s="342"/>
+      <c r="I40" s="342"/>
+      <c r="J40" s="342"/>
+      <c r="K40" s="342"/>
+      <c r="L40" s="342"/>
+      <c r="M40" s="342"/>
+      <c r="N40" s="342"/>
+      <c r="O40" s="342"/>
+      <c r="P40" s="342"/>
+      <c r="Q40" s="342"/>
+      <c r="R40" s="342"/>
+      <c r="S40" s="342"/>
+      <c r="T40" s="342"/>
+      <c r="U40" s="342"/>
+      <c r="V40" s="342"/>
+      <c r="W40" s="342"/>
+      <c r="X40" s="342"/>
+      <c r="Y40" s="342"/>
+      <c r="Z40" s="342"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="341"/>
+      <c r="B41" s="341"/>
+      <c r="C41" s="341"/>
+      <c r="D41" s="341"/>
+      <c r="E41" s="342"/>
+      <c r="F41" s="342"/>
+      <c r="G41" s="342"/>
+      <c r="H41" s="342"/>
+      <c r="I41" s="342"/>
+      <c r="J41" s="342"/>
+      <c r="K41" s="342"/>
+      <c r="L41" s="342"/>
+      <c r="M41" s="342"/>
+      <c r="N41" s="342"/>
+      <c r="O41" s="342"/>
+      <c r="P41" s="342"/>
+      <c r="Q41" s="342"/>
+      <c r="R41" s="342"/>
+      <c r="S41" s="342"/>
+      <c r="T41" s="342"/>
+      <c r="U41" s="342"/>
+      <c r="V41" s="342"/>
+      <c r="W41" s="342"/>
+      <c r="X41" s="342"/>
+      <c r="Y41" s="342"/>
+      <c r="Z41" s="342"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="341"/>
+      <c r="B42" s="341"/>
+      <c r="C42" s="341"/>
+      <c r="D42" s="341"/>
+      <c r="E42" s="342"/>
+      <c r="F42" s="342"/>
+      <c r="G42" s="342"/>
+      <c r="H42" s="342"/>
+      <c r="I42" s="342"/>
+      <c r="J42" s="342"/>
+      <c r="K42" s="342"/>
+      <c r="L42" s="342"/>
+      <c r="M42" s="342"/>
+      <c r="N42" s="342"/>
+      <c r="O42" s="342"/>
+      <c r="P42" s="342"/>
+      <c r="Q42" s="342"/>
+      <c r="R42" s="342"/>
+      <c r="S42" s="342"/>
+      <c r="T42" s="342"/>
+      <c r="U42" s="342"/>
+      <c r="V42" s="342"/>
+      <c r="W42" s="342"/>
+      <c r="X42" s="342"/>
+      <c r="Y42" s="342"/>
+      <c r="Z42" s="342"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="342"/>
+      <c r="B43" s="342"/>
+      <c r="C43" s="342"/>
+      <c r="D43" s="342"/>
+      <c r="E43" s="342"/>
+      <c r="F43" s="342"/>
+      <c r="G43" s="342"/>
+      <c r="H43" s="342"/>
+      <c r="I43" s="342"/>
+      <c r="J43" s="342"/>
+      <c r="K43" s="342"/>
+      <c r="L43" s="342"/>
+      <c r="M43" s="342"/>
+      <c r="N43" s="342"/>
+      <c r="O43" s="342"/>
+      <c r="P43" s="342"/>
+      <c r="Q43" s="342"/>
+      <c r="R43" s="342"/>
+      <c r="S43" s="342"/>
+      <c r="T43" s="342"/>
+      <c r="U43" s="342"/>
+      <c r="V43" s="342"/>
+      <c r="W43" s="342"/>
+      <c r="X43" s="342"/>
+      <c r="Y43" s="342"/>
+      <c r="Z43" s="342"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="342"/>
+      <c r="B44" s="342"/>
+      <c r="C44" s="342"/>
+      <c r="D44" s="342"/>
+      <c r="E44" s="342"/>
+      <c r="F44" s="342"/>
+      <c r="G44" s="342"/>
+      <c r="H44" s="342"/>
+      <c r="I44" s="342"/>
+      <c r="J44" s="342"/>
+      <c r="K44" s="342"/>
+      <c r="L44" s="342"/>
+      <c r="M44" s="342"/>
+      <c r="N44" s="342"/>
+      <c r="O44" s="342"/>
+      <c r="P44" s="342"/>
+      <c r="Q44" s="342"/>
+      <c r="R44" s="342"/>
+      <c r="S44" s="342"/>
+      <c r="T44" s="342"/>
+      <c r="U44" s="342"/>
+      <c r="V44" s="342"/>
+      <c r="W44" s="342"/>
+      <c r="X44" s="342"/>
+      <c r="Y44" s="342"/>
+      <c r="Z44" s="342"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="342"/>
+      <c r="B45" s="342"/>
+      <c r="C45" s="342"/>
+      <c r="D45" s="342"/>
+      <c r="E45" s="342"/>
+      <c r="F45" s="342"/>
+      <c r="G45" s="342"/>
+      <c r="H45" s="342"/>
+      <c r="I45" s="342"/>
+      <c r="J45" s="342"/>
+      <c r="K45" s="342"/>
+      <c r="L45" s="342"/>
+      <c r="M45" s="342"/>
+      <c r="N45" s="342"/>
+      <c r="O45" s="342"/>
+      <c r="P45" s="342"/>
+      <c r="Q45" s="342"/>
+      <c r="R45" s="342"/>
+      <c r="S45" s="342"/>
+      <c r="T45" s="342"/>
+      <c r="U45" s="342"/>
+      <c r="V45" s="342"/>
+      <c r="W45" s="342"/>
+      <c r="X45" s="342"/>
+      <c r="Y45" s="342"/>
+      <c r="Z45" s="342"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="342"/>
+      <c r="B46" s="342"/>
+      <c r="C46" s="342"/>
+      <c r="D46" s="342"/>
+      <c r="E46" s="342"/>
+      <c r="F46" s="342"/>
+      <c r="G46" s="342"/>
+      <c r="H46" s="342"/>
+      <c r="I46" s="342"/>
+      <c r="J46" s="342"/>
+      <c r="K46" s="342"/>
+      <c r="L46" s="342"/>
+      <c r="M46" s="342"/>
+      <c r="N46" s="342"/>
+      <c r="O46" s="342"/>
+      <c r="P46" s="342"/>
+      <c r="Q46" s="342"/>
+      <c r="R46" s="342"/>
+      <c r="S46" s="342"/>
+      <c r="T46" s="342"/>
+      <c r="U46" s="342"/>
+      <c r="V46" s="342"/>
+      <c r="W46" s="342"/>
+      <c r="X46" s="342"/>
+      <c r="Y46" s="342"/>
+      <c r="Z46" s="342"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="342"/>
+      <c r="B47" s="342"/>
+      <c r="C47" s="342"/>
+      <c r="D47" s="342"/>
+      <c r="E47" s="342"/>
+      <c r="F47" s="342"/>
+      <c r="G47" s="342"/>
+      <c r="H47" s="342"/>
+      <c r="I47" s="342"/>
+      <c r="J47" s="342"/>
+      <c r="K47" s="342"/>
+      <c r="L47" s="342"/>
+      <c r="M47" s="342"/>
+      <c r="N47" s="342"/>
+      <c r="O47" s="342"/>
+      <c r="P47" s="342"/>
+      <c r="Q47" s="342"/>
+      <c r="R47" s="342"/>
+      <c r="S47" s="342"/>
+      <c r="T47" s="342"/>
+      <c r="U47" s="342"/>
+      <c r="V47" s="342"/>
+      <c r="W47" s="342"/>
+      <c r="X47" s="342"/>
+      <c r="Y47" s="342"/>
+      <c r="Z47" s="342"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="342"/>
+      <c r="B48" s="342"/>
+      <c r="C48" s="342"/>
+      <c r="D48" s="342"/>
+      <c r="E48" s="342"/>
+      <c r="F48" s="342"/>
+      <c r="G48" s="342"/>
+      <c r="H48" s="342"/>
+      <c r="I48" s="342"/>
+      <c r="J48" s="342"/>
+      <c r="K48" s="342"/>
+      <c r="L48" s="342"/>
+      <c r="M48" s="342"/>
+      <c r="N48" s="342"/>
+      <c r="O48" s="342"/>
+      <c r="P48" s="342"/>
+      <c r="Q48" s="342"/>
+      <c r="R48" s="342"/>
+      <c r="S48" s="342"/>
+      <c r="T48" s="342"/>
+      <c r="U48" s="342"/>
+      <c r="V48" s="342"/>
+      <c r="W48" s="342"/>
+      <c r="X48" s="342"/>
+      <c r="Y48" s="342"/>
+      <c r="Z48" s="342"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="342"/>
+      <c r="B49" s="342"/>
+      <c r="C49" s="342"/>
+      <c r="D49" s="342"/>
+      <c r="E49" s="342"/>
+      <c r="F49" s="342"/>
+      <c r="G49" s="342"/>
+      <c r="H49" s="342"/>
+      <c r="I49" s="342"/>
+      <c r="J49" s="342"/>
+      <c r="K49" s="342"/>
+      <c r="L49" s="342"/>
+      <c r="M49" s="342"/>
+      <c r="N49" s="342"/>
+      <c r="O49" s="342"/>
+      <c r="P49" s="342"/>
+      <c r="Q49" s="342"/>
+      <c r="R49" s="342"/>
+      <c r="S49" s="342"/>
+      <c r="T49" s="342"/>
+      <c r="U49" s="342"/>
+      <c r="V49" s="342"/>
+      <c r="W49" s="342"/>
+      <c r="X49" s="342"/>
+      <c r="Y49" s="342"/>
+      <c r="Z49" s="342"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="342"/>
+      <c r="B50" s="342"/>
+      <c r="C50" s="342"/>
+      <c r="D50" s="342"/>
+      <c r="E50" s="342"/>
+      <c r="F50" s="342"/>
+      <c r="G50" s="342"/>
+      <c r="H50" s="342"/>
+      <c r="I50" s="342"/>
+      <c r="J50" s="342"/>
+      <c r="K50" s="342"/>
+      <c r="L50" s="342"/>
+      <c r="M50" s="342"/>
+      <c r="N50" s="342"/>
+      <c r="O50" s="342"/>
+      <c r="P50" s="342"/>
+      <c r="Q50" s="342"/>
+      <c r="R50" s="342"/>
+      <c r="S50" s="342"/>
+      <c r="T50" s="342"/>
+      <c r="U50" s="342"/>
+      <c r="V50" s="342"/>
+      <c r="W50" s="342"/>
+      <c r="X50" s="342"/>
+      <c r="Y50" s="342"/>
+      <c r="Z50" s="342"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="342"/>
+      <c r="B51" s="342"/>
+      <c r="C51" s="342"/>
+      <c r="D51" s="342"/>
+      <c r="E51" s="342"/>
+      <c r="F51" s="342"/>
+      <c r="G51" s="342"/>
+      <c r="H51" s="342"/>
+      <c r="I51" s="342"/>
+      <c r="J51" s="342"/>
+      <c r="K51" s="342"/>
+      <c r="L51" s="342"/>
+      <c r="M51" s="342"/>
+      <c r="N51" s="342"/>
+      <c r="O51" s="342"/>
+      <c r="P51" s="342"/>
+      <c r="Q51" s="342"/>
+      <c r="R51" s="342"/>
+      <c r="S51" s="342"/>
+      <c r="T51" s="342"/>
+      <c r="U51" s="342"/>
+      <c r="V51" s="342"/>
+      <c r="W51" s="342"/>
+      <c r="X51" s="342"/>
+      <c r="Y51" s="342"/>
+      <c r="Z51" s="342"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="342"/>
+      <c r="B52" s="342"/>
+      <c r="C52" s="342"/>
+      <c r="D52" s="342"/>
+      <c r="E52" s="342"/>
+      <c r="F52" s="342"/>
+      <c r="G52" s="342"/>
+      <c r="H52" s="342"/>
+      <c r="I52" s="342"/>
+      <c r="J52" s="342"/>
+      <c r="K52" s="342"/>
+      <c r="L52" s="342"/>
+      <c r="M52" s="342"/>
+      <c r="N52" s="342"/>
+      <c r="O52" s="342"/>
+      <c r="P52" s="342"/>
+      <c r="Q52" s="342"/>
+      <c r="R52" s="342"/>
+      <c r="S52" s="342"/>
+      <c r="T52" s="342"/>
+      <c r="U52" s="342"/>
+      <c r="V52" s="342"/>
+      <c r="W52" s="342"/>
+      <c r="X52" s="342"/>
+      <c r="Y52" s="342"/>
+      <c r="Z52" s="342"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="342"/>
+      <c r="B53" s="342"/>
+      <c r="C53" s="342"/>
+      <c r="D53" s="342"/>
+      <c r="E53" s="342"/>
+      <c r="F53" s="342"/>
+      <c r="G53" s="342"/>
+      <c r="H53" s="342"/>
+      <c r="I53" s="342"/>
+      <c r="J53" s="342"/>
+      <c r="K53" s="342"/>
+      <c r="L53" s="342"/>
+      <c r="M53" s="342"/>
+      <c r="N53" s="342"/>
+      <c r="O53" s="342"/>
+      <c r="P53" s="342"/>
+      <c r="Q53" s="342"/>
+      <c r="R53" s="342"/>
+      <c r="S53" s="342"/>
+      <c r="T53" s="342"/>
+      <c r="U53" s="342"/>
+      <c r="V53" s="342"/>
+      <c r="W53" s="342"/>
+      <c r="X53" s="342"/>
+      <c r="Y53" s="342"/>
+      <c r="Z53" s="342"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="342"/>
+      <c r="B54" s="342"/>
+      <c r="C54" s="342"/>
+      <c r="D54" s="342"/>
+      <c r="E54" s="342"/>
+      <c r="F54" s="342"/>
+      <c r="G54" s="342"/>
+      <c r="H54" s="342"/>
+      <c r="I54" s="342"/>
+      <c r="J54" s="342"/>
+      <c r="K54" s="342"/>
+      <c r="L54" s="342"/>
+      <c r="M54" s="342"/>
+      <c r="N54" s="342"/>
+      <c r="O54" s="342"/>
+      <c r="P54" s="342"/>
+      <c r="Q54" s="342"/>
+      <c r="R54" s="342"/>
+      <c r="S54" s="342"/>
+      <c r="T54" s="342"/>
+      <c r="U54" s="342"/>
+      <c r="V54" s="342"/>
+      <c r="W54" s="342"/>
+      <c r="X54" s="342"/>
+      <c r="Y54" s="342"/>
+      <c r="Z54" s="342"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="342"/>
+      <c r="B55" s="342"/>
+      <c r="C55" s="342"/>
+      <c r="D55" s="342"/>
+      <c r="E55" s="342"/>
+      <c r="F55" s="342"/>
+      <c r="G55" s="342"/>
+      <c r="H55" s="342"/>
+      <c r="I55" s="342"/>
+      <c r="J55" s="342"/>
+      <c r="K55" s="342"/>
+      <c r="L55" s="342"/>
+      <c r="M55" s="342"/>
+      <c r="N55" s="342"/>
+      <c r="O55" s="342"/>
+      <c r="P55" s="342"/>
+      <c r="Q55" s="342"/>
+      <c r="R55" s="342"/>
+      <c r="S55" s="342"/>
+      <c r="T55" s="342"/>
+      <c r="U55" s="342"/>
+      <c r="V55" s="342"/>
+      <c r="W55" s="342"/>
+      <c r="X55" s="342"/>
+      <c r="Y55" s="342"/>
+      <c r="Z55" s="342"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="342"/>
+      <c r="B56" s="342"/>
+      <c r="C56" s="342"/>
+      <c r="D56" s="342"/>
+      <c r="E56" s="342"/>
+      <c r="F56" s="342"/>
+      <c r="G56" s="342"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="342"/>
+      <c r="J56" s="342"/>
+      <c r="K56" s="342"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="342"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="342"/>
+      <c r="P56" s="342"/>
+      <c r="Q56" s="342"/>
+      <c r="R56" s="342"/>
+      <c r="S56" s="342"/>
+      <c r="T56" s="342"/>
+      <c r="U56" s="342"/>
+      <c r="V56" s="342"/>
+      <c r="W56" s="342"/>
+      <c r="X56" s="342"/>
+      <c r="Y56" s="342"/>
+      <c r="Z56" s="342"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="342"/>
+      <c r="B57" s="342"/>
+      <c r="C57" s="342"/>
+      <c r="D57" s="342"/>
+      <c r="E57" s="342"/>
+      <c r="F57" s="342"/>
+      <c r="G57" s="342"/>
+      <c r="H57" s="342"/>
+      <c r="I57" s="342"/>
+      <c r="J57" s="342"/>
+      <c r="K57" s="342"/>
+      <c r="L57" s="342"/>
+      <c r="M57" s="342"/>
+      <c r="N57" s="342"/>
+      <c r="O57" s="342"/>
+      <c r="P57" s="342"/>
+      <c r="Q57" s="342"/>
+      <c r="R57" s="342"/>
+      <c r="S57" s="342"/>
+      <c r="T57" s="342"/>
+      <c r="U57" s="342"/>
+      <c r="V57" s="342"/>
+      <c r="W57" s="342"/>
+      <c r="X57" s="342"/>
+      <c r="Y57" s="342"/>
+      <c r="Z57" s="342"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="342"/>
+      <c r="B58" s="342"/>
+      <c r="C58" s="342"/>
+      <c r="D58" s="342"/>
+      <c r="E58" s="342"/>
+      <c r="F58" s="342"/>
+      <c r="G58" s="342"/>
+      <c r="H58" s="342"/>
+      <c r="I58" s="342"/>
+      <c r="J58" s="342"/>
+      <c r="K58" s="342"/>
+      <c r="L58" s="342"/>
+      <c r="M58" s="342"/>
+      <c r="N58" s="342"/>
+      <c r="O58" s="342"/>
+      <c r="P58" s="342"/>
+      <c r="Q58" s="342"/>
+      <c r="R58" s="342"/>
+      <c r="S58" s="342"/>
+      <c r="T58" s="342"/>
+      <c r="U58" s="342"/>
+      <c r="V58" s="342"/>
+      <c r="W58" s="342"/>
+      <c r="X58" s="342"/>
+      <c r="Y58" s="342"/>
+      <c r="Z58" s="342"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="342"/>
+      <c r="B59" s="342"/>
+      <c r="C59" s="342"/>
+      <c r="D59" s="342"/>
+      <c r="E59" s="342"/>
+      <c r="F59" s="342"/>
+      <c r="G59" s="342"/>
+      <c r="H59" s="342"/>
+      <c r="I59" s="342"/>
+      <c r="J59" s="342"/>
+      <c r="K59" s="342"/>
+      <c r="L59" s="342"/>
+      <c r="M59" s="342"/>
+      <c r="N59" s="342"/>
+      <c r="O59" s="342"/>
+      <c r="P59" s="342"/>
+      <c r="Q59" s="342"/>
+      <c r="R59" s="342"/>
+      <c r="S59" s="342"/>
+      <c r="T59" s="342"/>
+      <c r="U59" s="342"/>
+      <c r="V59" s="342"/>
+      <c r="W59" s="342"/>
+      <c r="X59" s="342"/>
+      <c r="Y59" s="342"/>
+      <c r="Z59" s="342"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="342"/>
+      <c r="B60" s="342"/>
+      <c r="C60" s="342"/>
+      <c r="D60" s="342"/>
+      <c r="E60" s="342"/>
+      <c r="F60" s="342"/>
+      <c r="G60" s="342"/>
+      <c r="H60" s="342"/>
+      <c r="I60" s="342"/>
+      <c r="J60" s="342"/>
+      <c r="K60" s="342"/>
+      <c r="L60" s="342"/>
+      <c r="M60" s="342"/>
+      <c r="N60" s="342"/>
+      <c r="O60" s="342"/>
+      <c r="P60" s="342"/>
+      <c r="Q60" s="342"/>
+      <c r="R60" s="342"/>
+      <c r="S60" s="342"/>
+      <c r="T60" s="342"/>
+      <c r="U60" s="342"/>
+      <c r="V60" s="342"/>
+      <c r="W60" s="342"/>
+      <c r="X60" s="342"/>
+      <c r="Y60" s="342"/>
+      <c r="Z60" s="342"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="342"/>
+      <c r="B61" s="342"/>
+      <c r="C61" s="342"/>
+      <c r="D61" s="342"/>
+      <c r="E61" s="342"/>
+      <c r="F61" s="342"/>
+      <c r="G61" s="342"/>
+      <c r="H61" s="342"/>
+      <c r="I61" s="342"/>
+      <c r="J61" s="342"/>
+      <c r="K61" s="342"/>
+      <c r="L61" s="342"/>
+      <c r="M61" s="342"/>
+      <c r="N61" s="342"/>
+      <c r="O61" s="342"/>
+      <c r="P61" s="342"/>
+      <c r="Q61" s="342"/>
+      <c r="R61" s="342"/>
+      <c r="S61" s="342"/>
+      <c r="T61" s="342"/>
+      <c r="U61" s="342"/>
+      <c r="V61" s="342"/>
+      <c r="W61" s="342"/>
+      <c r="X61" s="342"/>
+      <c r="Y61" s="342"/>
+      <c r="Z61" s="342"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="342"/>
+      <c r="B62" s="342"/>
+      <c r="C62" s="342"/>
+      <c r="D62" s="342"/>
+      <c r="E62" s="342"/>
+      <c r="F62" s="342"/>
+      <c r="G62" s="342"/>
+      <c r="H62" s="342"/>
+      <c r="I62" s="342"/>
+      <c r="J62" s="342"/>
+      <c r="K62" s="342"/>
+      <c r="L62" s="342"/>
+      <c r="M62" s="342"/>
+      <c r="N62" s="342"/>
+      <c r="O62" s="342"/>
+      <c r="P62" s="342"/>
+      <c r="Q62" s="342"/>
+      <c r="R62" s="342"/>
+      <c r="S62" s="342"/>
+      <c r="T62" s="342"/>
+      <c r="U62" s="342"/>
+      <c r="V62" s="342"/>
+      <c r="W62" s="342"/>
+      <c r="X62" s="342"/>
+      <c r="Y62" s="342"/>
+      <c r="Z62" s="342"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="342"/>
+      <c r="B63" s="342"/>
+      <c r="C63" s="342"/>
+      <c r="D63" s="342"/>
+      <c r="E63" s="342"/>
+      <c r="F63" s="342"/>
+      <c r="G63" s="342"/>
+      <c r="H63" s="342"/>
+      <c r="I63" s="342"/>
+      <c r="J63" s="342"/>
+      <c r="K63" s="342"/>
+      <c r="L63" s="342"/>
+      <c r="M63" s="342"/>
+      <c r="N63" s="342"/>
+      <c r="O63" s="342"/>
+      <c r="P63" s="342"/>
+      <c r="Q63" s="342"/>
+      <c r="R63" s="342"/>
+      <c r="S63" s="342"/>
+      <c r="T63" s="342"/>
+      <c r="U63" s="342"/>
+      <c r="V63" s="342"/>
+      <c r="W63" s="342"/>
+      <c r="X63" s="342"/>
+      <c r="Y63" s="342"/>
+      <c r="Z63" s="342"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="342"/>
+      <c r="B64" s="342"/>
+      <c r="C64" s="342"/>
+      <c r="D64" s="342"/>
+      <c r="E64" s="342"/>
+      <c r="F64" s="342"/>
+      <c r="G64" s="342"/>
+      <c r="H64" s="342"/>
+      <c r="I64" s="342"/>
+      <c r="J64" s="342"/>
+      <c r="K64" s="342"/>
+      <c r="L64" s="342"/>
+      <c r="M64" s="342"/>
+      <c r="N64" s="342"/>
+      <c r="O64" s="342"/>
+      <c r="P64" s="342"/>
+      <c r="Q64" s="342"/>
+      <c r="R64" s="342"/>
+      <c r="S64" s="342"/>
+      <c r="T64" s="342"/>
+      <c r="U64" s="342"/>
+      <c r="V64" s="342"/>
+      <c r="W64" s="342"/>
+      <c r="X64" s="342"/>
+      <c r="Y64" s="342"/>
+      <c r="Z64" s="342"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="342"/>
+      <c r="B65" s="342"/>
+      <c r="C65" s="342"/>
+      <c r="D65" s="342"/>
+      <c r="E65" s="342"/>
+      <c r="F65" s="342"/>
+      <c r="G65" s="342"/>
+      <c r="H65" s="342"/>
+      <c r="I65" s="342"/>
+      <c r="J65" s="342"/>
+      <c r="K65" s="342"/>
+      <c r="L65" s="342"/>
+      <c r="M65" s="342"/>
+      <c r="N65" s="342"/>
+      <c r="O65" s="342"/>
+      <c r="P65" s="342"/>
+      <c r="Q65" s="342"/>
+      <c r="R65" s="342"/>
+      <c r="S65" s="342"/>
+      <c r="T65" s="342"/>
+      <c r="U65" s="342"/>
+      <c r="V65" s="342"/>
+      <c r="W65" s="342"/>
+      <c r="X65" s="342"/>
+      <c r="Y65" s="342"/>
+      <c r="Z65" s="342"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="342"/>
+      <c r="B66" s="342"/>
+      <c r="C66" s="342"/>
+      <c r="D66" s="342"/>
+      <c r="E66" s="342"/>
+      <c r="F66" s="342"/>
+      <c r="G66" s="342"/>
+      <c r="H66" s="342"/>
+      <c r="I66" s="342"/>
+      <c r="J66" s="342"/>
+      <c r="K66" s="342"/>
+      <c r="L66" s="342"/>
+      <c r="M66" s="342"/>
+      <c r="N66" s="342"/>
+      <c r="O66" s="342"/>
+      <c r="P66" s="342"/>
+      <c r="Q66" s="342"/>
+      <c r="R66" s="342"/>
+      <c r="S66" s="342"/>
+      <c r="T66" s="342"/>
+      <c r="U66" s="342"/>
+      <c r="V66" s="342"/>
+      <c r="W66" s="342"/>
+      <c r="X66" s="342"/>
+      <c r="Y66" s="342"/>
+      <c r="Z66" s="342"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="342"/>
+      <c r="B67" s="342"/>
+      <c r="C67" s="342"/>
+      <c r="D67" s="342"/>
+      <c r="E67" s="342"/>
+      <c r="F67" s="342"/>
+      <c r="G67" s="342"/>
+      <c r="H67" s="342"/>
+      <c r="I67" s="342"/>
+      <c r="J67" s="342"/>
+      <c r="K67" s="342"/>
+      <c r="L67" s="342"/>
+      <c r="M67" s="342"/>
+      <c r="N67" s="342"/>
+      <c r="O67" s="342"/>
+      <c r="P67" s="342"/>
+      <c r="Q67" s="342"/>
+      <c r="R67" s="342"/>
+      <c r="S67" s="342"/>
+      <c r="T67" s="342"/>
+      <c r="U67" s="342"/>
+      <c r="V67" s="342"/>
+      <c r="W67" s="342"/>
+      <c r="X67" s="342"/>
+      <c r="Y67" s="342"/>
+      <c r="Z67" s="342"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="342"/>
+      <c r="B68" s="342"/>
+      <c r="C68" s="342"/>
+      <c r="D68" s="342"/>
+      <c r="E68" s="342"/>
+      <c r="F68" s="342"/>
+      <c r="G68" s="342"/>
+      <c r="H68" s="342"/>
+      <c r="I68" s="342"/>
+      <c r="J68" s="342"/>
+      <c r="K68" s="342"/>
+      <c r="L68" s="342"/>
+      <c r="M68" s="342"/>
+      <c r="N68" s="342"/>
+      <c r="O68" s="342"/>
+      <c r="P68" s="342"/>
+      <c r="Q68" s="342"/>
+      <c r="R68" s="342"/>
+      <c r="S68" s="342"/>
+      <c r="T68" s="342"/>
+      <c r="U68" s="342"/>
+      <c r="V68" s="342"/>
+      <c r="W68" s="342"/>
+      <c r="X68" s="342"/>
+      <c r="Y68" s="342"/>
+      <c r="Z68" s="342"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="342"/>
+      <c r="B69" s="342"/>
+      <c r="C69" s="342"/>
+      <c r="D69" s="342"/>
+      <c r="E69" s="342"/>
+      <c r="F69" s="342"/>
+      <c r="G69" s="342"/>
+      <c r="H69" s="342"/>
+      <c r="I69" s="342"/>
+      <c r="J69" s="342"/>
+      <c r="K69" s="342"/>
+      <c r="L69" s="342"/>
+      <c r="M69" s="342"/>
+      <c r="N69" s="342"/>
+      <c r="O69" s="342"/>
+      <c r="P69" s="342"/>
+      <c r="Q69" s="342"/>
+      <c r="R69" s="342"/>
+      <c r="S69" s="342"/>
+      <c r="T69" s="342"/>
+      <c r="U69" s="342"/>
+      <c r="V69" s="342"/>
+      <c r="W69" s="342"/>
+      <c r="X69" s="342"/>
+      <c r="Y69" s="342"/>
+      <c r="Z69" s="342"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="342"/>
+      <c r="B70" s="342"/>
+      <c r="C70" s="342"/>
+      <c r="D70" s="342"/>
+      <c r="E70" s="342"/>
+      <c r="F70" s="342"/>
+      <c r="G70" s="342"/>
+      <c r="H70" s="342"/>
+      <c r="I70" s="342"/>
+      <c r="J70" s="342"/>
+      <c r="K70" s="342"/>
+      <c r="L70" s="342"/>
+      <c r="M70" s="342"/>
+      <c r="N70" s="342"/>
+      <c r="O70" s="342"/>
+      <c r="P70" s="342"/>
+      <c r="Q70" s="342"/>
+      <c r="R70" s="342"/>
+      <c r="S70" s="342"/>
+      <c r="T70" s="342"/>
+      <c r="U70" s="342"/>
+      <c r="V70" s="342"/>
+      <c r="W70" s="342"/>
+      <c r="X70" s="342"/>
+      <c r="Y70" s="342"/>
+      <c r="Z70" s="342"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="342"/>
+      <c r="B71" s="342"/>
+      <c r="C71" s="342"/>
+      <c r="D71" s="342"/>
+      <c r="E71" s="342"/>
+      <c r="F71" s="342"/>
+      <c r="G71" s="342"/>
+      <c r="H71" s="342"/>
+      <c r="I71" s="342"/>
+      <c r="J71" s="342"/>
+      <c r="K71" s="342"/>
+      <c r="L71" s="342"/>
+      <c r="M71" s="342"/>
+      <c r="N71" s="342"/>
+      <c r="O71" s="342"/>
+      <c r="P71" s="342"/>
+      <c r="Q71" s="342"/>
+      <c r="R71" s="342"/>
+      <c r="S71" s="342"/>
+      <c r="T71" s="342"/>
+      <c r="U71" s="342"/>
+      <c r="V71" s="342"/>
+      <c r="W71" s="342"/>
+      <c r="X71" s="342"/>
+      <c r="Y71" s="342"/>
+      <c r="Z71" s="342"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="342"/>
+      <c r="B72" s="342"/>
+      <c r="C72" s="342"/>
+      <c r="D72" s="342"/>
+      <c r="E72" s="342"/>
+      <c r="F72" s="342"/>
+      <c r="G72" s="342"/>
+      <c r="H72" s="342"/>
+      <c r="I72" s="342"/>
+      <c r="J72" s="342"/>
+      <c r="K72" s="342"/>
+      <c r="L72" s="342"/>
+      <c r="M72" s="342"/>
+      <c r="N72" s="342"/>
+      <c r="O72" s="342"/>
+      <c r="P72" s="342"/>
+      <c r="Q72" s="342"/>
+      <c r="R72" s="342"/>
+      <c r="S72" s="342"/>
+      <c r="T72" s="342"/>
+      <c r="U72" s="342"/>
+      <c r="V72" s="342"/>
+      <c r="W72" s="342"/>
+      <c r="X72" s="342"/>
+      <c r="Y72" s="342"/>
+      <c r="Z72" s="342"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="342"/>
+      <c r="B73" s="342"/>
+      <c r="C73" s="342"/>
+      <c r="D73" s="342"/>
+      <c r="E73" s="342"/>
+      <c r="F73" s="342"/>
+      <c r="G73" s="342"/>
+      <c r="H73" s="342"/>
+      <c r="I73" s="342"/>
+      <c r="J73" s="342"/>
+      <c r="K73" s="342"/>
+      <c r="L73" s="342"/>
+      <c r="M73" s="342"/>
+      <c r="N73" s="342"/>
+      <c r="O73" s="342"/>
+      <c r="P73" s="342"/>
+      <c r="Q73" s="342"/>
+      <c r="R73" s="342"/>
+      <c r="S73" s="342"/>
+      <c r="T73" s="342"/>
+      <c r="U73" s="342"/>
+      <c r="V73" s="342"/>
+      <c r="W73" s="342"/>
+      <c r="X73" s="342"/>
+      <c r="Y73" s="342"/>
+      <c r="Z73" s="342"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="342"/>
+      <c r="B74" s="342"/>
+      <c r="C74" s="342"/>
+      <c r="D74" s="342"/>
+      <c r="E74" s="342"/>
+      <c r="F74" s="342"/>
+      <c r="G74" s="342"/>
+      <c r="H74" s="342"/>
+      <c r="I74" s="342"/>
+      <c r="J74" s="342"/>
+      <c r="K74" s="342"/>
+      <c r="L74" s="342"/>
+      <c r="M74" s="342"/>
+      <c r="N74" s="342"/>
+      <c r="O74" s="342"/>
+      <c r="P74" s="342"/>
+      <c r="Q74" s="342"/>
+      <c r="R74" s="342"/>
+      <c r="S74" s="342"/>
+      <c r="T74" s="342"/>
+      <c r="U74" s="342"/>
+      <c r="V74" s="342"/>
+      <c r="W74" s="342"/>
+      <c r="X74" s="342"/>
+      <c r="Y74" s="342"/>
+      <c r="Z74" s="342"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="342"/>
+      <c r="B75" s="342"/>
+      <c r="C75" s="342"/>
+      <c r="D75" s="342"/>
+      <c r="E75" s="342"/>
+      <c r="F75" s="342"/>
+      <c r="G75" s="342"/>
+      <c r="H75" s="342"/>
+      <c r="I75" s="342"/>
+      <c r="J75" s="342"/>
+      <c r="K75" s="342"/>
+      <c r="L75" s="342"/>
+      <c r="M75" s="342"/>
+      <c r="N75" s="342"/>
+      <c r="O75" s="342"/>
+      <c r="P75" s="342"/>
+      <c r="Q75" s="342"/>
+      <c r="R75" s="342"/>
+      <c r="S75" s="342"/>
+      <c r="T75" s="342"/>
+      <c r="U75" s="342"/>
+      <c r="V75" s="342"/>
+      <c r="W75" s="342"/>
+      <c r="X75" s="342"/>
+      <c r="Y75" s="342"/>
+      <c r="Z75" s="342"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="342"/>
+      <c r="B76" s="342"/>
+      <c r="C76" s="342"/>
+      <c r="D76" s="342"/>
+      <c r="E76" s="342"/>
+      <c r="F76" s="342"/>
+      <c r="G76" s="342"/>
+      <c r="H76" s="342"/>
+      <c r="I76" s="342"/>
+      <c r="J76" s="342"/>
+      <c r="K76" s="342"/>
+      <c r="L76" s="342"/>
+      <c r="M76" s="342"/>
+      <c r="N76" s="342"/>
+      <c r="O76" s="342"/>
+      <c r="P76" s="342"/>
+      <c r="Q76" s="342"/>
+      <c r="R76" s="342"/>
+      <c r="S76" s="342"/>
+      <c r="T76" s="342"/>
+      <c r="U76" s="342"/>
+      <c r="V76" s="342"/>
+      <c r="W76" s="342"/>
+      <c r="X76" s="342"/>
+      <c r="Y76" s="342"/>
+      <c r="Z76" s="342"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="342"/>
+      <c r="B77" s="342"/>
+      <c r="C77" s="342"/>
+      <c r="D77" s="342"/>
+      <c r="E77" s="342"/>
+      <c r="F77" s="342"/>
+      <c r="G77" s="342"/>
+      <c r="H77" s="342"/>
+      <c r="I77" s="342"/>
+      <c r="J77" s="342"/>
+      <c r="K77" s="342"/>
+      <c r="L77" s="342"/>
+      <c r="M77" s="342"/>
+      <c r="N77" s="342"/>
+      <c r="O77" s="342"/>
+      <c r="P77" s="342"/>
+      <c r="Q77" s="342"/>
+      <c r="R77" s="342"/>
+      <c r="S77" s="342"/>
+      <c r="T77" s="342"/>
+      <c r="U77" s="342"/>
+      <c r="V77" s="342"/>
+      <c r="W77" s="342"/>
+      <c r="X77" s="342"/>
+      <c r="Y77" s="342"/>
+      <c r="Z77" s="342"/>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="342"/>
+      <c r="B78" s="342"/>
+      <c r="C78" s="342"/>
+      <c r="D78" s="342"/>
+      <c r="E78" s="342"/>
+      <c r="F78" s="342"/>
+      <c r="G78" s="342"/>
+      <c r="H78" s="342"/>
+      <c r="I78" s="342"/>
+      <c r="J78" s="342"/>
+      <c r="K78" s="342"/>
+      <c r="L78" s="342"/>
+      <c r="M78" s="342"/>
+      <c r="N78" s="342"/>
+      <c r="O78" s="342"/>
+      <c r="P78" s="342"/>
+      <c r="Q78" s="342"/>
+      <c r="R78" s="342"/>
+      <c r="S78" s="342"/>
+      <c r="T78" s="342"/>
+      <c r="U78" s="342"/>
+      <c r="V78" s="342"/>
+      <c r="W78" s="342"/>
+      <c r="X78" s="342"/>
+      <c r="Y78" s="342"/>
+      <c r="Z78" s="342"/>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="342"/>
+      <c r="B79" s="342"/>
+      <c r="C79" s="342"/>
+      <c r="D79" s="342"/>
+      <c r="E79" s="342"/>
+      <c r="F79" s="342"/>
+      <c r="G79" s="342"/>
+      <c r="H79" s="342"/>
+      <c r="I79" s="342"/>
+      <c r="J79" s="342"/>
+      <c r="K79" s="342"/>
+      <c r="L79" s="342"/>
+      <c r="M79" s="342"/>
+      <c r="N79" s="342"/>
+      <c r="O79" s="342"/>
+      <c r="P79" s="342"/>
+      <c r="Q79" s="342"/>
+      <c r="R79" s="342"/>
+      <c r="S79" s="342"/>
+      <c r="T79" s="342"/>
+      <c r="U79" s="342"/>
+      <c r="V79" s="342"/>
+      <c r="W79" s="342"/>
+      <c r="X79" s="342"/>
+      <c r="Y79" s="342"/>
+      <c r="Z79" s="342"/>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="342"/>
+      <c r="B80" s="342"/>
+      <c r="C80" s="342"/>
+      <c r="D80" s="342"/>
+      <c r="E80" s="342"/>
+      <c r="F80" s="342"/>
+      <c r="G80" s="342"/>
+      <c r="H80" s="342"/>
+      <c r="I80" s="342"/>
+      <c r="J80" s="342"/>
+      <c r="K80" s="342"/>
+      <c r="L80" s="342"/>
+      <c r="M80" s="342"/>
+      <c r="N80" s="342"/>
+      <c r="O80" s="342"/>
+      <c r="P80" s="342"/>
+      <c r="Q80" s="342"/>
+      <c r="R80" s="342"/>
+      <c r="S80" s="342"/>
+      <c r="T80" s="342"/>
+      <c r="U80" s="342"/>
+      <c r="V80" s="342"/>
+      <c r="W80" s="342"/>
+      <c r="X80" s="342"/>
+      <c r="Y80" s="342"/>
+      <c r="Z80" s="342"/>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="342"/>
+      <c r="B81" s="342"/>
+      <c r="C81" s="342"/>
+      <c r="D81" s="342"/>
+      <c r="E81" s="342"/>
+      <c r="F81" s="342"/>
+      <c r="G81" s="342"/>
+      <c r="H81" s="342"/>
+      <c r="I81" s="342"/>
+      <c r="J81" s="342"/>
+      <c r="K81" s="342"/>
+      <c r="L81" s="342"/>
+      <c r="M81" s="342"/>
+      <c r="N81" s="342"/>
+      <c r="O81" s="342"/>
+      <c r="P81" s="342"/>
+      <c r="Q81" s="342"/>
+      <c r="R81" s="342"/>
+      <c r="S81" s="342"/>
+      <c r="T81" s="342"/>
+      <c r="U81" s="342"/>
+      <c r="V81" s="342"/>
+      <c r="W81" s="342"/>
+      <c r="X81" s="342"/>
+      <c r="Y81" s="342"/>
+      <c r="Z81" s="342"/>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" s="342"/>
+      <c r="B82" s="342"/>
+      <c r="C82" s="342"/>
+      <c r="D82" s="342"/>
+      <c r="E82" s="342"/>
+      <c r="F82" s="342"/>
+      <c r="G82" s="342"/>
+      <c r="H82" s="342"/>
+      <c r="I82" s="342"/>
+      <c r="J82" s="342"/>
+      <c r="K82" s="342"/>
+      <c r="L82" s="342"/>
+      <c r="M82" s="342"/>
+      <c r="N82" s="342"/>
+      <c r="O82" s="342"/>
+      <c r="P82" s="342"/>
+      <c r="Q82" s="342"/>
+      <c r="R82" s="342"/>
+      <c r="S82" s="342"/>
+      <c r="T82" s="342"/>
+      <c r="U82" s="342"/>
+      <c r="V82" s="342"/>
+      <c r="W82" s="342"/>
+      <c r="X82" s="342"/>
+      <c r="Y82" s="342"/>
+      <c r="Z82" s="342"/>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" s="342"/>
+      <c r="B83" s="342"/>
+      <c r="C83" s="342"/>
+      <c r="D83" s="342"/>
+      <c r="E83" s="342"/>
+      <c r="F83" s="342"/>
+      <c r="G83" s="342"/>
+      <c r="H83" s="342"/>
+      <c r="I83" s="342"/>
+      <c r="J83" s="342"/>
+      <c r="K83" s="342"/>
+      <c r="L83" s="342"/>
+      <c r="M83" s="342"/>
+      <c r="N83" s="342"/>
+      <c r="O83" s="342"/>
+      <c r="P83" s="342"/>
+      <c r="Q83" s="342"/>
+      <c r="R83" s="342"/>
+      <c r="S83" s="342"/>
+      <c r="T83" s="342"/>
+      <c r="U83" s="342"/>
+      <c r="V83" s="342"/>
+      <c r="W83" s="342"/>
+      <c r="X83" s="342"/>
+      <c r="Y83" s="342"/>
+      <c r="Z83" s="342"/>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" s="342"/>
+      <c r="B84" s="342"/>
+      <c r="C84" s="342"/>
+      <c r="D84" s="342"/>
+      <c r="E84" s="342"/>
+      <c r="F84" s="342"/>
+      <c r="G84" s="342"/>
+      <c r="H84" s="342"/>
+      <c r="I84" s="342"/>
+      <c r="J84" s="342"/>
+      <c r="K84" s="342"/>
+      <c r="L84" s="342"/>
+      <c r="M84" s="342"/>
+      <c r="N84" s="342"/>
+      <c r="O84" s="342"/>
+      <c r="P84" s="342"/>
+      <c r="Q84" s="342"/>
+      <c r="R84" s="342"/>
+      <c r="S84" s="342"/>
+      <c r="T84" s="342"/>
+      <c r="U84" s="342"/>
+      <c r="V84" s="342"/>
+      <c r="W84" s="342"/>
+      <c r="X84" s="342"/>
+      <c r="Y84" s="342"/>
+      <c r="Z84" s="342"/>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" s="342"/>
+      <c r="B85" s="342"/>
+      <c r="C85" s="342"/>
+      <c r="D85" s="342"/>
+      <c r="E85" s="342"/>
+      <c r="F85" s="342"/>
+      <c r="G85" s="342"/>
+      <c r="H85" s="342"/>
+      <c r="I85" s="342"/>
+      <c r="J85" s="342"/>
+      <c r="K85" s="342"/>
+      <c r="L85" s="342"/>
+      <c r="M85" s="342"/>
+      <c r="N85" s="342"/>
+      <c r="O85" s="342"/>
+      <c r="P85" s="342"/>
+      <c r="Q85" s="342"/>
+      <c r="R85" s="342"/>
+      <c r="S85" s="342"/>
+      <c r="T85" s="342"/>
+      <c r="U85" s="342"/>
+      <c r="V85" s="342"/>
+      <c r="W85" s="342"/>
+      <c r="X85" s="342"/>
+      <c r="Y85" s="342"/>
+      <c r="Z85" s="342"/>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86" s="342"/>
+      <c r="B86" s="342"/>
+      <c r="C86" s="342"/>
+      <c r="D86" s="342"/>
+      <c r="E86" s="342"/>
+      <c r="F86" s="342"/>
+      <c r="G86" s="342"/>
+      <c r="H86" s="342"/>
+      <c r="I86" s="342"/>
+      <c r="J86" s="342"/>
+      <c r="K86" s="342"/>
+      <c r="L86" s="342"/>
+      <c r="M86" s="342"/>
+      <c r="N86" s="342"/>
+      <c r="O86" s="342"/>
+      <c r="P86" s="342"/>
+      <c r="Q86" s="342"/>
+      <c r="R86" s="342"/>
+      <c r="S86" s="342"/>
+      <c r="T86" s="342"/>
+      <c r="U86" s="342"/>
+      <c r="V86" s="342"/>
+      <c r="W86" s="342"/>
+      <c r="X86" s="342"/>
+      <c r="Y86" s="342"/>
+      <c r="Z86" s="342"/>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" s="342"/>
+      <c r="B87" s="342"/>
+      <c r="C87" s="342"/>
+      <c r="D87" s="342"/>
+      <c r="E87" s="342"/>
+      <c r="F87" s="342"/>
+      <c r="G87" s="342"/>
+      <c r="H87" s="342"/>
+      <c r="I87" s="342"/>
+      <c r="J87" s="342"/>
+      <c r="K87" s="342"/>
+      <c r="L87" s="342"/>
+      <c r="M87" s="342"/>
+      <c r="N87" s="342"/>
+      <c r="O87" s="342"/>
+      <c r="P87" s="342"/>
+      <c r="Q87" s="342"/>
+      <c r="R87" s="342"/>
+      <c r="S87" s="342"/>
+      <c r="T87" s="342"/>
+      <c r="U87" s="342"/>
+      <c r="V87" s="342"/>
+      <c r="W87" s="342"/>
+      <c r="X87" s="342"/>
+      <c r="Y87" s="342"/>
+      <c r="Z87" s="342"/>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" s="342"/>
+      <c r="B88" s="342"/>
+      <c r="C88" s="342"/>
+      <c r="D88" s="342"/>
+      <c r="E88" s="342"/>
+      <c r="F88" s="342"/>
+      <c r="G88" s="342"/>
+      <c r="H88" s="342"/>
+      <c r="I88" s="342"/>
+      <c r="J88" s="342"/>
+      <c r="K88" s="342"/>
+      <c r="L88" s="342"/>
+      <c r="M88" s="342"/>
+      <c r="N88" s="342"/>
+      <c r="O88" s="342"/>
+      <c r="P88" s="342"/>
+      <c r="Q88" s="342"/>
+      <c r="R88" s="342"/>
+      <c r="S88" s="342"/>
+      <c r="T88" s="342"/>
+      <c r="U88" s="342"/>
+      <c r="V88" s="342"/>
+      <c r="W88" s="342"/>
+      <c r="X88" s="342"/>
+      <c r="Y88" s="342"/>
+      <c r="Z88" s="342"/>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" s="342"/>
+      <c r="B89" s="342"/>
+      <c r="C89" s="342"/>
+      <c r="D89" s="342"/>
+      <c r="E89" s="342"/>
+      <c r="F89" s="342"/>
+      <c r="G89" s="342"/>
+      <c r="H89" s="342"/>
+      <c r="I89" s="342"/>
+      <c r="J89" s="342"/>
+      <c r="K89" s="342"/>
+      <c r="L89" s="342"/>
+      <c r="M89" s="342"/>
+      <c r="N89" s="342"/>
+      <c r="O89" s="342"/>
+      <c r="P89" s="342"/>
+      <c r="Q89" s="342"/>
+      <c r="R89" s="342"/>
+      <c r="S89" s="342"/>
+      <c r="T89" s="342"/>
+      <c r="U89" s="342"/>
+      <c r="V89" s="342"/>
+      <c r="W89" s="342"/>
+      <c r="X89" s="342"/>
+      <c r="Y89" s="342"/>
+      <c r="Z89" s="342"/>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" s="342"/>
+      <c r="B90" s="342"/>
+      <c r="C90" s="342"/>
+      <c r="D90" s="342"/>
+      <c r="E90" s="342"/>
+      <c r="F90" s="342"/>
+      <c r="G90" s="342"/>
+      <c r="H90" s="342"/>
+      <c r="I90" s="342"/>
+      <c r="J90" s="342"/>
+      <c r="K90" s="342"/>
+      <c r="L90" s="342"/>
+      <c r="M90" s="342"/>
+      <c r="N90" s="342"/>
+      <c r="O90" s="342"/>
+      <c r="P90" s="342"/>
+      <c r="Q90" s="342"/>
+      <c r="R90" s="342"/>
+      <c r="S90" s="342"/>
+      <c r="T90" s="342"/>
+      <c r="U90" s="342"/>
+      <c r="V90" s="342"/>
+      <c r="W90" s="342"/>
+      <c r="X90" s="342"/>
+      <c r="Y90" s="342"/>
+      <c r="Z90" s="342"/>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="342"/>
+      <c r="B91" s="342"/>
+      <c r="C91" s="342"/>
+      <c r="D91" s="342"/>
+      <c r="E91" s="342"/>
+      <c r="F91" s="342"/>
+      <c r="G91" s="342"/>
+      <c r="H91" s="342"/>
+      <c r="I91" s="342"/>
+      <c r="J91" s="342"/>
+      <c r="K91" s="342"/>
+      <c r="L91" s="342"/>
+      <c r="M91" s="342"/>
+      <c r="N91" s="342"/>
+      <c r="O91" s="342"/>
+      <c r="P91" s="342"/>
+      <c r="Q91" s="342"/>
+      <c r="R91" s="342"/>
+      <c r="S91" s="342"/>
+      <c r="T91" s="342"/>
+      <c r="U91" s="342"/>
+      <c r="V91" s="342"/>
+      <c r="W91" s="342"/>
+      <c r="X91" s="342"/>
+      <c r="Y91" s="342"/>
+      <c r="Z91" s="342"/>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="342"/>
+      <c r="B92" s="342"/>
+      <c r="C92" s="342"/>
+      <c r="D92" s="342"/>
+      <c r="E92" s="342"/>
+      <c r="F92" s="342"/>
+      <c r="G92" s="342"/>
+      <c r="H92" s="342"/>
+      <c r="I92" s="342"/>
+      <c r="J92" s="342"/>
+      <c r="K92" s="342"/>
+      <c r="L92" s="342"/>
+      <c r="M92" s="342"/>
+      <c r="N92" s="342"/>
+      <c r="O92" s="342"/>
+      <c r="P92" s="342"/>
+      <c r="Q92" s="342"/>
+      <c r="R92" s="342"/>
+      <c r="S92" s="342"/>
+      <c r="T92" s="342"/>
+      <c r="U92" s="342"/>
+      <c r="V92" s="342"/>
+      <c r="W92" s="342"/>
+      <c r="X92" s="342"/>
+      <c r="Y92" s="342"/>
+      <c r="Z92" s="342"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="342"/>
+      <c r="B93" s="342"/>
+      <c r="C93" s="342"/>
+      <c r="D93" s="342"/>
+      <c r="E93" s="342"/>
+      <c r="F93" s="342"/>
+      <c r="G93" s="342"/>
+      <c r="H93" s="342"/>
+      <c r="I93" s="342"/>
+      <c r="J93" s="342"/>
+      <c r="K93" s="342"/>
+      <c r="L93" s="342"/>
+      <c r="M93" s="342"/>
+      <c r="N93" s="342"/>
+      <c r="O93" s="342"/>
+      <c r="P93" s="342"/>
+      <c r="Q93" s="342"/>
+      <c r="R93" s="342"/>
+      <c r="S93" s="342"/>
+      <c r="T93" s="342"/>
+      <c r="U93" s="342"/>
+      <c r="V93" s="342"/>
+      <c r="W93" s="342"/>
+      <c r="X93" s="342"/>
+      <c r="Y93" s="342"/>
+      <c r="Z93" s="342"/>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="342"/>
+      <c r="B94" s="342"/>
+      <c r="C94" s="342"/>
+      <c r="D94" s="342"/>
+      <c r="E94" s="342"/>
+      <c r="F94" s="342"/>
+      <c r="G94" s="342"/>
+      <c r="H94" s="342"/>
+      <c r="I94" s="342"/>
+      <c r="J94" s="342"/>
+      <c r="K94" s="342"/>
+      <c r="L94" s="342"/>
+      <c r="M94" s="342"/>
+      <c r="N94" s="342"/>
+      <c r="O94" s="342"/>
+      <c r="P94" s="342"/>
+      <c r="Q94" s="342"/>
+      <c r="R94" s="342"/>
+      <c r="S94" s="342"/>
+      <c r="T94" s="342"/>
+      <c r="U94" s="342"/>
+      <c r="V94" s="342"/>
+      <c r="W94" s="342"/>
+      <c r="X94" s="342"/>
+      <c r="Y94" s="342"/>
+      <c r="Z94" s="342"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" s="342"/>
+      <c r="B95" s="342"/>
+      <c r="C95" s="342"/>
+      <c r="D95" s="342"/>
+      <c r="E95" s="342"/>
+      <c r="F95" s="342"/>
+      <c r="G95" s="342"/>
+      <c r="H95" s="342"/>
+      <c r="I95" s="342"/>
+      <c r="J95" s="342"/>
+      <c r="K95" s="342"/>
+      <c r="L95" s="342"/>
+      <c r="M95" s="342"/>
+      <c r="N95" s="342"/>
+      <c r="O95" s="342"/>
+      <c r="P95" s="342"/>
+      <c r="Q95" s="342"/>
+      <c r="R95" s="342"/>
+      <c r="S95" s="342"/>
+      <c r="T95" s="342"/>
+      <c r="U95" s="342"/>
+      <c r="V95" s="342"/>
+      <c r="W95" s="342"/>
+      <c r="X95" s="342"/>
+      <c r="Y95" s="342"/>
+      <c r="Z95" s="342"/>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="342"/>
+      <c r="B96" s="342"/>
+      <c r="C96" s="342"/>
+      <c r="D96" s="342"/>
+      <c r="E96" s="342"/>
+      <c r="F96" s="342"/>
+      <c r="G96" s="342"/>
+      <c r="H96" s="342"/>
+      <c r="I96" s="342"/>
+      <c r="J96" s="342"/>
+      <c r="K96" s="342"/>
+      <c r="L96" s="342"/>
+      <c r="M96" s="342"/>
+      <c r="N96" s="342"/>
+      <c r="O96" s="342"/>
+      <c r="P96" s="342"/>
+      <c r="Q96" s="342"/>
+      <c r="R96" s="342"/>
+      <c r="S96" s="342"/>
+      <c r="T96" s="342"/>
+      <c r="U96" s="342"/>
+      <c r="V96" s="342"/>
+      <c r="W96" s="342"/>
+      <c r="X96" s="342"/>
+      <c r="Y96" s="342"/>
+      <c r="Z96" s="342"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="342"/>
+      <c r="B97" s="342"/>
+      <c r="C97" s="342"/>
+      <c r="D97" s="342"/>
+      <c r="E97" s="342"/>
+      <c r="F97" s="342"/>
+      <c r="G97" s="342"/>
+      <c r="H97" s="342"/>
+      <c r="I97" s="342"/>
+      <c r="J97" s="342"/>
+      <c r="K97" s="342"/>
+      <c r="L97" s="342"/>
+      <c r="M97" s="342"/>
+      <c r="N97" s="342"/>
+      <c r="O97" s="342"/>
+      <c r="P97" s="342"/>
+      <c r="Q97" s="342"/>
+      <c r="R97" s="342"/>
+      <c r="S97" s="342"/>
+      <c r="T97" s="342"/>
+      <c r="U97" s="342"/>
+      <c r="V97" s="342"/>
+      <c r="W97" s="342"/>
+      <c r="X97" s="342"/>
+      <c r="Y97" s="342"/>
+      <c r="Z97" s="342"/>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="342"/>
+      <c r="B98" s="342"/>
+      <c r="C98" s="342"/>
+      <c r="D98" s="342"/>
+      <c r="E98" s="342"/>
+      <c r="F98" s="342"/>
+      <c r="G98" s="342"/>
+      <c r="H98" s="342"/>
+      <c r="I98" s="342"/>
+      <c r="J98" s="342"/>
+      <c r="K98" s="342"/>
+      <c r="L98" s="342"/>
+      <c r="M98" s="342"/>
+      <c r="N98" s="342"/>
+      <c r="O98" s="342"/>
+      <c r="P98" s="342"/>
+      <c r="Q98" s="342"/>
+      <c r="R98" s="342"/>
+      <c r="S98" s="342"/>
+      <c r="T98" s="342"/>
+      <c r="U98" s="342"/>
+      <c r="V98" s="342"/>
+      <c r="W98" s="342"/>
+      <c r="X98" s="342"/>
+      <c r="Y98" s="342"/>
+      <c r="Z98" s="342"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="342"/>
+      <c r="B99" s="342"/>
+      <c r="C99" s="342"/>
+      <c r="D99" s="342"/>
+      <c r="E99" s="342"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
+      <c r="K99" s="342"/>
+      <c r="L99" s="342"/>
+      <c r="M99" s="342"/>
+      <c r="N99" s="342"/>
+      <c r="O99" s="342"/>
+      <c r="P99" s="342"/>
+      <c r="Q99" s="342"/>
+      <c r="R99" s="342"/>
+      <c r="S99" s="342"/>
+      <c r="T99" s="342"/>
+      <c r="U99" s="342"/>
+      <c r="V99" s="342"/>
+      <c r="W99" s="342"/>
+      <c r="X99" s="342"/>
+      <c r="Y99" s="342"/>
+      <c r="Z99" s="342"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{8DCC8E78-0A83-4A14-808A-E694AAE78312}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{17E69339-D539-406E-856F-006D8E281EC8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A846FF-BBF5-4A02-BAF4-3C4772884C84}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="39">
+        <v>4.1868000000000002E-2</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55B3FAE-9396-4BDD-9414-7E1233A8EF20}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
@@ -4726,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3F7C-BFBC-4340-9D7B-B6BFDABDF79E}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AD37"/>
@@ -5492,14 +8947,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6617C6-BD81-4C8E-89D7-FC0076ADEEA7}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="65" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="65" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AA27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
@@ -12817,7 +16272,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Myriad Pro,Regular"&amp;14Ireland's Energy Balance &amp;A</oddHeader>
     <oddFooter>&amp;L&amp;G&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -12826,7 +16281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C8D34-EFD7-45C2-8418-665049CA220F}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L47"/>
@@ -13847,7 +17302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E509B35-A292-4896-84EE-9157D4436BDA}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:J36"/>
@@ -14747,7 +18202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2FA8-D735-48AC-B928-6081B29FCD3B}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:I22"/>
@@ -15304,7 +18759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF8194-EAB2-4AAC-9B35-F09487A4BBC8}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:Y103"/>
@@ -17358,7 +20813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FEB92-3C8E-4A89-8F18-2AEFFF284423}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:D17"/>
@@ -17591,41 +21046,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A846FF-BBF5-4A02-BAF4-3C4772884C84}">
-  <sheetPr codeName="Sheet9">
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="39">
-        <v>4.1868000000000002E-2</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -8,25 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4ADD47-B5C8-4281-8FE1-A17A31BBB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402D891-806B-44B6-9D99-67D2FF928721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31470" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
-    <sheet name="Cover_old" sheetId="4" r:id="rId2"/>
-    <sheet name="Regions" sheetId="2" r:id="rId3"/>
-    <sheet name="EB2018" sheetId="3" r:id="rId4"/>
-    <sheet name="Commodities" sheetId="6" r:id="rId5"/>
-    <sheet name="Processes" sheetId="5" r:id="rId6"/>
-    <sheet name="FT" sheetId="7" r:id="rId7"/>
-    <sheet name="DMD" sheetId="10" r:id="rId8"/>
-    <sheet name="Demands" sheetId="8" r:id="rId9"/>
-    <sheet name="Conversions" sheetId="9" r:id="rId10"/>
+    <sheet name="Regions" sheetId="2" r:id="rId2"/>
+    <sheet name="EB2018" sheetId="3" r:id="rId3"/>
+    <sheet name="Commodities" sheetId="6" r:id="rId4"/>
+    <sheet name="Processes" sheetId="5" r:id="rId5"/>
+    <sheet name="FT" sheetId="7" r:id="rId6"/>
+    <sheet name="DMD" sheetId="10" r:id="rId7"/>
+    <sheet name="Demands" sheetId="8" r:id="rId8"/>
+    <sheet name="Conversions" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -51,25 +47,25 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
-    <definedName name="aa" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
@@ -107,13 +103,13 @@
     <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
     <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
-    <definedName name="table6" localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="9" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1259,27 +1255,15 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
   </si>
   <si>
-    <t>Sector name</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
-    <t>Full Name(s) (Affiliation, email)</t>
-  </si>
-  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
@@ -1299,6 +1283,18 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Base Year Template</t>
+  </si>
+  <si>
+    <t>Industry sector (IND)</t>
+  </si>
+  <si>
+    <t>Specify base year data and define sector structure</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
   </si>
 </sst>
 </file>
@@ -4559,50 +4555,50 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="31" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="31" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4966,7 +4962,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5002,19 +4998,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5284,7 +5267,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5722,20 +5705,20 @@
       <c r="Z15" s="342"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="343" t="s">
+      <c r="A16" s="357" t="s">
         <v>339</v>
       </c>
-      <c r="B16" s="343"/>
-      <c r="C16" s="343"/>
-      <c r="D16" s="343"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="344"/>
-      <c r="G16" s="345"/>
-      <c r="H16" s="345"/>
-      <c r="I16" s="345"/>
-      <c r="J16" s="345"/>
-      <c r="K16" s="345"/>
-      <c r="L16" s="345"/>
+      <c r="B16" s="357"/>
+      <c r="C16" s="357"/>
+      <c r="D16" s="357"/>
+      <c r="E16" s="343"/>
+      <c r="F16" s="343"/>
+      <c r="G16" s="344"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="344"/>
+      <c r="J16" s="344"/>
+      <c r="K16" s="344"/>
+      <c r="L16" s="344"/>
       <c r="M16" s="342"/>
       <c r="N16" s="342"/>
       <c r="O16" s="342"/>
@@ -5752,10 +5735,10 @@
       <c r="Z16" s="342"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A17" s="346"/>
-      <c r="B17" s="346"/>
-      <c r="C17" s="346"/>
-      <c r="D17" s="346"/>
+      <c r="A17" s="345"/>
+      <c r="B17" s="345"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="345"/>
       <c r="E17" s="342"/>
       <c r="F17" s="342"/>
       <c r="G17" s="342"/>
@@ -5780,18 +5763,18 @@
       <c r="Z17" s="342"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A18" s="346"/>
-      <c r="B18" s="346"/>
-      <c r="C18" s="346"/>
-      <c r="D18" s="346"/>
-      <c r="E18" s="347"/>
-      <c r="F18" s="347"/>
-      <c r="G18" s="348"/>
-      <c r="H18" s="348"/>
-      <c r="I18" s="348"/>
-      <c r="J18" s="348"/>
-      <c r="K18" s="348"/>
-      <c r="L18" s="348"/>
+      <c r="A18" s="345"/>
+      <c r="B18" s="345"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="345"/>
+      <c r="E18" s="346"/>
+      <c r="F18" s="346"/>
+      <c r="G18" s="347"/>
+      <c r="H18" s="347"/>
+      <c r="I18" s="347"/>
+      <c r="J18" s="347"/>
+      <c r="K18" s="347"/>
+      <c r="L18" s="347"/>
       <c r="M18" s="342"/>
       <c r="N18" s="342"/>
       <c r="O18" s="342"/>
@@ -5808,22 +5791,22 @@
       <c r="Z18" s="342"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A19" s="349" t="s">
+      <c r="A19" s="348" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="350" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="350"/>
-      <c r="D19" s="350"/>
-      <c r="E19" s="351"/>
-      <c r="F19" s="351"/>
-      <c r="G19" s="352"/>
-      <c r="H19" s="352"/>
-      <c r="I19" s="352"/>
-      <c r="J19" s="352"/>
-      <c r="K19" s="352"/>
-      <c r="L19" s="352"/>
+      <c r="B19" s="356" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="356"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="349"/>
+      <c r="F19" s="349"/>
+      <c r="G19" s="350"/>
+      <c r="H19" s="350"/>
+      <c r="I19" s="350"/>
+      <c r="J19" s="350"/>
+      <c r="K19" s="350"/>
+      <c r="L19" s="350"/>
       <c r="M19" s="342"/>
       <c r="N19" s="342"/>
       <c r="O19" s="342"/>
@@ -5840,22 +5823,22 @@
       <c r="Z19" s="342"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A20" s="349" t="s">
-        <v>342</v>
-      </c>
-      <c r="B20" s="350" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="350"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="351"/>
-      <c r="F20" s="351"/>
-      <c r="G20" s="352"/>
-      <c r="H20" s="352"/>
-      <c r="I20" s="352"/>
-      <c r="J20" s="352"/>
-      <c r="K20" s="352"/>
-      <c r="L20" s="352"/>
+      <c r="A20" s="348" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="356" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="356"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="349"/>
+      <c r="G20" s="350"/>
+      <c r="H20" s="350"/>
+      <c r="I20" s="350"/>
+      <c r="J20" s="350"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="350"/>
       <c r="M20" s="342"/>
       <c r="N20" s="342"/>
       <c r="O20" s="342"/>
@@ -5872,22 +5855,22 @@
       <c r="Z20" s="342"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A21" s="349" t="s">
-        <v>344</v>
-      </c>
-      <c r="B21" s="353" t="s">
-        <v>345</v>
-      </c>
-      <c r="C21" s="353"/>
-      <c r="D21" s="353"/>
-      <c r="E21" s="351"/>
-      <c r="F21" s="351"/>
-      <c r="G21" s="352"/>
-      <c r="H21" s="352"/>
-      <c r="I21" s="352"/>
-      <c r="J21" s="352"/>
-      <c r="K21" s="352"/>
-      <c r="L21" s="352"/>
+      <c r="A21" s="348" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="351" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="351"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="349"/>
+      <c r="F21" s="349"/>
+      <c r="G21" s="350"/>
+      <c r="H21" s="350"/>
+      <c r="I21" s="350"/>
+      <c r="J21" s="350"/>
+      <c r="K21" s="350"/>
+      <c r="L21" s="350"/>
       <c r="M21" s="342"/>
       <c r="N21" s="342"/>
       <c r="O21" s="342"/>
@@ -5904,18 +5887,18 @@
       <c r="Z21" s="342"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A22" s="349"/>
-      <c r="B22" s="353"/>
-      <c r="C22" s="353"/>
-      <c r="D22" s="353"/>
-      <c r="E22" s="351"/>
-      <c r="F22" s="351"/>
-      <c r="G22" s="352"/>
-      <c r="H22" s="352"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
-      <c r="K22" s="352"/>
-      <c r="L22" s="352"/>
+      <c r="A22" s="348"/>
+      <c r="B22" s="351"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="350"/>
+      <c r="H22" s="350"/>
+      <c r="I22" s="350"/>
+      <c r="J22" s="350"/>
+      <c r="K22" s="350"/>
+      <c r="L22" s="350"/>
       <c r="M22" s="342"/>
       <c r="N22" s="342"/>
       <c r="O22" s="342"/>
@@ -5932,14 +5915,14 @@
       <c r="Z22" s="342"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A23" s="349" t="s">
-        <v>346</v>
-      </c>
-      <c r="B23" s="350" t="s">
-        <v>347</v>
-      </c>
-      <c r="C23" s="350"/>
-      <c r="D23" s="350"/>
+      <c r="A23" s="348" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="356" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="356"/>
+      <c r="D23" s="356"/>
       <c r="E23" s="342"/>
       <c r="F23" s="342"/>
       <c r="G23" s="342"/>
@@ -5964,10 +5947,10 @@
       <c r="Z23" s="342"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A24" s="349"/>
-      <c r="B24" s="353"/>
-      <c r="C24" s="353"/>
-      <c r="D24" s="353"/>
+      <c r="A24" s="348"/>
+      <c r="B24" s="351"/>
+      <c r="C24" s="351"/>
+      <c r="D24" s="351"/>
       <c r="E24" s="342"/>
       <c r="F24" s="342"/>
       <c r="G24" s="342"/>
@@ -5992,10 +5975,10 @@
       <c r="Z24" s="342"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A25" s="349"/>
-      <c r="B25" s="353"/>
-      <c r="C25" s="353"/>
-      <c r="D25" s="353"/>
+      <c r="A25" s="348"/>
+      <c r="B25" s="351"/>
+      <c r="C25" s="351"/>
+      <c r="D25" s="351"/>
       <c r="E25" s="342"/>
       <c r="F25" s="342"/>
       <c r="G25" s="342"/>
@@ -6020,14 +6003,14 @@
       <c r="Z25" s="342"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A26" s="349" t="s">
-        <v>348</v>
-      </c>
-      <c r="B26" s="350" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="350"/>
-      <c r="D26" s="350"/>
+      <c r="A26" s="348" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="356" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="356"/>
+      <c r="D26" s="356"/>
       <c r="E26" s="342"/>
       <c r="F26" s="342"/>
       <c r="G26" s="342"/>
@@ -6052,10 +6035,10 @@
       <c r="Z26" s="342"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A27" s="349"/>
-      <c r="B27" s="353"/>
-      <c r="C27" s="353"/>
-      <c r="D27" s="353"/>
+      <c r="A27" s="348"/>
+      <c r="B27" s="351"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="342"/>
       <c r="F27" s="342"/>
       <c r="G27" s="342"/>
@@ -6080,10 +6063,10 @@
       <c r="Z27" s="342"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A28" s="349"/>
-      <c r="B28" s="353"/>
-      <c r="C28" s="353"/>
-      <c r="D28" s="353"/>
+      <c r="A28" s="348"/>
+      <c r="B28" s="351"/>
+      <c r="C28" s="351"/>
+      <c r="D28" s="351"/>
       <c r="E28" s="342"/>
       <c r="F28" s="342"/>
       <c r="G28" s="342"/>
@@ -6108,14 +6091,14 @@
       <c r="Z28" s="342"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A29" s="349" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" s="354">
+      <c r="A29" s="348" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="352">
         <v>1</v>
       </c>
-      <c r="C29" s="353"/>
-      <c r="D29" s="353"/>
+      <c r="C29" s="351"/>
+      <c r="D29" s="351"/>
       <c r="E29" s="342"/>
       <c r="F29" s="342"/>
       <c r="G29" s="342"/>
@@ -6140,16 +6123,16 @@
       <c r="Z29" s="342"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A30" s="349" t="s">
-        <v>350</v>
-      </c>
-      <c r="B30" s="355" t="s">
-        <v>351</v>
-      </c>
-      <c r="C30" s="350"/>
-      <c r="D30" s="350"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
+      <c r="A30" s="348" t="s">
+        <v>346</v>
+      </c>
+      <c r="B30" s="358" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="356"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="353"/>
+      <c r="F30" s="353"/>
       <c r="G30" s="342"/>
       <c r="H30" s="342"/>
       <c r="I30" s="342"/>
@@ -6172,16 +6155,16 @@
       <c r="Z30" s="342"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A31" s="349" t="s">
-        <v>352</v>
-      </c>
-      <c r="B31" s="350" t="s">
-        <v>353</v>
-      </c>
-      <c r="C31" s="350"/>
-      <c r="D31" s="350"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
+      <c r="A31" s="348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="356" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="356"/>
+      <c r="D31" s="356"/>
+      <c r="E31" s="353"/>
+      <c r="F31" s="353"/>
       <c r="G31" s="342"/>
       <c r="H31" s="342"/>
       <c r="I31" s="342"/>
@@ -6204,12 +6187,12 @@
       <c r="Z31" s="342"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A32" s="357"/>
-      <c r="B32" s="358" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="357"/>
-      <c r="D32" s="357"/>
+      <c r="A32" s="354"/>
+      <c r="B32" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="354"/>
+      <c r="D32" s="354"/>
       <c r="E32" s="342"/>
       <c r="F32" s="342"/>
       <c r="G32" s="342"/>
@@ -8129,65 +8112,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A846FF-BBF5-4A02-BAF4-3C4772884C84}">
-  <sheetPr codeName="Sheet9">
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="39">
-        <v>4.1868000000000002E-2</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55B3FAE-9396-4BDD-9414-7E1233A8EF20}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3F7C-BFBC-4340-9D7B-B6BFDABDF79E}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8947,7 +8878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6617C6-BD81-4C8E-89D7-FC0076ADEEA7}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
@@ -8955,11 +8886,11 @@
   <dimension ref="A1:AS81"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="65" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="AR38" sqref="AR38"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16281,7 +16212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C8D34-EFD7-45C2-8418-665049CA220F}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L47"/>
@@ -17302,7 +17233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E509B35-A292-4896-84EE-9157D4436BDA}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:J36"/>
@@ -18202,13 +18133,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D2FA8-D735-48AC-B928-6081B29FCD3B}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18759,14 +18690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF8194-EAB2-4AAC-9B35-F09487A4BBC8}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:Y103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E103"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20813,7 +20742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FEB92-3C8E-4A89-8F18-2AEFFF284423}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:D17"/>
@@ -21046,4 +20975,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A846FF-BBF5-4A02-BAF4-3C4772884C84}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="39">
+        <v>4.1868000000000002E-2</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>